--- a/reports/HEDGEFUND_TERMINAL.xlsx
+++ b/reports/HEDGEFUND_TERMINAL.xlsx
@@ -496,7 +496,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>07 February 2026</t>
+          <t>08 February 2026</t>
         </is>
       </c>
     </row>
@@ -5830,7 +5830,7 @@
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
-    <col width="11" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
     <col width="9" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
@@ -5920,7 +5920,7 @@
         <v>0.34335998</v>
       </c>
       <c r="H2" s="10" t="n">
-        <v>10.272071</v>
+        <v>10.277778</v>
       </c>
       <c r="I2" s="11" t="n">
         <v>1.194936</v>
@@ -5929,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="11" t="n">
-        <v>36.02</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -5959,7 +5959,7 @@
         <v>0.43205002</v>
       </c>
       <c r="H3" s="12" t="n">
-        <v>6.9910054</v>
+        <v>6.9881487</v>
       </c>
       <c r="I3" s="11" t="n">
         <v>1.3356515</v>
@@ -5968,7 +5968,7 @@
         <v>2.444</v>
       </c>
       <c r="K3" s="11" t="n">
-        <v>122.3</v>
+        <v>122.35</v>
       </c>
     </row>
     <row r="4">
@@ -5998,7 +5998,7 @@
         <v>0.27552</v>
       </c>
       <c r="H4" s="10" t="n">
-        <v>10.341262</v>
+        <v>10.26694</v>
       </c>
       <c r="I4" s="15" t="n">
         <v>2.2923365</v>
@@ -6007,7 +6007,7 @@
         <v>23.671</v>
       </c>
       <c r="K4" s="11" t="n">
-        <v>125.71</v>
+        <v>126.62</v>
       </c>
     </row>
     <row r="5">
@@ -6037,7 +6037,7 @@
         <v>0.41044</v>
       </c>
       <c r="H5" s="10" t="n">
-        <v>10.373501</v>
+        <v>10.1936245</v>
       </c>
       <c r="I5" s="11" t="n">
         <v>1.7187223</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="11" t="n">
-        <v>364.39</v>
+        <v>370.82</v>
       </c>
     </row>
     <row r="6">
@@ -6076,7 +6076,7 @@
         <v>0.05786</v>
       </c>
       <c r="H6" s="10" t="n">
-        <v>8.711712</v>
+        <v>8.710801</v>
       </c>
       <c r="I6" s="11" t="n">
         <v>1.7091494</v>
@@ -6085,7 +6085,7 @@
         <v>62.876</v>
       </c>
       <c r="K6" s="11" t="n">
-        <v>286.97</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7">
@@ -6145,25 +6145,25 @@
         </is>
       </c>
       <c r="E8" s="8" t="n">
-        <v>0.16002001</v>
+        <v>0.15604</v>
       </c>
       <c r="F8" s="8" t="n">
-        <v>0.132</v>
+        <v>0.075</v>
       </c>
       <c r="G8" s="9" t="n">
-        <v>0.32167998</v>
+        <v>0.31919</v>
       </c>
       <c r="H8" t="n">
-        <v>14.691358</v>
+        <v>14.705883</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>2.2028491</v>
+        <v>2.1130066</v>
       </c>
       <c r="J8" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="11" t="n">
-        <v>162</v>
+        <v>161.84</v>
       </c>
     </row>
     <row r="9">
@@ -6193,7 +6193,7 @@
         <v>0.27632</v>
       </c>
       <c r="H9" t="n">
-        <v>21.369137</v>
+        <v>22.02729</v>
       </c>
       <c r="I9" s="14" t="n">
         <v>14.46863</v>
@@ -6202,7 +6202,7 @@
         <v>0.378</v>
       </c>
       <c r="K9" s="11" t="n">
-        <v>52.88</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="10">
@@ -6232,7 +6232,7 @@
         <v>0.023759998</v>
       </c>
       <c r="H10" s="12" t="n">
-        <v>14.543115</v>
+        <v>14.534697</v>
       </c>
       <c r="I10" s="15" t="n">
         <v>3.691984</v>
@@ -6241,7 +6241,7 @@
         <v>139.825</v>
       </c>
       <c r="K10" s="11" t="n">
-        <v>155.4</v>
+        <v>155.49</v>
       </c>
     </row>
     <row r="11">
@@ -6310,7 +6310,7 @@
         <v>0.21154</v>
       </c>
       <c r="H12" t="n">
-        <v>28.128284</v>
+        <v>28.088905</v>
       </c>
       <c r="I12" s="14" t="n">
         <v>114642.85</v>
@@ -6319,7 +6319,7 @@
         <v>118.6</v>
       </c>
       <c r="K12" s="11" t="n">
-        <v>57.06</v>
+        <v>57.14</v>
       </c>
     </row>
     <row r="13">
@@ -6349,7 +6349,7 @@
         <v>0.2208</v>
       </c>
       <c r="H13" t="n">
-        <v>23.86635</v>
+        <v>23.310024</v>
       </c>
       <c r="I13" s="14" t="n">
         <v>157777.77</v>
@@ -6358,7 +6358,7 @@
         <v>82.7</v>
       </c>
       <c r="K13" s="11" t="n">
-        <v>297.49</v>
+        <v>304.59</v>
       </c>
     </row>
     <row r="14">
@@ -6388,7 +6388,7 @@
         <v>0.40232</v>
       </c>
       <c r="H14" s="10" t="n">
-        <v>8.510558</v>
+        <v>8.438739999999999</v>
       </c>
       <c r="I14" s="11" t="n">
         <v>0.98278207</v>
@@ -6397,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="11" t="n">
-        <v>532.28</v>
+        <v>536.8099999999999</v>
       </c>
     </row>
     <row r="15">
@@ -6427,7 +6427,7 @@
         <v>0.30543</v>
       </c>
       <c r="H15" s="10" t="n">
-        <v>8.059433</v>
+        <v>8.057619000000001</v>
       </c>
       <c r="I15" s="11" t="n">
         <v>0.7895166</v>
@@ -6436,7 +6436,7 @@
         <v>21.136</v>
       </c>
       <c r="K15" s="11" t="n">
-        <v>44.42</v>
+        <v>44.43</v>
       </c>
     </row>
     <row r="16">
@@ -6466,7 +6466,7 @@
         <v>0.06239</v>
       </c>
       <c r="H16" s="17" t="n">
-        <v>63.29114</v>
+        <v>60.97561</v>
       </c>
       <c r="I16" s="14" t="n">
         <v>23371.646</v>
@@ -6475,7 +6475,7 @@
         <v>0.173</v>
       </c>
       <c r="K16" s="11" t="n">
-        <v>96.38</v>
+        <v>100.04</v>
       </c>
     </row>
     <row r="17">
@@ -6505,7 +6505,7 @@
         <v>0.10455</v>
       </c>
       <c r="H17" t="n">
-        <v>23.041475</v>
+        <v>23.980814</v>
       </c>
       <c r="I17" s="14" t="n">
         <v>26.042845</v>
@@ -6514,7 +6514,7 @@
         <v>47.547</v>
       </c>
       <c r="K17" s="11" t="n">
-        <v>99.81999999999999</v>
+        <v>95.91</v>
       </c>
     </row>
     <row r="18">
@@ -6544,7 +6544,7 @@
         <v>0.52018</v>
       </c>
       <c r="H18" t="n">
-        <v>21.790083</v>
+        <v>21.786095</v>
       </c>
       <c r="I18" s="15" t="n">
         <v>3.7104595</v>
@@ -6553,7 +6553,7 @@
         <v>2.39</v>
       </c>
       <c r="K18" s="11" t="n">
-        <v>273.06</v>
+        <v>273.11</v>
       </c>
     </row>
     <row r="19">
@@ -6592,7 +6592,7 @@
         <v>0.049</v>
       </c>
       <c r="K19" s="15" t="n">
-        <v>-0.71</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="20">
@@ -6622,7 +6622,7 @@
         <v>0.15842</v>
       </c>
       <c r="H20" t="n">
-        <v>16.980888</v>
+        <v>16.978697</v>
       </c>
       <c r="I20" s="14" t="n">
         <v>5.140775</v>
@@ -6631,7 +6631,7 @@
         <v>1.461</v>
       </c>
       <c r="K20" s="11" t="n">
-        <v>77.44</v>
+        <v>77.45</v>
       </c>
     </row>
     <row r="21">
@@ -6661,7 +6661,7 @@
         <v>0.53282</v>
       </c>
       <c r="H21" t="n">
-        <v>16.694582</v>
+        <v>16.447369</v>
       </c>
       <c r="I21" s="15" t="n">
         <v>3.354307</v>
@@ -6670,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="11" t="n">
-        <v>459.73</v>
+        <v>466.64</v>
       </c>
     </row>
     <row r="22">
@@ -6700,7 +6700,7 @@
         <v>0.30952</v>
       </c>
       <c r="H22" s="17" t="n">
-        <v>293.49594</v>
+        <v>285.60126</v>
       </c>
       <c r="I22" s="14" t="n">
         <v>14.638142</v>
@@ -6709,7 +6709,7 @@
         <v>0.261</v>
       </c>
       <c r="K22" s="11" t="n">
-        <v>6.15</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="23">
@@ -6739,7 +6739,7 @@
         <v>0.13921</v>
       </c>
       <c r="H23" s="17" t="n">
-        <v>78.78202</v>
+        <v>78.74396</v>
       </c>
       <c r="I23" s="14" t="n">
         <v>543333.3</v>
@@ -6748,7 +6748,7 @@
         <v>201.586</v>
       </c>
       <c r="K23" s="11" t="n">
-        <v>20.69</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="24">
@@ -6778,7 +6778,7 @@
         <v>0.0806</v>
       </c>
       <c r="H24" s="10" t="n">
-        <v>10.301183</v>
+        <v>10.277445</v>
       </c>
       <c r="I24" s="14" t="n">
         <v>19561.404</v>
@@ -6787,7 +6787,7 @@
         <v>32.802</v>
       </c>
       <c r="K24" s="11" t="n">
-        <v>216.48</v>
+        <v>216.98</v>
       </c>
     </row>
     <row r="25">
@@ -6817,7 +6817,7 @@
         <v>0.06455</v>
       </c>
       <c r="H25" s="17" t="n">
-        <v>58.07201</v>
+        <v>62.1118</v>
       </c>
       <c r="I25" s="14" t="n">
         <v>10.362695</v>
@@ -6826,7 +6826,7 @@
         <v>0.216</v>
       </c>
       <c r="K25" s="11" t="n">
-        <v>8.609999999999999</v>
+        <v>8.050000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -6856,7 +6856,7 @@
         <v>0.10163</v>
       </c>
       <c r="H26" t="n">
-        <v>14.556797</v>
+        <v>14.619501</v>
       </c>
       <c r="I26" s="15" t="n">
         <v>2.2090075</v>
@@ -6865,7 +6865,7 @@
         <v>2.102</v>
       </c>
       <c r="K26" s="11" t="n">
-        <v>76.94</v>
+        <v>76.61</v>
       </c>
     </row>
     <row r="27">
@@ -6895,7 +6895,7 @@
         <v>0.09752</v>
       </c>
       <c r="H27" s="12" t="n">
-        <v>17.777168</v>
+        <v>17.730173</v>
       </c>
       <c r="I27" s="14" t="n">
         <v>81041.664</v>
@@ -6904,7 +6904,7 @@
         <v>107.818</v>
       </c>
       <c r="K27" s="11" t="n">
-        <v>109.41</v>
+        <v>109.7</v>
       </c>
     </row>
     <row r="28">
@@ -6934,7 +6934,7 @@
         <v>0.15737</v>
       </c>
       <c r="H28" s="10" t="n">
-        <v>5.165637</v>
+        <v>5.3592234</v>
       </c>
       <c r="I28" s="11" t="n">
         <v>0.28377047</v>
@@ -6943,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="11" t="n">
-        <v>53.43</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="29">
@@ -7051,7 +7051,7 @@
         <v>0.23266001</v>
       </c>
       <c r="H31" s="17" t="n">
-        <v>442.14877</v>
+        <v>454.41678</v>
       </c>
       <c r="I31" s="14" t="n">
         <v>1605000</v>
@@ -7060,7 +7060,7 @@
         <v>239.827</v>
       </c>
       <c r="K31" s="11" t="n">
-        <v>18.15</v>
+        <v>17.66</v>
       </c>
     </row>
     <row r="32">
@@ -7090,7 +7090,7 @@
         <v>0.19652</v>
       </c>
       <c r="H32" s="17" t="n">
-        <v>172.13115</v>
+        <v>169.35484</v>
       </c>
       <c r="I32" s="14" t="n">
         <v>105000.01</v>
@@ -7099,7 +7099,7 @@
         <v>12.694</v>
       </c>
       <c r="K32" s="11" t="n">
-        <v>5.49</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="33">
@@ -7129,7 +7129,7 @@
         <v>0.01754</v>
       </c>
       <c r="H33" t="n">
-        <v>33.743958</v>
+        <v>33.67053</v>
       </c>
       <c r="I33" s="14" t="n">
         <v>238541.67</v>
@@ -7138,7 +7138,7 @@
         <v>276.511</v>
       </c>
       <c r="K33" s="11" t="n">
-        <v>169.66</v>
+        <v>170.03</v>
       </c>
     </row>
     <row r="34">
@@ -7168,7 +7168,7 @@
         <v>0.091759995</v>
       </c>
       <c r="H34" t="n">
-        <v>36.89259</v>
+        <v>36.764706</v>
       </c>
       <c r="I34" s="14" t="n">
         <v>72916.664</v>
@@ -7177,7 +7177,7 @@
         <v>68.20699999999999</v>
       </c>
       <c r="K34" s="11" t="n">
-        <v>94.87</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="35">
@@ -7207,7 +7207,7 @@
         <v>0.24544</v>
       </c>
       <c r="H35" s="17" t="n">
-        <v>234.53238</v>
+        <v>232.85715</v>
       </c>
       <c r="I35" s="14" t="n">
         <v>8.021061</v>
@@ -7216,7 +7216,7 @@
         <v>2.833</v>
       </c>
       <c r="K35" s="11" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="36">
@@ -7246,7 +7246,7 @@
         <v>0.14588</v>
       </c>
       <c r="H36" s="17" t="n">
-        <v>180.50542</v>
+        <v>181.81818</v>
       </c>
       <c r="I36" s="14" t="n">
         <v>38.219727</v>
@@ -7255,7 +7255,7 @@
         <v>38.133</v>
       </c>
       <c r="K36" s="11" t="n">
-        <v>11.08</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
@@ -7285,7 +7285,7 @@
         <v>0.65328</v>
       </c>
       <c r="H37" s="17" t="n">
-        <v>87.53202</v>
+        <v>87.681786</v>
       </c>
       <c r="I37" s="14" t="n">
         <v>128124.99</v>
@@ -7294,7 +7294,7 @@
         <v>34.873</v>
       </c>
       <c r="K37" s="11" t="n">
-        <v>11.71</v>
+        <v>11.69</v>
       </c>
     </row>
     <row r="38">
@@ -7324,7 +7324,7 @@
         <v>0.31559</v>
       </c>
       <c r="H38" s="17" t="n">
-        <v>43.803524</v>
+        <v>43.665977</v>
       </c>
       <c r="I38" s="14" t="n">
         <v>261764.69</v>
@@ -7333,7 +7333,7 @@
         <v>36.548</v>
       </c>
       <c r="K38" s="11" t="n">
-        <v>101.59</v>
+        <v>101.91</v>
       </c>
     </row>
     <row r="39">
@@ -7363,7 +7363,7 @@
         <v>0.24195999</v>
       </c>
       <c r="H39" s="17" t="n">
-        <v>160.98485</v>
+        <v>161.27576</v>
       </c>
       <c r="I39" s="14" t="n">
         <v>6.708564</v>
@@ -7372,7 +7372,7 @@
         <v>2.054</v>
       </c>
       <c r="K39" s="11" t="n">
-        <v>55.44</v>
+        <v>55.34</v>
       </c>
     </row>
     <row r="40">
@@ -7402,7 +7402,7 @@
         <v>0.31149</v>
       </c>
       <c r="H40" t="n">
-        <v>13.653483</v>
+        <v>13.623551</v>
       </c>
       <c r="I40" s="14" t="n">
         <v>47027.027</v>
@@ -7411,7 +7411,7 @@
         <v>35.836</v>
       </c>
       <c r="K40" s="11" t="n">
-        <v>127.44</v>
+        <v>127.72</v>
       </c>
     </row>
     <row r="41">
@@ -7441,7 +7441,7 @@
         <v>0.075219996</v>
       </c>
       <c r="H41" s="10" t="n">
-        <v>9.115607000000001</v>
+        <v>8.976661</v>
       </c>
       <c r="I41" s="11" t="n">
         <v>1.4209509</v>
@@ -7450,7 +7450,7 @@
         <v>19.582</v>
       </c>
       <c r="K41" s="11" t="n">
-        <v>279.74</v>
+        <v>284.07</v>
       </c>
     </row>
   </sheetData>

--- a/reports/HEDGEFUND_TERMINAL.xlsx
+++ b/reports/HEDGEFUND_TERMINAL.xlsx
@@ -478,7 +478,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="27" customWidth="1" min="1" max="1"/>
+    <col width="26" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="31" customWidth="1" min="4" max="4"/>
@@ -496,7 +496,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>08 February 2026</t>
+          <t>09 February 2026</t>
         </is>
       </c>
     </row>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>50.5</v>
+        <v>50.4</v>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7"/>
@@ -577,7 +577,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HRTA.JK</t>
+          <t>ELSA.JK</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -585,7 +585,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.6M</t>
+          <t>-19.3M</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ELSA.JK</t>
+          <t>INCO.JK</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -605,7 +605,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-19.3M</t>
+          <t>1.8M</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ZATA.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -630,7 +630,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.8M</t>
+          <t>9.2M</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>HRTA.JK</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -655,7 +655,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9.2M</t>
+          <t>3.6M</t>
         </is>
       </c>
     </row>
@@ -687,12 +687,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4. Basic Materials</t>
+          <t>4. Financial Services</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>90.1M</t>
+          <t>88.2M</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -709,12 +709,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5. Communication Services</t>
+          <t>5. Basic Materials</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>83.6M</t>
+          <t>84.9M</t>
         </is>
       </c>
     </row>
@@ -728,75 +728,75 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1. Financial Services</t>
+          <t>1. Consumer Cyclical</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>56.8</v>
+        <v>68.8</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>20.0M</t>
+          <t>48.4M</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2. Energy</t>
+          <t>2. Consumer Defensive</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>56.5</v>
+        <v>58.7</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>831.2M</t>
+          <t>-59.1M</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3. Basic Materials</t>
+          <t>3. Financial Services</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>56.2</v>
+        <v>56.9</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>90.1M</t>
+          <t>88.2M</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4. Consumer Cyclical</t>
+          <t>4. Basic Materials</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>53.5</v>
+        <v>56</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>72.9M</t>
+          <t>84.9M</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5. Consumer Defensive</t>
+          <t>5. Energy</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>51.8</v>
+        <v>52.9</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-59.1M</t>
+          <t>831.2M</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HRTA.JK</t>
+          <t>ELSA.JK</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -920,40 +920,40 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2148-2372</t>
+          <t>685-755</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1924.107142857143</v>
+        <v>615</v>
       </c>
       <c r="F2" t="n">
-        <v>2674.642857142857</v>
+        <v>855.7142857142857</v>
       </c>
       <c r="G2" t="n">
-        <v>2942.107142857143</v>
+        <v>941.2857142857143</v>
       </c>
       <c r="H2" t="n">
-        <v>3380.892857142857</v>
+        <v>1090.714285714286</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>93%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>30.62%</t>
+          <t>10.13%</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>62.31</v>
+        <v>6.53</v>
       </c>
       <c r="L2" t="n">
-        <v>3616900</v>
+        <v>-19268700</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -963,7 +963,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ELSA.JK</t>
+          <t>INCO.JK</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -971,40 +971,40 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>671-739</t>
+          <t>6026-6524</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>602.1428571428571</v>
+        <v>5527.678571428572</v>
       </c>
       <c r="F3" t="n">
-        <v>837.8571428571429</v>
+        <v>7225.892857142857</v>
       </c>
       <c r="G3" t="n">
-        <v>921.6428571428572</v>
+        <v>7948.482142857143</v>
       </c>
       <c r="H3" t="n">
-        <v>1067.857142857143</v>
+        <v>8863.392857142857</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>57%</t>
+          <t>78%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>9.01%</t>
+          <t>28.62%</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>6.03</v>
+        <v>20.49</v>
       </c>
       <c r="L3" t="n">
-        <v>-19268700</v>
+        <v>1839200</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>DISTRIB</t>
+          <t>ACCUM</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZATA.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -1022,36 +1022,36 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>80-98</t>
+          <t>2163-2277</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>60.60714285714286</v>
+        <v>2048.035714285714</v>
       </c>
       <c r="F4" t="n">
-        <v>125.8928571428571</v>
+        <v>2446.071428571428</v>
       </c>
       <c r="G4" t="n">
-        <v>143</v>
+        <v>2690.678571428572</v>
       </c>
       <c r="H4" t="n">
-        <v>189.8928571428571</v>
+        <v>2839.821428571428</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>20.17%</t>
+          <t>9.41%</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>7.27</v>
+        <v>3859432790.08</v>
       </c>
       <c r="L4" t="n">
-        <v>3777600</v>
+        <v>9185900</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>HRTA.JK</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -1073,36 +1073,36 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2172-2288</t>
+          <t>2139-2361</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2056.964285714286</v>
+        <v>1916.25</v>
       </c>
       <c r="F5" t="n">
-        <v>2457.5</v>
+        <v>2661.785714285714</v>
       </c>
       <c r="G5" t="n">
-        <v>2703.25</v>
+        <v>2927.964285714286</v>
       </c>
       <c r="H5" t="n">
-        <v>2853.75</v>
+        <v>3363.035714285714</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>9.15%</t>
+          <t>30.01%</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>3844777743.47</v>
+        <v>47.53</v>
       </c>
       <c r="L5" t="n">
-        <v>9185900</v>
+        <v>3616900</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -1124,33 +1124,33 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1520-1690</t>
+          <t>1610-1770</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1351.071428571429</v>
+        <v>1448.928571428571</v>
       </c>
       <c r="F6" t="n">
-        <v>1917.321428571428</v>
+        <v>1984.107142857143</v>
       </c>
       <c r="G6" t="n">
-        <v>2120</v>
+        <v>2182.517857142857</v>
       </c>
       <c r="H6" t="n">
-        <v>2448.571428571428</v>
+        <v>2482.857142857143</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>90%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>23.25%</t>
+          <t>23.31%</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>71.48</v>
+        <v>68.56</v>
       </c>
       <c r="L6" t="n">
         <v>1446800</v>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>INCO.JK</t>
+          <t>ADMR.JK</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -1175,36 +1175,36 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5847-6353</t>
+          <t>1705-1885</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5341.964285714286</v>
+        <v>1526.071428571428</v>
       </c>
       <c r="F7" t="n">
-        <v>7065.178571428572</v>
+        <v>2150.892857142857</v>
       </c>
       <c r="G7" t="n">
-        <v>7771.696428571429</v>
+        <v>2365.982142857143</v>
       </c>
       <c r="H7" t="n">
-        <v>8727.678571428572</v>
+        <v>2772.142857142857</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>23.96%</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>13.97</v>
+        <v>106.38</v>
       </c>
       <c r="L7" t="n">
-        <v>1839200</v>
+        <v>18482400</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ADMR.JK</t>
+          <t>NCKL.JK</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -1226,36 +1226,36 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1647-1833</t>
+          <t>1243-1337</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1460.892857142857</v>
+        <v>1148.035714285714</v>
       </c>
       <c r="F8" t="n">
-        <v>2109.464285714286</v>
+        <v>1471.25</v>
       </c>
       <c r="G8" t="n">
-        <v>2320.410714285715</v>
+        <v>1618.375</v>
       </c>
       <c r="H8" t="n">
-        <v>2754.464285714285</v>
+        <v>1783.75</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>22.93%</t>
+          <t>17.13%</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>37.89</v>
+        <v>13.87</v>
       </c>
       <c r="L8" t="n">
-        <v>18482400</v>
+        <v>1483700</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NCKL.JK</t>
+          <t>INDY.JK</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -1277,36 +1277,36 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1251-1349</t>
+          <t>3225-3535</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1153.214285714286</v>
+        <v>2913.928571428572</v>
       </c>
       <c r="F9" t="n">
-        <v>1487.678571428571</v>
+        <v>3985.357142857143</v>
       </c>
       <c r="G9" t="n">
-        <v>1636.446428571429</v>
+        <v>4383.892857142857</v>
       </c>
       <c r="H9" t="n">
-        <v>1811.428571428571</v>
+        <v>5035.357142857143</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>16.34%</t>
+          <t>34.80%</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>10.76</v>
+        <v>61.3</v>
       </c>
       <c r="L9" t="n">
-        <v>1483700</v>
+        <v>5176700</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EMAS.JK</t>
+          <t>RMKO.JK</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1328,36 +1328,36 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6145-6855</t>
+          <t>494-736</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5433.928571428572</v>
+        <v>252.3214285714286</v>
       </c>
       <c r="F10" t="n">
-        <v>7830.357142857143</v>
+        <v>1024.107142857143</v>
       </c>
       <c r="G10" t="n">
-        <v>8613.392857142859</v>
+        <v>1312.321428571428</v>
       </c>
       <c r="H10" t="n">
-        <v>10105.35714285714</v>
+        <v>1696.607142857143</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>90%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>27.50%</t>
+          <t>124.09%</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>37.61</v>
+        <v>50877245270.64</v>
       </c>
       <c r="L10" t="n">
-        <v>5188500</v>
+        <v>8080500</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1371,48 +1371,48 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>INDY.JK</t>
+          <t>TCPI.JK</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3161-3479</t>
+          <t>10682-11218</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2843.214285714286</v>
+        <v>10146.42857142857</v>
       </c>
       <c r="F11" t="n">
-        <v>3939.642857142857</v>
+        <v>12021.42857142857</v>
       </c>
       <c r="G11" t="n">
-        <v>4333.607142857143</v>
+        <v>12825</v>
       </c>
       <c r="H11" t="n">
-        <v>5014.642857142857</v>
+        <v>13896.42857142857</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>98%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>33.47%</t>
+          <t>17.51%</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>52.08</v>
+        <v>1145.77</v>
       </c>
       <c r="L11" t="n">
-        <v>5176700</v>
+        <v>-73400</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>RMKO.JK</t>
+          <t>ANTM.JK</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1430,36 +1430,36 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>469-711</t>
+          <t>3724-4056</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>227.8571428571429</v>
+        <v>3391.785714285714</v>
       </c>
       <c r="F12" t="n">
-        <v>989.8214285714286</v>
+        <v>4495.357142857143</v>
       </c>
       <c r="G12" t="n">
-        <v>1268.928571428572</v>
+        <v>4944.892857142858</v>
       </c>
       <c r="H12" t="n">
-        <v>1641.071428571428</v>
+        <v>5520.357142857143</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>121.05%</t>
+          <t>18.33%</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>50841005774.84</v>
+        <v>225.4</v>
       </c>
       <c r="L12" t="n">
-        <v>8080500</v>
+        <v>17613800</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MEDC.JK</t>
+          <t>ZATA.JK</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1481,36 +1481,36 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1430-1530</t>
+          <t>81-99</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1330</v>
+        <v>64.07142857142857</v>
       </c>
       <c r="F13" t="n">
-        <v>1677.321428571428</v>
+        <v>123.8214285714286</v>
       </c>
       <c r="G13" t="n">
-        <v>1845.053571428571</v>
+        <v>143</v>
       </c>
       <c r="H13" t="n">
-        <v>2021.071428571428</v>
+        <v>182.5714285714286</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>69%</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>7.12%</t>
+          <t>21.98%</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>15.72</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="L13" t="n">
-        <v>4019700</v>
+        <v>3777600</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TCPI.JK</t>
+          <t>JPFA.JK</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1532,40 +1532,40 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10590-11210</t>
+          <t>2464-2636</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>9970.535714285714</v>
+        <v>2290.714285714286</v>
       </c>
       <c r="F14" t="n">
-        <v>12139.28571428572</v>
+        <v>2882.857142857143</v>
       </c>
       <c r="G14" t="n">
-        <v>13068.75</v>
+        <v>3171.142857142858</v>
       </c>
       <c r="H14" t="n">
-        <v>14308.03571428571</v>
+        <v>3457.857142857143</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>93%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>16.51%</t>
+          <t>5.03%</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>71.55</v>
+        <v>7.65</v>
       </c>
       <c r="L14" t="n">
-        <v>-73400</v>
+        <v>449700</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>DISTRIB</t>
+          <t>ACCUM</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BBRI.JK</t>
+          <t>BBNI.JK</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1583,36 +1583,36 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3716-3844</t>
+          <t>4440-4600</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3587.142857142857</v>
+        <v>4278.928571428572</v>
       </c>
       <c r="F15" t="n">
-        <v>4032.857142857143</v>
+        <v>4839.285714285715</v>
       </c>
       <c r="G15" t="n">
-        <v>4436.142857142857</v>
+        <v>5323.214285714286</v>
       </c>
       <c r="H15" t="n">
-        <v>4472.857142857143</v>
+        <v>5396.785714285715</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>62%</t>
+          <t>51%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.92%</t>
+          <t>1.52%</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>1.46</v>
+        <v>2.41</v>
       </c>
       <c r="L15" t="n">
-        <v>-56270300</v>
+        <v>-10829400</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ANTM.JK</t>
+          <t>ADRO.JK</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1634,36 +1634,36 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3545-3875</t>
+          <t>2055-2205</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3213.928571428572</v>
+        <v>1903.928571428571</v>
       </c>
       <c r="F16" t="n">
-        <v>4321.071428571428</v>
+        <v>2428.214285714285</v>
       </c>
       <c r="G16" t="n">
-        <v>4766.785714285714</v>
+        <v>2671.035714285714</v>
       </c>
       <c r="H16" t="n">
-        <v>5361.071428571428</v>
+        <v>2948.214285714285</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>78%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>17.70%</t>
+          <t>13.74%</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>171.06</v>
+        <v>14.07</v>
       </c>
       <c r="L16" t="n">
-        <v>17613800</v>
+        <v>11291500</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PTBA.JK</t>
+          <t>AADI.JK</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1685,36 +1685,36 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2504-2596</t>
+          <t>7721-8229</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2410.714285714286</v>
+        <v>7211.607142857143</v>
       </c>
       <c r="F17" t="n">
-        <v>2732.5</v>
+        <v>8966.071428571429</v>
       </c>
       <c r="G17" t="n">
-        <v>3005.75</v>
+        <v>9862.678571428572</v>
       </c>
       <c r="H17" t="n">
-        <v>3050</v>
+        <v>10684.82142857143</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>62%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>3.26%</t>
+          <t>0.54%</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>4.05</v>
+        <v>1.13</v>
       </c>
       <c r="L17" t="n">
-        <v>-2408900</v>
+        <v>-3117200</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>JPFA.JK</t>
+          <t>BMRI.JK</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1736,36 +1736,36 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2408-2592</t>
+          <t>4904-5096</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2223.571428571428</v>
+        <v>4710.714285714285</v>
       </c>
       <c r="F18" t="n">
-        <v>2856.785714285715</v>
+        <v>5383.571428571428</v>
       </c>
       <c r="G18" t="n">
-        <v>3142.464285714286</v>
+        <v>5921.928571428572</v>
       </c>
       <c r="H18" t="n">
-        <v>3474.285714285715</v>
+        <v>6053.571428571428</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>5.51%</t>
+          <t>1.36%</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>8.85</v>
+        <v>2.55</v>
       </c>
       <c r="L18" t="n">
-        <v>449700</v>
+        <v>135801000</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1779,48 +1779,48 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BBNI.JK</t>
+          <t>BRIS.JK</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4451-4609</t>
+          <t>2350-2470</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4293.214285714285</v>
+        <v>2231.071428571428</v>
       </c>
       <c r="F19" t="n">
-        <v>4843.571428571428</v>
+        <v>2647.5</v>
       </c>
       <c r="G19" t="n">
-        <v>5327.928571428572</v>
+        <v>2912.25</v>
       </c>
       <c r="H19" t="n">
-        <v>5391.071428571428</v>
+        <v>3062.5</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>27%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1.11%</t>
+          <t>-3.29%</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>1.9</v>
+        <v>0.33</v>
       </c>
       <c r="L19" t="n">
-        <v>-10829400</v>
+        <v>2658600</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>DISTRIB</t>
+          <t>ACCUM</t>
         </is>
       </c>
     </row>
@@ -1830,48 +1830,48 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BMRI.JK</t>
+          <t>MDKA.JK</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4955-5145</t>
+          <t>2899-3181</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4765</v>
+        <v>2617.857142857143</v>
       </c>
       <c r="F20" t="n">
-        <v>5427.857142857143</v>
+        <v>3561.071428571428</v>
       </c>
       <c r="G20" t="n">
-        <v>5710.714285714286</v>
+        <v>3917.178571428572</v>
       </c>
       <c r="H20" t="n">
-        <v>6087.857142857143</v>
+        <v>4448.571428571428</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>1.37%</t>
+          <t>16.94%</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>2.6</v>
+        <v>13.46</v>
       </c>
       <c r="L20" t="n">
-        <v>135801000</v>
+        <v>-21250800</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -1881,44 +1881,44 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>OASA.JK</t>
+          <t>MEDC.JK</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>334-386</t>
+          <t>1425-1525</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>281.1428571428571</v>
+        <v>1326.071428571428</v>
       </c>
       <c r="F21" t="n">
-        <v>461.2857142857143</v>
+        <v>1670.892857142857</v>
       </c>
       <c r="G21" t="n">
-        <v>536.2857142857142</v>
+        <v>1837.982142857143</v>
       </c>
       <c r="H21" t="n">
-        <v>636.2857142857142</v>
+        <v>2012.142857142857</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>90%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>38.44%</t>
+          <t>7.26%</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>144.37</v>
+        <v>16.07</v>
       </c>
       <c r="L21" t="n">
-        <v>1252200</v>
+        <v>4019700</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2012,11 +2012,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DEWA.JK</t>
+          <t>PADI.JK</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>66978000</v>
+        <v>68217900</v>
       </c>
     </row>
     <row r="6">
@@ -2025,11 +2025,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BRMS.JK</t>
+          <t>DEWA.JK</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>59548700</v>
+        <v>66978000</v>
       </c>
     </row>
     <row r="7">
@@ -2038,11 +2038,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BULL.JK</t>
+          <t>BRMS.JK</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>59013800</v>
+        <v>59548700</v>
       </c>
     </row>
     <row r="8">
@@ -2051,11 +2051,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TLKM.JK</t>
+          <t>BULL.JK</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>47052600</v>
+        <v>59013800</v>
       </c>
     </row>
     <row r="9">
@@ -2064,11 +2064,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>INET.JK</t>
+          <t>TLKM.JK</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>44485800</v>
+        <v>47052600</v>
       </c>
     </row>
     <row r="10">
@@ -2077,11 +2077,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BKSL.JK</t>
+          <t>INET.JK</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>36648000</v>
+        <v>44485800</v>
       </c>
     </row>
     <row r="11">
@@ -2090,11 +2090,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MINA.JK</t>
+          <t>BKSL.JK</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>33926700</v>
+        <v>36648000</v>
       </c>
     </row>
     <row r="12">
@@ -2103,11 +2103,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BUVA.JK</t>
+          <t>MINA.JK</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>24502000</v>
+        <v>33926700</v>
       </c>
     </row>
     <row r="13">
@@ -2285,11 +2285,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>EMAS.JK</t>
+          <t>INDY.JK</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5188500</v>
+        <v>5176700</v>
       </c>
     </row>
     <row r="27">
@@ -2298,11 +2298,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>INDY.JK</t>
+          <t>RMKE.JK</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5176700</v>
+        <v>5072500</v>
       </c>
     </row>
     <row r="28">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RMKE.JK</t>
+          <t>BRPT.JK</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5072500</v>
+        <v>4785500</v>
       </c>
     </row>
     <row r="29">
@@ -2324,11 +2324,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BRPT.JK</t>
+          <t>IMPC.JK</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4785500</v>
+        <v>4693800</v>
       </c>
     </row>
     <row r="30">
@@ -2337,11 +2337,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>IMPC.JK</t>
+          <t>TRUE.JK</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4693800</v>
+        <v>4129400</v>
       </c>
     </row>
     <row r="31">
@@ -2350,11 +2350,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRUE.JK</t>
+          <t>MEDC.JK</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4129400</v>
+        <v>4019700</v>
       </c>
     </row>
   </sheetData>
@@ -2368,7 +2368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2407,72 +2407,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HRTA.JK</t>
+          <t>ELSA.JK</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>100.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-18.4%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELSA.JK</t>
+          <t>INCO.JK</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>98</v>
       </c>
       <c r="C3" t="n">
-        <v>99.59999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-2.1%</t>
+          <t>-8.1%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ZATA.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>97</v>
       </c>
       <c r="C4" t="n">
-        <v>83</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-28.2%</t>
+          <t>-2.2%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>HRTA.JK</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>96</v>
       </c>
       <c r="C5" t="n">
-        <v>81.59999999999999</v>
+        <v>80.2</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>-18.8%</t>
         </is>
       </c>
     </row>
@@ -2490,482 +2490,482 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-20.9%</t>
+          <t>-16.7%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INCO.JK</t>
+          <t>ADMR.JK</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>94</v>
       </c>
       <c r="C7" t="n">
-        <v>76.40000000000001</v>
+        <v>72.8</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-10.6%</t>
+          <t>-21.3%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ADMR.JK</t>
+          <t>NCKL.JK</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>93</v>
       </c>
       <c r="C8" t="n">
-        <v>72.8</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-23.7%</t>
+          <t>-16.0%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NCKL.JK</t>
+          <t>INDY.JK</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>92</v>
       </c>
       <c r="C9" t="n">
-        <v>72.40000000000001</v>
+        <v>72</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-15.3%</t>
+          <t>-10.1%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EMAS.JK</t>
+          <t>RMKO.JK</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>91</v>
       </c>
       <c r="C10" t="n">
-        <v>72</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-11.0%</t>
+          <t>-66.0%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INDY.JK</t>
+          <t>TCPI.JK</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C11" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-11.7%</t>
+          <t>-0.9%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RMKO.JK</t>
+          <t>ANTM.JK</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>88</v>
       </c>
       <c r="C12" t="n">
-        <v>70.40000000000001</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-67.4%</t>
+          <t>-18.3%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MEDC.JK</t>
+          <t>ZATA.JK</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>87</v>
       </c>
       <c r="C13" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-6.0%</t>
+          <t>-27.4%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TCPI.JK</t>
+          <t>JPFA.JK</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>86</v>
       </c>
       <c r="C14" t="n">
-        <v>69</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-1.4%</t>
+          <t>-13.0%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BBRI.JK</t>
+          <t>BBNI.JK</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>85</v>
       </c>
       <c r="C15" t="n">
-        <v>68.8</v>
+        <v>64</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>-2.4%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ANTM.JK</t>
+          <t>ADRO.JK</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>84</v>
       </c>
       <c r="C16" t="n">
-        <v>68.59999999999999</v>
+        <v>61</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-22.1%</t>
+          <t>-11.3%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PTBA.JK</t>
+          <t>AADI.JK</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>83</v>
       </c>
       <c r="C17" t="n">
-        <v>67.8</v>
+        <v>59.8</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>-5.6%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>JPFA.JK</t>
+          <t>BMRI.JK</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>82</v>
       </c>
       <c r="C18" t="n">
-        <v>66.40000000000001</v>
+        <v>58.8</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-14.7%</t>
+          <t>-1.4%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BBNI.JK</t>
+          <t>BRIS.JK</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" t="n">
-        <v>64</v>
+        <v>55.8</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-2.2%</t>
+          <t>-3.6%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BMRI.JK</t>
+          <t>MDKA.JK</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" t="n">
-        <v>63.8</v>
+        <v>55</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>-11.9%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>OASA.JK</t>
+          <t>MEDC.JK</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C21" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-30.8%</t>
+          <t>-6.3%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ADRO.JK</t>
+          <t>TPIA.JK</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>77</v>
       </c>
       <c r="C22" t="n">
-        <v>61</v>
+        <v>54.6</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-13.3%</t>
+          <t>-9.0%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AADI.JK</t>
+          <t>BBRI.JK</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>76</v>
       </c>
       <c r="C23" t="n">
-        <v>59.8</v>
+        <v>53.8</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-2.6%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BRIS.JK</t>
+          <t>PTBA.JK</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>75</v>
       </c>
       <c r="C24" t="n">
-        <v>55.8</v>
+        <v>52.8</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>-0.4%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MDKA.JK</t>
+          <t>IRSX.JK</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>74</v>
       </c>
       <c r="C25" t="n">
-        <v>55</v>
+        <v>51.6</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-17.4%</t>
+          <t>-34.4%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>TPIA.JK</t>
+          <t>PWON.JK</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>73</v>
       </c>
       <c r="C26" t="n">
-        <v>54.6</v>
+        <v>49</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-9.0%</t>
+          <t>-5.7%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PWON.JK</t>
+          <t>GTSI.JK</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" t="n">
-        <v>49</v>
+        <v>46.8</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-7.7%</t>
+          <t>-42.5%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>INDF.JK</t>
+          <t>ICBP.JK</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-8.1%</t>
+          <t>-6.6%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ENRG.JK</t>
+          <t>VKTR.JK</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" t="n">
-        <v>46</v>
+        <v>43.8</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-34.2%</t>
+          <t>-38.2%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ICBP.JK</t>
+          <t>PADI.JK</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>68</v>
       </c>
       <c r="C30" t="n">
-        <v>45</v>
+        <v>43.2</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-6.6%</t>
+          <t>-55.8%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>VKTR.JK</t>
+          <t>ESSA.JK</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>67</v>
       </c>
       <c r="C31" t="n">
-        <v>43.8</v>
+        <v>43</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-39.4%</t>
+          <t>-15.8%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ESSA.JK</t>
+          <t>OASA.JK</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>66</v>
       </c>
       <c r="C32" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-16.4%</t>
+          <t>-30.8%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>LPKR.JK</t>
+          <t>TLKM.JK</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2976,295 +2976,295 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-30.5%</t>
+          <t>-15.0%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SRTG.JK</t>
+          <t>INKP.JK</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>64</v>
       </c>
       <c r="C34" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-19.4%</t>
+          <t>-13.4%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IRSX.JK</t>
+          <t>TRUE.JK</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" t="n">
-        <v>36.6</v>
+        <v>38</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-36.3%</t>
+          <t>-61.1%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HUMI.JK</t>
+          <t>SRTG.JK</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-43.3%</t>
+          <t>-18.2%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MBMA.JK</t>
+          <t>MINA.JK</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" t="n">
-        <v>34</v>
+        <v>35.8</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-23.6%</t>
+          <t>-60.9%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BIPI.JK</t>
+          <t>HUMI.JK</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-46.1%</t>
+          <t>-41.0%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BULL.JK</t>
+          <t>AMRT.JK</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>58</v>
       </c>
       <c r="C39" t="n">
-        <v>31.8</v>
+        <v>34.8</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-46.3%</t>
+          <t>-4.0%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>GTSI.JK</t>
+          <t>MBMA.JK</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" t="n">
-        <v>31.8</v>
+        <v>34</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-45.8%</t>
+          <t>-18.6%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>INKP.JK</t>
+          <t>PNLF.JK</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C41" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-16.5%</t>
+          <t>-17.4%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ISAT.JK</t>
+          <t>INDF.JK</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>55</v>
       </c>
       <c r="C42" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-13.0%</t>
+          <t>-8.4%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>DEWA.JK</t>
+          <t>BIPI.JK</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C43" t="n">
-        <v>28.6</v>
+        <v>32</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-43.1%</t>
+          <t>-43.0%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BUMI.JK</t>
+          <t>BULL.JK</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" t="n">
-        <v>28</v>
+        <v>31.8</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-51.3%</t>
+          <t>-41.6%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>RMKE.JK</t>
+          <t>ENRG.JK</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C45" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-56.2%</t>
+          <t>-31.6%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>TRUE.JK</t>
+          <t>PBSA.JK</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C46" t="n">
-        <v>28</v>
+        <v>30.8</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-63.6%</t>
+          <t>-47.2%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>TRIN.JK</t>
+          <t>ISAT.JK</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-39.1%</t>
+          <t>-14.6%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PNLF.JK</t>
+          <t>RMKE.JK</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>48</v>
       </c>
       <c r="C48" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-17.4%</t>
+          <t>-52.7%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MINA.JK</t>
+          <t>TRIN.JK</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>47</v>
       </c>
       <c r="C49" t="n">
-        <v>25.8</v>
+        <v>27</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-64.4%</t>
+          <t>-38.8%</t>
         </is>
       </c>
     </row>
@@ -3293,14 +3293,14 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C51" t="n">
         <v>23</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-9.5%</t>
+          <t>-10.1%</t>
         </is>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C52" t="n">
         <v>23</v>
@@ -3325,306 +3325,306 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TLKM.JK</t>
+          <t>EXCL.JK</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C53" t="n">
         <v>21.8</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-14.2%</t>
+          <t>-34.7%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>EXCL.JK</t>
+          <t>BUMI.JK</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C54" t="n">
-        <v>21.8</v>
+        <v>18</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-35.6%</t>
+          <t>-48.3%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PBSA.JK</t>
+          <t>BBYB.JK</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C55" t="n">
-        <v>20.8</v>
+        <v>17.4</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-51.1%</t>
+          <t>-38.6%</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BREN.JK</t>
+          <t>KLBF.JK</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C56" t="n">
-        <v>20.4</v>
+        <v>16.6</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-21.5%</t>
+          <t>-14.0%</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BBKP.JK</t>
+          <t>EMTK.JK</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>38</v>
       </c>
       <c r="C57" t="n">
-        <v>20</v>
+        <v>16.2</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-22.3%</t>
+          <t>-41.8%</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BBCA.JK</t>
+          <t>CPRO.JK</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>37</v>
       </c>
       <c r="C58" t="n">
-        <v>17.8</v>
+        <v>16</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-10.9%</t>
+          <t>-27.9%</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BBYB.JK</t>
+          <t>NICL.JK</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C59" t="n">
-        <v>17.4</v>
+        <v>15.8</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-37.3%</t>
+          <t>-39.3%</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>KLBF.JK</t>
+          <t>BRMS.JK</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C60" t="n">
-        <v>16.6</v>
+        <v>15.4</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-12.8%</t>
+          <t>-22.9%</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>EMTK.JK</t>
+          <t>DEWA.JK</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C61" t="n">
-        <v>16.2</v>
+        <v>13.6</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-41.8%</t>
+          <t>-38.7%</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CPRO.JK</t>
+          <t>PSKT.JK</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C62" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-26.7%</t>
+          <t>-48.3%</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>NICL.JK</t>
+          <t>PSAB.JK</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C63" t="n">
-        <v>15.8</v>
+        <v>11.8</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-39.6%</t>
+          <t>-22.9%</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BRMS.JK</t>
+          <t>LPKR.JK</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>31</v>
       </c>
       <c r="C64" t="n">
-        <v>15.4</v>
+        <v>11.8</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>-29.7%</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>DADA.JK</t>
+          <t>TINS.JK</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C65" t="n">
-        <v>13.6</v>
+        <v>10</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-20.6%</t>
+          <t>-19.8%</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PSAB.JK</t>
+          <t>BBKP.JK</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C66" t="n">
-        <v>11.8</v>
+        <v>10</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-25.5%</t>
+          <t>-23.4%</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>TINS.JK</t>
+          <t>BKSL.JK</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C67" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-23.1%</t>
+          <t>-27.3%</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BKSL.JK</t>
+          <t>CBDK.JK</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C68" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-28.4%</t>
+          <t>-35.5%</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CBDK.JK</t>
+          <t>BBCA.JK</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C69" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-36.9%</t>
+          <t>-12.0%</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-60.8%</t>
+          <t>-61.6%</t>
         </is>
       </c>
     </row>
@@ -3653,14 +3653,14 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C71" t="n">
         <v>7.199999999999999</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-40.5%</t>
+          <t>-40.0%</t>
         </is>
       </c>
     </row>
@@ -3671,14 +3671,14 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C72" t="n">
         <v>7</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-11.0%</t>
+          <t>-8.9%</t>
         </is>
       </c>
     </row>
@@ -3689,14 +3689,14 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C73" t="n">
         <v>7</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-21.8%</t>
+          <t>-19.5%</t>
         </is>
       </c>
     </row>
@@ -3707,14 +3707,14 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C74" t="n">
         <v>6.6</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>-48.5%</t>
+          <t>-47.2%</t>
         </is>
       </c>
     </row>
@@ -3725,122 +3725,122 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C75" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-55.6%</t>
+          <t>-53.3%</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>RAJA.JK</t>
+          <t>INET.JK</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C76" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-56.8%</t>
+          <t>-64.3%</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>INET.JK</t>
+          <t>IMPC.JK</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C77" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-65.1%</t>
+          <t>-47.4%</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>IMPC.JK</t>
+          <t>CDIA.JK</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C78" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-50.6%</t>
+          <t>-49.0%</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>CDIA.JK</t>
+          <t>RATU.JK</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C79" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-50.0%</t>
+          <t>-58.4%</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>RATU.JK</t>
+          <t>PANI.JK</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C80" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-63.3%</t>
+          <t>-33.1%</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>PANI.JK</t>
+          <t>BREN.JK</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C81" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-39.4%</t>
+          <t>-21.3%</t>
         </is>
       </c>
     </row>
@@ -3851,14 +3851,14 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C82" t="n">
         <v>4.8</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>-17.4%</t>
+          <t>-15.6%</t>
         </is>
       </c>
     </row>
@@ -3869,50 +3869,50 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C83" t="n">
         <v>4.8</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>-48.2%</t>
+          <t>-47.1%</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>AMRT.JK</t>
+          <t>DADA.JK</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C84" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>-9.5%</t>
+          <t>-20.6%</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>PSKT.JK</t>
+          <t>RAJA.JK</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>-50.2%</t>
+          <t>-52.7%</t>
         </is>
       </c>
     </row>
@@ -3930,97 +3930,79 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>-26.4%</t>
+          <t>-19.9%</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>GOTO.JK</t>
+          <t>KIJA.JK</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C87" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>-15.5%</t>
+          <t>-41.2%</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>TOBA.JK</t>
+          <t>GOTO.JK</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C88" t="n">
         <v>1.8</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>-32.3%</t>
+          <t>-15.5%</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BUVA.JK</t>
+          <t>TOBA.JK</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>3</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-57.4%</t>
+          <t>-31.2%</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>KIJA.JK</t>
+          <t>SSIA.JK</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>-43.8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>SSIA.JK</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>1</v>
-      </c>
-      <c r="C91" t="n">
-        <v>-6</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>-30.5%</t>
+          <t>-28.5%</t>
         </is>
       </c>
     </row>
@@ -4092,7 +4074,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -4100,7 +4082,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HRTA.JK</t>
+          <t>ELSA.JK</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -4108,17 +4090,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2148-2372</t>
+          <t>685-755</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2942</t>
+          <t>941</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3616900</t>
+          <t>-19268700</t>
         </is>
       </c>
     </row>
@@ -4129,25 +4111,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ZATA.JK</t>
+          <t>INDY.JK</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80-98</t>
+          <t>3225-3535</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>4384</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3777600</t>
+          <t>5176700</t>
         </is>
       </c>
     </row>
@@ -4158,25 +4140,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>VKTR.JK</t>
+          <t>RMKO.JK</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>715-855</t>
+          <t>494-736</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1199</t>
+          <t>1312</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-10875000</t>
+          <t>8080500</t>
         </is>
       </c>
     </row>
@@ -4187,25 +4169,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MINA.JK</t>
+          <t>ADRO.JK</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>192-260</t>
+          <t>2055-2205</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>2671</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>33926700</t>
+          <t>11291500</t>
         </is>
       </c>
     </row>
@@ -4216,32 +4198,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PSKT.JK</t>
+          <t>AADI.JK</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>174-226</t>
+          <t>7721-8229</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>9863</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>17992900</t>
+          <t>-3117200</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -4249,7 +4231,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ELSA.JK</t>
+          <t>INCO.JK</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -4257,17 +4239,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>671-739</t>
+          <t>6026-6524</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>922</t>
+          <t>7948</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-19268700</t>
+          <t>1839200</t>
         </is>
       </c>
     </row>
@@ -4278,25 +4260,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>INDY.JK</t>
+          <t>ARCI.JK</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3161-3479</t>
+          <t>1610-1770</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4334</t>
+          <t>2183</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>5176700</t>
+          <t>1446800</t>
         </is>
       </c>
     </row>
@@ -4307,25 +4289,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>RMKO.JK</t>
+          <t>ADMR.JK</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>469-711</t>
+          <t>1705-1885</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>2366</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>8080500</t>
+          <t>18482400</t>
         </is>
       </c>
     </row>
@@ -4336,25 +4318,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MEDC.JK</t>
+          <t>NCKL.JK</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1430-1530</t>
+          <t>1243-1337</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1845</t>
+          <t>1618</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>4019700</t>
+          <t>1483700</t>
         </is>
       </c>
     </row>
@@ -4365,25 +4347,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PTBA.JK</t>
+          <t>ANTM.JK</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2504-2596</t>
+          <t>3724-4056</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3006</t>
+          <t>4945</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-2408900</t>
+          <t>17613800</t>
         </is>
       </c>
     </row>
@@ -4402,16 +4384,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2172-2288</t>
+          <t>2163-2277</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2703</t>
+          <t>2691</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -4431,16 +4413,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>334-386</t>
+          <t>332-388</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>545</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -4460,16 +4442,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1093-1157</t>
+          <t>1092-1158</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1372</t>
+          <t>1375</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -4485,25 +4467,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>BREN.JK</t>
+          <t>CDIA.JK</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7740-8310</t>
+          <t>987-1103</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>9989</t>
+          <t>1429</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-222600</t>
+          <t>-34811500</t>
         </is>
       </c>
     </row>
@@ -4514,32 +4496,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>RAJA.JK</t>
+          <t>BREN.JK</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3229-3771</t>
+          <t>7762-8338</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5262</t>
+          <t>10029</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2569400</t>
+          <t>-222600</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -4547,25 +4529,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ARCI.JK</t>
+          <t>HRTA.JK</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1520-1690</t>
+          <t>2139-2361</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2120</t>
+          <t>2928</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1446800</t>
+          <t>3616900</t>
         </is>
       </c>
     </row>
@@ -4576,25 +4558,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>INCO.JK</t>
+          <t>ZATA.JK</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5847-6353</t>
+          <t>81-99</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7772</t>
+          <t>143</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1839200</t>
+          <t>3777600</t>
         </is>
       </c>
     </row>
@@ -4605,25 +4587,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ADMR.JK</t>
+          <t>VKTR.JK</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1647-1833</t>
+          <t>731-869</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2320</t>
+          <t>1209</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>18482400</t>
+          <t>-10875000</t>
         </is>
       </c>
     </row>
@@ -4634,25 +4616,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NCKL.JK</t>
+          <t>MINA.JK</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1251-1349</t>
+          <t>216-280</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1636</t>
+          <t>465</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1483700</t>
+          <t>33926700</t>
         </is>
       </c>
     </row>
@@ -4663,25 +4645,25 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>EMAS.JK</t>
+          <t>PSKT.JK</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6145-6855</t>
+          <t>182-234</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>8613</t>
+          <t>380</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>5188500</t>
+          <t>17992900</t>
         </is>
       </c>
     </row>
@@ -4700,16 +4682,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10590-11210</t>
+          <t>10682-11218</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>13069</t>
+          <t>12825</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -4725,25 +4707,25 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HUMI.JK</t>
+          <t>GTSI.JK</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>183-221</t>
+          <t>249-303</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>455</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>19408000</t>
+          <t>21248800</t>
         </is>
       </c>
     </row>
@@ -4754,25 +4736,25 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BIPI.JK</t>
+          <t>HUMI.JK</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>114-134</t>
+          <t>190-230</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>336</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>23730500</t>
+          <t>19408000</t>
         </is>
       </c>
     </row>
@@ -4783,25 +4765,25 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BULL.JK</t>
+          <t>BIPI.JK</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>333-403</t>
+          <t>121-141</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>184</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>59013800</t>
+          <t>23730500</t>
         </is>
       </c>
     </row>
@@ -4812,32 +4794,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>GTSI.JK</t>
+          <t>BULL.JK</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>232-288</t>
+          <t>365-435</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>631</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>21248800</t>
+          <t>59013800</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -4845,25 +4827,25 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BBRI.JK</t>
+          <t>JPFA.JK</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3716-3844</t>
+          <t>2464-2636</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4436</t>
+          <t>3171</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-56270300</t>
+          <t>449700</t>
         </is>
       </c>
     </row>
@@ -4874,25 +4856,25 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BBNI.JK</t>
+          <t>ICBP.JK</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4451-4609</t>
+          <t>7911-8239</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>5328</t>
+          <t>9585</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-10829400</t>
+          <t>-4599600</t>
         </is>
       </c>
     </row>
@@ -4903,25 +4885,25 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>BMRI.JK</t>
+          <t>AMRT.JK</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4955-5145</t>
+          <t>1874-1966</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>5711</t>
+          <t>2312</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>135801000</t>
+          <t>-654300</t>
         </is>
       </c>
     </row>
@@ -4932,25 +4914,25 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>BRIS.JK</t>
+          <t>INDF.JK</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2322-2438</t>
+          <t>6728-6922</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2873</t>
+          <t>7896</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2658600</t>
+          <t>1119900</t>
         </is>
       </c>
     </row>
@@ -4961,32 +4943,32 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SRTG.JK</t>
+          <t>UNVR.JK</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1555-1685</t>
+          <t>2236-2364</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2057</t>
+          <t>2802</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-2216000</t>
+          <t>-14420600</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -4994,25 +4976,25 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>JPFA.JK</t>
+          <t>BBNI.JK</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2408-2592</t>
+          <t>4440-4600</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3142</t>
+          <t>5323</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>449700</t>
+          <t>-10829400</t>
         </is>
       </c>
     </row>
@@ -5023,25 +5005,25 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>INDF.JK</t>
+          <t>BMRI.JK</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>6752-6948</t>
+          <t>4904-5096</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>7930</t>
+          <t>5922</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1119900</t>
+          <t>135801000</t>
         </is>
       </c>
     </row>
@@ -5052,25 +5034,25 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ICBP.JK</t>
+          <t>BRIS.JK</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>7918-8232</t>
+          <t>2350-2470</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>9553</t>
+          <t>2912</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-4599600</t>
+          <t>2658600</t>
         </is>
       </c>
     </row>
@@ -5081,25 +5063,25 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>UNVR.JK</t>
+          <t>BBRI.JK</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2236-2364</t>
+          <t>3705-3835</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>4430</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-14420600</t>
+          <t>-56270300</t>
         </is>
       </c>
     </row>
@@ -5110,32 +5092,32 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CPRO.JK</t>
+          <t>PADI.JK</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>61-65</t>
+          <t>82-94</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>111</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-41000200</t>
+          <t>68217900</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -5143,25 +5125,25 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PWON.JK</t>
+          <t>IRSX.JK</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>352-364</t>
+          <t>475-555</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>791</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-9117700</t>
+          <t>3198100</t>
         </is>
       </c>
     </row>
@@ -5172,25 +5154,25 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TRUE.JK</t>
+          <t>WIFI.JK</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>176-210</t>
+          <t>2144-2356</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>2954</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>4129400</t>
+          <t>-1637200</t>
         </is>
       </c>
     </row>
@@ -5201,385 +5183,385 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>TRIN.JK</t>
+          <t>GOTO.JK</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>980-1140</t>
+          <t>58-62</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1611</t>
+          <t>74</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>-1173900</t>
+          <t>230353000</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr"/>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Real Estate</t>
+        </is>
+      </c>
       <c r="B40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DADA.JK</t>
+          <t>PWON.JK</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>50-50</t>
+          <t>360-372</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>429</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-9117700</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>BKSL.JK</t>
+          <t>TRUE.JK</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>123-139</t>
+          <t>187-225</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>282</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>36648000</t>
+          <t>4129400</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
+      <c r="A42" t="inlineStr"/>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>LPKR.JK</t>
+          <t>TRIN.JK</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>83-95</t>
+          <t>984-1146</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>1628</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1498400</t>
+          <t>-1173900</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>KLBF.JK</t>
+          <t>BKSL.JK</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1098-1142</t>
+          <t>125-141</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1326</t>
+          <t>179</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-4266300</t>
+          <t>36648000</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
+      <c r="A44" t="inlineStr"/>
       <c r="B44" t="n">
+        <v>5</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CBDK.JK</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>25</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>5763-6387</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8113</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>-295600</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
         <v>1</v>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>IRSX.JK</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>63</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>459-541</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>781</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>3198100</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="n">
-        <v>2</v>
-      </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>WIFI.JK</t>
+          <t>TLKM.JK</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2096-2304</t>
+          <t>3247-3453</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>4104</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>-1637200</t>
+          <t>47052600</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="n">
+        <v>2</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ISAT.JK</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>49</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2036-2184</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2638</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>-4736500</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="n">
         <v>3</v>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>GOTO.JK</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>5</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>58-62</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>230353000</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Communication Services</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>1</v>
-      </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ISAT.JK</t>
+          <t>EXCL.JK</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2077-2223</t>
+          <t>2784-3076</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2679</t>
+          <t>3762</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>-4736500</t>
+          <t>13889500</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>TLKM.JK</t>
+          <t>EMTK.JK</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3275-3485</t>
+          <t>817-893</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>4143</t>
+          <t>1108</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>47052600</t>
+          <t>-17120600</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>EXCL.JK</t>
+          <t>INET.JK</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2735-3045</t>
+          <t>304-364</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>3782</t>
+          <t>532</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>13889500</t>
+          <t>44485800</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr"/>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
       <c r="B50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>EMTK.JK</t>
+          <t>KLBF.JK</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>817-893</t>
+          <t>1083-1127</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>1313</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>-17120600</t>
+          <t>-4266300</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>INET.JK</t>
+          <t>LPKR.JK</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>297-355</t>
+          <t>84-96</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>131</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>44485800</t>
+          <t>1498400</t>
         </is>
       </c>
     </row>
@@ -5684,11 +5666,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DEWA.JK</t>
+          <t>PADI.JK</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>66978000</v>
+        <v>68217900</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -5702,11 +5684,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BRMS.JK</t>
+          <t>DEWA.JK</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>59548700</v>
+        <v>66978000</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -5720,11 +5702,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BULL.JK</t>
+          <t>BRMS.JK</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>59013800</v>
+        <v>59548700</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -5738,11 +5720,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BBRI.JK</t>
+          <t>BULL.JK</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-56270300</v>
+        <v>59013800</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -5756,11 +5738,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TLKM.JK</t>
+          <t>BBRI.JK</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>47052600</v>
+        <v>-56270300</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -5774,11 +5756,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>INET.JK</t>
+          <t>TLKM.JK</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>44485800</v>
+        <v>47052600</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -5792,11 +5774,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CPRO.JK</t>
+          <t>INET.JK</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-41000200</v>
+        <v>44485800</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -5833,7 +5815,7 @@
     <col width="12" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
     <col width="9" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="9" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5920,10 +5902,10 @@
         <v>0.34335998</v>
       </c>
       <c r="H2" s="10" t="n">
-        <v>10.277778</v>
+        <v>10.055555</v>
       </c>
       <c r="I2" s="11" t="n">
-        <v>1.194936</v>
+        <v>1.1690996</v>
       </c>
       <c r="J2" s="11" t="n">
         <v>0</v>
@@ -5998,10 +5980,10 @@
         <v>0.27552</v>
       </c>
       <c r="H4" s="10" t="n">
-        <v>10.26694</v>
+        <v>10.1879635</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>2.2923365</v>
+        <v>2.274703</v>
       </c>
       <c r="J4" s="14" t="n">
         <v>23.671</v>
@@ -6037,10 +6019,10 @@
         <v>0.41044</v>
       </c>
       <c r="H5" s="10" t="n">
-        <v>10.1936245</v>
+        <v>10.166657</v>
       </c>
       <c r="I5" s="11" t="n">
-        <v>1.7187223</v>
+        <v>1.7141755</v>
       </c>
       <c r="J5" s="11" t="n">
         <v>0</v>
@@ -6055,11 +6037,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>JPFA.JK</t>
+          <t>PADI.JK</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -6067,25 +6049,25 @@
         </is>
       </c>
       <c r="E6" s="9" t="n">
-        <v>0.20716</v>
-      </c>
-      <c r="F6" s="8" t="n">
-        <v>0.146</v>
-      </c>
-      <c r="G6" s="8" t="n">
-        <v>0.05786</v>
-      </c>
-      <c r="H6" s="10" t="n">
-        <v>8.710801</v>
-      </c>
-      <c r="I6" s="11" t="n">
-        <v>1.7091494</v>
+        <v>0.24911</v>
+      </c>
+      <c r="F6" s="9" t="n">
+        <v>4.381</v>
+      </c>
+      <c r="G6" s="9" t="n">
+        <v>0.71615</v>
+      </c>
+      <c r="H6" t="n">
+        <v>23.03665</v>
+      </c>
+      <c r="I6" s="14" t="n">
+        <v>5.50344</v>
       </c>
       <c r="J6" s="14" t="n">
-        <v>62.876</v>
+        <v>5.093</v>
       </c>
       <c r="K6" s="11" t="n">
-        <v>287</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="7">
@@ -6094,11 +6076,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BMRI.JK</t>
+          <t>JPFA.JK</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -6106,25 +6088,25 @@
         </is>
       </c>
       <c r="E7" s="9" t="n">
-        <v>0.18354</v>
+        <v>0.20716</v>
       </c>
       <c r="F7" s="8" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="G7" s="9" t="n">
-        <v>0.36782002</v>
+        <v>0.146</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <v>0.05786</v>
       </c>
       <c r="H7" s="10" t="n">
-        <v>9.149214000000001</v>
+        <v>8.885016999999999</v>
       </c>
       <c r="I7" s="11" t="n">
-        <v>1.6735847</v>
-      </c>
-      <c r="J7" s="11" t="n">
-        <v>0</v>
+        <v>1.7433324</v>
+      </c>
+      <c r="J7" s="14" t="n">
+        <v>62.876</v>
       </c>
       <c r="K7" s="11" t="n">
-        <v>551.96</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8">
@@ -6133,7 +6115,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BRIS.JK</t>
+          <t>BMRI.JK</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -6144,26 +6126,26 @@
           <t>MID</t>
         </is>
       </c>
-      <c r="E8" s="8" t="n">
-        <v>0.15604</v>
+      <c r="E8" s="9" t="n">
+        <v>0.18354</v>
       </c>
       <c r="F8" s="8" t="n">
-        <v>0.075</v>
+        <v>0.027</v>
       </c>
       <c r="G8" s="9" t="n">
-        <v>0.31919</v>
-      </c>
-      <c r="H8" t="n">
-        <v>14.705883</v>
-      </c>
-      <c r="I8" s="15" t="n">
-        <v>2.1130066</v>
+        <v>0.36782002</v>
+      </c>
+      <c r="H8" s="10" t="n">
+        <v>9.058627</v>
+      </c>
+      <c r="I8" s="11" t="n">
+        <v>1.6570145</v>
       </c>
       <c r="J8" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="11" t="n">
-        <v>161.84</v>
+        <v>551.96</v>
       </c>
     </row>
     <row r="9">
@@ -6172,7 +6154,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NICL.JK</t>
+          <t>BRIS.JK</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -6183,104 +6165,104 @@
           <t>MID</t>
         </is>
       </c>
-      <c r="E9" s="9" t="n">
+      <c r="E9" s="8" t="n">
+        <v>0.15604</v>
+      </c>
+      <c r="F9" s="8" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G9" s="9" t="n">
+        <v>0.31919</v>
+      </c>
+      <c r="H9" t="n">
+        <v>14.891251</v>
+      </c>
+      <c r="I9" s="15" t="n">
+        <v>2.1396413</v>
+      </c>
+      <c r="J9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="11" t="n">
+        <v>161.84</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NICL.JK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>18</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="E10" s="9" t="n">
         <v>0.65794</v>
       </c>
-      <c r="F9" s="16" t="n">
+      <c r="F10" s="16" t="n">
         <v>-0.261</v>
       </c>
-      <c r="G9" s="9" t="n">
+      <c r="G10" s="9" t="n">
         <v>0.27632</v>
       </c>
-      <c r="H9" t="n">
-        <v>22.02729</v>
-      </c>
-      <c r="I9" s="14" t="n">
-        <v>14.46863</v>
-      </c>
-      <c r="J9" s="11" t="n">
+      <c r="H10" t="n">
+        <v>22.124756</v>
+      </c>
+      <c r="I10" s="14" t="n">
+        <v>14.532651</v>
+      </c>
+      <c r="J10" s="11" t="n">
         <v>0.378</v>
       </c>
-      <c r="K9" s="11" t="n">
+      <c r="K10" s="11" t="n">
         <v>51.3</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="12" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="12" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="inlineStr">
         <is>
           <t>HRTA.JK</t>
         </is>
       </c>
-      <c r="C10" s="12" t="n">
+      <c r="C11" s="12" t="n">
         <v>17</v>
       </c>
-      <c r="D10" s="12" t="inlineStr">
+      <c r="D11" s="12" t="inlineStr">
         <is>
           <t>MID</t>
         </is>
       </c>
-      <c r="E10" s="13" t="n">
+      <c r="E11" s="13" t="n">
         <v>0.28483</v>
       </c>
-      <c r="F10" s="13" t="n">
+      <c r="F11" s="13" t="n">
         <v>1.009</v>
       </c>
-      <c r="G10" s="13" t="n">
+      <c r="G11" s="13" t="n">
         <v>0.023759998</v>
       </c>
-      <c r="H10" s="12" t="n">
-        <v>14.534697</v>
-      </c>
-      <c r="I10" s="15" t="n">
-        <v>3.691984</v>
-      </c>
-      <c r="J10" s="14" t="n">
+      <c r="H11" s="12" t="n">
+        <v>14.470384</v>
+      </c>
+      <c r="I11" s="15" t="n">
+        <v>3.6756477</v>
+      </c>
+      <c r="J11" s="14" t="n">
         <v>139.825</v>
       </c>
-      <c r="K10" s="11" t="n">
+      <c r="K11" s="11" t="n">
         <v>155.49</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ELSA.JK</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>16</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>MID</t>
-        </is>
-      </c>
-      <c r="E11" s="8" t="n">
-        <v>0.13904001</v>
-      </c>
-      <c r="F11" s="8" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="G11" s="8" t="n">
-        <v>0.048460003</v>
-      </c>
-      <c r="H11" s="10" t="n">
-        <v>7.46822</v>
-      </c>
-      <c r="I11" s="11" t="n">
-        <v>1.0004754</v>
-      </c>
-      <c r="J11" s="14" t="n">
-        <v>4.935</v>
-      </c>
-      <c r="K11" s="11" t="n">
-        <v>94.40000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -6289,7 +6271,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ARCI.JK</t>
+          <t>ELSA.JK</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -6300,26 +6282,26 @@
           <t>MID</t>
         </is>
       </c>
-      <c r="E12" s="9" t="n">
-        <v>0.28336</v>
-      </c>
-      <c r="F12" s="9" t="n">
-        <v>0.879</v>
-      </c>
-      <c r="G12" s="9" t="n">
-        <v>0.21154</v>
-      </c>
-      <c r="H12" t="n">
-        <v>28.088905</v>
-      </c>
-      <c r="I12" s="14" t="n">
-        <v>114642.85</v>
+      <c r="E12" s="8" t="n">
+        <v>0.13904001</v>
+      </c>
+      <c r="F12" s="8" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="G12" s="8" t="n">
+        <v>0.048460003</v>
+      </c>
+      <c r="H12" s="10" t="n">
+        <v>7.6271186</v>
+      </c>
+      <c r="I12" s="11" t="n">
+        <v>1.0217621</v>
       </c>
       <c r="J12" s="14" t="n">
-        <v>118.6</v>
+        <v>4.935</v>
       </c>
       <c r="K12" s="11" t="n">
-        <v>57.14</v>
+        <v>94.40000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -6328,7 +6310,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TPIA.JK</t>
+          <t>ARCI.JK</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -6340,25 +6322,25 @@
         </is>
       </c>
       <c r="E13" s="9" t="n">
-        <v>0.42018002</v>
+        <v>0.28336</v>
       </c>
       <c r="F13" s="9" t="n">
-        <v>4.295</v>
+        <v>0.879</v>
       </c>
       <c r="G13" s="9" t="n">
-        <v>0.2208</v>
+        <v>0.21154</v>
       </c>
       <c r="H13" t="n">
-        <v>23.310024</v>
+        <v>29.576479</v>
       </c>
       <c r="I13" s="14" t="n">
-        <v>157777.77</v>
+        <v>120714.28</v>
       </c>
       <c r="J13" s="14" t="n">
-        <v>82.7</v>
+        <v>118.6</v>
       </c>
       <c r="K13" s="11" t="n">
-        <v>304.59</v>
+        <v>57.14</v>
       </c>
     </row>
     <row r="14">
@@ -6367,37 +6349,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BBNI.JK</t>
+          <t>TPIA.JK</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>MID</t>
         </is>
       </c>
-      <c r="E14" s="8" t="n">
-        <v>0.1173</v>
-      </c>
-      <c r="F14" s="8" t="n">
-        <v>0.028</v>
+      <c r="E14" s="9" t="n">
+        <v>0.42018002</v>
+      </c>
+      <c r="F14" s="9" t="n">
+        <v>4.295</v>
       </c>
       <c r="G14" s="9" t="n">
-        <v>0.40232</v>
-      </c>
-      <c r="H14" s="10" t="n">
-        <v>8.438739999999999</v>
-      </c>
-      <c r="I14" s="11" t="n">
-        <v>0.98278207</v>
-      </c>
-      <c r="J14" s="11" t="n">
-        <v>0</v>
+        <v>0.2208</v>
+      </c>
+      <c r="H14" t="n">
+        <v>23.310024</v>
+      </c>
+      <c r="I14" s="14" t="n">
+        <v>157777.77</v>
+      </c>
+      <c r="J14" s="14" t="n">
+        <v>82.7</v>
       </c>
       <c r="K14" s="11" t="n">
-        <v>536.8099999999999</v>
+        <v>304.59</v>
       </c>
     </row>
     <row r="15">
@@ -6406,7 +6388,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PWON.JK</t>
+          <t>BBNI.JK</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -6418,25 +6400,25 @@
         </is>
       </c>
       <c r="E15" s="8" t="n">
-        <v>0.102419995</v>
+        <v>0.1173</v>
       </c>
       <c r="F15" s="8" t="n">
-        <v>0.144</v>
+        <v>0.028</v>
       </c>
       <c r="G15" s="9" t="n">
-        <v>0.30543</v>
+        <v>0.40232</v>
       </c>
       <c r="H15" s="10" t="n">
-        <v>8.057619000000001</v>
+        <v>8.420112</v>
       </c>
       <c r="I15" s="11" t="n">
-        <v>0.7895166</v>
-      </c>
-      <c r="J15" s="14" t="n">
-        <v>21.136</v>
+        <v>0.9806125999999999</v>
+      </c>
+      <c r="J15" s="11" t="n">
+        <v>0</v>
       </c>
       <c r="K15" s="11" t="n">
-        <v>44.43</v>
+        <v>536.8099999999999</v>
       </c>
     </row>
     <row r="16">
@@ -6445,11 +6427,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>INCO.JK</t>
+          <t>PWON.JK</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -6457,25 +6439,25 @@
         </is>
       </c>
       <c r="E16" s="8" t="n">
-        <v>0.02158</v>
-      </c>
-      <c r="F16" s="9" t="n">
-        <v>0.212</v>
-      </c>
-      <c r="G16" s="8" t="n">
-        <v>0.06239</v>
-      </c>
-      <c r="H16" s="17" t="n">
-        <v>60.97561</v>
-      </c>
-      <c r="I16" s="14" t="n">
-        <v>23371.646</v>
-      </c>
-      <c r="J16" s="11" t="n">
-        <v>0.173</v>
+        <v>0.102419995</v>
+      </c>
+      <c r="F16" s="8" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="G16" s="9" t="n">
+        <v>0.30543</v>
+      </c>
+      <c r="H16" s="10" t="n">
+        <v>8.237678000000001</v>
+      </c>
+      <c r="I16" s="11" t="n">
+        <v>0.8071595</v>
+      </c>
+      <c r="J16" s="14" t="n">
+        <v>21.136</v>
       </c>
       <c r="K16" s="11" t="n">
-        <v>100.04</v>
+        <v>44.43</v>
       </c>
     </row>
     <row r="17">
@@ -6484,7 +6466,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>UNVR.JK</t>
+          <t>INCO.JK</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -6495,26 +6477,26 @@
           <t>MID</t>
         </is>
       </c>
-      <c r="E17" s="9" t="n">
-        <v>1.08807</v>
-      </c>
-      <c r="F17" s="8" t="n">
-        <v>0.124</v>
+      <c r="E17" s="8" t="n">
+        <v>0.02158</v>
+      </c>
+      <c r="F17" s="9" t="n">
+        <v>0.212</v>
       </c>
       <c r="G17" s="8" t="n">
-        <v>0.10455</v>
-      </c>
-      <c r="H17" t="n">
-        <v>23.980814</v>
+        <v>0.06239</v>
+      </c>
+      <c r="H17" s="17" t="n">
+        <v>62.72491</v>
       </c>
       <c r="I17" s="14" t="n">
-        <v>26.042845</v>
-      </c>
-      <c r="J17" s="14" t="n">
-        <v>47.547</v>
+        <v>24042.145</v>
+      </c>
+      <c r="J17" s="11" t="n">
+        <v>0.173</v>
       </c>
       <c r="K17" s="11" t="n">
-        <v>95.91</v>
+        <v>100.04</v>
       </c>
     </row>
     <row r="18">
@@ -6523,7 +6505,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CBDK.JK</t>
+          <t>UNVR.JK</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -6534,26 +6516,26 @@
           <t>MID</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="9" t="n">
-        <v>0.791</v>
-      </c>
-      <c r="G18" s="9" t="n">
-        <v>0.52018</v>
+      <c r="E18" s="9" t="n">
+        <v>1.08807</v>
+      </c>
+      <c r="F18" s="8" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>0.10455</v>
       </c>
       <c r="H18" t="n">
-        <v>21.786095</v>
-      </c>
-      <c r="I18" s="15" t="n">
-        <v>3.7104595</v>
+        <v>23.980814</v>
+      </c>
+      <c r="I18" s="14" t="n">
+        <v>26.042845</v>
       </c>
       <c r="J18" s="14" t="n">
-        <v>2.39</v>
+        <v>47.547</v>
       </c>
       <c r="K18" s="11" t="n">
-        <v>273.11</v>
+        <v>95.91</v>
       </c>
     </row>
     <row r="19">
@@ -6562,37 +6544,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MINA.JK</t>
+          <t>CBDK.JK</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>MID</t>
         </is>
       </c>
-      <c r="E19" s="16" t="n">
-        <v>-0.04084</v>
+      <c r="E19" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F19" s="9" t="n">
-        <v>0.368</v>
-      </c>
-      <c r="G19" s="8" t="n">
-        <v>-0.69613</v>
+        <v>0.791</v>
+      </c>
+      <c r="G19" s="9" t="n">
+        <v>0.52018</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="14" t="n">
-        <v>8.841595</v>
-      </c>
-      <c r="J19" s="11" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="K19" s="15" t="n">
-        <v>-0.72</v>
+        <v>22.243786</v>
+      </c>
+      <c r="I19" s="15" t="n">
+        <v>3.7884104</v>
+      </c>
+      <c r="J19" s="14" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K19" s="11" t="n">
+        <v>273.11</v>
       </c>
     </row>
     <row r="20">
@@ -6601,7 +6583,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PBSA.JK</t>
+          <t>MINA.JK</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -6612,26 +6594,26 @@
           <t>MID</t>
         </is>
       </c>
-      <c r="E20" s="9" t="n">
-        <v>0.31697</v>
-      </c>
-      <c r="F20" s="16" t="n">
-        <v>-0.192</v>
+      <c r="E20" s="16" t="n">
+        <v>-0.04084</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>0.368</v>
       </c>
       <c r="G20" s="8" t="n">
-        <v>0.15842</v>
+        <v>-0.69613</v>
       </c>
       <c r="H20" t="n">
-        <v>16.978697</v>
+        <v>0</v>
       </c>
       <c r="I20" s="14" t="n">
-        <v>5.140775</v>
-      </c>
-      <c r="J20" s="15" t="n">
-        <v>1.461</v>
-      </c>
-      <c r="K20" s="11" t="n">
-        <v>77.45</v>
+        <v>9.70228</v>
+      </c>
+      <c r="J20" s="11" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="K20" s="15" t="n">
+        <v>-0.72</v>
       </c>
     </row>
     <row r="21">
@@ -6640,7 +6622,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BBCA.JK</t>
+          <t>PBSA.JK</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -6652,25 +6634,25 @@
         </is>
       </c>
       <c r="E21" s="9" t="n">
-        <v>0.21143</v>
+        <v>0.31697</v>
       </c>
       <c r="F21" s="16" t="n">
-        <v>-0.027</v>
-      </c>
-      <c r="G21" s="9" t="n">
-        <v>0.53282</v>
+        <v>-0.192</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>0.15842</v>
       </c>
       <c r="H21" t="n">
-        <v>16.447369</v>
-      </c>
-      <c r="I21" s="15" t="n">
-        <v>3.354307</v>
-      </c>
-      <c r="J21" s="11" t="n">
-        <v>0</v>
+        <v>18.33441</v>
+      </c>
+      <c r="I21" s="14" t="n">
+        <v>5.551255</v>
+      </c>
+      <c r="J21" s="15" t="n">
+        <v>1.461</v>
       </c>
       <c r="K21" s="11" t="n">
-        <v>466.64</v>
+        <v>77.45</v>
       </c>
     </row>
     <row r="22">
@@ -6679,7 +6661,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>COIN.JK</t>
+          <t>BBCA.JK</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -6690,26 +6672,26 @@
           <t>MID</t>
         </is>
       </c>
-      <c r="E22" s="8" t="n">
+      <c r="E22" s="9" t="n">
+        <v>0.21143</v>
+      </c>
+      <c r="F22" s="16" t="n">
+        <v>-0.027</v>
+      </c>
+      <c r="G22" s="9" t="n">
+        <v>0.53282</v>
+      </c>
+      <c r="H22" t="n">
+        <v>16.072346</v>
+      </c>
+      <c r="I22" s="15" t="n">
+        <v>3.2778244</v>
+      </c>
+      <c r="J22" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="F22" s="9" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="G22" s="9" t="n">
-        <v>0.30952</v>
-      </c>
-      <c r="H22" s="17" t="n">
-        <v>285.60126</v>
-      </c>
-      <c r="I22" s="14" t="n">
-        <v>14.638142</v>
-      </c>
-      <c r="J22" s="11" t="n">
-        <v>0.261</v>
-      </c>
       <c r="K22" s="11" t="n">
-        <v>6.32</v>
+        <v>466.64</v>
       </c>
     </row>
     <row r="23">
@@ -6718,37 +6700,37 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CUAN.JK</t>
+          <t>COIN.JK</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>MID</t>
         </is>
       </c>
-      <c r="E23" s="9" t="n">
-        <v>0.33183</v>
+      <c r="E23" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F23" s="9" t="n">
-        <v>0.415</v>
-      </c>
-      <c r="G23" s="8" t="n">
-        <v>0.13921</v>
+        <v>8.94</v>
+      </c>
+      <c r="G23" s="9" t="n">
+        <v>0.30952</v>
       </c>
       <c r="H23" s="17" t="n">
-        <v>78.74396</v>
+        <v>280.0633</v>
       </c>
       <c r="I23" s="14" t="n">
-        <v>543333.3</v>
-      </c>
-      <c r="J23" s="14" t="n">
-        <v>201.586</v>
+        <v>14.3543</v>
+      </c>
+      <c r="J23" s="11" t="n">
+        <v>0.261</v>
       </c>
       <c r="K23" s="11" t="n">
-        <v>20.7</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="24">
@@ -6757,37 +6739,37 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>CUAN.JK</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>MID</t>
         </is>
       </c>
-      <c r="E24" s="8" t="n">
-        <v>0.12082</v>
-      </c>
-      <c r="F24" s="8" t="n">
-        <v>0.008</v>
+      <c r="E24" s="9" t="n">
+        <v>0.33183</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.415</v>
       </c>
       <c r="G24" s="8" t="n">
-        <v>0.0806</v>
-      </c>
-      <c r="H24" s="10" t="n">
-        <v>10.277445</v>
+        <v>0.13921</v>
+      </c>
+      <c r="H24" s="17" t="n">
+        <v>79.4686</v>
       </c>
       <c r="I24" s="14" t="n">
-        <v>19561.404</v>
+        <v>548333.3</v>
       </c>
       <c r="J24" s="14" t="n">
-        <v>32.802</v>
+        <v>201.586</v>
       </c>
       <c r="K24" s="11" t="n">
-        <v>216.98</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="25">
@@ -6796,7 +6778,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>IRSX.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -6808,25 +6790,25 @@
         </is>
       </c>
       <c r="E25" s="8" t="n">
-        <v>0.11936</v>
-      </c>
-      <c r="F25" s="16" t="n">
-        <v>-0.5590000000000001</v>
+        <v>0.12082</v>
+      </c>
+      <c r="F25" s="8" t="n">
+        <v>0.008</v>
       </c>
       <c r="G25" s="8" t="n">
-        <v>0.06455</v>
-      </c>
-      <c r="H25" s="17" t="n">
-        <v>62.1118</v>
+        <v>0.0806</v>
+      </c>
+      <c r="H25" s="10" t="n">
+        <v>10.231358</v>
       </c>
       <c r="I25" s="14" t="n">
-        <v>10.362695</v>
-      </c>
-      <c r="J25" s="11" t="n">
-        <v>0.216</v>
+        <v>19473.684</v>
+      </c>
+      <c r="J25" s="14" t="n">
+        <v>32.802</v>
       </c>
       <c r="K25" s="11" t="n">
-        <v>8.050000000000001</v>
+        <v>216.98</v>
       </c>
     </row>
     <row r="26">
@@ -6835,7 +6817,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>KLBF.JK</t>
+          <t>IRSX.JK</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -6847,103 +6829,103 @@
         </is>
       </c>
       <c r="E26" s="8" t="n">
+        <v>0.11936</v>
+      </c>
+      <c r="F26" s="16" t="n">
+        <v>-0.5590000000000001</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>0.06455</v>
+      </c>
+      <c r="H26" s="17" t="n">
+        <v>63.975155</v>
+      </c>
+      <c r="I26" s="14" t="n">
+        <v>10.673575</v>
+      </c>
+      <c r="J26" s="11" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="K26" s="11" t="n">
+        <v>8.050000000000001</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>KLBF.JK</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>11</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="E27" s="8" t="n">
         <v>0.14554</v>
       </c>
-      <c r="F26" s="8" t="n">
+      <c r="F27" s="8" t="n">
         <v>0.126</v>
       </c>
-      <c r="G26" s="8" t="n">
+      <c r="G27" s="8" t="n">
         <v>0.10163</v>
       </c>
-      <c r="H26" t="n">
-        <v>14.619501</v>
-      </c>
-      <c r="I26" s="15" t="n">
-        <v>2.2090075</v>
-      </c>
-      <c r="J26" s="14" t="n">
+      <c r="H27" t="n">
+        <v>14.423704</v>
+      </c>
+      <c r="I27" s="15" t="n">
+        <v>2.1794226</v>
+      </c>
+      <c r="J27" s="14" t="n">
         <v>2.102</v>
       </c>
-      <c r="K26" s="11" t="n">
+      <c r="K27" s="11" t="n">
         <v>76.61</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="12" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" s="12" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="12" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="12" t="inlineStr">
         <is>
           <t>BRPT.JK</t>
         </is>
       </c>
-      <c r="C27" s="12" t="n">
+      <c r="C28" s="12" t="n">
         <v>11</v>
       </c>
-      <c r="D27" s="12" t="inlineStr">
+      <c r="D28" s="12" t="inlineStr">
         <is>
           <t>MID</t>
         </is>
       </c>
-      <c r="E27" s="13" t="n">
+      <c r="E28" s="13" t="n">
         <v>0.35876</v>
       </c>
-      <c r="F27" s="13" t="n">
+      <c r="F28" s="13" t="n">
         <v>3.509</v>
       </c>
-      <c r="G27" s="13" t="n">
+      <c r="G28" s="13" t="n">
         <v>0.09752</v>
       </c>
-      <c r="H27" s="12" t="n">
-        <v>17.730173</v>
-      </c>
-      <c r="I27" s="14" t="n">
-        <v>81041.664</v>
-      </c>
-      <c r="J27" s="14" t="n">
+      <c r="H28" s="12" t="n">
+        <v>18.185963</v>
+      </c>
+      <c r="I28" s="14" t="n">
+        <v>83125</v>
+      </c>
+      <c r="J28" s="14" t="n">
         <v>107.818</v>
       </c>
-      <c r="K27" s="11" t="n">
+      <c r="K28" s="11" t="n">
         <v>109.7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>PNLF.JK</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>10</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>MID</t>
-        </is>
-      </c>
-      <c r="E28" s="8" t="n">
-        <v>0.05041</v>
-      </c>
-      <c r="F28" s="16" t="n">
-        <v>-0.07199999999999999</v>
-      </c>
-      <c r="G28" s="8" t="n">
-        <v>0.15737</v>
-      </c>
-      <c r="H28" s="10" t="n">
-        <v>5.3592234</v>
-      </c>
-      <c r="I28" s="11" t="n">
-        <v>0.28377047</v>
-      </c>
-      <c r="J28" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" s="11" t="n">
-        <v>51.5</v>
       </c>
     </row>
     <row r="29">
@@ -6952,7 +6934,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CPRO.JK</t>
+          <t>PNLF.JK</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -6964,25 +6946,25 @@
         </is>
       </c>
       <c r="E29" s="8" t="n">
-        <v>0.10436</v>
-      </c>
-      <c r="F29" s="8" t="n">
-        <v>0.081</v>
+        <v>0.05041</v>
+      </c>
+      <c r="F29" s="16" t="n">
+        <v>-0.07199999999999999</v>
       </c>
       <c r="G29" s="8" t="n">
-        <v>0.041550003</v>
+        <v>0.15737</v>
       </c>
       <c r="H29" s="10" t="n">
-        <v>9.130435</v>
+        <v>5.3592234</v>
       </c>
       <c r="I29" s="11" t="n">
-        <v>0.9399618</v>
-      </c>
-      <c r="J29" s="14" t="n">
-        <v>43.245</v>
+        <v>0.28377047</v>
+      </c>
+      <c r="J29" s="11" t="n">
+        <v>0</v>
       </c>
       <c r="K29" s="11" t="n">
-        <v>6.9</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="30">
@@ -6991,37 +6973,37 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>RMKO.JK</t>
+          <t>CPRO.JK</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LOW</t>
-        </is>
-      </c>
-      <c r="E30" s="16" t="n">
-        <v>-0.29015</v>
-      </c>
-      <c r="F30" s="9" t="n">
-        <v>0.671</v>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="E30" s="8" t="n">
+        <v>0.10436</v>
+      </c>
+      <c r="F30" s="8" t="n">
+        <v>0.081</v>
       </c>
       <c r="G30" s="8" t="n">
-        <v>-0.21053</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="15" t="n">
-        <v>4.1839223</v>
+        <v>0.041550003</v>
+      </c>
+      <c r="H30" s="10" t="n">
+        <v>8.985507</v>
+      </c>
+      <c r="I30" s="11" t="n">
+        <v>0.9250417399999999</v>
       </c>
       <c r="J30" s="14" t="n">
-        <v>65.76600000000001</v>
-      </c>
-      <c r="K30" s="15" t="n">
-        <v>0</v>
+        <v>43.245</v>
+      </c>
+      <c r="K30" s="11" t="n">
+        <v>6.9</v>
       </c>
     </row>
     <row r="31">
@@ -7030,7 +7012,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BREN.JK</t>
+          <t>RMKO.JK</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -7041,26 +7023,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E31" s="9" t="n">
-        <v>0.22038001</v>
-      </c>
-      <c r="F31" s="8" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G31" s="9" t="n">
-        <v>0.23266001</v>
-      </c>
-      <c r="H31" s="17" t="n">
-        <v>454.41678</v>
-      </c>
-      <c r="I31" s="14" t="n">
-        <v>1605000</v>
+      <c r="E31" s="16" t="n">
+        <v>-0.29015</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>0.671</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>-0.21053</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="15" t="n">
+        <v>4.361207</v>
       </c>
       <c r="J31" s="14" t="n">
-        <v>239.827</v>
-      </c>
-      <c r="K31" s="11" t="n">
-        <v>17.66</v>
+        <v>65.76600000000001</v>
+      </c>
+      <c r="K31" s="15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -7090,10 +7072,10 @@
         <v>0.19652</v>
       </c>
       <c r="H32" s="17" t="n">
-        <v>169.35484</v>
+        <v>181.00359</v>
       </c>
       <c r="I32" s="14" t="n">
-        <v>105000.01</v>
+        <v>112222.23</v>
       </c>
       <c r="J32" s="14" t="n">
         <v>12.694</v>
@@ -7129,10 +7111,10 @@
         <v>0.01754</v>
       </c>
       <c r="H33" t="n">
-        <v>33.67053</v>
+        <v>35.434925</v>
       </c>
       <c r="I33" s="14" t="n">
-        <v>238541.67</v>
+        <v>251041.67</v>
       </c>
       <c r="J33" s="14" t="n">
         <v>276.511</v>
@@ -7147,7 +7129,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>RAJA.JK</t>
+          <t>INET.JK</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -7159,25 +7141,25 @@
         </is>
       </c>
       <c r="E34" s="8" t="n">
-        <v>0.15447</v>
-      </c>
-      <c r="F34" s="8" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="G34" s="8" t="n">
-        <v>0.091759995</v>
-      </c>
-      <c r="H34" t="n">
-        <v>36.764706</v>
+        <v>0.06432</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="G34" s="9" t="n">
+        <v>0.24544</v>
+      </c>
+      <c r="H34" s="17" t="n">
+        <v>238.57143</v>
       </c>
       <c r="I34" s="14" t="n">
-        <v>72916.664</v>
+        <v>8.217897000000001</v>
       </c>
       <c r="J34" s="14" t="n">
-        <v>68.20699999999999</v>
+        <v>2.833</v>
       </c>
       <c r="K34" s="11" t="n">
-        <v>95.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="35">
@@ -7186,7 +7168,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>INET.JK</t>
+          <t>IMPC.JK</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -7197,26 +7179,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E35" s="8" t="n">
-        <v>0.06432</v>
-      </c>
-      <c r="F35" s="9" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="G35" s="9" t="n">
-        <v>0.24544</v>
+      <c r="E35" s="9" t="n">
+        <v>0.23723</v>
+      </c>
+      <c r="F35" s="8" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>0.14588</v>
       </c>
       <c r="H35" s="17" t="n">
-        <v>232.85715</v>
+        <v>193.63637</v>
       </c>
       <c r="I35" s="14" t="n">
-        <v>8.021061</v>
+        <v>40.70401</v>
       </c>
       <c r="J35" s="14" t="n">
-        <v>2.833</v>
+        <v>38.133</v>
       </c>
       <c r="K35" s="11" t="n">
-        <v>1.4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -7225,7 +7207,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>IMPC.JK</t>
+          <t>CDIA.JK</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -7236,26 +7218,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E36" s="9" t="n">
-        <v>0.23723</v>
-      </c>
-      <c r="F36" s="8" t="n">
-        <v>0.145</v>
-      </c>
-      <c r="G36" s="8" t="n">
-        <v>0.14588</v>
+      <c r="E36" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="G36" s="9" t="n">
+        <v>0.65328</v>
       </c>
       <c r="H36" s="17" t="n">
-        <v>181.81818</v>
+        <v>89.39265</v>
       </c>
       <c r="I36" s="14" t="n">
-        <v>38.219727</v>
+        <v>130624.99</v>
       </c>
       <c r="J36" s="14" t="n">
-        <v>38.133</v>
+        <v>34.873</v>
       </c>
       <c r="K36" s="11" t="n">
-        <v>11</v>
+        <v>11.69</v>
       </c>
     </row>
     <row r="37">
@@ -7264,7 +7246,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CDIA.JK</t>
+          <t>RATU.JK</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -7275,26 +7257,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E37" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="9" t="n">
-        <v>0.421</v>
+      <c r="E37" s="9" t="n">
+        <v>0.45251998</v>
+      </c>
+      <c r="F37" s="16" t="n">
+        <v>-0.183</v>
       </c>
       <c r="G37" s="9" t="n">
-        <v>0.65328</v>
+        <v>0.31559</v>
       </c>
       <c r="H37" s="17" t="n">
-        <v>87.681786</v>
+        <v>49.553524</v>
       </c>
       <c r="I37" s="14" t="n">
-        <v>128124.99</v>
+        <v>297058.8</v>
       </c>
       <c r="J37" s="14" t="n">
-        <v>34.873</v>
+        <v>36.548</v>
       </c>
       <c r="K37" s="11" t="n">
-        <v>11.69</v>
+        <v>101.91</v>
       </c>
     </row>
     <row r="38">
@@ -7303,7 +7285,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>RATU.JK</t>
+          <t>PANI.JK</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -7314,26 +7296,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E38" s="9" t="n">
-        <v>0.45251998</v>
-      </c>
-      <c r="F38" s="16" t="n">
-        <v>-0.183</v>
+      <c r="E38" s="8" t="n">
+        <v>0.0678</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>0.946</v>
       </c>
       <c r="G38" s="9" t="n">
-        <v>0.31559</v>
+        <v>0.24195999</v>
       </c>
       <c r="H38" s="17" t="n">
-        <v>43.665977</v>
+        <v>177.9906</v>
       </c>
       <c r="I38" s="14" t="n">
-        <v>261764.69</v>
+        <v>7.403849</v>
       </c>
       <c r="J38" s="14" t="n">
-        <v>36.548</v>
+        <v>2.054</v>
       </c>
       <c r="K38" s="11" t="n">
-        <v>101.91</v>
+        <v>55.34</v>
       </c>
     </row>
     <row r="39">
@@ -7342,7 +7324,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PANI.JK</t>
+          <t>BREN.JK</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -7353,26 +7335,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E39" s="8" t="n">
-        <v>0.0678</v>
-      </c>
-      <c r="F39" s="9" t="n">
-        <v>0.946</v>
+      <c r="E39" s="9" t="n">
+        <v>0.22038001</v>
+      </c>
+      <c r="F39" s="8" t="n">
+        <v>0.04</v>
       </c>
       <c r="G39" s="9" t="n">
-        <v>0.24195999</v>
+        <v>0.23266001</v>
       </c>
       <c r="H39" s="17" t="n">
-        <v>161.27576</v>
+        <v>455.8324</v>
       </c>
       <c r="I39" s="14" t="n">
-        <v>6.708564</v>
+        <v>1610000</v>
       </c>
       <c r="J39" s="14" t="n">
-        <v>2.054</v>
+        <v>239.827</v>
       </c>
       <c r="K39" s="11" t="n">
-        <v>55.34</v>
+        <v>17.66</v>
       </c>
     </row>
     <row r="40">
@@ -7402,10 +7384,10 @@
         <v>0.31149</v>
       </c>
       <c r="H40" t="n">
-        <v>13.623551</v>
+        <v>14.054181</v>
       </c>
       <c r="I40" s="14" t="n">
-        <v>47027.027</v>
+        <v>48513.51</v>
       </c>
       <c r="J40" s="14" t="n">
         <v>35.836</v>
@@ -7420,7 +7402,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PTBA.JK</t>
+          <t>AADI.JK</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -7431,26 +7413,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E41" s="8" t="n">
-        <v>0.15961</v>
+      <c r="E41" s="9" t="n">
+        <v>0.22769</v>
       </c>
       <c r="F41" s="16" t="n">
-        <v>-0.012</v>
+        <v>-0.132</v>
       </c>
       <c r="G41" s="8" t="n">
-        <v>0.075219996</v>
+        <v>0.14828</v>
       </c>
       <c r="H41" s="10" t="n">
-        <v>8.976661</v>
-      </c>
-      <c r="I41" s="11" t="n">
-        <v>1.4209509</v>
+        <v>5.1067123</v>
+      </c>
+      <c r="I41" s="14" t="n">
+        <v>17921.348</v>
       </c>
       <c r="J41" s="14" t="n">
-        <v>19.582</v>
+        <v>27.582</v>
       </c>
       <c r="K41" s="11" t="n">
-        <v>284.07</v>
+        <v>1561.67</v>
       </c>
     </row>
   </sheetData>

--- a/reports/HEDGEFUND_TERMINAL.xlsx
+++ b/reports/HEDGEFUND_TERMINAL.xlsx
@@ -496,7 +496,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>09 February 2026</t>
+          <t>11 February 2026</t>
         </is>
       </c>
     </row>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>50.4</v>
+        <v>50.5</v>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7"/>
@@ -597,7 +597,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>INCO.JK</t>
+          <t>EMAS.JK</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -605,7 +605,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.8M</t>
+          <t>5.2M</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>INCO.JK</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -630,7 +630,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9.2M</t>
+          <t>1.8M</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>HRTA.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -655,7 +655,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.6M</t>
+          <t>9.2M</t>
         </is>
       </c>
     </row>
@@ -667,12 +667,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>136.7M</t>
+          <t>113.0M</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ARCI.JK</t>
+          <t>NCKL.JK</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -680,19 +680,19 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.4M</t>
+          <t>1.5M</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4. Financial Services</t>
+          <t>4. Basic Materials</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>88.2M</t>
+          <t>90.1M</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -709,12 +709,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5. Basic Materials</t>
+          <t>5. Financial Services</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>84.9M</t>
+          <t>88.2M</t>
         </is>
       </c>
     </row>
@@ -728,60 +728,60 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1. Consumer Cyclical</t>
+          <t>1. Basic Materials</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.8</v>
+        <v>58.8</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>48.4M</t>
+          <t>90.1M</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2. Consumer Defensive</t>
+          <t>2. Consumer Cyclical</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>58.7</v>
+        <v>58.2</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-59.1M</t>
+          <t>72.9M</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3. Financial Services</t>
+          <t>3. Consumer Defensive</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>56.9</v>
+        <v>57.7</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>88.2M</t>
+          <t>-59.1M</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4. Basic Materials</t>
+          <t>4. Financial Services</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>56</v>
+        <v>54.9</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>84.9M</t>
+          <t>88.2M</t>
         </is>
       </c>
     </row>
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>52.9</v>
+        <v>54.3</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
     <col width="20" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="9" customWidth="1" min="10" max="10"/>
-    <col width="16" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
     <col width="13" customWidth="1" min="12" max="12"/>
     <col width="9" customWidth="1" min="13" max="13"/>
   </cols>
@@ -920,33 +920,33 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>685-755</t>
+          <t>738-812</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>615</v>
+        <v>663.0357142857143</v>
       </c>
       <c r="F2" t="n">
-        <v>855.7142857142857</v>
+        <v>920</v>
       </c>
       <c r="G2" t="n">
-        <v>941.2857142857143</v>
+        <v>1027.678571428572</v>
       </c>
       <c r="H2" t="n">
-        <v>1090.714285714286</v>
+        <v>1171.25</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>62%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>10.13%</t>
+          <t>11.02%</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>6.53</v>
+        <v>7.16</v>
       </c>
       <c r="L2" t="n">
         <v>-19268700</v>
@@ -963,7 +963,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>INCO.JK</t>
+          <t>EMAS.JK</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -971,36 +971,36 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6026-6524</t>
+          <t>6940-7660</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5527.678571428572</v>
+        <v>6220.535714285714</v>
       </c>
       <c r="F3" t="n">
-        <v>7225.892857142857</v>
+        <v>8640.178571428571</v>
       </c>
       <c r="G3" t="n">
-        <v>7948.482142857143</v>
+        <v>9504.196428571429</v>
       </c>
       <c r="H3" t="n">
-        <v>8863.392857142857</v>
+        <v>10927.67857142857</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>78%</t>
+          <t>95%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>28.62%</t>
+          <t>29.83%</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>20.49</v>
+        <v>136.03</v>
       </c>
       <c r="L3" t="n">
-        <v>1839200</v>
+        <v>5188500</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>INCO.JK</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -1022,36 +1022,36 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2163-2277</t>
+          <t>6102-6598</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2048.035714285714</v>
+        <v>5605.357142857143</v>
       </c>
       <c r="F4" t="n">
-        <v>2446.071428571428</v>
+        <v>7297.321428571428</v>
       </c>
       <c r="G4" t="n">
-        <v>2690.678571428572</v>
+        <v>8027.053571428572</v>
       </c>
       <c r="H4" t="n">
-        <v>2839.821428571428</v>
+        <v>8928.571428571428</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>9.41%</t>
+          <t>27.92%</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>3859432790.08</v>
+        <v>20.23</v>
       </c>
       <c r="L4" t="n">
-        <v>9185900</v>
+        <v>1839200</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HRTA.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -1073,36 +1073,36 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2139-2361</t>
+          <t>2163-2277</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1916.25</v>
+        <v>2049.107142857143</v>
       </c>
       <c r="F5" t="n">
-        <v>2661.785714285714</v>
+        <v>2444.642857142857</v>
       </c>
       <c r="G5" t="n">
-        <v>2927.964285714286</v>
+        <v>2689.107142857143</v>
       </c>
       <c r="H5" t="n">
-        <v>3363.035714285714</v>
+        <v>2835.892857142857</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>90%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>30.01%</t>
+          <t>9.50%</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>47.53</v>
+        <v>3989203782.45</v>
       </c>
       <c r="L5" t="n">
-        <v>3616900</v>
+        <v>9185900</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ARCI.JK</t>
+          <t>NCKL.JK</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -1124,36 +1124,36 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1610-1770</t>
+          <t>1282-1378</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1448.928571428571</v>
+        <v>1186.964285714286</v>
       </c>
       <c r="F6" t="n">
-        <v>1984.107142857143</v>
+        <v>1512.678571428571</v>
       </c>
       <c r="G6" t="n">
-        <v>2182.517857142857</v>
+        <v>1663.946428571429</v>
       </c>
       <c r="H6" t="n">
-        <v>2482.857142857143</v>
+        <v>1827.678571428571</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>23.31%</t>
+          <t>16.77%</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>68.56</v>
+        <v>13.91</v>
       </c>
       <c r="L6" t="n">
-        <v>1446800</v>
+        <v>1483700</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ADMR.JK</t>
+          <t>INDY.JK</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -1175,36 +1175,36 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1705-1885</t>
+          <t>3505-3835</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1526.071428571428</v>
+        <v>3176.071428571428</v>
       </c>
       <c r="F7" t="n">
-        <v>2150.892857142857</v>
+        <v>4311.428571428572</v>
       </c>
       <c r="G7" t="n">
-        <v>2365.982142857143</v>
+        <v>4742.571428571429</v>
       </c>
       <c r="H7" t="n">
-        <v>2772.142857142857</v>
+        <v>5423.928571428572</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>90%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>23.96%</t>
+          <t>34.29%</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>106.38</v>
+        <v>61.86</v>
       </c>
       <c r="L7" t="n">
-        <v>18482400</v>
+        <v>5176700</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NCKL.JK</t>
+          <t>RMKO.JK</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -1226,36 +1226,36 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1243-1337</t>
+          <t>557-793</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1148.035714285714</v>
+        <v>320.8928571428571</v>
       </c>
       <c r="F8" t="n">
-        <v>1471.25</v>
+        <v>1084.464285714286</v>
       </c>
       <c r="G8" t="n">
-        <v>1618.375</v>
+        <v>1375.892857142857</v>
       </c>
       <c r="H8" t="n">
-        <v>1783.75</v>
+        <v>1764.464285714286</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>17.13%</t>
+          <t>121.63%</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>13.87</v>
+        <v>51082602413.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1483700</v>
+        <v>8080500</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>INDY.JK</t>
+          <t>HRTA.JK</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -1277,20 +1277,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3225-3535</t>
+          <t>2384-2616</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2913.928571428572</v>
+        <v>2153.392857142857</v>
       </c>
       <c r="F9" t="n">
-        <v>3985.357142857143</v>
+        <v>2928.928571428572</v>
       </c>
       <c r="G9" t="n">
-        <v>4383.892857142857</v>
+        <v>3221.821428571429</v>
       </c>
       <c r="H9" t="n">
-        <v>5035.357142857143</v>
+        <v>3660.178571428572</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -1299,14 +1299,14 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>34.80%</t>
+          <t>29.06%</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>61.3</v>
+        <v>34.73</v>
       </c>
       <c r="L9" t="n">
-        <v>5176700</v>
+        <v>3616900</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>RMKO.JK</t>
+          <t>MEDC.JK</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1328,36 +1328,36 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>494-736</t>
+          <t>1499-1601</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>252.3214285714286</v>
+        <v>1396.25</v>
       </c>
       <c r="F10" t="n">
-        <v>1024.107142857143</v>
+        <v>1752.321428571428</v>
       </c>
       <c r="G10" t="n">
-        <v>1312.321428571428</v>
+        <v>1927.553571428571</v>
       </c>
       <c r="H10" t="n">
-        <v>1696.607142857143</v>
+        <v>2104.821428571428</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>69%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>124.09%</t>
+          <t>7.12%</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>50877245270.64</v>
+        <v>16.13</v>
       </c>
       <c r="L10" t="n">
-        <v>8080500</v>
+        <v>4019700</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1371,48 +1371,48 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TCPI.JK</t>
+          <t>OASA.JK</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10682-11218</t>
+          <t>368-420</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>10146.42857142857</v>
+        <v>317.5</v>
       </c>
       <c r="F11" t="n">
-        <v>12021.42857142857</v>
+        <v>492.7857142857143</v>
       </c>
       <c r="G11" t="n">
-        <v>12825</v>
+        <v>566.0714285714286</v>
       </c>
       <c r="H11" t="n">
-        <v>13896.42857142857</v>
+        <v>663.7857142857142</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>98%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>17.51%</t>
+          <t>38.28%</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>1145.77</v>
+        <v>98.29000000000001</v>
       </c>
       <c r="L11" t="n">
-        <v>-73400</v>
+        <v>1252200</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>DISTRIB</t>
+          <t>ACCUM</t>
         </is>
       </c>
     </row>
@@ -1422,48 +1422,48 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ANTM.JK</t>
+          <t>TCPI.JK</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3724-4056</t>
+          <t>10841-11359</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3391.785714285714</v>
+        <v>10323.21428571429</v>
       </c>
       <c r="F12" t="n">
-        <v>4495.357142857143</v>
+        <v>12135.71428571428</v>
       </c>
       <c r="G12" t="n">
-        <v>4944.892857142858</v>
+        <v>12912.5</v>
       </c>
       <c r="H12" t="n">
-        <v>5520.357142857143</v>
+        <v>13948.21428571429</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>90%</t>
+          <t>98%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>18.33%</t>
+          <t>17.44%</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>225.4</v>
+        <v>1169.26</v>
       </c>
       <c r="L12" t="n">
-        <v>17613800</v>
+        <v>-73400</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ZATA.JK</t>
+          <t>ANTM.JK</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1481,36 +1481,36 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>81-99</t>
+          <t>3729-4051</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>64.07142857142857</v>
+        <v>3405.714285714286</v>
       </c>
       <c r="F13" t="n">
-        <v>123.8214285714286</v>
+        <v>4477.857142857143</v>
       </c>
       <c r="G13" t="n">
-        <v>143</v>
+        <v>4925.642857142858</v>
       </c>
       <c r="H13" t="n">
-        <v>182.5714285714286</v>
+        <v>5472.857142857143</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>21.98%</t>
+          <t>17.93%</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>8.130000000000001</v>
+        <v>225.87</v>
       </c>
       <c r="L13" t="n">
-        <v>3777600</v>
+        <v>17613800</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>JPFA.JK</t>
+          <t>ZATA.JK</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1532,36 +1532,36 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2464-2636</t>
+          <t>82-100</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2290.714285714286</v>
+        <v>64.10714285714286</v>
       </c>
       <c r="F14" t="n">
-        <v>2882.857142857143</v>
+        <v>126.1071428571428</v>
       </c>
       <c r="G14" t="n">
-        <v>3171.142857142858</v>
+        <v>143</v>
       </c>
       <c r="H14" t="n">
-        <v>3457.857142857143</v>
+        <v>187.1071428571428</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>5.03%</t>
+          <t>22.63%</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>7.65</v>
+        <v>8.52</v>
       </c>
       <c r="L14" t="n">
-        <v>449700</v>
+        <v>3777600</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BBNI.JK</t>
+          <t>JPFA.JK</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1583,40 +1583,40 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4440-4600</t>
+          <t>2495-2665</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4278.928571428572</v>
+        <v>2323.928571428572</v>
       </c>
       <c r="F15" t="n">
-        <v>4839.285714285715</v>
+        <v>2908.571428571428</v>
       </c>
       <c r="G15" t="n">
-        <v>5323.214285714286</v>
+        <v>3199.428571428572</v>
       </c>
       <c r="H15" t="n">
-        <v>5396.785714285715</v>
+        <v>3476.071428571428</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>51%</t>
+          <t>74%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1.52%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>2.41</v>
+        <v>7.47</v>
       </c>
       <c r="L15" t="n">
-        <v>-10829400</v>
+        <v>449700</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>DISTRIB</t>
+          <t>ACCUM</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ADRO.JK</t>
+          <t>BRIS.JK</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1634,36 +1634,36 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2055-2205</t>
+          <t>2391-2509</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1903.928571428571</v>
+        <v>2272.142857142857</v>
       </c>
       <c r="F16" t="n">
-        <v>2428.214285714285</v>
+        <v>2686.071428571428</v>
       </c>
       <c r="G16" t="n">
-        <v>2671.035714285714</v>
+        <v>2862.857142857143</v>
       </c>
       <c r="H16" t="n">
-        <v>2948.214285714285</v>
+        <v>3098.571428571428</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>78%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>13.74%</t>
+          <t>-2.88%</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>14.07</v>
+        <v>0.4</v>
       </c>
       <c r="L16" t="n">
-        <v>11291500</v>
+        <v>2658600</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AADI.JK</t>
+          <t>MDKA.JK</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1685,36 +1685,36 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>7721-8229</t>
+          <t>2951-3229</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>7211.607142857143</v>
+        <v>2672.142857142857</v>
       </c>
       <c r="F17" t="n">
-        <v>8966.071428571429</v>
+        <v>3606.428571428572</v>
       </c>
       <c r="G17" t="n">
-        <v>9862.678571428572</v>
+        <v>3967.071428571429</v>
       </c>
       <c r="H17" t="n">
-        <v>10684.82142857143</v>
+        <v>4486.428571428572</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>74%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.54%</t>
+          <t>16.70%</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>1.13</v>
+        <v>13.58</v>
       </c>
       <c r="L17" t="n">
-        <v>-3117200</v>
+        <v>-21250800</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BMRI.JK</t>
+          <t>BBNI.JK</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1736,40 +1736,40 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4904-5096</t>
+          <t>4431-4589</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4710.714285714285</v>
+        <v>4272.142857142857</v>
       </c>
       <c r="F18" t="n">
-        <v>5383.571428571428</v>
+        <v>4825</v>
       </c>
       <c r="G18" t="n">
-        <v>5921.928571428572</v>
+        <v>5307.5</v>
       </c>
       <c r="H18" t="n">
-        <v>6053.571428571428</v>
+        <v>5375</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>52%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1.36%</t>
+          <t>1.64%</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="L18" t="n">
-        <v>135801000</v>
+        <v>-10829400</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -1779,44 +1779,44 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BRIS.JK</t>
+          <t>ADRO.JK</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2350-2470</t>
+          <t>2095-2245</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2231.071428571428</v>
+        <v>1945</v>
       </c>
       <c r="F19" t="n">
-        <v>2647.5</v>
+        <v>2466.785714285714</v>
       </c>
       <c r="G19" t="n">
-        <v>2912.25</v>
+        <v>2713.464285714286</v>
       </c>
       <c r="H19" t="n">
-        <v>3062.5</v>
+        <v>2984.285714285714</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>27%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-3.29%</t>
+          <t>13.43%</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>0.33</v>
+        <v>14.09</v>
       </c>
       <c r="L19" t="n">
-        <v>2658600</v>
+        <v>11291500</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -1830,44 +1830,44 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MDKA.JK</t>
+          <t>AADI.JK</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2899-3181</t>
+          <t>8015-8535</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2617.857142857143</v>
+        <v>7495.535714285715</v>
       </c>
       <c r="F20" t="n">
-        <v>3561.071428571428</v>
+        <v>9284.821428571429</v>
       </c>
       <c r="G20" t="n">
-        <v>3917.178571428572</v>
+        <v>10213.30357142857</v>
       </c>
       <c r="H20" t="n">
-        <v>4448.571428571428</v>
+        <v>11034.82142857143</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>48%</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>16.94%</t>
+          <t>0.90%</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>13.46</v>
+        <v>1.22</v>
       </c>
       <c r="L20" t="n">
-        <v>-21250800</v>
+        <v>-3117200</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -1881,44 +1881,44 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MEDC.JK</t>
+          <t>BMRI.JK</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1425-1525</t>
+          <t>5003-5197</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1326.071428571428</v>
+        <v>4809.107142857143</v>
       </c>
       <c r="F21" t="n">
-        <v>1670.892857142857</v>
+        <v>5485.714285714285</v>
       </c>
       <c r="G21" t="n">
-        <v>1837.982142857143</v>
+        <v>5774.464285714285</v>
       </c>
       <c r="H21" t="n">
-        <v>2012.142857142857</v>
+        <v>6159.464285714285</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>7.26%</t>
+          <t>1.49%</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>16.07</v>
+        <v>2.75</v>
       </c>
       <c r="L21" t="n">
-        <v>4019700</v>
+        <v>135801000</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2116,11 +2116,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIPI.JK</t>
+          <t>BUVA.JK</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23730500</v>
+        <v>24502000</v>
       </c>
     </row>
     <row r="14">
@@ -2285,11 +2285,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>INDY.JK</t>
+          <t>EMAS.JK</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5176700</v>
+        <v>5188500</v>
       </c>
     </row>
     <row r="27">
@@ -2298,11 +2298,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>RMKE.JK</t>
+          <t>INDY.JK</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5072500</v>
+        <v>5176700</v>
       </c>
     </row>
     <row r="28">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BRPT.JK</t>
+          <t>RMKE.JK</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4785500</v>
+        <v>5072500</v>
       </c>
     </row>
     <row r="29">
@@ -2324,11 +2324,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>IMPC.JK</t>
+          <t>BRPT.JK</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4693800</v>
+        <v>4785500</v>
       </c>
     </row>
     <row r="30">
@@ -2337,11 +2337,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRUE.JK</t>
+          <t>IMPC.JK</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4129400</v>
+        <v>4693800</v>
       </c>
     </row>
     <row r="31">
@@ -2350,11 +2350,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MEDC.JK</t>
+          <t>TRUE.JK</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4019700</v>
+        <v>4129400</v>
       </c>
     </row>
   </sheetData>
@@ -2368,7 +2368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2425,846 +2425,846 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>INCO.JK</t>
+          <t>EMAS.JK</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>98</v>
       </c>
       <c r="C3" t="n">
-        <v>83.40000000000001</v>
+        <v>87</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-8.1%</t>
+          <t>-2.7%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>INCO.JK</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>97</v>
       </c>
       <c r="C4" t="n">
-        <v>81.59999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-2.2%</t>
+          <t>-7.0%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HRTA.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>96</v>
       </c>
       <c r="C5" t="n">
-        <v>80.2</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-18.8%</t>
+          <t>-2.2%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ARCI.JK</t>
+          <t>NCKL.JK</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>95</v>
       </c>
       <c r="C6" t="n">
-        <v>77.59999999999999</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-16.7%</t>
+          <t>-13.4%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ADMR.JK</t>
+          <t>INDY.JK</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>94</v>
       </c>
       <c r="C7" t="n">
-        <v>72.8</v>
+        <v>72</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-21.3%</t>
+          <t>-2.4%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NCKL.JK</t>
+          <t>RMKO.JK</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>93</v>
       </c>
       <c r="C8" t="n">
-        <v>72.40000000000001</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-16.0%</t>
+          <t>-62.7%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INDY.JK</t>
+          <t>HRTA.JK</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>92</v>
       </c>
       <c r="C9" t="n">
-        <v>72</v>
+        <v>70.2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-10.1%</t>
+          <t>-9.7%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RMKO.JK</t>
+          <t>MEDC.JK</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>91</v>
       </c>
       <c r="C10" t="n">
-        <v>70.40000000000001</v>
+        <v>70</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-66.0%</t>
+          <t>-1.6%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TCPI.JK</t>
+          <t>OASA.JK</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C11" t="n">
         <v>69</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>-24.2%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ANTM.JK</t>
+          <t>TCPI.JK</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C12" t="n">
-        <v>68.59999999999999</v>
+        <v>69</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-18.3%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ZATA.JK</t>
+          <t>ANTM.JK</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>87</v>
       </c>
       <c r="C13" t="n">
-        <v>68</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-27.4%</t>
+          <t>-18.3%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>JPFA.JK</t>
+          <t>ZATA.JK</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>86</v>
       </c>
       <c r="C14" t="n">
-        <v>66.40000000000001</v>
+        <v>68</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-13.0%</t>
+          <t>-26.6%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BBNI.JK</t>
+          <t>JPFA.JK</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>85</v>
       </c>
       <c r="C15" t="n">
-        <v>64</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-2.4%</t>
+          <t>-11.9%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ADRO.JK</t>
+          <t>BRIS.JK</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>84</v>
       </c>
       <c r="C16" t="n">
-        <v>61</v>
+        <v>65.8</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-11.3%</t>
+          <t>-2.0%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AADI.JK</t>
+          <t>MDKA.JK</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>83</v>
       </c>
       <c r="C17" t="n">
-        <v>59.8</v>
+        <v>65</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-5.6%</t>
+          <t>-10.4%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BMRI.JK</t>
+          <t>BBNI.JK</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>82</v>
       </c>
       <c r="C18" t="n">
-        <v>58.8</v>
+        <v>64</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-1.4%</t>
+          <t>-2.6%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BRIS.JK</t>
+          <t>ADRO.JK</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C19" t="n">
-        <v>55.8</v>
+        <v>61</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>-9.6%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MDKA.JK</t>
+          <t>AADI.JK</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C20" t="n">
-        <v>55</v>
+        <v>59.8</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-11.9%</t>
+          <t>-2.1%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MEDC.JK</t>
+          <t>BMRI.JK</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" t="n">
-        <v>55</v>
+        <v>58.8</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-6.3%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>TPIA.JK</t>
+          <t>ARCI.JK</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>77</v>
       </c>
       <c r="C22" t="n">
-        <v>54.6</v>
+        <v>57.6</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-9.0%</t>
+          <t>-16.0%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BBRI.JK</t>
+          <t>TPIA.JK</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>76</v>
       </c>
       <c r="C23" t="n">
-        <v>53.8</v>
+        <v>54.6</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>-7.7%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PTBA.JK</t>
+          <t>BBRI.JK</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>75</v>
       </c>
       <c r="C24" t="n">
-        <v>52.8</v>
+        <v>53.8</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>-2.3%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>IRSX.JK</t>
+          <t>ADMR.JK</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>74</v>
       </c>
       <c r="C25" t="n">
-        <v>51.6</v>
+        <v>52.8</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-34.4%</t>
+          <t>-17.1%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PWON.JK</t>
+          <t>PTBA.JK</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C26" t="n">
-        <v>49</v>
+        <v>52.8</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-5.7%</t>
+          <t>-0.4%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GTSI.JK</t>
+          <t>IRSX.JK</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C27" t="n">
-        <v>46.8</v>
+        <v>51.6</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-42.5%</t>
+          <t>-29.9%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ICBP.JK</t>
+          <t>PANI.JK</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C28" t="n">
-        <v>45</v>
+        <v>50.4</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-6.6%</t>
+          <t>-26.0%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>VKTR.JK</t>
+          <t>ISAT.JK</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" t="n">
-        <v>43.8</v>
+        <v>45</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-38.2%</t>
+          <t>-10.9%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PADI.JK</t>
+          <t>ESSA.JK</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>68</v>
       </c>
       <c r="C30" t="n">
-        <v>43.2</v>
+        <v>43</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-55.8%</t>
+          <t>-15.1%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ESSA.JK</t>
+          <t>SRTG.JK</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>67</v>
       </c>
       <c r="C31" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-15.8%</t>
+          <t>-15.7%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>OASA.JK</t>
+          <t>RMKE.JK</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>66</v>
       </c>
       <c r="C32" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-30.8%</t>
+          <t>-52.1%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>TLKM.JK</t>
+          <t>HUMI.JK</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C33" t="n">
-        <v>41.8</v>
+        <v>35</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-15.0%</t>
+          <t>-38.8%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>INKP.JK</t>
+          <t>AMRT.JK</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>64</v>
       </c>
       <c r="C34" t="n">
-        <v>41</v>
+        <v>34.8</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-13.4%</t>
+          <t>-2.5%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>TRUE.JK</t>
+          <t>MBMA.JK</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C35" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-61.1%</t>
+          <t>-14.9%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SRTG.JK</t>
+          <t>PNLF.JK</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C36" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-18.2%</t>
+          <t>-18.0%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MINA.JK</t>
+          <t>INDF.JK</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C37" t="n">
-        <v>35.8</v>
+        <v>33</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-60.9%</t>
+          <t>-7.4%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HUMI.JK</t>
+          <t>BULL.JK</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C38" t="n">
-        <v>35</v>
+        <v>31.8</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-41.0%</t>
+          <t>-37.2%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>AMRT.JK</t>
+          <t>GTSI.JK</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C39" t="n">
-        <v>34.8</v>
+        <v>31.8</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-4.0%</t>
+          <t>-37.9%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MBMA.JK</t>
+          <t>INKP.JK</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>57</v>
       </c>
       <c r="C40" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-18.6%</t>
+          <t>-14.2%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PNLF.JK</t>
+          <t>PBSA.JK</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" t="n">
-        <v>34</v>
+        <v>30.8</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-17.4%</t>
+          <t>-47.0%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>INDF.JK</t>
+          <t>TINS.JK</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>55</v>
       </c>
       <c r="C42" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-8.4%</t>
+          <t>-14.7%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BIPI.JK</t>
+          <t>ICBP.JK</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C43" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-43.0%</t>
+          <t>-6.1%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BULL.JK</t>
+          <t>VKTR.JK</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C44" t="n">
-        <v>31.8</v>
+        <v>28.8</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-41.6%</t>
+          <t>-37.1%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ENRG.JK</t>
+          <t>BUMI.JK</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C45" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-31.6%</t>
+          <t>-46.6%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PBSA.JK</t>
+          <t>TRUE.JK</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C46" t="n">
-        <v>30.8</v>
+        <v>28</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-47.2%</t>
+          <t>-62.3%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ISAT.JK</t>
+          <t>AMMN.JK</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-14.6%</t>
+          <t>-6.1%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>RMKE.JK</t>
+          <t>TRIN.JK</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C48" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-52.7%</t>
+          <t>-38.8%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TRIN.JK</t>
+          <t>MINA.JK</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>47</v>
       </c>
       <c r="C49" t="n">
-        <v>27</v>
+        <v>25.8</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-38.8%</t>
+          <t>-61.9%</t>
         </is>
       </c>
     </row>
@@ -3289,25 +3289,25 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ASII.JK</t>
+          <t>PADI.JK</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C51" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-10.1%</t>
+          <t>-56.8%</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PGEO.JK</t>
+          <t>ASII.JK</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -3318,608 +3318,608 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-13.5%</t>
+          <t>-7.4%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>EXCL.JK</t>
+          <t>PGEO.JK</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C53" t="n">
-        <v>21.8</v>
+        <v>23</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-34.7%</t>
+          <t>-12.3%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BUMI.JK</t>
+          <t>TLKM.JK</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C54" t="n">
-        <v>18</v>
+        <v>21.8</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-48.3%</t>
+          <t>-13.7%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BBYB.JK</t>
+          <t>ENRG.JK</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C55" t="n">
-        <v>17.4</v>
+        <v>21</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-38.6%</t>
+          <t>-33.3%</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>KLBF.JK</t>
+          <t>BUVA.JK</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C56" t="n">
-        <v>16.6</v>
+        <v>20</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-14.0%</t>
+          <t>-48.4%</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>EMTK.JK</t>
+          <t>PWON.JK</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>38</v>
       </c>
       <c r="C57" t="n">
-        <v>16.2</v>
+        <v>19</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-41.8%</t>
+          <t>-6.2%</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CPRO.JK</t>
+          <t>BBYB.JK</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>37</v>
       </c>
       <c r="C58" t="n">
-        <v>16</v>
+        <v>17.4</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-27.9%</t>
+          <t>-35.9%</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>NICL.JK</t>
+          <t>EMTK.JK</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C59" t="n">
-        <v>15.8</v>
+        <v>16.2</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-39.3%</t>
+          <t>-39.1%</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BRMS.JK</t>
+          <t>CPRO.JK</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60" t="n">
-        <v>15.4</v>
+        <v>16</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-22.9%</t>
+          <t>-25.6%</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>DEWA.JK</t>
+          <t>NICL.JK</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C61" t="n">
-        <v>13.6</v>
+        <v>15.8</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-38.7%</t>
+          <t>-39.6%</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PSKT.JK</t>
+          <t>BRMS.JK</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C62" t="n">
-        <v>13</v>
+        <v>15.4</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-48.3%</t>
+          <t>-20.2%</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PSAB.JK</t>
+          <t>DEWA.JK</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C63" t="n">
-        <v>11.8</v>
+        <v>13.6</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-22.9%</t>
+          <t>-38.0%</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>LPKR.JK</t>
+          <t>PSKT.JK</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>31</v>
       </c>
       <c r="C64" t="n">
-        <v>11.8</v>
+        <v>13</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-29.7%</t>
+          <t>-48.8%</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TINS.JK</t>
+          <t>PSAB.JK</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C65" t="n">
-        <v>10</v>
+        <v>11.8</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-19.8%</t>
+          <t>-21.4%</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BBKP.JK</t>
+          <t>LPKR.JK</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C66" t="n">
-        <v>10</v>
+        <v>11.8</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-23.4%</t>
+          <t>-28.1%</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BKSL.JK</t>
+          <t>BBKP.JK</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C67" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-27.3%</t>
+          <t>-21.3%</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CBDK.JK</t>
+          <t>BKSL.JK</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C68" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-35.5%</t>
+          <t>-25.7%</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BBCA.JK</t>
+          <t>DADA.JK</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C69" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-12.0%</t>
+          <t>-20.6%</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>COIN.JK</t>
+          <t>CBDK.JK</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>24</v>
       </c>
       <c r="C70" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-61.6%</t>
+          <t>-34.2%</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CUAN.JK</t>
+          <t>BBCA.JK</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C71" t="n">
-        <v>7.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-40.0%</t>
+          <t>-12.3%</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>AMMN.JK</t>
+          <t>COIN.JK</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C72" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-8.9%</t>
+          <t>-61.1%</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>HRUM.JK</t>
+          <t>CUAN.JK</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>21</v>
       </c>
       <c r="C73" t="n">
-        <v>7</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-19.5%</t>
+          <t>-40.1%</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BRPT.JK</t>
+          <t>HRUM.JK</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C74" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>-47.2%</t>
+          <t>-18.3%</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>PTRO.JK</t>
+          <t>EXCL.JK</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C75" t="n">
-        <v>5.399999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-53.3%</t>
+          <t>-35.4%</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>INET.JK</t>
+          <t>BRPT.JK</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>17</v>
       </c>
       <c r="C76" t="n">
-        <v>5.399999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-64.3%</t>
+          <t>-46.3%</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>IMPC.JK</t>
+          <t>KLBF.JK</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>17</v>
       </c>
       <c r="C77" t="n">
-        <v>5.399999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-47.4%</t>
+          <t>-13.6%</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CDIA.JK</t>
+          <t>PTRO.JK</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C78" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-49.0%</t>
+          <t>-53.7%</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>RATU.JK</t>
+          <t>INET.JK</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C79" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-58.4%</t>
+          <t>-62.8%</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PANI.JK</t>
+          <t>IMPC.JK</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C80" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-33.1%</t>
+          <t>-48.9%</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BREN.JK</t>
+          <t>CDIA.JK</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C81" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-21.3%</t>
+          <t>-45.1%</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>UNTR.JK</t>
+          <t>RATU.JK</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C82" t="n">
-        <v>4.8</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>-15.6%</t>
+          <t>-57.5%</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>WIFI.JK</t>
+          <t>BREN.JK</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C83" t="n">
-        <v>4.8</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>-47.1%</t>
+          <t>-21.8%</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>DADA.JK</t>
+          <t>UNTR.JK</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>-20.6%</t>
+          <t>-14.1%</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>RAJA.JK</t>
+          <t>WIFI.JK</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C85" t="n">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>-52.7%</t>
+          <t>-45.6%</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>DSSA.JK</t>
+          <t>RAJA.JK</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -3930,50 +3930,50 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>-19.9%</t>
+          <t>-51.2%</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>KIJA.JK</t>
+          <t>DSSA.JK</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>-41.2%</t>
+          <t>-18.6%</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>GOTO.JK</t>
+          <t>KIJA.JK</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C88" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>-15.5%</t>
+          <t>-39.0%</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>TOBA.JK</t>
+          <t>GOTO.JK</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -3984,25 +3984,43 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-31.2%</t>
+          <t>-16.9%</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
+          <t>TOBA.JK</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>3</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>-27.6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
           <t>SSIA.JK</t>
         </is>
       </c>
-      <c r="B90" t="n">
+      <c r="B91" t="n">
         <v>1</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C91" t="n">
         <v>-6</v>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>-28.5%</t>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>-25.8%</t>
         </is>
       </c>
     </row>
@@ -4090,12 +4108,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>685-755</t>
+          <t>738-812</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>1028</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -4115,16 +4133,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3225-3535</t>
+          <t>3505-3835</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4384</t>
+          <t>4743</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -4144,16 +4162,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>494-736</t>
+          <t>557-793</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1312</t>
+          <t>1376</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -4169,25 +4187,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ADRO.JK</t>
+          <t>MEDC.JK</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2055-2205</t>
+          <t>1499-1601</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2671</t>
+          <t>1928</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>11291500</t>
+          <t>4019700</t>
         </is>
       </c>
     </row>
@@ -4198,25 +4216,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AADI.JK</t>
+          <t>ADRO.JK</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7721-8229</t>
+          <t>2095-2245</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9863</t>
+          <t>2713</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-3117200</t>
+          <t>11291500</t>
         </is>
       </c>
     </row>
@@ -4231,7 +4249,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>INCO.JK</t>
+          <t>EMAS.JK</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -4239,17 +4257,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6026-6524</t>
+          <t>6940-7660</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7948</t>
+          <t>9504</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1839200</t>
+          <t>5188500</t>
         </is>
       </c>
     </row>
@@ -4260,25 +4278,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ARCI.JK</t>
+          <t>INCO.JK</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1610-1770</t>
+          <t>6102-6598</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2183</t>
+          <t>8027</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1446800</t>
+          <t>1839200</t>
         </is>
       </c>
     </row>
@@ -4289,25 +4307,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ADMR.JK</t>
+          <t>NCKL.JK</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1705-1885</t>
+          <t>1282-1378</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2366</t>
+          <t>1664</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>18482400</t>
+          <t>1483700</t>
         </is>
       </c>
     </row>
@@ -4318,25 +4336,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NCKL.JK</t>
+          <t>ANTM.JK</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1243-1337</t>
+          <t>3729-4051</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1618</t>
+          <t>4926</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1483700</t>
+          <t>17613800</t>
         </is>
       </c>
     </row>
@@ -4347,25 +4365,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ANTM.JK</t>
+          <t>MDKA.JK</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3724-4056</t>
+          <t>2951-3229</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4945</t>
+          <t>3967</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>17613800</t>
+          <t>-21250800</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4402,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -4393,7 +4411,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2691</t>
+          <t>2689</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -4413,16 +4431,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>332-388</t>
+          <t>368-420</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>566</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -4446,12 +4464,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1092-1158</t>
+          <t>1108-1172</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1375</t>
+          <t>1390</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -4471,16 +4489,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>987-1103</t>
+          <t>1065-1185</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1429</t>
+          <t>1522</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -4500,16 +4518,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7762-8338</t>
+          <t>7717-8283</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>10029</t>
+          <t>9954</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -4533,16 +4551,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2139-2361</t>
+          <t>2384-2616</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2928</t>
+          <t>3222</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -4562,11 +4580,11 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>81-99</t>
+          <t>82-100</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -4591,16 +4609,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>731-869</t>
+          <t>746-884</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1209</t>
+          <t>1222</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -4620,16 +4638,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>216-280</t>
+          <t>211-273</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>453</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -4645,25 +4663,25 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PSKT.JK</t>
+          <t>BUVA.JK</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>182-234</t>
+          <t>1009-1231</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>1818</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>17992900</t>
+          <t>24502000</t>
         </is>
       </c>
     </row>
@@ -4682,16 +4700,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10682-11218</t>
+          <t>10841-11359</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>12825</t>
+          <t>12912</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -4707,25 +4725,25 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>GTSI.JK</t>
+          <t>HUMI.JK</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>249-303</t>
+          <t>198-238</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>342</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>21248800</t>
+          <t>19408000</t>
         </is>
       </c>
     </row>
@@ -4736,25 +4754,25 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>HUMI.JK</t>
+          <t>BULL.JK</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>190-230</t>
+          <t>396-464</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>663</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>19408000</t>
+          <t>59013800</t>
         </is>
       </c>
     </row>
@@ -4765,25 +4783,25 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BIPI.JK</t>
+          <t>GTSI.JK</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>121-141</t>
+          <t>271-325</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>475</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>23730500</t>
+          <t>21248800</t>
         </is>
       </c>
     </row>
@@ -4794,25 +4812,25 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BULL.JK</t>
+          <t>PBSA.JK</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>365-435</t>
+          <t>1305-1545</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>631</t>
+          <t>2170</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>59013800</t>
+          <t>367500</t>
         </is>
       </c>
     </row>
@@ -4831,16 +4849,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2464-2636</t>
+          <t>2495-2665</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3171</t>
+          <t>3199</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -4856,25 +4874,25 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ICBP.JK</t>
+          <t>AMRT.JK</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>7911-8239</t>
+          <t>1902-1998</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>9585</t>
+          <t>2352</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-4599600</t>
+          <t>-654300</t>
         </is>
       </c>
     </row>
@@ -4885,25 +4903,25 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>AMRT.JK</t>
+          <t>INDF.JK</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1874-1966</t>
+          <t>6802-6998</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2312</t>
+          <t>7980</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-654300</t>
+          <t>1119900</t>
         </is>
       </c>
     </row>
@@ -4914,7 +4932,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>INDF.JK</t>
+          <t>ICBP.JK</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -4922,17 +4940,17 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>6728-6922</t>
+          <t>7961-8289</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>7896</t>
+          <t>9637</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1119900</t>
+          <t>-4599600</t>
         </is>
       </c>
     </row>
@@ -4951,12 +4969,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2236-2364</t>
+          <t>2234-2366</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2802</t>
+          <t>2811</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -4976,25 +4994,25 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>BBNI.JK</t>
+          <t>BRIS.JK</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4440-4600</t>
+          <t>2391-2509</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>5323</t>
+          <t>2863</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-10829400</t>
+          <t>2658600</t>
         </is>
       </c>
     </row>
@@ -5005,7 +5023,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>BMRI.JK</t>
+          <t>BBNI.JK</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -5013,17 +5031,17 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4904-5096</t>
+          <t>4431-4589</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>5922</t>
+          <t>5308</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>135801000</t>
+          <t>-10829400</t>
         </is>
       </c>
     </row>
@@ -5034,25 +5052,25 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BRIS.JK</t>
+          <t>BMRI.JK</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2350-2470</t>
+          <t>5003-5197</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2912</t>
+          <t>5774</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2658600</t>
+          <t>135801000</t>
         </is>
       </c>
     </row>
@@ -5067,16 +5085,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3705-3835</t>
+          <t>3714-3846</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>4430</t>
+          <t>4442</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -5092,25 +5110,25 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PADI.JK</t>
+          <t>SRTG.JK</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>82-94</t>
+          <t>1630-1760</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>2138</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>68217900</t>
+          <t>-2216000</t>
         </is>
       </c>
     </row>
@@ -5129,16 +5147,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>475-555</t>
+          <t>510-590</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>791</t>
+          <t>822</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -5158,16 +5176,16 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2144-2356</t>
+          <t>2206-2414</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2954</t>
+          <t>3008</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -5191,12 +5209,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>58-62</t>
+          <t>57-61</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>73</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -5216,25 +5234,25 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PWON.JK</t>
+          <t>PANI.JK</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>360-372</t>
+          <t>10426-11374</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>13911</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>-9117700</t>
+          <t>3852400</t>
         </is>
       </c>
     </row>
@@ -5249,11 +5267,11 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>187-225</t>
+          <t>180-220</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -5278,16 +5296,16 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>984-1146</t>
+          <t>987-1143</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1628</t>
+          <t>1602</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -5303,25 +5321,25 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>BKSL.JK</t>
+          <t>PWON.JK</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>125-141</t>
+          <t>358-370</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>426</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>36648000</t>
+          <t>-9117700</t>
         </is>
       </c>
     </row>
@@ -5332,25 +5350,25 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CBDK.JK</t>
+          <t>BKSL.JK</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>5763-6387</t>
+          <t>128-144</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>8113</t>
+          <t>182</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>-295600</t>
+          <t>36648000</t>
         </is>
       </c>
     </row>
@@ -5365,25 +5383,25 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>TLKM.JK</t>
+          <t>ISAT.JK</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3247-3453</t>
+          <t>2125-2275</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>4104</t>
+          <t>2738</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>47052600</t>
+          <t>-4736500</t>
         </is>
       </c>
     </row>
@@ -5394,25 +5412,25 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ISAT.JK</t>
+          <t>TLKM.JK</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2036-2184</t>
+          <t>3299-3501</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2638</t>
+          <t>4150</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-4736500</t>
+          <t>47052600</t>
         </is>
       </c>
     </row>
@@ -5423,25 +5441,25 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>EXCL.JK</t>
+          <t>EMTK.JK</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2784-3076</t>
+          <t>857-933</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>3762</t>
+          <t>1144</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>13889500</t>
+          <t>-17120600</t>
         </is>
       </c>
     </row>
@@ -5452,25 +5470,25 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>EMTK.JK</t>
+          <t>EXCL.JK</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>817-893</t>
+          <t>2757-3043</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1108</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>-17120600</t>
+          <t>13889500</t>
         </is>
       </c>
     </row>
@@ -5485,16 +5503,16 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>304-364</t>
+          <t>320-376</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>538</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -5514,25 +5532,25 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>KLBF.JK</t>
+          <t>LPKR.JK</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1083-1127</t>
+          <t>86-98</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1313</t>
+          <t>133</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>-4266300</t>
+          <t>1498400</t>
         </is>
       </c>
     </row>
@@ -5543,25 +5561,25 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>LPKR.JK</t>
+          <t>KLBF.JK</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>84-96</t>
+          <t>1088-1132</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>1318</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1498400</t>
+          <t>-4266300</t>
         </is>
       </c>
     </row>
@@ -5812,7 +5830,7 @@
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
     <col width="9" customWidth="1" min="10" max="10"/>
     <col width="9" customWidth="1" min="11" max="11"/>
@@ -5902,16 +5920,16 @@
         <v>0.34335998</v>
       </c>
       <c r="H2" s="10" t="n">
-        <v>10.055555</v>
+        <v>10.502917</v>
       </c>
       <c r="I2" s="11" t="n">
-        <v>1.1690996</v>
+        <v>1.2207725</v>
       </c>
       <c r="J2" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K2" s="11" t="n">
-        <v>36</v>
+        <v>35.99</v>
       </c>
     </row>
     <row r="3">
@@ -5941,10 +5959,10 @@
         <v>0.43205002</v>
       </c>
       <c r="H3" s="12" t="n">
-        <v>6.9881487</v>
+        <v>7.3150797</v>
       </c>
       <c r="I3" s="11" t="n">
-        <v>1.3356515</v>
+        <v>1.3981382</v>
       </c>
       <c r="J3" s="14" t="n">
         <v>2.444</v>
@@ -5980,10 +5998,10 @@
         <v>0.27552</v>
       </c>
       <c r="H4" s="10" t="n">
-        <v>10.1879635</v>
+        <v>10.50387</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>2.274703</v>
+        <v>2.3452365</v>
       </c>
       <c r="J4" s="14" t="n">
         <v>23.671</v>
@@ -6019,16 +6037,16 @@
         <v>0.41044</v>
       </c>
       <c r="H5" s="10" t="n">
-        <v>10.166657</v>
+        <v>10.162656</v>
       </c>
       <c r="I5" s="11" t="n">
-        <v>1.7141755</v>
+        <v>1.7187223</v>
       </c>
       <c r="J5" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="11" t="n">
-        <v>370.82</v>
+        <v>371.95</v>
       </c>
     </row>
     <row r="6">
@@ -6058,10 +6076,10 @@
         <v>0.71615</v>
       </c>
       <c r="H6" t="n">
-        <v>23.03665</v>
+        <v>22.51309</v>
       </c>
       <c r="I6" s="14" t="n">
-        <v>5.50344</v>
+        <v>5.3783617</v>
       </c>
       <c r="J6" s="14" t="n">
         <v>5.093</v>
@@ -6097,16 +6115,16 @@
         <v>0.05786</v>
       </c>
       <c r="H7" s="10" t="n">
-        <v>8.885016999999999</v>
+        <v>8.992680999999999</v>
       </c>
       <c r="I7" s="11" t="n">
-        <v>1.7433324</v>
+        <v>1.7638421</v>
       </c>
       <c r="J7" s="14" t="n">
         <v>62.876</v>
       </c>
       <c r="K7" s="11" t="n">
-        <v>287</v>
+        <v>286.9</v>
       </c>
     </row>
     <row r="8">
@@ -6115,7 +6133,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BMRI.JK</t>
+          <t>BRIS.JK</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -6126,26 +6144,26 @@
           <t>MID</t>
         </is>
       </c>
-      <c r="E8" s="9" t="n">
-        <v>0.18354</v>
+      <c r="E8" s="8" t="n">
+        <v>0.15604</v>
       </c>
       <c r="F8" s="8" t="n">
-        <v>0.027</v>
+        <v>0.075</v>
       </c>
       <c r="G8" s="9" t="n">
-        <v>0.36782002</v>
-      </c>
-      <c r="H8" s="10" t="n">
-        <v>9.058627</v>
-      </c>
-      <c r="I8" s="11" t="n">
-        <v>1.6570145</v>
+        <v>0.31919</v>
+      </c>
+      <c r="H8" t="n">
+        <v>14.925374</v>
+      </c>
+      <c r="I8" s="15" t="n">
+        <v>2.1753685</v>
       </c>
       <c r="J8" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="11" t="n">
-        <v>551.96</v>
+        <v>164.15</v>
       </c>
     </row>
     <row r="9">
@@ -6154,7 +6172,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BRIS.JK</t>
+          <t>BMRI.JK</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -6165,26 +6183,26 @@
           <t>MID</t>
         </is>
       </c>
-      <c r="E9" s="8" t="n">
-        <v>0.15604</v>
+      <c r="E9" s="9" t="n">
+        <v>0.18354</v>
       </c>
       <c r="F9" s="8" t="n">
-        <v>0.075</v>
+        <v>0.027</v>
       </c>
       <c r="G9" s="9" t="n">
-        <v>0.31919</v>
-      </c>
-      <c r="H9" t="n">
-        <v>14.891251</v>
-      </c>
-      <c r="I9" s="15" t="n">
-        <v>2.1396413</v>
+        <v>0.36782002</v>
+      </c>
+      <c r="H9" s="10" t="n">
+        <v>8.291874</v>
+      </c>
+      <c r="I9" s="11" t="n">
+        <v>1.6901548</v>
       </c>
       <c r="J9" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="11" t="n">
-        <v>161.84</v>
+        <v>615.0599999999999</v>
       </c>
     </row>
     <row r="10">
@@ -6214,10 +6232,10 @@
         <v>0.27632</v>
       </c>
       <c r="H10" t="n">
-        <v>22.124756</v>
+        <v>22.02729</v>
       </c>
       <c r="I10" s="14" t="n">
-        <v>14.532651</v>
+        <v>14.46863</v>
       </c>
       <c r="J10" s="11" t="n">
         <v>0.378</v>
@@ -6253,16 +6271,16 @@
         <v>0.023759998</v>
       </c>
       <c r="H11" s="12" t="n">
-        <v>14.470384</v>
+        <v>16.077171</v>
       </c>
       <c r="I11" s="15" t="n">
-        <v>3.6756477</v>
+        <v>4.084053</v>
       </c>
       <c r="J11" s="14" t="n">
         <v>139.825</v>
       </c>
       <c r="K11" s="11" t="n">
-        <v>155.49</v>
+        <v>155.5</v>
       </c>
     </row>
     <row r="12">
@@ -6292,10 +6310,10 @@
         <v>0.048460003</v>
       </c>
       <c r="H12" s="10" t="n">
-        <v>7.6271186</v>
+        <v>8.209745</v>
       </c>
       <c r="I12" s="11" t="n">
-        <v>1.0217621</v>
+        <v>1.0998135</v>
       </c>
       <c r="J12" s="14" t="n">
         <v>4.935</v>
@@ -6331,16 +6349,16 @@
         <v>0.21154</v>
       </c>
       <c r="H13" t="n">
-        <v>29.576479</v>
+        <v>29.760866</v>
       </c>
       <c r="I13" s="14" t="n">
-        <v>120714.28</v>
+        <v>121785.71</v>
       </c>
       <c r="J13" s="14" t="n">
         <v>118.6</v>
       </c>
       <c r="K13" s="11" t="n">
-        <v>57.14</v>
+        <v>57.29</v>
       </c>
     </row>
     <row r="14">
@@ -6370,16 +6388,16 @@
         <v>0.2208</v>
       </c>
       <c r="H14" t="n">
-        <v>23.310024</v>
+        <v>23.201855</v>
       </c>
       <c r="I14" s="14" t="n">
-        <v>157777.77</v>
+        <v>160000</v>
       </c>
       <c r="J14" s="14" t="n">
         <v>82.7</v>
       </c>
       <c r="K14" s="11" t="n">
-        <v>304.59</v>
+        <v>310.32</v>
       </c>
     </row>
     <row r="15">
@@ -6409,16 +6427,16 @@
         <v>0.40232</v>
       </c>
       <c r="H15" s="10" t="n">
-        <v>8.420112</v>
+        <v>8.417477999999999</v>
       </c>
       <c r="I15" s="11" t="n">
-        <v>0.9806125999999999</v>
+        <v>0.9784431</v>
       </c>
       <c r="J15" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K15" s="11" t="n">
-        <v>536.8099999999999</v>
+        <v>535.79</v>
       </c>
     </row>
     <row r="16">
@@ -6448,16 +6466,16 @@
         <v>0.30543</v>
       </c>
       <c r="H16" s="10" t="n">
-        <v>8.237678000000001</v>
+        <v>8.244619999999999</v>
       </c>
       <c r="I16" s="11" t="n">
-        <v>0.8071595</v>
+        <v>0.8027488</v>
       </c>
       <c r="J16" s="14" t="n">
         <v>21.136</v>
       </c>
       <c r="K16" s="11" t="n">
-        <v>44.43</v>
+        <v>44.15</v>
       </c>
     </row>
     <row r="17">
@@ -6487,16 +6505,16 @@
         <v>0.06239</v>
       </c>
       <c r="H17" s="17" t="n">
-        <v>62.72491</v>
+        <v>62.5</v>
       </c>
       <c r="I17" s="14" t="n">
-        <v>24042.145</v>
+        <v>24329.502</v>
       </c>
       <c r="J17" s="11" t="n">
         <v>0.173</v>
       </c>
       <c r="K17" s="11" t="n">
-        <v>100.04</v>
+        <v>101.6</v>
       </c>
     </row>
     <row r="18">
@@ -6565,16 +6583,16 @@
         <v>0.52018</v>
       </c>
       <c r="H19" t="n">
-        <v>22.243786</v>
+        <v>22.727274</v>
       </c>
       <c r="I19" s="15" t="n">
-        <v>3.7884104</v>
+        <v>3.8663611</v>
       </c>
       <c r="J19" s="14" t="n">
         <v>2.39</v>
       </c>
       <c r="K19" s="11" t="n">
-        <v>273.11</v>
+        <v>272.8</v>
       </c>
     </row>
     <row r="20">
@@ -6583,7 +6601,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MINA.JK</t>
+          <t>PBSA.JK</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -6594,26 +6612,26 @@
           <t>MID</t>
         </is>
       </c>
-      <c r="E20" s="16" t="n">
-        <v>-0.04084</v>
-      </c>
-      <c r="F20" s="9" t="n">
-        <v>0.368</v>
+      <c r="E20" s="9" t="n">
+        <v>0.31697</v>
+      </c>
+      <c r="F20" s="16" t="n">
+        <v>-0.192</v>
       </c>
       <c r="G20" s="8" t="n">
-        <v>-0.69613</v>
+        <v>0.15842</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>18.415611</v>
       </c>
       <c r="I20" s="14" t="n">
-        <v>9.70228</v>
-      </c>
-      <c r="J20" s="11" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="K20" s="15" t="n">
-        <v>-0.72</v>
+        <v>5.5708017</v>
+      </c>
+      <c r="J20" s="15" t="n">
+        <v>1.461</v>
+      </c>
+      <c r="K20" s="11" t="n">
+        <v>77.38</v>
       </c>
     </row>
     <row r="21">
@@ -6622,7 +6640,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PBSA.JK</t>
+          <t>MINA.JK</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -6633,26 +6651,26 @@
           <t>MID</t>
         </is>
       </c>
-      <c r="E21" s="9" t="n">
-        <v>0.31697</v>
-      </c>
-      <c r="F21" s="16" t="n">
-        <v>-0.192</v>
+      <c r="E21" s="16" t="n">
+        <v>-0.04084</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0.368</v>
       </c>
       <c r="G21" s="8" t="n">
-        <v>0.15842</v>
+        <v>-0.69613</v>
       </c>
       <c r="H21" t="n">
-        <v>18.33441</v>
+        <v>0</v>
       </c>
       <c r="I21" s="14" t="n">
-        <v>5.551255</v>
-      </c>
-      <c r="J21" s="15" t="n">
-        <v>1.461</v>
-      </c>
-      <c r="K21" s="11" t="n">
-        <v>77.45</v>
+        <v>9.467548000000001</v>
+      </c>
+      <c r="J21" s="11" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="K21" s="15" t="n">
+        <v>-0.73</v>
       </c>
     </row>
     <row r="22">
@@ -6682,16 +6700,16 @@
         <v>0.53282</v>
       </c>
       <c r="H22" t="n">
-        <v>16.072346</v>
+        <v>16.05145</v>
       </c>
       <c r="I22" s="15" t="n">
-        <v>3.2778244</v>
+        <v>3.2668984</v>
       </c>
       <c r="J22" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K22" s="11" t="n">
-        <v>466.64</v>
+        <v>465.69</v>
       </c>
     </row>
     <row r="23">
@@ -6721,16 +6739,16 @@
         <v>0.30952</v>
       </c>
       <c r="H23" s="17" t="n">
-        <v>280.0633</v>
+        <v>285.828</v>
       </c>
       <c r="I23" s="14" t="n">
-        <v>14.3543</v>
+        <v>14.557044</v>
       </c>
       <c r="J23" s="11" t="n">
         <v>0.261</v>
       </c>
       <c r="K23" s="11" t="n">
-        <v>6.32</v>
+        <v>6.28</v>
       </c>
     </row>
     <row r="24">
@@ -6760,16 +6778,16 @@
         <v>0.13921</v>
       </c>
       <c r="H24" s="17" t="n">
-        <v>79.4686</v>
+        <v>79.38045</v>
       </c>
       <c r="I24" s="14" t="n">
-        <v>548333.3</v>
+        <v>546666.7</v>
       </c>
       <c r="J24" s="14" t="n">
         <v>201.586</v>
       </c>
       <c r="K24" s="11" t="n">
-        <v>20.7</v>
+        <v>20.66</v>
       </c>
     </row>
     <row r="25">
@@ -6799,7 +6817,7 @@
         <v>0.0806</v>
       </c>
       <c r="H25" s="10" t="n">
-        <v>10.231358</v>
+        <v>10.183486</v>
       </c>
       <c r="I25" s="14" t="n">
         <v>19473.684</v>
@@ -6808,7 +6826,7 @@
         <v>32.802</v>
       </c>
       <c r="K25" s="11" t="n">
-        <v>216.98</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26">
@@ -6838,94 +6856,94 @@
         <v>0.06455</v>
       </c>
       <c r="H26" s="17" t="n">
-        <v>63.975155</v>
+        <v>62.07675</v>
       </c>
       <c r="I26" s="14" t="n">
-        <v>10.673575</v>
+        <v>11.398964</v>
       </c>
       <c r="J26" s="11" t="n">
         <v>0.216</v>
       </c>
       <c r="K26" s="11" t="n">
-        <v>8.050000000000001</v>
+        <v>8.859999999999999</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="12" t="n">
         <v>26</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="12" t="inlineStr">
+        <is>
+          <t>BRPT.JK</t>
+        </is>
+      </c>
+      <c r="C27" s="12" t="n">
+        <v>11</v>
+      </c>
+      <c r="D27" s="12" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="E27" s="13" t="n">
+        <v>0.35876</v>
+      </c>
+      <c r="F27" s="13" t="n">
+        <v>3.509</v>
+      </c>
+      <c r="G27" s="13" t="n">
+        <v>0.09752</v>
+      </c>
+      <c r="H27" s="12" t="n">
+        <v>18.449514</v>
+      </c>
+      <c r="I27" s="14" t="n">
+        <v>84583.336</v>
+      </c>
+      <c r="J27" s="14" t="n">
+        <v>107.818</v>
+      </c>
+      <c r="K27" s="11" t="n">
+        <v>110.03</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>KLBF.JK</t>
         </is>
       </c>
-      <c r="C27" t="n">
+      <c r="C28" t="n">
         <v>11</v>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>MID</t>
         </is>
       </c>
-      <c r="E27" s="8" t="n">
+      <c r="E28" s="8" t="n">
         <v>0.14554</v>
       </c>
-      <c r="F27" s="8" t="n">
+      <c r="F28" s="8" t="n">
         <v>0.126</v>
       </c>
-      <c r="G27" s="8" t="n">
+      <c r="G28" s="8" t="n">
         <v>0.10163</v>
       </c>
-      <c r="H27" t="n">
-        <v>14.423704</v>
-      </c>
-      <c r="I27" s="15" t="n">
-        <v>2.1794226</v>
-      </c>
-      <c r="J27" s="14" t="n">
+      <c r="H28" t="n">
+        <v>14.430577</v>
+      </c>
+      <c r="I28" s="15" t="n">
+        <v>2.1892843</v>
+      </c>
+      <c r="J28" s="14" t="n">
         <v>2.102</v>
       </c>
-      <c r="K27" s="11" t="n">
-        <v>76.61</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="12" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" s="12" t="inlineStr">
-        <is>
-          <t>BRPT.JK</t>
-        </is>
-      </c>
-      <c r="C28" s="12" t="n">
-        <v>11</v>
-      </c>
-      <c r="D28" s="12" t="inlineStr">
-        <is>
-          <t>MID</t>
-        </is>
-      </c>
-      <c r="E28" s="13" t="n">
-        <v>0.35876</v>
-      </c>
-      <c r="F28" s="13" t="n">
-        <v>3.509</v>
-      </c>
-      <c r="G28" s="13" t="n">
-        <v>0.09752</v>
-      </c>
-      <c r="H28" s="12" t="n">
-        <v>18.185963</v>
-      </c>
-      <c r="I28" s="14" t="n">
-        <v>83125</v>
-      </c>
-      <c r="J28" s="14" t="n">
-        <v>107.818</v>
-      </c>
       <c r="K28" s="11" t="n">
-        <v>109.7</v>
+        <v>76.92</v>
       </c>
     </row>
     <row r="29">
@@ -6955,16 +6973,16 @@
         <v>0.15737</v>
       </c>
       <c r="H29" s="10" t="n">
-        <v>5.3592234</v>
+        <v>5.3224554</v>
       </c>
       <c r="I29" s="11" t="n">
-        <v>0.28377047</v>
+        <v>0.28171417</v>
       </c>
       <c r="J29" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K29" s="11" t="n">
-        <v>51.5</v>
+        <v>51.48</v>
       </c>
     </row>
     <row r="30">
@@ -6994,10 +7012,10 @@
         <v>0.041550003</v>
       </c>
       <c r="H30" s="10" t="n">
-        <v>8.985507</v>
+        <v>9.275361999999999</v>
       </c>
       <c r="I30" s="11" t="n">
-        <v>0.9250417399999999</v>
+        <v>0.9548818</v>
       </c>
       <c r="J30" s="14" t="n">
         <v>43.245</v>
@@ -7036,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="15" t="n">
-        <v>4.361207</v>
+        <v>4.7866907</v>
       </c>
       <c r="J31" s="14" t="n">
         <v>65.76600000000001</v>
@@ -7051,7 +7069,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BRMS.JK</t>
+          <t>PANI.JK</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -7063,25 +7081,25 @@
         </is>
       </c>
       <c r="E32" s="8" t="n">
-        <v>0.045900002</v>
+        <v>0.0678</v>
       </c>
       <c r="F32" s="9" t="n">
-        <v>0.329</v>
-      </c>
-      <c r="G32" s="8" t="n">
-        <v>0.19652</v>
+        <v>0.946</v>
+      </c>
+      <c r="G32" s="9" t="n">
+        <v>0.24195999</v>
       </c>
       <c r="H32" s="17" t="n">
-        <v>181.00359</v>
+        <v>196.07843</v>
       </c>
       <c r="I32" s="14" t="n">
-        <v>112222.23</v>
+        <v>8.193092</v>
       </c>
       <c r="J32" s="14" t="n">
-        <v>12.694</v>
+        <v>2.054</v>
       </c>
       <c r="K32" s="11" t="n">
-        <v>5.58</v>
+        <v>55.59</v>
       </c>
     </row>
     <row r="33">
@@ -7090,7 +7108,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PTRO.JK</t>
+          <t>BRMS.JK</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -7102,25 +7120,25 @@
         </is>
       </c>
       <c r="E33" s="8" t="n">
-        <v>0.05801</v>
+        <v>0.045900002</v>
       </c>
       <c r="F33" s="9" t="n">
-        <v>0.317</v>
+        <v>0.329</v>
       </c>
       <c r="G33" s="8" t="n">
-        <v>0.01754</v>
-      </c>
-      <c r="H33" t="n">
-        <v>35.434925</v>
+        <v>0.19652</v>
+      </c>
+      <c r="H33" s="17" t="n">
+        <v>188.62816</v>
       </c>
       <c r="I33" s="14" t="n">
-        <v>251041.67</v>
+        <v>116111.12</v>
       </c>
       <c r="J33" s="14" t="n">
-        <v>276.511</v>
+        <v>12.694</v>
       </c>
       <c r="K33" s="11" t="n">
-        <v>170.03</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="34">
@@ -7129,7 +7147,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>INET.JK</t>
+          <t>PTRO.JK</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -7141,25 +7159,25 @@
         </is>
       </c>
       <c r="E34" s="8" t="n">
-        <v>0.06432</v>
+        <v>0.05801</v>
       </c>
       <c r="F34" s="9" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="G34" s="9" t="n">
-        <v>0.24544</v>
-      </c>
-      <c r="H34" s="17" t="n">
-        <v>238.57143</v>
+        <v>0.317</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>0.01754</v>
+      </c>
+      <c r="H34" t="n">
+        <v>35.041935</v>
       </c>
       <c r="I34" s="14" t="n">
-        <v>8.217897000000001</v>
+        <v>248958.33</v>
       </c>
       <c r="J34" s="14" t="n">
-        <v>2.833</v>
+        <v>276.511</v>
       </c>
       <c r="K34" s="11" t="n">
-        <v>1.4</v>
+        <v>170.51</v>
       </c>
     </row>
     <row r="35">
@@ -7168,7 +7186,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>IMPC.JK</t>
+          <t>INET.JK</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -7179,26 +7197,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E35" s="9" t="n">
-        <v>0.23723</v>
-      </c>
-      <c r="F35" s="8" t="n">
-        <v>0.145</v>
-      </c>
-      <c r="G35" s="8" t="n">
-        <v>0.14588</v>
+      <c r="E35" s="8" t="n">
+        <v>0.06432</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="G35" s="9" t="n">
+        <v>0.24544</v>
       </c>
       <c r="H35" s="17" t="n">
-        <v>193.63637</v>
+        <v>250.35971</v>
       </c>
       <c r="I35" s="14" t="n">
-        <v>40.70401</v>
+        <v>8.56236</v>
       </c>
       <c r="J35" s="14" t="n">
-        <v>38.133</v>
+        <v>2.833</v>
       </c>
       <c r="K35" s="11" t="n">
-        <v>11</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="36">
@@ -7207,7 +7225,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CDIA.JK</t>
+          <t>IMPC.JK</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -7218,26 +7236,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E36" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="9" t="n">
-        <v>0.421</v>
-      </c>
-      <c r="G36" s="9" t="n">
-        <v>0.65328</v>
+      <c r="E36" s="9" t="n">
+        <v>0.23723</v>
+      </c>
+      <c r="F36" s="8" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>0.14588</v>
       </c>
       <c r="H36" s="17" t="n">
-        <v>89.39265</v>
+        <v>185.15205</v>
       </c>
       <c r="I36" s="14" t="n">
-        <v>130624.99</v>
+        <v>39.557415</v>
       </c>
       <c r="J36" s="14" t="n">
-        <v>34.873</v>
+        <v>38.133</v>
       </c>
       <c r="K36" s="11" t="n">
-        <v>11.69</v>
+        <v>11.18</v>
       </c>
     </row>
     <row r="37">
@@ -7246,7 +7264,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>RATU.JK</t>
+          <t>CDIA.JK</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -7257,26 +7275,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E37" s="9" t="n">
-        <v>0.45251998</v>
-      </c>
-      <c r="F37" s="16" t="n">
-        <v>-0.183</v>
+      <c r="E37" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>0.421</v>
       </c>
       <c r="G37" s="9" t="n">
-        <v>0.31559</v>
+        <v>0.65328</v>
       </c>
       <c r="H37" s="17" t="n">
-        <v>49.553524</v>
+        <v>96.15385000000001</v>
       </c>
       <c r="I37" s="14" t="n">
-        <v>297058.8</v>
+        <v>140625</v>
       </c>
       <c r="J37" s="14" t="n">
-        <v>36.548</v>
+        <v>34.873</v>
       </c>
       <c r="K37" s="11" t="n">
-        <v>101.91</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="38">
@@ -7285,7 +7303,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PANI.JK</t>
+          <t>RATU.JK</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -7296,26 +7314,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E38" s="8" t="n">
-        <v>0.0678</v>
-      </c>
-      <c r="F38" s="9" t="n">
-        <v>0.946</v>
+      <c r="E38" s="9" t="n">
+        <v>0.45251998</v>
+      </c>
+      <c r="F38" s="16" t="n">
+        <v>-0.183</v>
       </c>
       <c r="G38" s="9" t="n">
-        <v>0.24195999</v>
+        <v>0.31559</v>
       </c>
       <c r="H38" s="17" t="n">
-        <v>177.9906</v>
+        <v>50.239</v>
       </c>
       <c r="I38" s="14" t="n">
-        <v>7.403849</v>
+        <v>302941.16</v>
       </c>
       <c r="J38" s="14" t="n">
-        <v>2.054</v>
+        <v>36.548</v>
       </c>
       <c r="K38" s="11" t="n">
-        <v>55.34</v>
+        <v>102.51</v>
       </c>
     </row>
     <row r="39">
@@ -7345,16 +7363,16 @@
         <v>0.23266001</v>
       </c>
       <c r="H39" s="17" t="n">
-        <v>455.8324</v>
+        <v>434.78262</v>
       </c>
       <c r="I39" s="14" t="n">
-        <v>1610000</v>
+        <v>1600000</v>
       </c>
       <c r="J39" s="14" t="n">
         <v>239.827</v>
       </c>
       <c r="K39" s="11" t="n">
-        <v>17.66</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="40">
@@ -7363,7 +7381,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ADMR.JK</t>
+          <t>AADI.JK</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -7375,25 +7393,25 @@
         </is>
       </c>
       <c r="E40" s="9" t="n">
-        <v>0.2018</v>
+        <v>0.22769</v>
       </c>
       <c r="F40" s="16" t="n">
-        <v>-0.012</v>
-      </c>
-      <c r="G40" s="9" t="n">
-        <v>0.31149</v>
-      </c>
-      <c r="H40" t="n">
-        <v>14.054181</v>
+        <v>-0.132</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>0.14828</v>
+      </c>
+      <c r="H40" s="10" t="n">
+        <v>5.282612</v>
       </c>
       <c r="I40" s="14" t="n">
-        <v>48513.51</v>
+        <v>18595.506</v>
       </c>
       <c r="J40" s="14" t="n">
-        <v>35.836</v>
+        <v>27.582</v>
       </c>
       <c r="K40" s="11" t="n">
-        <v>127.72</v>
+        <v>1566.46</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7420,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AADI.JK</t>
+          <t>ADMR.JK</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -7414,25 +7432,25 @@
         </is>
       </c>
       <c r="E41" s="9" t="n">
-        <v>0.22769</v>
+        <v>0.2018</v>
       </c>
       <c r="F41" s="16" t="n">
-        <v>-0.132</v>
-      </c>
-      <c r="G41" s="8" t="n">
-        <v>0.14828</v>
-      </c>
-      <c r="H41" s="10" t="n">
-        <v>5.1067123</v>
+        <v>-0.012</v>
+      </c>
+      <c r="G41" s="9" t="n">
+        <v>0.31149</v>
+      </c>
+      <c r="H41" t="n">
+        <v>14.749493</v>
       </c>
       <c r="I41" s="14" t="n">
-        <v>17921.348</v>
+        <v>51081.082</v>
       </c>
       <c r="J41" s="14" t="n">
-        <v>27.582</v>
+        <v>35.836</v>
       </c>
       <c r="K41" s="11" t="n">
-        <v>1561.67</v>
+        <v>128.14</v>
       </c>
     </row>
   </sheetData>

--- a/reports/HEDGEFUND_TERMINAL.xlsx
+++ b/reports/HEDGEFUND_TERMINAL.xlsx
@@ -63,12 +63,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C6EFCE"/>
+        <fgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
+        <fgColor rgb="00C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -95,16 +95,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -478,9 +478,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="26" customWidth="1" min="1" max="1"/>
+    <col width="27" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
     <col width="31" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
@@ -496,7 +496,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>11 February 2026</t>
+          <t>12 February 2026</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7"/>
@@ -555,7 +555,7 @@
       </c>
       <c r="B8" s="6" t="inlineStr">
         <is>
-          <t>1.2B</t>
+          <t>-2.1B</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="B9" s="6" t="inlineStr">
         <is>
-          <t>1.4B</t>
+          <t>-2.6B</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-19.3M</t>
+          <t>-21.7M</t>
         </is>
       </c>
     </row>
@@ -605,19 +605,19 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.2M</t>
+          <t>1.4M</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1. Energy</t>
+          <t>1. Basic Materials</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>831.2M</t>
+          <t>121.9M</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -630,24 +630,24 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.8M</t>
+          <t>13.5M</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2. Technology</t>
+          <t>2. Communication Services</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>231.9M</t>
+          <t>62.5M</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>NCKL.JK</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -655,24 +655,24 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9.2M</t>
+          <t>12.7M</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3. Industrials</t>
+          <t>3. Consumer Defensive</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>113.0M</t>
+          <t>40.6M</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NCKL.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -680,19 +680,19 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.5M</t>
+          <t>8.2M</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4. Basic Materials</t>
+          <t>4. Consumer Cyclical</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>90.1M</t>
+          <t>32.6M</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -709,12 +709,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5. Financial Services</t>
+          <t>5. Healthcare</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>88.2M</t>
+          <t>23.7M</t>
         </is>
       </c>
     </row>
@@ -728,75 +728,75 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1. Basic Materials</t>
+          <t>1. Consumer Cyclical</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>58.8</v>
+        <v>78.7</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>90.1M</t>
+          <t>32.6M</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2. Consumer Cyclical</t>
+          <t>2. Energy</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>58.2</v>
+        <v>59</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>72.9M</t>
+          <t>-2.1B</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3. Consumer Defensive</t>
+          <t>3. Basic Materials</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57.7</v>
+        <v>58.7</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-59.1M</t>
+          <t>121.9M</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4. Financial Services</t>
+          <t>4. Industrials</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>54.9</v>
+        <v>51</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>88.2M</t>
+          <t>-297.1M</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5. Energy</t>
+          <t>5. Utilities</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>54.3</v>
+        <v>47</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>831.2M</t>
+          <t>-38.4M</t>
         </is>
       </c>
     </row>
@@ -833,9 +833,9 @@
     <col width="20" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="9" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="15" customWidth="1" min="11" max="11"/>
-    <col width="13" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
     <col width="9" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
@@ -920,36 +920,36 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>738-812</t>
+          <t>734-806</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>663.0357142857143</v>
+        <v>661.25</v>
       </c>
       <c r="F2" t="n">
-        <v>920</v>
+        <v>910.7142857142857</v>
       </c>
       <c r="G2" t="n">
-        <v>1027.678571428572</v>
+        <v>1015.178571428571</v>
       </c>
       <c r="H2" t="n">
-        <v>1171.25</v>
+        <v>1154.464285714286</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>62%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>11.02%</t>
+          <t>12.19%</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>7.16</v>
+        <v>7.9</v>
       </c>
       <c r="L2" t="n">
-        <v>-19268700</v>
+        <v>-21747700</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -971,36 +971,36 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6940-7660</t>
+          <t>6746-7454</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6220.535714285714</v>
+        <v>6036.607142857143</v>
       </c>
       <c r="F3" t="n">
-        <v>8640.178571428571</v>
+        <v>8424.107142857143</v>
       </c>
       <c r="G3" t="n">
-        <v>9504.196428571429</v>
+        <v>9266.517857142859</v>
       </c>
       <c r="H3" t="n">
-        <v>10927.67857142857</v>
+        <v>10686.60714285714</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>95%</t>
+          <t>98%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>29.83%</t>
+          <t>30.63%</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>136.03</v>
+        <v>750.8099999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>5188500</v>
+        <v>1444500</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -1022,36 +1022,36 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6102-6598</t>
+          <t>6591-7109</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5605.357142857143</v>
+        <v>6073.214285714285</v>
       </c>
       <c r="F4" t="n">
-        <v>7297.321428571428</v>
+        <v>7829.464285714286</v>
       </c>
       <c r="G4" t="n">
-        <v>8027.053571428572</v>
+        <v>8612.410714285716</v>
       </c>
       <c r="H4" t="n">
-        <v>8928.571428571428</v>
+        <v>9510.714285714286</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>27.92%</t>
+          <t>28.29%</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>20.23</v>
+        <v>24.93</v>
       </c>
       <c r="L4" t="n">
-        <v>1839200</v>
+        <v>13489400</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>NCKL.JK</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -1073,36 +1073,36 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2163-2277</t>
+          <t>1361-1459</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2049.107142857143</v>
+        <v>1263.214285714286</v>
       </c>
       <c r="F5" t="n">
-        <v>2444.642857142857</v>
+        <v>1596.071428571428</v>
       </c>
       <c r="G5" t="n">
-        <v>2689.107142857143</v>
+        <v>1755.678571428571</v>
       </c>
       <c r="H5" t="n">
-        <v>2835.892857142857</v>
+        <v>1916.071428571428</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>9.50%</t>
+          <t>17.11%</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>3989203782.45</v>
+        <v>16.32</v>
       </c>
       <c r="L5" t="n">
-        <v>9185900</v>
+        <v>12689600</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NCKL.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -1124,36 +1124,36 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1282-1378</t>
+          <t>2175-2285</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1186.964285714286</v>
+        <v>2065.535714285714</v>
       </c>
       <c r="F6" t="n">
-        <v>1512.678571428571</v>
+        <v>2447.142857142857</v>
       </c>
       <c r="G6" t="n">
-        <v>1663.946428571429</v>
+        <v>2691.857142857143</v>
       </c>
       <c r="H6" t="n">
-        <v>1827.678571428571</v>
+        <v>2825.892857142857</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>16.77%</t>
+          <t>9.66%</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>13.91</v>
+        <v>4057662940.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1483700</v>
+        <v>8159800</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -1167,44 +1167,44 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>INDY.JK</t>
+          <t>IRSX.JK</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3505-3835</t>
+          <t>531-609</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3176.071428571428</v>
+        <v>454.3928571428571</v>
       </c>
       <c r="F7" t="n">
-        <v>4311.428571428572</v>
+        <v>721.4642857142858</v>
       </c>
       <c r="G7" t="n">
-        <v>4742.571428571429</v>
+        <v>834.3928571428572</v>
       </c>
       <c r="H7" t="n">
-        <v>5423.928571428572</v>
+        <v>984.9642857142858</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>34.29%</t>
+          <t>45.89%</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>61.86</v>
+        <v>10.6</v>
       </c>
       <c r="L7" t="n">
-        <v>5176700</v>
+        <v>1486500</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1218,48 +1218,48 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RMKO.JK</t>
+          <t>HRTA.JK</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>557-793</t>
+          <t>2418-2642</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>320.8928571428571</v>
+        <v>2195.178571428572</v>
       </c>
       <c r="F8" t="n">
-        <v>1084.464285714286</v>
+        <v>2947.5</v>
       </c>
       <c r="G8" t="n">
-        <v>1375.892857142857</v>
+        <v>3242.25</v>
       </c>
       <c r="H8" t="n">
-        <v>1764.464285714286</v>
+        <v>3661.25</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>86%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>121.63%</t>
+          <t>28.74%</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>51082602413.5</v>
+        <v>32.66</v>
       </c>
       <c r="L8" t="n">
-        <v>8080500</v>
+        <v>-1953200</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -1269,44 +1269,44 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HRTA.JK</t>
+          <t>ANTM.JK</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2384-2616</t>
+          <t>3830-4150</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2153.392857142857</v>
+        <v>3508.928571428572</v>
       </c>
       <c r="F9" t="n">
-        <v>2928.928571428572</v>
+        <v>4573.571428571429</v>
       </c>
       <c r="G9" t="n">
-        <v>3221.821428571429</v>
+        <v>5030.928571428572</v>
       </c>
       <c r="H9" t="n">
-        <v>3660.178571428572</v>
+        <v>5561.071428571429</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>29.06%</t>
+          <t>17.94%</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>34.73</v>
+        <v>226.1</v>
       </c>
       <c r="L9" t="n">
-        <v>3616900</v>
+        <v>30318800</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1320,48 +1320,48 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MEDC.JK</t>
+          <t>INDY.JK</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1499-1601</t>
+          <t>3477-3803</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1396.25</v>
+        <v>3150.357142857143</v>
       </c>
       <c r="F10" t="n">
-        <v>1752.321428571428</v>
+        <v>4275.714285714286</v>
       </c>
       <c r="G10" t="n">
-        <v>1927.553571428571</v>
+        <v>4703.285714285716</v>
       </c>
       <c r="H10" t="n">
-        <v>2104.821428571428</v>
+        <v>5378.214285714286</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>69%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>7.12%</t>
+          <t>34.62%</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>16.13</v>
+        <v>68.8</v>
       </c>
       <c r="L10" t="n">
-        <v>4019700</v>
+        <v>-12647400</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -1371,44 +1371,44 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>OASA.JK</t>
+          <t>MEDC.JK</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>368-420</t>
+          <t>1530-1630</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>317.5</v>
+        <v>1430.535714285714</v>
       </c>
       <c r="F11" t="n">
-        <v>492.7857142857143</v>
+        <v>1776.607142857143</v>
       </c>
       <c r="G11" t="n">
-        <v>566.0714285714286</v>
+        <v>1923.392857142857</v>
       </c>
       <c r="H11" t="n">
-        <v>663.7857142857142</v>
+        <v>2119.107142857143</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>69%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>38.28%</t>
+          <t>7.18%</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>98.29000000000001</v>
+        <v>16.27</v>
       </c>
       <c r="L11" t="n">
-        <v>1252200</v>
+        <v>2776500</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1422,44 +1422,44 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TCPI.JK</t>
+          <t>OASA.JK</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10841-11359</t>
+          <t>397-447</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>10323.21428571429</v>
+        <v>347.2142857142857</v>
       </c>
       <c r="F12" t="n">
-        <v>12135.71428571428</v>
+        <v>518.5</v>
       </c>
       <c r="G12" t="n">
-        <v>12912.5</v>
+        <v>590</v>
       </c>
       <c r="H12" t="n">
-        <v>13948.21428571429</v>
+        <v>685.5</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>98%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>17.44%</t>
+          <t>38.56%</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>1169.26</v>
+        <v>99.02</v>
       </c>
       <c r="L12" t="n">
-        <v>-73400</v>
+        <v>-4349000</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ANTM.JK</t>
+          <t>TCPI.JK</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1481,36 +1481,36 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3729-4051</t>
+          <t>11261-11789</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3405.714285714286</v>
+        <v>10732.14285714286</v>
       </c>
       <c r="F13" t="n">
-        <v>4477.857142857143</v>
+        <v>12582.14285714286</v>
       </c>
       <c r="G13" t="n">
-        <v>4925.642857142858</v>
+        <v>13375</v>
       </c>
       <c r="H13" t="n">
-        <v>5472.857142857143</v>
+        <v>14432.14285714286</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>90%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>17.93%</t>
+          <t>17.80%</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>225.87</v>
+        <v>7477570343.26</v>
       </c>
       <c r="L13" t="n">
-        <v>17613800</v>
+        <v>750900</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1528,24 +1528,24 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>82-100</t>
+          <t>86-102</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>64.10714285714286</v>
+        <v>69.35714285714286</v>
       </c>
       <c r="F14" t="n">
-        <v>126.1071428571428</v>
+        <v>126.75</v>
       </c>
       <c r="G14" t="n">
         <v>143</v>
       </c>
       <c r="H14" t="n">
-        <v>187.1071428571428</v>
+        <v>184</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1554,14 +1554,14 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>22.63%</t>
+          <t>23.80%</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>8.52</v>
+        <v>8.91</v>
       </c>
       <c r="L14" t="n">
-        <v>3777600</v>
+        <v>28114100</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1575,48 +1575,48 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>JPFA.JK</t>
+          <t>BMRI.JK</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2495-2665</t>
+          <t>4928-5122</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2323.928571428572</v>
+        <v>4732.5</v>
       </c>
       <c r="F15" t="n">
-        <v>2908.571428571428</v>
+        <v>5412.857142857143</v>
       </c>
       <c r="G15" t="n">
-        <v>3199.428571428572</v>
+        <v>5703.214285714286</v>
       </c>
       <c r="H15" t="n">
-        <v>3476.071428571428</v>
+        <v>6090.357142857143</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>4.90%</t>
+          <t>1.48%</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>7.47</v>
+        <v>2.74</v>
       </c>
       <c r="L15" t="n">
-        <v>449700</v>
+        <v>-20586800</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -1626,44 +1626,44 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BRIS.JK</t>
+          <t>MDKA.JK</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2391-2509</t>
+          <t>3022-3298</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2272.142857142857</v>
+        <v>2746.428571428572</v>
       </c>
       <c r="F16" t="n">
-        <v>2686.071428571428</v>
+        <v>3670.714285714285</v>
       </c>
       <c r="G16" t="n">
-        <v>2862.857142857143</v>
+        <v>4037.785714285714</v>
       </c>
       <c r="H16" t="n">
-        <v>3098.571428571428</v>
+        <v>4540.714285714285</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>-2.88%</t>
+          <t>16.89%</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>0.4</v>
+        <v>15.49</v>
       </c>
       <c r="L16" t="n">
-        <v>2658600</v>
+        <v>10918200</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1677,48 +1677,48 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MDKA.JK</t>
+          <t>ISAT.JK</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2951-3229</t>
+          <t>2141-2279</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2672.142857142857</v>
+        <v>2002.142857142857</v>
       </c>
       <c r="F17" t="n">
-        <v>3606.428571428572</v>
+        <v>2476.428571428572</v>
       </c>
       <c r="G17" t="n">
-        <v>3967.071428571429</v>
+        <v>2724.071428571429</v>
       </c>
       <c r="H17" t="n">
-        <v>4486.428571428572</v>
+        <v>2936.428571428572</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>43%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16.70%</t>
+          <t>0.93%</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>13.58</v>
+        <v>1.31</v>
       </c>
       <c r="L17" t="n">
-        <v>-21250800</v>
+        <v>15712300</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>DISTRIB</t>
+          <t>ACCUM</t>
         </is>
       </c>
     </row>
@@ -1728,44 +1728,44 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BBNI.JK</t>
+          <t>BIPI.JK</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4431-4589</t>
+          <t>159-183</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4272.142857142857</v>
+        <v>135.8571428571429</v>
       </c>
       <c r="F18" t="n">
-        <v>4825</v>
+        <v>210.3571428571429</v>
       </c>
       <c r="G18" t="n">
-        <v>5307.5</v>
+        <v>238</v>
       </c>
       <c r="H18" t="n">
-        <v>5375</v>
+        <v>274.8571428571429</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>69%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1.64%</t>
+          <t>54.61%</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>2.57</v>
+        <v>13.44</v>
       </c>
       <c r="L18" t="n">
-        <v>-10829400</v>
+        <v>-174624300</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1779,48 +1779,48 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ADRO.JK</t>
+          <t>TINS.JK</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2095-2245</t>
+          <t>3652-3968</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1945</v>
+        <v>3337.5</v>
       </c>
       <c r="F19" t="n">
-        <v>2466.785714285714</v>
+        <v>4406.785714285714</v>
       </c>
       <c r="G19" t="n">
-        <v>2713.464285714286</v>
+        <v>4847.464285714285</v>
       </c>
       <c r="H19" t="n">
-        <v>2984.285714285714</v>
+        <v>5431.785714285714</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>13.43%</t>
+          <t>4.97%</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>14.09</v>
+        <v>5.04</v>
       </c>
       <c r="L19" t="n">
-        <v>11291500</v>
+        <v>-5273200</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -1830,48 +1830,48 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AADI.JK</t>
+          <t>ARCI.JK</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>8015-8535</t>
+          <t>1634-1786</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7495.535714285715</v>
+        <v>1482.321428571429</v>
       </c>
       <c r="F20" t="n">
-        <v>9284.821428571429</v>
+        <v>1991.071428571428</v>
       </c>
       <c r="G20" t="n">
-        <v>10213.30357142857</v>
+        <v>2190.178571428572</v>
       </c>
       <c r="H20" t="n">
-        <v>11034.82142857143</v>
+        <v>2469.821428571428</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.90%</t>
+          <t>22.36%</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>1.22</v>
+        <v>44.76</v>
       </c>
       <c r="L20" t="n">
-        <v>-3117200</v>
+        <v>11558500</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>DISTRIB</t>
+          <t>ACCUM</t>
         </is>
       </c>
     </row>
@@ -1881,44 +1881,44 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BMRI.JK</t>
+          <t>HUMI.JK</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>5003-5197</t>
+          <t>215-253</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4809.107142857143</v>
+        <v>176.3571428571429</v>
       </c>
       <c r="F21" t="n">
-        <v>5485.714285714285</v>
+        <v>303.7857142857143</v>
       </c>
       <c r="G21" t="n">
-        <v>5774.464285714285</v>
+        <v>354.3571428571429</v>
       </c>
       <c r="H21" t="n">
-        <v>6159.464285714285</v>
+        <v>421.7857142857143</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1.49%</t>
+          <t>40.55%</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>2.75</v>
+        <v>6.31</v>
       </c>
       <c r="L21" t="n">
-        <v>135801000</v>
+        <v>28369300</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1973,11 +1973,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BUMI.JK</t>
+          <t>BBRI.JK</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>761360400</v>
+        <v>44073300</v>
       </c>
     </row>
     <row r="3">
@@ -1986,11 +1986,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GOTO.JK</t>
+          <t>TLKM.JK</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>230353000</v>
+        <v>40662800</v>
       </c>
     </row>
     <row r="4">
@@ -1999,11 +1999,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BMRI.JK</t>
+          <t>CPRO.JK</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>135801000</v>
+        <v>33347300</v>
       </c>
     </row>
     <row r="5">
@@ -2012,11 +2012,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PADI.JK</t>
+          <t>ADRO.JK</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>68217900</v>
+        <v>31417100</v>
       </c>
     </row>
     <row r="6">
@@ -2025,11 +2025,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DEWA.JK</t>
+          <t>ANTM.JK</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>66978000</v>
+        <v>30318800</v>
       </c>
     </row>
     <row r="7">
@@ -2038,11 +2038,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BRMS.JK</t>
+          <t>DEWA.JK</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>59548700</v>
+        <v>30159700</v>
       </c>
     </row>
     <row r="8">
@@ -2051,11 +2051,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BULL.JK</t>
+          <t>HUMI.JK</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>59013800</v>
+        <v>28369300</v>
       </c>
     </row>
     <row r="9">
@@ -2064,11 +2064,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TLKM.JK</t>
+          <t>ZATA.JK</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>47052600</v>
+        <v>28114100</v>
       </c>
     </row>
     <row r="10">
@@ -2077,11 +2077,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>INET.JK</t>
+          <t>BKSL.JK</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>44485800</v>
+        <v>27471400</v>
       </c>
     </row>
     <row r="11">
@@ -2090,11 +2090,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BKSL.JK</t>
+          <t>BRMS.JK</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>36648000</v>
+        <v>27268200</v>
       </c>
     </row>
     <row r="12">
@@ -2103,11 +2103,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MINA.JK</t>
+          <t>LPKR.JK</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>33926700</v>
+        <v>26787000</v>
       </c>
     </row>
     <row r="13">
@@ -2116,11 +2116,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BUVA.JK</t>
+          <t>PNLF.JK</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>24502000</v>
+        <v>23395600</v>
       </c>
     </row>
     <row r="14">
@@ -2129,11 +2129,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GTSI.JK</t>
+          <t>PSAB.JK</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21248800</v>
+        <v>18756600</v>
       </c>
     </row>
     <row r="15">
@@ -2142,11 +2142,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HUMI.JK</t>
+          <t>HRUM.JK</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19408000</v>
+        <v>16005400</v>
       </c>
     </row>
     <row r="16">
@@ -2155,11 +2155,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ADMR.JK</t>
+          <t>ISAT.JK</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>18482400</v>
+        <v>15712300</v>
       </c>
     </row>
     <row r="17">
@@ -2168,11 +2168,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PSKT.JK</t>
+          <t>INCO.JK</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17992900</v>
+        <v>13489400</v>
       </c>
     </row>
     <row r="18">
@@ -2181,11 +2181,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ANTM.JK</t>
+          <t>NCKL.JK</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>17613800</v>
+        <v>12689600</v>
       </c>
     </row>
     <row r="19">
@@ -2194,11 +2194,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>EXCL.JK</t>
+          <t>ARCI.JK</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>13889500</v>
+        <v>11558500</v>
       </c>
     </row>
     <row r="20">
@@ -2207,11 +2207,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ADRO.JK</t>
+          <t>MDKA.JK</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>11291500</v>
+        <v>10918200</v>
       </c>
     </row>
     <row r="21">
@@ -2220,11 +2220,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ENRG.JK</t>
+          <t>PWON.JK</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>10007400</v>
+        <v>10074000</v>
       </c>
     </row>
     <row r="22">
@@ -2233,11 +2233,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>EXCL.JK</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9185900</v>
+        <v>9031100</v>
       </c>
     </row>
     <row r="23">
@@ -2246,11 +2246,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MBMA.JK</t>
+          <t>BREN.JK</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>9060000</v>
+        <v>8991800</v>
       </c>
     </row>
     <row r="24">
@@ -2259,11 +2259,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ASII.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>8753400</v>
+        <v>8159800</v>
       </c>
     </row>
     <row r="25">
@@ -2272,11 +2272,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>RMKO.JK</t>
+          <t>INET.JK</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>8080500</v>
+        <v>8094200</v>
       </c>
     </row>
     <row r="26">
@@ -2285,11 +2285,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>EMAS.JK</t>
+          <t>AADI.JK</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5188500</v>
+        <v>7865100</v>
       </c>
     </row>
     <row r="27">
@@ -2298,11 +2298,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>INDY.JK</t>
+          <t>VKTR.JK</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5176700</v>
+        <v>6460300</v>
       </c>
     </row>
     <row r="28">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RMKE.JK</t>
+          <t>AMRT.JK</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5072500</v>
+        <v>5663600</v>
       </c>
     </row>
     <row r="29">
@@ -2324,11 +2324,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BRPT.JK</t>
+          <t>NICL.JK</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4785500</v>
+        <v>4197500</v>
       </c>
     </row>
     <row r="30">
@@ -2337,11 +2337,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>IMPC.JK</t>
+          <t>AMMN.JK</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4693800</v>
+        <v>3795500</v>
       </c>
     </row>
     <row r="31">
@@ -2350,11 +2350,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRUE.JK</t>
+          <t>PGEO.JK</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4129400</v>
+        <v>3606300</v>
       </c>
     </row>
   </sheetData>
@@ -2368,7 +2368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.6%</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-2.7%</t>
+          <t>-5.3%</t>
         </is>
       </c>
     </row>
@@ -2454,169 +2454,169 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-7.0%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>NCKL.JK</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>96</v>
       </c>
       <c r="C5" t="n">
-        <v>81.59999999999999</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-2.2%</t>
+          <t>-8.1%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NCKL.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>95</v>
       </c>
       <c r="C6" t="n">
-        <v>72.40000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-13.4%</t>
+          <t>-1.8%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INDY.JK</t>
+          <t>IRSX.JK</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C7" t="n">
-        <v>72</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-2.4%</t>
+          <t>-27.4%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RMKO.JK</t>
+          <t>HRTA.JK</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" t="n">
-        <v>70.40000000000001</v>
+        <v>80.2</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-62.7%</t>
+          <t>-8.7%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HRTA.JK</t>
+          <t>ANTM.JK</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" t="n">
-        <v>70.2</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-9.7%</t>
+          <t>-16.2%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MEDC.JK</t>
+          <t>INDY.JK</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-1.6%</t>
+          <t>-3.2%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>OASA.JK</t>
+          <t>MEDC.JK</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-24.2%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TCPI.JK</t>
+          <t>OASA.JK</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C12" t="n">
         <v>69</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-18.8%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ANTM.JK</t>
+          <t>TCPI.JK</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>87</v>
       </c>
       <c r="C13" t="n">
-        <v>68.59999999999999</v>
+        <v>69</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-18.3%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
@@ -2627,158 +2627,158 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" t="n">
         <v>68</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-26.6%</t>
+          <t>-24.2%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>JPFA.JK</t>
+          <t>BMRI.JK</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" t="n">
-        <v>66.40000000000001</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-11.9%</t>
+          <t>-1.5%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BRIS.JK</t>
+          <t>MDKA.JK</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C16" t="n">
-        <v>65.8</v>
+        <v>65</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-2.0%</t>
+          <t>-8.4%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MDKA.JK</t>
+          <t>ISAT.JK</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" t="n">
         <v>65</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-10.4%</t>
+          <t>-10.5%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BBNI.JK</t>
+          <t>BIPI.JK</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C18" t="n">
         <v>64</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>-25.7%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ADRO.JK</t>
+          <t>TINS.JK</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C19" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-9.6%</t>
+          <t>-3.3%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AADI.JK</t>
+          <t>ARCI.JK</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C20" t="n">
-        <v>59.8</v>
+        <v>57.6</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-2.1%</t>
+          <t>-15.8%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BMRI.JK</t>
+          <t>HUMI.JK</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C21" t="n">
-        <v>58.8</v>
+        <v>57</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-34.3%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ARCI.JK</t>
+          <t>RMKO.JK</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C22" t="n">
-        <v>57.6</v>
+        <v>55.4</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-16.0%</t>
+          <t>-62.4%</t>
         </is>
       </c>
     </row>
@@ -2789,14 +2789,14 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C23" t="n">
         <v>54.6</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-7.7%</t>
+          <t>-6.1%</t>
         </is>
       </c>
     </row>
@@ -2807,140 +2807,140 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C24" t="n">
         <v>53.8</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>-1.8%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ADMR.JK</t>
+          <t>INDF.JK</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C25" t="n">
-        <v>52.8</v>
+        <v>53</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-17.1%</t>
+          <t>-10.1%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PTBA.JK</t>
+          <t>ADMR.JK</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C26" t="n">
         <v>52.8</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>-15.1%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>IRSX.JK</t>
+          <t>PTBA.JK</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C27" t="n">
-        <v>51.6</v>
+        <v>52.8</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-29.9%</t>
+          <t>-1.5%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PANI.JK</t>
+          <t>BRIS.JK</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C28" t="n">
-        <v>50.4</v>
+        <v>50.8</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-26.0%</t>
+          <t>-4.0%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ISAT.JK</t>
+          <t>BBNI.JK</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C29" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-10.9%</t>
+          <t>-3.2%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ESSA.JK</t>
+          <t>ADRO.JK</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C30" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-15.1%</t>
+          <t>-7.5%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SRTG.JK</t>
+          <t>GTSI.JK</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C31" t="n">
-        <v>37</v>
+        <v>46.8</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-15.7%</t>
+          <t>-34.6%</t>
         </is>
       </c>
     </row>
@@ -2951,1076 +2951,932 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C32" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-52.1%</t>
+          <t>-49.2%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HUMI.JK</t>
+          <t>AADI.JK</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C33" t="n">
-        <v>35</v>
+        <v>44.8</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-38.8%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>AMRT.JK</t>
+          <t>PNLF.JK</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C34" t="n">
-        <v>34.8</v>
+        <v>44</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-2.5%</t>
+          <t>-15.6%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MBMA.JK</t>
+          <t>VKTR.JK</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C35" t="n">
-        <v>34</v>
+        <v>43.8</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-14.9%</t>
+          <t>-31.7%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PNLF.JK</t>
+          <t>DEWA.JK</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C36" t="n">
-        <v>34</v>
+        <v>38.6</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-18.0%</t>
+          <t>-30.7%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>INDF.JK</t>
+          <t>BULL.JK</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C37" t="n">
-        <v>33</v>
+        <v>31.8</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-7.4%</t>
+          <t>-36.1%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BULL.JK</t>
+          <t>ENRG.JK</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C38" t="n">
-        <v>31.8</v>
+        <v>31</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-37.2%</t>
+          <t>-27.1%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GTSI.JK</t>
+          <t>INKP.JK</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C39" t="n">
-        <v>31.8</v>
+        <v>31</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-37.9%</t>
+          <t>-11.6%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>INKP.JK</t>
+          <t>PBSA.JK</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C40" t="n">
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-14.2%</t>
+          <t>-44.6%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PBSA.JK</t>
+          <t>ICBP.JK</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C41" t="n">
-        <v>30.8</v>
+        <v>30</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-47.0%</t>
+          <t>-4.9%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>TINS.JK</t>
+          <t>PWON.JK</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C42" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-14.7%</t>
+          <t>-6.2%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ICBP.JK</t>
+          <t>AMMN.JK</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C43" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-6.1%</t>
+          <t>-4.3%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>VKTR.JK</t>
+          <t>TRIN.JK</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C44" t="n">
-        <v>28.8</v>
+        <v>27</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-37.1%</t>
+          <t>-35.9%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BUMI.JK</t>
+          <t>NICL.JK</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>28</v>
+        <v>23.8</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-46.6%</t>
+          <t>-36.6%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>TRUE.JK</t>
+          <t>UNVR.JK</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>28</v>
+        <v>23.4</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-62.3%</t>
+          <t>-18.4%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>AMMN.JK</t>
+          <t>TLKM.JK</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>27</v>
+        <v>21.8</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-6.1%</t>
+          <t>-10.4%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>TRIN.JK</t>
+          <t>EXCL.JK</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C48" t="n">
-        <v>27</v>
+        <v>21.8</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-38.8%</t>
+          <t>-33.0%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MINA.JK</t>
+          <t>LPKR.JK</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C49" t="n">
-        <v>25.8</v>
+        <v>21.8</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-61.9%</t>
+          <t>-26.6%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>UNVR.JK</t>
+          <t>JPFA.JK</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C50" t="n">
-        <v>23.4</v>
+        <v>21.4</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-17.0%</t>
+          <t>-11.9%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PADI.JK</t>
+          <t>PANI.JK</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C51" t="n">
-        <v>23.2</v>
+        <v>20.4</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-56.8%</t>
+          <t>-25.6%</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ASII.JK</t>
+          <t>BUMI.JK</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C52" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-7.4%</t>
+          <t>-41.4%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PGEO.JK</t>
+          <t>BBYB.JK</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C53" t="n">
-        <v>23</v>
+        <v>17.4</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-12.3%</t>
+          <t>-34.9%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>TLKM.JK</t>
+          <t>EMTK.JK</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C54" t="n">
-        <v>21.8</v>
+        <v>16.2</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-13.7%</t>
+          <t>-37.1%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ENRG.JK</t>
+          <t>CPRO.JK</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C55" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-33.3%</t>
+          <t>-23.3%</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BUVA.JK</t>
+          <t>BRMS.JK</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C56" t="n">
-        <v>20</v>
+        <v>15.4</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-48.4%</t>
+          <t>-17.2%</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PWON.JK</t>
+          <t>AMRT.JK</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C57" t="n">
-        <v>19</v>
+        <v>14.8</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-6.2%</t>
+          <t>-3.5%</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BBYB.JK</t>
+          <t>MBMA.JK</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C58" t="n">
-        <v>17.4</v>
+        <v>14</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-35.9%</t>
+          <t>-9.3%</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>EMTK.JK</t>
+          <t>HRUM.JK</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C59" t="n">
-        <v>16.2</v>
+        <v>14</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-39.1%</t>
+          <t>-11.7%</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CPRO.JK</t>
+          <t>ASII.JK</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C60" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-25.6%</t>
+          <t>-8.8%</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>NICL.JK</t>
+          <t>PGEO.JK</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C61" t="n">
-        <v>15.8</v>
+        <v>13</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-39.6%</t>
+          <t>-8.5%</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BRMS.JK</t>
+          <t>ESSA.JK</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C62" t="n">
-        <v>15.4</v>
+        <v>13</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-20.2%</t>
+          <t>-15.8%</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>DEWA.JK</t>
+          <t>DSSA.JK</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C63" t="n">
-        <v>13.6</v>
+        <v>12.4</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-38.0%</t>
+          <t>-16.4%</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PSKT.JK</t>
+          <t>PSAB.JK</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C64" t="n">
-        <v>13</v>
+        <v>11.8</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-48.8%</t>
+          <t>-17.6%</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PSAB.JK</t>
+          <t>BBKP.JK</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C65" t="n">
-        <v>11.8</v>
+        <v>10</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-21.4%</t>
+          <t>-20.2%</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>LPKR.JK</t>
+          <t>BKSL.JK</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C66" t="n">
-        <v>11.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-28.1%</t>
+          <t>-23.0%</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BBKP.JK</t>
+          <t>DADA.JK</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C67" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-21.3%</t>
+          <t>-20.6%</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BKSL.JK</t>
+          <t>CBDK.JK</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C68" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-25.7%</t>
+          <t>-33.2%</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>DADA.JK</t>
+          <t>BBCA.JK</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C69" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-20.6%</t>
+          <t>-12.5%</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CBDK.JK</t>
+          <t>COIN.JK</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C70" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-34.2%</t>
+          <t>-58.2%</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BBCA.JK</t>
+          <t>SRTG.JK</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C71" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-12.3%</t>
+          <t>-13.9%</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>COIN.JK</t>
+          <t>BRPT.JK</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C72" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-61.1%</t>
+          <t>-39.7%</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CUAN.JK</t>
+          <t>KLBF.JK</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C73" t="n">
-        <v>7.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-40.1%</t>
+          <t>-14.0%</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>HRUM.JK</t>
+          <t>INET.JK</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C74" t="n">
-        <v>7</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>-18.3%</t>
+          <t>-59.1%</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>EXCL.JK</t>
+          <t>IMPC.JK</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C75" t="n">
-        <v>6.8</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-35.4%</t>
+          <t>-43.5%</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BRPT.JK</t>
+          <t>CDIA.JK</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C76" t="n">
-        <v>6.6</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-46.3%</t>
+          <t>-41.2%</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>KLBF.JK</t>
+          <t>BREN.JK</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C77" t="n">
-        <v>6.6</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-13.6%</t>
+          <t>-18.0%</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>PTRO.JK</t>
+          <t>UNTR.JK</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C78" t="n">
-        <v>5.399999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-53.7%</t>
+          <t>-11.0%</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>INET.JK</t>
+          <t>WIFI.JK</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C79" t="n">
-        <v>5.399999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-62.8%</t>
+          <t>-42.6%</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>IMPC.JK</t>
+          <t>KIJA.JK</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C80" t="n">
-        <v>5.399999999999999</v>
+        <v>2</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-48.9%</t>
+          <t>-35.6%</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>CDIA.JK</t>
+          <t>GOTO.JK</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C81" t="n">
-        <v>5.399999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-45.1%</t>
+          <t>-15.5%</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>RATU.JK</t>
+          <t>TOBA.JK</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C82" t="n">
-        <v>5.399999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>-57.5%</t>
+          <t>-25.0%</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BREN.JK</t>
+          <t>SSIA.JK</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>5.399999999999999</v>
+        <v>-6</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>-21.8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>UNTR.JK</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>8</v>
-      </c>
-      <c r="C84" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>-14.1%</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>WIFI.JK</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>8</v>
-      </c>
-      <c r="C85" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>-45.6%</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>RAJA.JK</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>6</v>
-      </c>
-      <c r="C86" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>-51.2%</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>DSSA.JK</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>6</v>
-      </c>
-      <c r="C87" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>-18.6%</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>KIJA.JK</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>4</v>
-      </c>
-      <c r="C88" t="n">
-        <v>2</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>-39.0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>GOTO.JK</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>3</v>
-      </c>
-      <c r="C89" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>-16.9%</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>TOBA.JK</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>3</v>
-      </c>
-      <c r="C90" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>-27.6%</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>SSIA.JK</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>1</v>
-      </c>
-      <c r="C91" t="n">
-        <v>-6</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>-25.8%</t>
+          <t>-20.6%</t>
         </is>
       </c>
     </row>
@@ -4035,7 +3891,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4049,7 +3905,7 @@
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="11" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4108,17 +3964,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>738-812</t>
+          <t>734-806</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1028</t>
+          <t>1015</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-19268700</t>
+          <t>-21747700</t>
         </is>
       </c>
     </row>
@@ -4133,21 +3989,21 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3505-3835</t>
+          <t>3477-3803</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4743</t>
+          <t>4703</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5176700</t>
+          <t>-12647400</t>
         </is>
       </c>
     </row>
@@ -4158,25 +4014,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>RMKO.JK</t>
+          <t>MEDC.JK</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>557-793</t>
+          <t>1530-1630</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1376</t>
+          <t>1923</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>8080500</t>
+          <t>2776500</t>
         </is>
       </c>
     </row>
@@ -4187,25 +4043,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MEDC.JK</t>
+          <t>RMKO.JK</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1499-1601</t>
+          <t>568-792</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1928</t>
+          <t>1399</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4019700</t>
+          <t>-11023900</t>
         </is>
       </c>
     </row>
@@ -4216,25 +4072,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ADRO.JK</t>
+          <t>PTBA.JK</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2095-2245</t>
+          <t>2507-2593</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2713</t>
+          <t>2991</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>11291500</t>
+          <t>291600</t>
         </is>
       </c>
     </row>
@@ -4257,17 +4113,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6940-7660</t>
+          <t>6746-7454</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9504</t>
+          <t>9267</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>5188500</t>
+          <t>1444500</t>
         </is>
       </c>
     </row>
@@ -4286,17 +4142,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6102-6598</t>
+          <t>6591-7109</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8027</t>
+          <t>8612</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1839200</t>
+          <t>13489400</t>
         </is>
       </c>
     </row>
@@ -4311,21 +4167,21 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1282-1378</t>
+          <t>1361-1459</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1664</t>
+          <t>1756</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1483700</t>
+          <t>12689600</t>
         </is>
       </c>
     </row>
@@ -4340,21 +4196,21 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3729-4051</t>
+          <t>3830-4150</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4926</t>
+          <t>5031</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>17613800</t>
+          <t>30318800</t>
         </is>
       </c>
     </row>
@@ -4369,21 +4225,21 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2951-3229</t>
+          <t>3022-3298</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3967</t>
+          <t>4038</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-21250800</t>
+          <t>10918200</t>
         </is>
       </c>
     </row>
@@ -4402,21 +4258,21 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2163-2277</t>
+          <t>2175-2285</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2689</t>
+          <t>2692</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>9185900</t>
+          <t>8159800</t>
         </is>
       </c>
     </row>
@@ -4431,21 +4287,21 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>368-420</t>
+          <t>397-447</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>590</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1252200</t>
+          <t>-4349000</t>
         </is>
       </c>
     </row>
@@ -4460,21 +4316,21 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1108-1172</t>
+          <t>1157-1223</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1390</t>
+          <t>1449</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-811800</t>
+          <t>3606300</t>
         </is>
       </c>
     </row>
@@ -4489,21 +4345,21 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1065-1185</t>
+          <t>1142-1268</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1522</t>
+          <t>1620</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-34811500</t>
+          <t>-54834500</t>
         </is>
       </c>
     </row>
@@ -4518,28 +4374,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7717-8283</t>
+          <t>8011-8589</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>9954</t>
+          <t>10312</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-222600</t>
+          <t>8991800</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -4547,25 +4403,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>HRTA.JK</t>
+          <t>IRSX.JK</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2384-2616</t>
+          <t>531-609</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3222</t>
+          <t>834</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3616900</t>
+          <t>1486500</t>
         </is>
       </c>
     </row>
@@ -4576,25 +4432,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ZATA.JK</t>
+          <t>WIFI.JK</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>82-100</t>
+          <t>2337-2543</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>3126</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3777600</t>
+          <t>-20181200</t>
         </is>
       </c>
     </row>
@@ -4605,425 +4461,429 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>VKTR.JK</t>
+          <t>GOTO.JK</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>746-884</t>
+          <t>58-62</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1222</t>
+          <t>74</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-10875000</t>
+          <t>-321363900</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MINA.JK</t>
+          <t>HRTA.JK</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>211-273</t>
+          <t>2418-2642</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>3242</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>33926700</t>
+          <t>-1953200</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>BUVA.JK</t>
+          <t>ZATA.JK</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1009-1231</t>
+          <t>86-102</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1818</t>
+          <t>143</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>24502000</t>
+          <t>28114100</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>VKTR.JK</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>59</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>817-953</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1288</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>6460300</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B23" t="n">
         <v>1</v>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>TCPI.JK</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>90</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>10841-11359</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>12912</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>-73400</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="n">
-        <v>2</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>HUMI.JK</t>
-        </is>
-      </c>
       <c r="D23" t="n">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>198-238</t>
+          <t>11261-11789</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>13375</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>19408000</t>
+          <t>750900</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BULL.JK</t>
+          <t>BIPI.JK</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>396-464</t>
+          <t>159-183</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>663</t>
+          <t>238</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>59013800</t>
+          <t>-174624300</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>GTSI.JK</t>
+          <t>HUMI.JK</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>271-325</t>
+          <t>215-253</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>354</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>21248800</t>
+          <t>28369300</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>GTSI.JK</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>64</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>289-339</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>-19180200</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="n">
         <v>5</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>PBSA.JK</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>56</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>1305-1545</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2170</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>367500</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Consumer Defensive</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>BULL.JK</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>57</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>405-471</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>659</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>-122679500</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
         <v>1</v>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>JPFA.JK</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>85</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2495-2665</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3199</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>449700</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="n">
-        <v>2</v>
-      </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>AMRT.JK</t>
+          <t>BMRI.JK</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1902-1998</t>
+          <t>4928-5122</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2352</t>
+          <t>5703</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-654300</t>
+          <t>-20586800</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>INDF.JK</t>
+          <t>BBRI.JK</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>6802-6998</t>
+          <t>3734-3866</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>7980</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1119900</t>
+          <t>44073300</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ICBP.JK</t>
+          <t>BRIS.JK</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>7961-8289</t>
+          <t>2340-2460</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>9637</t>
+          <t>2901</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-4599600</t>
+          <t>-1087700</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="n">
+        <v>4</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>BBNI.JK</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>67</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>4402-4558</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5270</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-2577900</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="n">
         <v>5</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>UNVR.JK</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>46</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>2234-2366</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2811</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>-14420600</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Financial Services</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>PNLF.JK</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>60</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>274-290</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>23395600</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
         <v>1</v>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>BRIS.JK</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>84</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>2391-2509</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2863</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>2658600</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="n">
-        <v>2</v>
-      </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>BBNI.JK</t>
+          <t>ISAT.JK</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -5031,293 +4891,293 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4431-4589</t>
+          <t>2141-2279</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>5308</t>
+          <t>2724</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-10829400</t>
+          <t>15712300</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BMRI.JK</t>
+          <t>TLKM.JK</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5003-5197</t>
+          <t>3431-3629</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>5774</t>
+          <t>4288</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>135801000</t>
+          <t>40662800</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>BBRI.JK</t>
+          <t>EXCL.JK</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3714-3846</t>
+          <t>2872-3148</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>4442</t>
+          <t>3817</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-56270300</t>
+          <t>9031100</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="n">
+        <v>4</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>EMTK.JK</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>36</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>888-962</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1173</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>-11013100</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="n">
         <v>5</v>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>SRTG.JK</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>67</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>1630-1760</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2138</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>-2216000</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>INET.JK</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>12</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>354-410</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>8094200</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
         <v>1</v>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>IRSX.JK</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>72</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>510-590</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>822</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>3198100</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="n">
-        <v>2</v>
-      </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>WIFI.JK</t>
+          <t>INDF.JK</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2206-2414</t>
+          <t>6598-6802</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3008</t>
+          <t>7784</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-1637200</t>
+          <t>1164900</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="n">
+        <v>2</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ICBP.JK</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>52</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>8018-8332</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9660</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>233800</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="n">
         <v>3</v>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>GOTO.JK</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>3</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>57-61</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>230353000</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Real Estate</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>1</v>
-      </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PANI.JK</t>
+          <t>UNVR.JK</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10426-11374</t>
+          <t>2193-2327</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>13911</t>
+          <t>2772</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>3852400</t>
+          <t>-865900</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>TRUE.JK</t>
+          <t>JPFA.JK</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>180-220</t>
+          <t>2498-2662</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>3187</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>4129400</t>
+          <t>1057400</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>TRIN.JK</t>
+          <t>CPRO.JK</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>987-1143</t>
+          <t>64-68</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1602</t>
+          <t>82</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-1173900</t>
+          <t>33347300</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr"/>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Real Estate</t>
+        </is>
+      </c>
       <c r="B43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5325,7 +5185,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -5334,252 +5194,190 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>425</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-9117700</t>
+          <t>10074000</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
       <c r="B44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>BKSL.JK</t>
+          <t>TRIN.JK</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>128-144</t>
+          <t>1039-1191</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>1638</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>36648000</t>
+          <t>-6569500</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Communication Services</t>
-        </is>
-      </c>
+      <c r="A45" t="inlineStr"/>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ISAT.JK</t>
+          <t>PANI.JK</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2125-2275</t>
+          <t>10467-11433</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2738</t>
+          <t>14005</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>-4736500</t>
+          <t>-253800</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>TLKM.JK</t>
+          <t>BKSL.JK</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3299-3501</t>
+          <t>133-149</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>4150</t>
+          <t>187</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>47052600</t>
+          <t>27471400</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>EMTK.JK</t>
+          <t>DADA.JK</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>857-933</t>
+          <t>50-50</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1144</t>
+          <t>55</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>-17120600</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr"/>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
       <c r="B48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>EXCL.JK</t>
+          <t>LPKR.JK</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2757-3043</t>
+          <t>89-99</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>128</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>13889500</t>
+          <t>26787000</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>INET.JK</t>
+          <t>KLBF.JK</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>320-376</t>
+          <t>1083-1127</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>1310</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>44485800</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>LPKR.JK</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>30</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>86-98</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>133</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>1498400</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr"/>
-      <c r="B51" t="n">
-        <v>2</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>KLBF.JK</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>17</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>1088-1132</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>1318</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>-4266300</t>
+          <t>-3128800</t>
         </is>
       </c>
     </row>
@@ -5634,7 +5432,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>761360400</v>
+        <v>-2102136900</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -5652,7 +5450,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>230353000</v>
+        <v>-321363900</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -5666,11 +5464,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BMRI.JK</t>
+          <t>BIPI.JK</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>135801000</v>
+        <v>-174624300</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -5684,11 +5482,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PADI.JK</t>
+          <t>BULL.JK</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>68217900</v>
+        <v>-122679500</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -5702,11 +5500,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DEWA.JK</t>
+          <t>BBCA.JK</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>66978000</v>
+        <v>-84214600</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -5720,11 +5518,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BRMS.JK</t>
+          <t>CDIA.JK</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>59548700</v>
+        <v>-54834500</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -5738,11 +5536,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BULL.JK</t>
+          <t>BBRI.JK</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>59013800</v>
+        <v>44073300</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -5756,11 +5554,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BBRI.JK</t>
+          <t>KIJA.JK</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-56270300</v>
+        <v>-44002900</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -5778,7 +5576,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>47052600</v>
+        <v>40662800</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -5792,11 +5590,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>INET.JK</t>
+          <t>CPRO.JK</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>44485800</v>
+        <v>33347300</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -5827,7 +5625,7 @@
     <col width="9" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="9" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="11" customWidth="1" min="8" max="8"/>
@@ -5899,7 +5697,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BBYB.JK</t>
+          <t>BMRI.JK</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -5911,103 +5709,103 @@
         </is>
       </c>
       <c r="E2" s="8" t="n">
-        <v>0.12336001</v>
+        <v>0.19143999</v>
       </c>
       <c r="F2" s="9" t="n">
-        <v>0.749</v>
-      </c>
-      <c r="G2" s="9" t="n">
-        <v>0.34335998</v>
+        <v>0.144</v>
+      </c>
+      <c r="G2" s="8" t="n">
+        <v>0.38707</v>
       </c>
       <c r="H2" s="10" t="n">
-        <v>10.502917</v>
+        <v>8.333333</v>
       </c>
       <c r="I2" s="11" t="n">
-        <v>1.2207725</v>
+        <v>1.5957382</v>
       </c>
       <c r="J2" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K2" s="11" t="n">
-        <v>35.99</v>
+        <v>603</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BBYB.JK</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="n">
+        <v>0.12336001</v>
+      </c>
+      <c r="F3" s="8" t="n">
+        <v>0.749</v>
+      </c>
+      <c r="G3" s="8" t="n">
+        <v>0.34335998</v>
+      </c>
+      <c r="H3" s="10" t="n">
+        <v>10.660744</v>
+      </c>
+      <c r="I3" s="11" t="n">
+        <v>1.2401497</v>
+      </c>
+      <c r="J3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11" t="n">
+        <v>36.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="inlineStr">
         <is>
           <t>EMTK.JK</t>
         </is>
       </c>
-      <c r="C3" s="12" t="n">
+      <c r="C4" s="12" t="n">
         <v>27</v>
       </c>
-      <c r="D3" s="12" t="inlineStr">
+      <c r="D4" s="12" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
-      <c r="E3" s="13" t="n">
+      <c r="E4" s="13" t="n">
         <v>0.20097</v>
       </c>
-      <c r="F3" s="13" t="n">
+      <c r="F4" s="13" t="n">
         <v>0.466</v>
       </c>
-      <c r="G3" s="13" t="n">
+      <c r="G4" s="13" t="n">
         <v>0.43205002</v>
       </c>
-      <c r="H3" s="12" t="n">
-        <v>7.3150797</v>
-      </c>
-      <c r="I3" s="11" t="n">
-        <v>1.3981382</v>
-      </c>
-      <c r="J3" s="14" t="n">
+      <c r="H4" s="12" t="n">
+        <v>7.5639873</v>
+      </c>
+      <c r="I4" s="11" t="n">
+        <v>1.4450032</v>
+      </c>
+      <c r="J4" s="14" t="n">
         <v>2.444</v>
       </c>
-      <c r="K3" s="11" t="n">
-        <v>122.35</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>NCKL.JK</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>MID</t>
-        </is>
-      </c>
-      <c r="E4" s="9" t="n">
-        <v>0.25308</v>
-      </c>
-      <c r="F4" s="8" t="n">
-        <v>0.097</v>
-      </c>
-      <c r="G4" s="9" t="n">
-        <v>0.27552</v>
-      </c>
-      <c r="H4" s="10" t="n">
-        <v>10.50387</v>
-      </c>
-      <c r="I4" s="15" t="n">
-        <v>2.3452365</v>
-      </c>
-      <c r="J4" s="14" t="n">
-        <v>23.671</v>
-      </c>
       <c r="K4" s="11" t="n">
-        <v>126.62</v>
+        <v>122.29</v>
       </c>
     </row>
     <row r="5">
@@ -6016,11 +5814,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BBRI.JK</t>
+          <t>NCKL.JK</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -6028,25 +5826,25 @@
         </is>
       </c>
       <c r="E5" s="8" t="n">
-        <v>0.16936001</v>
-      </c>
-      <c r="F5" s="8" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="G5" s="9" t="n">
-        <v>0.41044</v>
+        <v>0.25308</v>
+      </c>
+      <c r="F5" s="9" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <v>0.27552</v>
       </c>
       <c r="H5" s="10" t="n">
-        <v>10.162656</v>
-      </c>
-      <c r="I5" s="11" t="n">
-        <v>1.7187223</v>
-      </c>
-      <c r="J5" s="11" t="n">
-        <v>0</v>
+        <v>11.135681</v>
+      </c>
+      <c r="I5" s="15" t="n">
+        <v>2.4863033</v>
+      </c>
+      <c r="J5" s="14" t="n">
+        <v>23.671</v>
       </c>
       <c r="K5" s="11" t="n">
-        <v>371.95</v>
+        <v>126.62</v>
       </c>
     </row>
     <row r="6">
@@ -6055,11 +5853,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PADI.JK</t>
+          <t>BBRI.JK</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -6067,25 +5865,25 @@
         </is>
       </c>
       <c r="E6" s="9" t="n">
-        <v>0.24911</v>
+        <v>0.16936001</v>
       </c>
       <c r="F6" s="9" t="n">
-        <v>4.381</v>
-      </c>
-      <c r="G6" s="9" t="n">
-        <v>0.71615</v>
-      </c>
-      <c r="H6" t="n">
-        <v>22.51309</v>
-      </c>
-      <c r="I6" s="14" t="n">
-        <v>5.3783617</v>
-      </c>
-      <c r="J6" s="14" t="n">
-        <v>5.093</v>
+        <v>0.065</v>
+      </c>
+      <c r="G6" s="8" t="n">
+        <v>0.41044</v>
+      </c>
+      <c r="H6" s="10" t="n">
+        <v>10.245901</v>
+      </c>
+      <c r="I6" s="11" t="n">
+        <v>1.7278161</v>
+      </c>
+      <c r="J6" s="11" t="n">
+        <v>0</v>
       </c>
       <c r="K6" s="11" t="n">
-        <v>3.82</v>
+        <v>370.88</v>
       </c>
     </row>
     <row r="7">
@@ -6105,13 +5903,13 @@
           <t>MID</t>
         </is>
       </c>
-      <c r="E7" s="9" t="n">
+      <c r="E7" s="8" t="n">
         <v>0.20716</v>
       </c>
-      <c r="F7" s="8" t="n">
+      <c r="F7" s="9" t="n">
         <v>0.146</v>
       </c>
-      <c r="G7" s="8" t="n">
+      <c r="G7" s="9" t="n">
         <v>0.05786</v>
       </c>
       <c r="H7" s="10" t="n">
@@ -6144,26 +5942,26 @@
           <t>MID</t>
         </is>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="9" t="n">
         <v>0.15604</v>
       </c>
-      <c r="F8" s="8" t="n">
+      <c r="F8" s="9" t="n">
         <v>0.075</v>
       </c>
-      <c r="G8" s="9" t="n">
+      <c r="G8" s="8" t="n">
         <v>0.31919</v>
       </c>
       <c r="H8" t="n">
-        <v>14.925374</v>
+        <v>14.619883</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>2.1753685</v>
+        <v>2.130973</v>
       </c>
       <c r="J8" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="11" t="n">
-        <v>164.15</v>
+        <v>164.16</v>
       </c>
     </row>
     <row r="9">
@@ -6172,7 +5970,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BMRI.JK</t>
+          <t>NICL.JK</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -6183,104 +5981,104 @@
           <t>MID</t>
         </is>
       </c>
-      <c r="E9" s="9" t="n">
-        <v>0.18354</v>
-      </c>
-      <c r="F9" s="8" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="G9" s="9" t="n">
-        <v>0.36782002</v>
-      </c>
-      <c r="H9" s="10" t="n">
-        <v>8.291874</v>
-      </c>
-      <c r="I9" s="11" t="n">
-        <v>1.6901548</v>
+      <c r="E9" s="8" t="n">
+        <v>0.65794</v>
+      </c>
+      <c r="F9" s="16" t="n">
+        <v>-0.261</v>
+      </c>
+      <c r="G9" s="8" t="n">
+        <v>0.27632</v>
+      </c>
+      <c r="H9" t="n">
+        <v>23.094913</v>
+      </c>
+      <c r="I9" s="14" t="n">
+        <v>15.172855</v>
       </c>
       <c r="J9" s="11" t="n">
-        <v>0</v>
+        <v>0.378</v>
       </c>
       <c r="K9" s="11" t="n">
-        <v>615.0599999999999</v>
+        <v>51.31</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>NICL.JK</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>18</v>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="B10" s="12" t="inlineStr">
+        <is>
+          <t>HRTA.JK</t>
+        </is>
+      </c>
+      <c r="C10" s="12" t="n">
+        <v>17</v>
+      </c>
+      <c r="D10" s="12" t="inlineStr">
         <is>
           <t>MID</t>
         </is>
       </c>
-      <c r="E10" s="9" t="n">
-        <v>0.65794</v>
-      </c>
-      <c r="F10" s="16" t="n">
-        <v>-0.261</v>
-      </c>
-      <c r="G10" s="9" t="n">
-        <v>0.27632</v>
-      </c>
-      <c r="H10" t="n">
-        <v>22.02729</v>
-      </c>
-      <c r="I10" s="14" t="n">
-        <v>14.46863</v>
-      </c>
-      <c r="J10" s="11" t="n">
-        <v>0.378</v>
+      <c r="E10" s="13" t="n">
+        <v>0.28483</v>
+      </c>
+      <c r="F10" s="13" t="n">
+        <v>1.009</v>
+      </c>
+      <c r="G10" s="13" t="n">
+        <v>0.023759998</v>
+      </c>
+      <c r="H10" s="12" t="n">
+        <v>16.25964</v>
+      </c>
+      <c r="I10" s="15" t="n">
+        <v>4.1330614</v>
+      </c>
+      <c r="J10" s="14" t="n">
+        <v>139.825</v>
       </c>
       <c r="K10" s="11" t="n">
-        <v>51.3</v>
+        <v>155.6</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="12" t="n">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="inlineStr">
-        <is>
-          <t>HRTA.JK</t>
-        </is>
-      </c>
-      <c r="C11" s="12" t="n">
-        <v>17</v>
-      </c>
-      <c r="D11" s="12" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ELSA.JK</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>16</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>MID</t>
         </is>
       </c>
-      <c r="E11" s="13" t="n">
-        <v>0.28483</v>
-      </c>
-      <c r="F11" s="13" t="n">
-        <v>1.009</v>
-      </c>
-      <c r="G11" s="13" t="n">
-        <v>0.023759998</v>
-      </c>
-      <c r="H11" s="12" t="n">
-        <v>16.077171</v>
-      </c>
-      <c r="I11" s="15" t="n">
-        <v>4.084053</v>
+      <c r="E11" s="9" t="n">
+        <v>0.13904001</v>
+      </c>
+      <c r="F11" s="9" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="G11" s="9" t="n">
+        <v>0.048460003</v>
+      </c>
+      <c r="H11" s="10" t="n">
+        <v>8.156779</v>
+      </c>
+      <c r="I11" s="11" t="n">
+        <v>1.0927179</v>
       </c>
       <c r="J11" s="14" t="n">
-        <v>139.825</v>
+        <v>4.935</v>
       </c>
       <c r="K11" s="11" t="n">
-        <v>155.5</v>
+        <v>94.40000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -6289,7 +6087,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ELSA.JK</t>
+          <t>ARCI.JK</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -6301,25 +6099,25 @@
         </is>
       </c>
       <c r="E12" s="8" t="n">
-        <v>0.13904001</v>
+        <v>0.28336</v>
       </c>
       <c r="F12" s="8" t="n">
-        <v>0.053</v>
+        <v>0.879</v>
       </c>
       <c r="G12" s="8" t="n">
-        <v>0.048460003</v>
-      </c>
-      <c r="H12" s="10" t="n">
-        <v>8.209745</v>
-      </c>
-      <c r="I12" s="11" t="n">
-        <v>1.0998135</v>
+        <v>0.21154</v>
+      </c>
+      <c r="H12" t="n">
+        <v>29.942217</v>
+      </c>
+      <c r="I12" s="14" t="n">
+        <v>122142.85</v>
       </c>
       <c r="J12" s="14" t="n">
-        <v>4.935</v>
+        <v>118.6</v>
       </c>
       <c r="K12" s="11" t="n">
-        <v>94.40000000000001</v>
+        <v>57.11</v>
       </c>
     </row>
     <row r="13">
@@ -6328,7 +6126,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ARCI.JK</t>
+          <t>TPIA.JK</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -6339,26 +6137,26 @@
           <t>MID</t>
         </is>
       </c>
-      <c r="E13" s="9" t="n">
-        <v>0.28336</v>
-      </c>
-      <c r="F13" s="9" t="n">
-        <v>0.879</v>
-      </c>
-      <c r="G13" s="9" t="n">
-        <v>0.21154</v>
+      <c r="E13" s="8" t="n">
+        <v>0.42018002</v>
+      </c>
+      <c r="F13" s="8" t="n">
+        <v>4.295</v>
+      </c>
+      <c r="G13" s="8" t="n">
+        <v>0.2208</v>
       </c>
       <c r="H13" t="n">
-        <v>29.760866</v>
+        <v>24.096188</v>
       </c>
       <c r="I13" s="14" t="n">
-        <v>121785.71</v>
+        <v>162777.77</v>
       </c>
       <c r="J13" s="14" t="n">
-        <v>118.6</v>
+        <v>82.7</v>
       </c>
       <c r="K13" s="11" t="n">
-        <v>57.29</v>
+        <v>303.99</v>
       </c>
     </row>
     <row r="14">
@@ -6367,11 +6165,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TPIA.JK</t>
+          <t>BBNI.JK</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -6379,25 +6177,25 @@
         </is>
       </c>
       <c r="E14" s="9" t="n">
-        <v>0.42018002</v>
+        <v>0.1173</v>
       </c>
       <c r="F14" s="9" t="n">
-        <v>4.295</v>
-      </c>
-      <c r="G14" s="9" t="n">
-        <v>0.2208</v>
-      </c>
-      <c r="H14" t="n">
-        <v>23.201855</v>
-      </c>
-      <c r="I14" s="14" t="n">
-        <v>160000</v>
-      </c>
-      <c r="J14" s="14" t="n">
-        <v>82.7</v>
+        <v>0.028</v>
+      </c>
+      <c r="G14" s="8" t="n">
+        <v>0.40232</v>
+      </c>
+      <c r="H14" s="10" t="n">
+        <v>8.340313999999999</v>
+      </c>
+      <c r="I14" s="11" t="n">
+        <v>0.97193456</v>
+      </c>
+      <c r="J14" s="11" t="n">
+        <v>0</v>
       </c>
       <c r="K14" s="11" t="n">
-        <v>310.32</v>
+        <v>537.15</v>
       </c>
     </row>
     <row r="15">
@@ -6406,7 +6204,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BBNI.JK</t>
+          <t>PWON.JK</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -6417,26 +6215,26 @@
           <t>MID</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n">
-        <v>0.1173</v>
-      </c>
-      <c r="F15" s="8" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="G15" s="9" t="n">
-        <v>0.40232</v>
+      <c r="E15" s="9" t="n">
+        <v>0.102419995</v>
+      </c>
+      <c r="F15" s="9" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="G15" s="8" t="n">
+        <v>0.30543</v>
       </c>
       <c r="H15" s="10" t="n">
-        <v>8.417477999999999</v>
+        <v>8.196351999999999</v>
       </c>
       <c r="I15" s="11" t="n">
-        <v>0.9784431</v>
-      </c>
-      <c r="J15" s="11" t="n">
-        <v>0</v>
+        <v>0.8027488</v>
+      </c>
+      <c r="J15" s="14" t="n">
+        <v>21.136</v>
       </c>
       <c r="K15" s="11" t="n">
-        <v>535.79</v>
+        <v>44.41</v>
       </c>
     </row>
     <row r="16">
@@ -6445,37 +6243,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PWON.JK</t>
+          <t>INCO.JK</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>MID</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n">
-        <v>0.102419995</v>
+      <c r="E16" s="9" t="n">
+        <v>0.02158</v>
       </c>
       <c r="F16" s="8" t="n">
-        <v>0.144</v>
+        <v>0.212</v>
       </c>
       <c r="G16" s="9" t="n">
-        <v>0.30543</v>
-      </c>
-      <c r="H16" s="10" t="n">
-        <v>8.244619999999999</v>
-      </c>
-      <c r="I16" s="11" t="n">
-        <v>0.8027488</v>
-      </c>
-      <c r="J16" s="14" t="n">
-        <v>21.136</v>
+        <v>0.06239</v>
+      </c>
+      <c r="H16" s="17" t="n">
+        <v>68.49315</v>
+      </c>
+      <c r="I16" s="14" t="n">
+        <v>26245.21</v>
+      </c>
+      <c r="J16" s="11" t="n">
+        <v>0.173</v>
       </c>
       <c r="K16" s="11" t="n">
-        <v>44.15</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="17">
@@ -6484,7 +6282,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>INCO.JK</t>
+          <t>UNVR.JK</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -6496,25 +6294,25 @@
         </is>
       </c>
       <c r="E17" s="8" t="n">
-        <v>0.02158</v>
+        <v>1.08807</v>
       </c>
       <c r="F17" s="9" t="n">
-        <v>0.212</v>
-      </c>
-      <c r="G17" s="8" t="n">
-        <v>0.06239</v>
-      </c>
-      <c r="H17" s="17" t="n">
-        <v>62.5</v>
+        <v>0.124</v>
+      </c>
+      <c r="G17" s="9" t="n">
+        <v>0.10455</v>
+      </c>
+      <c r="H17" t="n">
+        <v>23.529411</v>
       </c>
       <c r="I17" s="14" t="n">
-        <v>24329.502</v>
-      </c>
-      <c r="J17" s="11" t="n">
-        <v>0.173</v>
+        <v>25.589926</v>
+      </c>
+      <c r="J17" s="14" t="n">
+        <v>47.547</v>
       </c>
       <c r="K17" s="11" t="n">
-        <v>101.6</v>
+        <v>96.05</v>
       </c>
     </row>
     <row r="18">
@@ -6523,7 +6321,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>UNVR.JK</t>
+          <t>CBDK.JK</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -6535,25 +6333,25 @@
         </is>
       </c>
       <c r="E18" s="9" t="n">
-        <v>1.08807</v>
+        <v>0</v>
       </c>
       <c r="F18" s="8" t="n">
-        <v>0.124</v>
+        <v>0.791</v>
       </c>
       <c r="G18" s="8" t="n">
-        <v>0.10455</v>
+        <v>0.52018</v>
       </c>
       <c r="H18" t="n">
-        <v>23.980814</v>
-      </c>
-      <c r="I18" s="14" t="n">
-        <v>26.042845</v>
+        <v>23.094688</v>
+      </c>
+      <c r="I18" s="15" t="n">
+        <v>3.928722</v>
       </c>
       <c r="J18" s="14" t="n">
-        <v>47.547</v>
+        <v>2.39</v>
       </c>
       <c r="K18" s="11" t="n">
-        <v>95.91</v>
+        <v>272.79</v>
       </c>
     </row>
     <row r="19">
@@ -6562,11 +6360,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CBDK.JK</t>
+          <t>PBSA.JK</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -6574,25 +6372,25 @@
         </is>
       </c>
       <c r="E19" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="9" t="n">
-        <v>0.791</v>
+        <v>0.31697</v>
+      </c>
+      <c r="F19" s="16" t="n">
+        <v>-0.192</v>
       </c>
       <c r="G19" s="9" t="n">
-        <v>0.52018</v>
+        <v>0.15842</v>
       </c>
       <c r="H19" t="n">
-        <v>22.727274</v>
-      </c>
-      <c r="I19" s="15" t="n">
-        <v>3.8663611</v>
-      </c>
-      <c r="J19" s="14" t="n">
-        <v>2.39</v>
+        <v>19.230768</v>
+      </c>
+      <c r="I19" s="14" t="n">
+        <v>5.8249087</v>
+      </c>
+      <c r="J19" s="15" t="n">
+        <v>1.461</v>
       </c>
       <c r="K19" s="11" t="n">
-        <v>272.8</v>
+        <v>77.48</v>
       </c>
     </row>
     <row r="20">
@@ -6601,7 +6399,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PBSA.JK</t>
+          <t>BBCA.JK</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -6612,26 +6410,26 @@
           <t>MID</t>
         </is>
       </c>
-      <c r="E20" s="9" t="n">
-        <v>0.31697</v>
+      <c r="E20" s="8" t="n">
+        <v>0.21143</v>
       </c>
       <c r="F20" s="16" t="n">
-        <v>-0.192</v>
+        <v>-0.027</v>
       </c>
       <c r="G20" s="8" t="n">
-        <v>0.15842</v>
+        <v>0.53282</v>
       </c>
       <c r="H20" t="n">
-        <v>18.415611</v>
-      </c>
-      <c r="I20" s="14" t="n">
-        <v>5.5708017</v>
-      </c>
-      <c r="J20" s="15" t="n">
-        <v>1.461</v>
+        <v>15.948792</v>
+      </c>
+      <c r="I20" s="15" t="n">
+        <v>3.2559724</v>
+      </c>
+      <c r="J20" s="11" t="n">
+        <v>0</v>
       </c>
       <c r="K20" s="11" t="n">
-        <v>77.38</v>
+        <v>467.12</v>
       </c>
     </row>
     <row r="21">
@@ -6640,7 +6438,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MINA.JK</t>
+          <t>COIN.JK</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -6651,26 +6449,26 @@
           <t>MID</t>
         </is>
       </c>
-      <c r="E21" s="16" t="n">
-        <v>-0.04084</v>
-      </c>
-      <c r="F21" s="9" t="n">
-        <v>0.368</v>
+      <c r="E21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8" t="n">
+        <v>8.94</v>
       </c>
       <c r="G21" s="8" t="n">
-        <v>-0.69613</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
+        <v>0.30952</v>
+      </c>
+      <c r="H21" s="17" t="n">
+        <v>312.5</v>
       </c>
       <c r="I21" s="14" t="n">
-        <v>9.467548000000001</v>
+        <v>15.611315</v>
       </c>
       <c r="J21" s="11" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="K21" s="15" t="n">
-        <v>-0.73</v>
+        <v>0.261</v>
+      </c>
+      <c r="K21" s="11" t="n">
+        <v>6.16</v>
       </c>
     </row>
     <row r="22">
@@ -6679,11 +6477,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BBCA.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -6691,25 +6489,25 @@
         </is>
       </c>
       <c r="E22" s="9" t="n">
-        <v>0.21143</v>
-      </c>
-      <c r="F22" s="16" t="n">
-        <v>-0.027</v>
+        <v>0.12082</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0.008</v>
       </c>
       <c r="G22" s="9" t="n">
-        <v>0.53282</v>
-      </c>
-      <c r="H22" t="n">
-        <v>16.05145</v>
-      </c>
-      <c r="I22" s="15" t="n">
-        <v>3.2668984</v>
-      </c>
-      <c r="J22" s="11" t="n">
-        <v>0</v>
+        <v>0.0806</v>
+      </c>
+      <c r="H22" s="10" t="n">
+        <v>10.287876</v>
+      </c>
+      <c r="I22" s="14" t="n">
+        <v>19561.404</v>
+      </c>
+      <c r="J22" s="14" t="n">
+        <v>32.802</v>
       </c>
       <c r="K22" s="11" t="n">
-        <v>465.69</v>
+        <v>216.76</v>
       </c>
     </row>
     <row r="23">
@@ -6718,37 +6516,37 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>COIN.JK</t>
+          <t>IRSX.JK</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>MID</t>
         </is>
       </c>
-      <c r="E23" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="9" t="n">
-        <v>8.94</v>
+      <c r="E23" s="9" t="n">
+        <v>0.11936</v>
+      </c>
+      <c r="F23" s="16" t="n">
+        <v>-0.5590000000000001</v>
       </c>
       <c r="G23" s="9" t="n">
-        <v>0.30952</v>
+        <v>0.06455</v>
       </c>
       <c r="H23" s="17" t="n">
-        <v>285.828</v>
+        <v>62.0915</v>
       </c>
       <c r="I23" s="14" t="n">
-        <v>14.557044</v>
+        <v>11.813472</v>
       </c>
       <c r="J23" s="11" t="n">
-        <v>0.261</v>
+        <v>0.216</v>
       </c>
       <c r="K23" s="11" t="n">
-        <v>6.28</v>
+        <v>9.18</v>
       </c>
     </row>
     <row r="24">
@@ -6757,37 +6555,37 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CUAN.JK</t>
+          <t>BRPT.JK</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>MID</t>
         </is>
       </c>
-      <c r="E24" s="9" t="n">
-        <v>0.33183</v>
-      </c>
-      <c r="F24" s="9" t="n">
-        <v>0.415</v>
-      </c>
-      <c r="G24" s="8" t="n">
-        <v>0.13921</v>
-      </c>
-      <c r="H24" s="17" t="n">
-        <v>79.38045</v>
+      <c r="E24" s="8" t="n">
+        <v>0.35876</v>
+      </c>
+      <c r="F24" s="8" t="n">
+        <v>3.509</v>
+      </c>
+      <c r="G24" s="9" t="n">
+        <v>0.09752</v>
+      </c>
+      <c r="H24" t="n">
+        <v>20.789642</v>
       </c>
       <c r="I24" s="14" t="n">
-        <v>546666.7</v>
+        <v>95000</v>
       </c>
       <c r="J24" s="14" t="n">
-        <v>201.586</v>
+        <v>107.818</v>
       </c>
       <c r="K24" s="11" t="n">
-        <v>20.66</v>
+        <v>109.67</v>
       </c>
     </row>
     <row r="25">
@@ -6796,7 +6594,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>KLBF.JK</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -6807,26 +6605,26 @@
           <t>MID</t>
         </is>
       </c>
-      <c r="E25" s="8" t="n">
-        <v>0.12082</v>
-      </c>
-      <c r="F25" s="8" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="G25" s="8" t="n">
-        <v>0.0806</v>
-      </c>
-      <c r="H25" s="10" t="n">
-        <v>10.183486</v>
-      </c>
-      <c r="I25" s="14" t="n">
-        <v>19473.684</v>
+      <c r="E25" s="9" t="n">
+        <v>0.14554</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="G25" s="9" t="n">
+        <v>0.10163</v>
+      </c>
+      <c r="H25" t="n">
+        <v>14.429355</v>
+      </c>
+      <c r="I25" s="15" t="n">
+        <v>2.1794226</v>
       </c>
       <c r="J25" s="14" t="n">
-        <v>32.802</v>
+        <v>2.102</v>
       </c>
       <c r="K25" s="11" t="n">
-        <v>218</v>
+        <v>76.58</v>
       </c>
     </row>
     <row r="26">
@@ -6835,76 +6633,76 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>IRSX.JK</t>
+          <t>PNLF.JK</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>MID</t>
         </is>
       </c>
-      <c r="E26" s="8" t="n">
-        <v>0.11936</v>
+      <c r="E26" s="9" t="n">
+        <v>0.05041</v>
       </c>
       <c r="F26" s="16" t="n">
-        <v>-0.5590000000000001</v>
-      </c>
-      <c r="G26" s="8" t="n">
-        <v>0.06455</v>
-      </c>
-      <c r="H26" s="17" t="n">
-        <v>62.07675</v>
-      </c>
-      <c r="I26" s="14" t="n">
-        <v>11.398964</v>
+        <v>-0.07199999999999999</v>
+      </c>
+      <c r="G26" s="9" t="n">
+        <v>0.15737</v>
+      </c>
+      <c r="H26" s="10" t="n">
+        <v>5.4767914</v>
+      </c>
+      <c r="I26" s="11" t="n">
+        <v>0.2899394</v>
       </c>
       <c r="J26" s="11" t="n">
-        <v>0.216</v>
+        <v>0</v>
       </c>
       <c r="K26" s="11" t="n">
-        <v>8.859999999999999</v>
+        <v>51.49</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="12" t="n">
+      <c r="A27" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="12" t="inlineStr">
-        <is>
-          <t>BRPT.JK</t>
-        </is>
-      </c>
-      <c r="C27" s="12" t="n">
-        <v>11</v>
-      </c>
-      <c r="D27" s="12" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CPRO.JK</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>10</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MID</t>
         </is>
       </c>
-      <c r="E27" s="13" t="n">
-        <v>0.35876</v>
-      </c>
-      <c r="F27" s="13" t="n">
-        <v>3.509</v>
-      </c>
-      <c r="G27" s="13" t="n">
-        <v>0.09752</v>
-      </c>
-      <c r="H27" s="12" t="n">
-        <v>18.449514</v>
-      </c>
-      <c r="I27" s="14" t="n">
-        <v>84583.336</v>
+      <c r="E27" s="9" t="n">
+        <v>0.10436</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="G27" s="9" t="n">
+        <v>0.041550003</v>
+      </c>
+      <c r="H27" s="10" t="n">
+        <v>9.565217000000001</v>
+      </c>
+      <c r="I27" s="11" t="n">
+        <v>0.98472184</v>
       </c>
       <c r="J27" s="14" t="n">
-        <v>107.818</v>
+        <v>43.245</v>
       </c>
       <c r="K27" s="11" t="n">
-        <v>110.03</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="28">
@@ -6913,37 +6711,37 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>KLBF.JK</t>
+          <t>RMKO.JK</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>MID</t>
-        </is>
-      </c>
-      <c r="E28" s="8" t="n">
-        <v>0.14554</v>
+          <t>LOW</t>
+        </is>
+      </c>
+      <c r="E28" s="16" t="n">
+        <v>-0.29015</v>
       </c>
       <c r="F28" s="8" t="n">
-        <v>0.126</v>
-      </c>
-      <c r="G28" s="8" t="n">
-        <v>0.10163</v>
+        <v>0.671</v>
+      </c>
+      <c r="G28" s="9" t="n">
+        <v>-0.21053</v>
       </c>
       <c r="H28" t="n">
-        <v>14.430577</v>
+        <v>0</v>
       </c>
       <c r="I28" s="15" t="n">
-        <v>2.1892843</v>
+        <v>4.822148</v>
       </c>
       <c r="J28" s="14" t="n">
-        <v>2.102</v>
-      </c>
-      <c r="K28" s="11" t="n">
-        <v>76.92</v>
+        <v>65.76600000000001</v>
+      </c>
+      <c r="K28" s="15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -6952,37 +6750,37 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PNLF.JK</t>
+          <t>PANI.JK</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>MID</t>
-        </is>
-      </c>
-      <c r="E29" s="8" t="n">
-        <v>0.05041</v>
-      </c>
-      <c r="F29" s="16" t="n">
-        <v>-0.07199999999999999</v>
+          <t>LOW</t>
+        </is>
+      </c>
+      <c r="E29" s="9" t="n">
+        <v>0.0678</v>
+      </c>
+      <c r="F29" s="8" t="n">
+        <v>0.946</v>
       </c>
       <c r="G29" s="8" t="n">
-        <v>0.15737</v>
-      </c>
-      <c r="H29" s="10" t="n">
-        <v>5.3224554</v>
-      </c>
-      <c r="I29" s="11" t="n">
-        <v>0.28171417</v>
-      </c>
-      <c r="J29" s="11" t="n">
-        <v>0</v>
+        <v>0.24195999</v>
+      </c>
+      <c r="H29" s="17" t="n">
+        <v>200</v>
+      </c>
+      <c r="I29" s="14" t="n">
+        <v>8.230675</v>
+      </c>
+      <c r="J29" s="14" t="n">
+        <v>2.054</v>
       </c>
       <c r="K29" s="11" t="n">
-        <v>51.48</v>
+        <v>54.75</v>
       </c>
     </row>
     <row r="30">
@@ -6991,37 +6789,37 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CPRO.JK</t>
+          <t>BRMS.JK</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>MID</t>
-        </is>
-      </c>
-      <c r="E30" s="8" t="n">
-        <v>0.10436</v>
+          <t>LOW</t>
+        </is>
+      </c>
+      <c r="E30" s="9" t="n">
+        <v>0.045900002</v>
       </c>
       <c r="F30" s="8" t="n">
-        <v>0.081</v>
-      </c>
-      <c r="G30" s="8" t="n">
-        <v>0.041550003</v>
-      </c>
-      <c r="H30" s="10" t="n">
-        <v>9.275361999999999</v>
-      </c>
-      <c r="I30" s="11" t="n">
-        <v>0.9548818</v>
+        <v>0.329</v>
+      </c>
+      <c r="G30" s="9" t="n">
+        <v>0.19652</v>
+      </c>
+      <c r="H30" s="17" t="n">
+        <v>196.20253</v>
+      </c>
+      <c r="I30" s="14" t="n">
+        <v>120555.56</v>
       </c>
       <c r="J30" s="14" t="n">
-        <v>43.245</v>
+        <v>12.694</v>
       </c>
       <c r="K30" s="11" t="n">
-        <v>6.9</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="31">
@@ -7030,7 +6828,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>RMKO.JK</t>
+          <t>INET.JK</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -7041,26 +6839,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E31" s="16" t="n">
-        <v>-0.29015</v>
-      </c>
-      <c r="F31" s="9" t="n">
-        <v>0.671</v>
+      <c r="E31" s="9" t="n">
+        <v>0.06432</v>
+      </c>
+      <c r="F31" s="8" t="n">
+        <v>1.905</v>
       </c>
       <c r="G31" s="8" t="n">
-        <v>-0.21053</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="15" t="n">
-        <v>4.7866907</v>
+        <v>0.24544</v>
+      </c>
+      <c r="H31" s="17" t="n">
+        <v>276.81158</v>
+      </c>
+      <c r="I31" s="14" t="n">
+        <v>9.398911999999999</v>
       </c>
       <c r="J31" s="14" t="n">
-        <v>65.76600000000001</v>
-      </c>
-      <c r="K31" s="15" t="n">
-        <v>0</v>
+        <v>2.833</v>
+      </c>
+      <c r="K31" s="11" t="n">
+        <v>1.38</v>
       </c>
     </row>
     <row r="32">
@@ -7069,7 +6867,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PANI.JK</t>
+          <t>IMPC.JK</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -7081,25 +6879,25 @@
         </is>
       </c>
       <c r="E32" s="8" t="n">
-        <v>0.0678</v>
+        <v>0.23723</v>
       </c>
       <c r="F32" s="9" t="n">
-        <v>0.946</v>
+        <v>0.145</v>
       </c>
       <c r="G32" s="9" t="n">
-        <v>0.24195999</v>
+        <v>0.14588</v>
       </c>
       <c r="H32" s="17" t="n">
-        <v>196.07843</v>
+        <v>208.37125</v>
       </c>
       <c r="I32" s="14" t="n">
-        <v>8.193092</v>
+        <v>43.761585</v>
       </c>
       <c r="J32" s="14" t="n">
-        <v>2.054</v>
+        <v>38.133</v>
       </c>
       <c r="K32" s="11" t="n">
-        <v>55.59</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="33">
@@ -7108,7 +6906,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BRMS.JK</t>
+          <t>CDIA.JK</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -7119,26 +6917,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E33" s="8" t="n">
-        <v>0.045900002</v>
-      </c>
-      <c r="F33" s="9" t="n">
-        <v>0.329</v>
+      <c r="E33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="8" t="n">
+        <v>0.421</v>
       </c>
       <c r="G33" s="8" t="n">
-        <v>0.19652</v>
+        <v>0.65328</v>
       </c>
       <c r="H33" s="17" t="n">
-        <v>188.62816</v>
+        <v>103.07956</v>
       </c>
       <c r="I33" s="14" t="n">
-        <v>116111.12</v>
+        <v>150625</v>
       </c>
       <c r="J33" s="14" t="n">
-        <v>12.694</v>
+        <v>34.873</v>
       </c>
       <c r="K33" s="11" t="n">
-        <v>5.54</v>
+        <v>11.69</v>
       </c>
     </row>
     <row r="34">
@@ -7147,7 +6945,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PTRO.JK</t>
+          <t>BREN.JK</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -7159,25 +6957,25 @@
         </is>
       </c>
       <c r="E34" s="8" t="n">
-        <v>0.05801</v>
+        <v>0.22038001</v>
       </c>
       <c r="F34" s="9" t="n">
-        <v>0.317</v>
+        <v>0.04</v>
       </c>
       <c r="G34" s="8" t="n">
-        <v>0.01754</v>
-      </c>
-      <c r="H34" t="n">
-        <v>35.041935</v>
+        <v>0.23266001</v>
+      </c>
+      <c r="H34" s="17" t="n">
+        <v>454.54544</v>
       </c>
       <c r="I34" s="14" t="n">
-        <v>248958.33</v>
+        <v>1660000</v>
       </c>
       <c r="J34" s="14" t="n">
-        <v>276.511</v>
+        <v>239.827</v>
       </c>
       <c r="K34" s="11" t="n">
-        <v>170.51</v>
+        <v>18.26</v>
       </c>
     </row>
     <row r="35">
@@ -7186,11 +6984,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>INET.JK</t>
+          <t>ADMR.JK</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -7198,25 +6996,25 @@
         </is>
       </c>
       <c r="E35" s="8" t="n">
-        <v>0.06432</v>
-      </c>
-      <c r="F35" s="9" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="G35" s="9" t="n">
-        <v>0.24544</v>
-      </c>
-      <c r="H35" s="17" t="n">
-        <v>250.35971</v>
+        <v>0.2018</v>
+      </c>
+      <c r="F35" s="16" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>0.31149</v>
+      </c>
+      <c r="H35" t="n">
+        <v>15.151515</v>
       </c>
       <c r="I35" s="14" t="n">
-        <v>8.56236</v>
+        <v>52297.297</v>
       </c>
       <c r="J35" s="14" t="n">
-        <v>2.833</v>
+        <v>35.836</v>
       </c>
       <c r="K35" s="11" t="n">
-        <v>1.39</v>
+        <v>127.71</v>
       </c>
     </row>
     <row r="36">
@@ -7225,11 +7023,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>IMPC.JK</t>
+          <t>PTBA.JK</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -7237,25 +7035,25 @@
         </is>
       </c>
       <c r="E36" s="9" t="n">
-        <v>0.23723</v>
-      </c>
-      <c r="F36" s="8" t="n">
-        <v>0.145</v>
-      </c>
-      <c r="G36" s="8" t="n">
-        <v>0.14588</v>
-      </c>
-      <c r="H36" s="17" t="n">
-        <v>185.15205</v>
-      </c>
-      <c r="I36" s="14" t="n">
-        <v>39.557415</v>
+        <v>0.15961</v>
+      </c>
+      <c r="F36" s="16" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="G36" s="9" t="n">
+        <v>0.075219996</v>
+      </c>
+      <c r="H36" s="10" t="n">
+        <v>8.976661</v>
+      </c>
+      <c r="I36" s="11" t="n">
+        <v>1.4209509</v>
       </c>
       <c r="J36" s="14" t="n">
-        <v>38.133</v>
+        <v>19.582</v>
       </c>
       <c r="K36" s="11" t="n">
-        <v>11.18</v>
+        <v>284.07</v>
       </c>
     </row>
     <row r="37">
@@ -7264,11 +7062,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CDIA.JK</t>
+          <t>AADI.JK</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -7276,25 +7074,25 @@
         </is>
       </c>
       <c r="E37" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="9" t="n">
-        <v>0.421</v>
+        <v>0.22769</v>
+      </c>
+      <c r="F37" s="16" t="n">
+        <v>-0.132</v>
       </c>
       <c r="G37" s="9" t="n">
-        <v>0.65328</v>
-      </c>
-      <c r="H37" s="17" t="n">
-        <v>96.15385000000001</v>
+        <v>0.14828</v>
+      </c>
+      <c r="H37" s="10" t="n">
+        <v>5.506608</v>
       </c>
       <c r="I37" s="14" t="n">
-        <v>140625</v>
+        <v>19325.844</v>
       </c>
       <c r="J37" s="14" t="n">
-        <v>34.873</v>
+        <v>27.582</v>
       </c>
       <c r="K37" s="11" t="n">
-        <v>11.7</v>
+        <v>1561.76</v>
       </c>
     </row>
     <row r="38">
@@ -7303,11 +7101,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>RATU.JK</t>
+          <t>AMRT.JK</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -7315,25 +7113,25 @@
         </is>
       </c>
       <c r="E38" s="9" t="n">
-        <v>0.45251998</v>
-      </c>
-      <c r="F38" s="16" t="n">
-        <v>-0.183</v>
+        <v>0.17877</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>0.057</v>
       </c>
       <c r="G38" s="9" t="n">
-        <v>0.31559</v>
-      </c>
-      <c r="H38" s="17" t="n">
-        <v>50.239</v>
-      </c>
-      <c r="I38" s="14" t="n">
-        <v>302941.16</v>
+        <v>0.02461</v>
+      </c>
+      <c r="H38" t="n">
+        <v>26.17659</v>
+      </c>
+      <c r="I38" s="15" t="n">
+        <v>4.640929</v>
       </c>
       <c r="J38" s="14" t="n">
-        <v>36.548</v>
+        <v>10.566</v>
       </c>
       <c r="K38" s="11" t="n">
-        <v>102.51</v>
+        <v>73.73</v>
       </c>
     </row>
     <row r="39">
@@ -7342,11 +7140,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BREN.JK</t>
+          <t>UNTR.JK</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -7354,25 +7152,25 @@
         </is>
       </c>
       <c r="E39" s="9" t="n">
-        <v>0.22038001</v>
-      </c>
-      <c r="F39" s="8" t="n">
-        <v>0.04</v>
+        <v>0.16168</v>
+      </c>
+      <c r="F39" s="16" t="n">
+        <v>-0.089</v>
       </c>
       <c r="G39" s="9" t="n">
-        <v>0.23266001</v>
-      </c>
-      <c r="H39" s="17" t="n">
-        <v>434.78262</v>
-      </c>
-      <c r="I39" s="14" t="n">
-        <v>1600000</v>
+        <v>0.113900006</v>
+      </c>
+      <c r="H39" s="10" t="n">
+        <v>6.7024126</v>
+      </c>
+      <c r="I39" s="11" t="n">
+        <v>1.0645361</v>
       </c>
       <c r="J39" s="14" t="n">
-        <v>239.827</v>
+        <v>19.014</v>
       </c>
       <c r="K39" s="11" t="n">
-        <v>18.4</v>
+        <v>4244.74</v>
       </c>
     </row>
     <row r="40">
@@ -7381,7 +7179,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AADI.JK</t>
+          <t>WIFI.JK</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -7393,25 +7191,25 @@
         </is>
       </c>
       <c r="E40" s="9" t="n">
-        <v>0.22769</v>
-      </c>
-      <c r="F40" s="16" t="n">
-        <v>-0.132</v>
+        <v>0.08821999</v>
+      </c>
+      <c r="F40" s="8" t="n">
+        <v>1.559</v>
       </c>
       <c r="G40" s="8" t="n">
-        <v>0.14828</v>
-      </c>
-      <c r="H40" s="10" t="n">
-        <v>5.282612</v>
-      </c>
-      <c r="I40" s="14" t="n">
-        <v>18595.506</v>
+        <v>0.28702</v>
+      </c>
+      <c r="H40" t="n">
+        <v>17.330776</v>
+      </c>
+      <c r="I40" s="11" t="n">
+        <v>1.8202721</v>
       </c>
       <c r="J40" s="14" t="n">
-        <v>27.582</v>
+        <v>44.892</v>
       </c>
       <c r="K40" s="11" t="n">
-        <v>1566.46</v>
+        <v>140.79</v>
       </c>
     </row>
     <row r="41">
@@ -7420,11 +7218,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ADMR.JK</t>
+          <t>DADA.JK</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -7432,25 +7230,25 @@
         </is>
       </c>
       <c r="E41" s="9" t="n">
-        <v>0.2018</v>
-      </c>
-      <c r="F41" s="16" t="n">
-        <v>-0.012</v>
+        <v>0.0051700003</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>0.08</v>
       </c>
       <c r="G41" s="9" t="n">
-        <v>0.31149</v>
+        <v>0.046129998</v>
       </c>
       <c r="H41" t="n">
-        <v>14.749493</v>
-      </c>
-      <c r="I41" s="14" t="n">
-        <v>51081.082</v>
+        <v>14.947683</v>
+      </c>
+      <c r="I41" s="11" t="n">
+        <v>0.91653985</v>
       </c>
       <c r="J41" s="14" t="n">
-        <v>35.836</v>
+        <v>28.16</v>
       </c>
       <c r="K41" s="11" t="n">
-        <v>128.14</v>
+        <v>3.345</v>
       </c>
     </row>
   </sheetData>

--- a/reports/HEDGEFUND_TERMINAL.xlsx
+++ b/reports/HEDGEFUND_TERMINAL.xlsx
@@ -483,7 +483,7 @@
     <col width="9" customWidth="1" min="3" max="3"/>
     <col width="31" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -496,7 +496,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>12 February 2026</t>
+          <t>18 February 2026</t>
         </is>
       </c>
     </row>
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7"/>
@@ -555,7 +555,7 @@
       </c>
       <c r="B8" s="6" t="inlineStr">
         <is>
-          <t>-2.1B</t>
+          <t>-2.8B</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -572,12 +572,12 @@
       </c>
       <c r="B9" s="6" t="inlineStr">
         <is>
-          <t>-2.6B</t>
+          <t>-2.5B</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ELSA.JK</t>
+          <t>EMAS.JK</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -585,7 +585,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-21.7M</t>
+          <t>3.2M</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>EMAS.JK</t>
+          <t>HRTA.JK</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -605,24 +605,24 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.4M</t>
+          <t>-239100</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1. Basic Materials</t>
+          <t>1. Communication Services</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>121.9M</t>
+          <t>6.3M</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>INCO.JK</t>
+          <t>ELSA.JK</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -630,24 +630,24 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>4.2M</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2. Communication Services</t>
+          <t>2. Consumer Cyclical</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>62.5M</t>
+          <t>3.5M</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NCKL.JK</t>
+          <t>INCO.JK</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -655,7 +655,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>12.7M</t>
+          <t>5.6M</t>
         </is>
       </c>
     </row>
@@ -667,12 +667,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>40.6M</t>
+          <t>2.1M</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>TINS.JK</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -680,19 +680,19 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8.2M</t>
+          <t>-1.1M</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4. Consumer Cyclical</t>
+          <t>4. Utilities</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>32.6M</t>
+          <t>-14.3M</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>23.7M</t>
+          <t>-34.4M</t>
         </is>
       </c>
     </row>
@@ -732,11 +732,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>78.7</v>
+        <v>68.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>32.6M</t>
+          <t>3.5M</t>
         </is>
       </c>
     </row>
@@ -747,11 +747,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>59</v>
+        <v>59.8</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-2.1B</t>
+          <t>-800.7M</t>
         </is>
       </c>
     </row>
@@ -762,41 +762,41 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>58.7</v>
+        <v>58.6</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>121.9M</t>
+          <t>-71.3M</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4. Industrials</t>
+          <t>4. Financial Services</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>51</v>
+        <v>49.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-297.1M</t>
+          <t>-193.6M</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5. Utilities</t>
+          <t>5. Industrials</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>47</v>
+        <v>45.1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-38.4M</t>
+          <t>-85.4M</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="8" customWidth="1" min="10" max="10"/>
     <col width="15" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="13" customWidth="1" min="12" max="12"/>
     <col width="9" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
@@ -912,7 +912,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELSA.JK</t>
+          <t>EMAS.JK</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -920,40 +920,40 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>734-806</t>
+          <t>6979-7621</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>661.25</v>
+        <v>6335.714285714285</v>
       </c>
       <c r="F2" t="n">
-        <v>910.7142857142857</v>
+        <v>8524.107142857143</v>
       </c>
       <c r="G2" t="n">
-        <v>1015.178571428571</v>
+        <v>9376.517857142859</v>
       </c>
       <c r="H2" t="n">
-        <v>1154.464285714286</v>
+        <v>10630.35714285714</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>12.19%</t>
+          <t>31.70%</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>7.9</v>
+        <v>13312538875.9</v>
       </c>
       <c r="L2" t="n">
-        <v>-21747700</v>
+        <v>3184800</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>DISTRIB</t>
+          <t>ACCUM</t>
         </is>
       </c>
     </row>
@@ -963,7 +963,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EMAS.JK</t>
+          <t>HRTA.JK</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -971,40 +971,40 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6746-7454</t>
+          <t>2472-2688</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6036.607142857143</v>
+        <v>2255.892857142857</v>
       </c>
       <c r="F3" t="n">
-        <v>8424.107142857143</v>
+        <v>2986.428571428572</v>
       </c>
       <c r="G3" t="n">
-        <v>9266.517857142859</v>
+        <v>3285.071428571429</v>
       </c>
       <c r="H3" t="n">
-        <v>10686.60714285714</v>
+        <v>3682.678571428572</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>98%</t>
+          <t>86%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>30.63%</t>
+          <t>28.42%</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>750.8099999999999</v>
+        <v>32.31</v>
       </c>
       <c r="L3" t="n">
-        <v>1444500</v>
+        <v>-239100</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>INCO.JK</t>
+          <t>ELSA.JK</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -1022,36 +1022,36 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6591-7109</t>
+          <t>707-773</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6073.214285714285</v>
+        <v>640.3571428571429</v>
       </c>
       <c r="F4" t="n">
-        <v>7829.464285714286</v>
+        <v>870.1785714285713</v>
       </c>
       <c r="G4" t="n">
-        <v>8612.410714285716</v>
+        <v>957.1964285714286</v>
       </c>
       <c r="H4" t="n">
-        <v>9510.714285714286</v>
+        <v>1096.428571428571</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>69%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>28.29%</t>
+          <t>14.19%</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>24.93</v>
+        <v>9.94</v>
       </c>
       <c r="L4" t="n">
-        <v>13489400</v>
+        <v>4172000</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NCKL.JK</t>
+          <t>INCO.JK</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -1073,36 +1073,36 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1361-1459</t>
+          <t>6723-7227</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1263.214285714286</v>
+        <v>6219.642857142857</v>
       </c>
       <c r="F5" t="n">
-        <v>1596.071428571428</v>
+        <v>7909.821428571429</v>
       </c>
       <c r="G5" t="n">
-        <v>1755.678571428571</v>
+        <v>8700.803571428572</v>
       </c>
       <c r="H5" t="n">
-        <v>1916.071428571428</v>
+        <v>9503.571428571429</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>17.11%</t>
+          <t>29.30%</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>16.32</v>
+        <v>45.18</v>
       </c>
       <c r="L5" t="n">
-        <v>12689600</v>
+        <v>5562500</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>TINS.JK</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -1124,40 +1124,40 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2175-2285</t>
+          <t>3881-4219</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2065.535714285714</v>
+        <v>3542.142857142857</v>
       </c>
       <c r="F6" t="n">
-        <v>2447.142857142857</v>
+        <v>4700.357142857143</v>
       </c>
       <c r="G6" t="n">
-        <v>2691.857142857143</v>
+        <v>5170.392857142858</v>
       </c>
       <c r="H6" t="n">
-        <v>2825.892857142857</v>
+        <v>5822.857142857143</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>9.66%</t>
+          <t>5.16%</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>4057662940.5</v>
+        <v>5.19</v>
       </c>
       <c r="L6" t="n">
-        <v>8159800</v>
+        <v>-1117000</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>IRSX.JK</t>
+          <t>ENRG.JK</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -1175,40 +1175,40 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>531-609</t>
+          <t>1454-1616</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>454.3928571428571</v>
+        <v>1292.321428571429</v>
       </c>
       <c r="F7" t="n">
-        <v>721.4642857142858</v>
+        <v>1815.714285714286</v>
       </c>
       <c r="G7" t="n">
-        <v>834.3928571428572</v>
+        <v>1997.285714285714</v>
       </c>
       <c r="H7" t="n">
-        <v>984.9642857142858</v>
+        <v>2281.964285714286</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>69%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>45.89%</t>
+          <t>16.08%</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>10.6</v>
+        <v>3.26</v>
       </c>
       <c r="L7" t="n">
-        <v>1486500</v>
+        <v>-2949300</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -1218,44 +1218,44 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HRTA.JK</t>
+          <t>NCKL.JK</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2418-2642</t>
+          <t>1402-1498</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2195.178571428572</v>
+        <v>1304.821428571428</v>
       </c>
       <c r="F8" t="n">
-        <v>2947.5</v>
+        <v>1631.25</v>
       </c>
       <c r="G8" t="n">
-        <v>3242.25</v>
+        <v>1794.375</v>
       </c>
       <c r="H8" t="n">
-        <v>3661.25</v>
+        <v>1941.25</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>28.74%</t>
+          <t>17.60%</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>32.66</v>
+        <v>23.55</v>
       </c>
       <c r="L8" t="n">
-        <v>-1953200</v>
+        <v>-2475500</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1269,44 +1269,44 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ANTM.JK</t>
+          <t>ADRO.JK</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3830-4150</t>
+          <t>2151-2289</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3508.928571428572</v>
+        <v>2013.214285714286</v>
       </c>
       <c r="F9" t="n">
-        <v>4573.571428571429</v>
+        <v>2492.5</v>
       </c>
       <c r="G9" t="n">
-        <v>5030.928571428572</v>
+        <v>2741.75</v>
       </c>
       <c r="H9" t="n">
-        <v>5561.071428571429</v>
+        <v>2967.5</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>90%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>17.94%</t>
+          <t>13.72%</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>226.1</v>
+        <v>19.45</v>
       </c>
       <c r="L9" t="n">
-        <v>30318800</v>
+        <v>6694500</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1320,44 +1320,44 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>INDY.JK</t>
+          <t>ANTM.JK</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3477-3803</t>
+          <t>3905-4195</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3150.357142857143</v>
+        <v>3615</v>
       </c>
       <c r="F10" t="n">
-        <v>4275.714285714286</v>
+        <v>4586.071428571428</v>
       </c>
       <c r="G10" t="n">
-        <v>4703.285714285716</v>
+        <v>5044.678571428572</v>
       </c>
       <c r="H10" t="n">
-        <v>5378.214285714286</v>
+        <v>5498.571428571428</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>90%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>34.62%</t>
+          <t>17.89%</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>68.8</v>
+        <v>225.38</v>
       </c>
       <c r="L10" t="n">
-        <v>-12647400</v>
+        <v>-16906100</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1371,44 +1371,44 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MEDC.JK</t>
+          <t>INDY.JK</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1530-1630</t>
+          <t>3399-3721</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1430.535714285714</v>
+        <v>3076.785714285714</v>
       </c>
       <c r="F11" t="n">
-        <v>1776.607142857143</v>
+        <v>4187.142857142857</v>
       </c>
       <c r="G11" t="n">
-        <v>1923.392857142857</v>
+        <v>4605.857142857143</v>
       </c>
       <c r="H11" t="n">
-        <v>2119.107142857143</v>
+        <v>5274.642857142857</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>69%</t>
+          <t>95%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>7.18%</t>
+          <t>35.16%</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>16.27</v>
+        <v>129.52</v>
       </c>
       <c r="L11" t="n">
-        <v>2776500</v>
+        <v>17200</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1422,48 +1422,48 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>OASA.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>397-447</t>
+          <t>2078-2182</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>347.2142857142857</v>
+        <v>1975.178571428572</v>
       </c>
       <c r="F12" t="n">
-        <v>518.5</v>
+        <v>2334.285714285714</v>
       </c>
       <c r="G12" t="n">
-        <v>590</v>
+        <v>2567.714285714286</v>
       </c>
       <c r="H12" t="n">
-        <v>685.5</v>
+        <v>2690.535714285714</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>38.56%</t>
+          <t>9.83%</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>99.02</v>
+        <v>4129201817.8</v>
       </c>
       <c r="L12" t="n">
-        <v>-4349000</v>
+        <v>2573300</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>DISTRIB</t>
+          <t>ACCUM</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TCPI.JK</t>
+          <t>INKP.JK</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1481,40 +1481,40 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11261-11789</t>
+          <t>9544-10156</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>10732.14285714286</v>
+        <v>8931.25</v>
       </c>
       <c r="F13" t="n">
-        <v>12582.14285714286</v>
+        <v>10981.25</v>
       </c>
       <c r="G13" t="n">
-        <v>13375</v>
+        <v>12079.375</v>
       </c>
       <c r="H13" t="n">
-        <v>14432.14285714286</v>
+        <v>12906.25</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>17.80%</t>
+          <t>9.01%</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>7477570343.26</v>
+        <v>7.17</v>
       </c>
       <c r="L13" t="n">
-        <v>750900</v>
+        <v>-6541900</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -1524,48 +1524,48 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ZATA.JK</t>
+          <t>MEDC.JK</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>86-102</t>
+          <t>1532-1628</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>69.35714285714286</v>
+        <v>1437.5</v>
       </c>
       <c r="F14" t="n">
-        <v>126.75</v>
+        <v>1767.321428571428</v>
       </c>
       <c r="G14" t="n">
-        <v>143</v>
+        <v>1907.142857142857</v>
       </c>
       <c r="H14" t="n">
-        <v>184</v>
+        <v>2093.571428571428</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>23.80%</t>
+          <t>7.53%</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>8.91</v>
+        <v>17.33</v>
       </c>
       <c r="L14" t="n">
-        <v>28114100</v>
+        <v>-679700</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -1575,44 +1575,44 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BMRI.JK</t>
+          <t>OASA.JK</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4928-5122</t>
+          <t>391-437</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4732.5</v>
+        <v>343.9285714285714</v>
       </c>
       <c r="F15" t="n">
-        <v>5412.857142857143</v>
+        <v>504.2142857142857</v>
       </c>
       <c r="G15" t="n">
-        <v>5703.214285714286</v>
+        <v>571.0714285714286</v>
       </c>
       <c r="H15" t="n">
-        <v>6090.357142857143</v>
+        <v>660.2142857142857</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1.48%</t>
+          <t>38.79%</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>2.74</v>
+        <v>105.11</v>
       </c>
       <c r="L15" t="n">
-        <v>-20586800</v>
+        <v>-14999300</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1626,48 +1626,48 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MDKA.JK</t>
+          <t>TCPI.JK</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3022-3298</t>
+          <t>10820-11380</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2746.428571428572</v>
+        <v>10258.92857142857</v>
       </c>
       <c r="F16" t="n">
-        <v>3670.714285714285</v>
+        <v>12218.75</v>
       </c>
       <c r="G16" t="n">
-        <v>4037.785714285714</v>
+        <v>13440.625</v>
       </c>
       <c r="H16" t="n">
-        <v>4540.714285714285</v>
+        <v>14175</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>16.89%</t>
+          <t>18.19%</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>15.49</v>
+        <v>7641210669.53</v>
       </c>
       <c r="L16" t="n">
-        <v>10918200</v>
+        <v>-320300</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -1677,44 +1677,44 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ISAT.JK</t>
+          <t>VKTR.JK</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2141-2279</t>
+          <t>885-1025</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2002.142857142857</v>
+        <v>745</v>
       </c>
       <c r="F17" t="n">
-        <v>2476.428571428572</v>
+        <v>1196.964285714286</v>
       </c>
       <c r="G17" t="n">
-        <v>2724.071428571429</v>
+        <v>1340</v>
       </c>
       <c r="H17" t="n">
-        <v>2936.428571428572</v>
+        <v>1598.214285714286</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>43%</t>
+          <t>74%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.93%</t>
+          <t>36.84%</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>1.31</v>
+        <v>10.2</v>
       </c>
       <c r="L17" t="n">
-        <v>15712300</v>
+        <v>26210600</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1728,44 +1728,44 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIPI.JK</t>
+          <t>ZATA.JK</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>159-183</t>
+          <t>112-130</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>135.8571428571429</v>
+        <v>94.85714285714286</v>
       </c>
       <c r="F18" t="n">
-        <v>210.3571428571429</v>
+        <v>155.6428571428571</v>
       </c>
       <c r="G18" t="n">
-        <v>238</v>
+        <v>171.2071428571429</v>
       </c>
       <c r="H18" t="n">
-        <v>274.8571428571429</v>
+        <v>216.1428571428571</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>69%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>54.61%</t>
+          <t>27.56%</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>13.44</v>
+        <v>10.16</v>
       </c>
       <c r="L18" t="n">
-        <v>-174624300</v>
+        <v>-12543600</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1779,44 +1779,44 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TINS.JK</t>
+          <t>BMRI.JK</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3652-3968</t>
+          <t>4980-5170</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3337.5</v>
+        <v>4790</v>
       </c>
       <c r="F19" t="n">
-        <v>4406.785714285714</v>
+        <v>5455</v>
       </c>
       <c r="G19" t="n">
-        <v>4847.464285714285</v>
+        <v>5740</v>
       </c>
       <c r="H19" t="n">
-        <v>5431.785714285714</v>
+        <v>6120</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>4.97%</t>
+          <t>1.43%</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>5.04</v>
+        <v>2.67</v>
       </c>
       <c r="L19" t="n">
-        <v>-5273200</v>
+        <v>-6646400</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -1830,44 +1830,44 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ARCI.JK</t>
+          <t>MDKA.JK</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1634-1786</t>
+          <t>3088-3352</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1482.321428571429</v>
+        <v>2824.642857142857</v>
       </c>
       <c r="F20" t="n">
-        <v>1991.071428571428</v>
+        <v>3707.5</v>
       </c>
       <c r="G20" t="n">
-        <v>2190.178571428572</v>
+        <v>4078.25</v>
       </c>
       <c r="H20" t="n">
-        <v>2469.821428571428</v>
+        <v>4537.5</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>81%</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>22.36%</t>
+          <t>17.56%</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>44.76</v>
+        <v>23.51</v>
       </c>
       <c r="L20" t="n">
-        <v>11558500</v>
+        <v>4042100</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -1881,48 +1881,48 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HUMI.JK</t>
+          <t>BULL.JK</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>215-253</t>
+          <t>421-479</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>176.3571428571429</v>
+        <v>361.7142857142857</v>
       </c>
       <c r="F21" t="n">
-        <v>303.7857142857143</v>
+        <v>564.0714285714286</v>
       </c>
       <c r="G21" t="n">
-        <v>354.3571428571429</v>
+        <v>648.7142857142858</v>
       </c>
       <c r="H21" t="n">
-        <v>421.7857142857143</v>
+        <v>761.5714285714287</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>40.55%</t>
+          <t>36.38%</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>6.31</v>
+        <v>6.97</v>
       </c>
       <c r="L21" t="n">
-        <v>28369300</v>
+        <v>-995300</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -1973,11 +1973,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BBRI.JK</t>
+          <t>INET.JK</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>44073300</v>
+        <v>31827500</v>
       </c>
     </row>
     <row r="3">
@@ -1986,11 +1986,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TLKM.JK</t>
+          <t>VKTR.JK</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>40662800</v>
+        <v>26210600</v>
       </c>
     </row>
     <row r="4">
@@ -1999,11 +1999,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CPRO.JK</t>
+          <t>BRMS.JK</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>33347300</v>
+        <v>15163900</v>
       </c>
     </row>
     <row r="5">
@@ -2012,11 +2012,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ADRO.JK</t>
+          <t>MINA.JK</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31417100</v>
+        <v>12447000</v>
       </c>
     </row>
     <row r="6">
@@ -2025,11 +2025,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ANTM.JK</t>
+          <t>PADI.JK</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30318800</v>
+        <v>12339000</v>
       </c>
     </row>
     <row r="7">
@@ -2038,11 +2038,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DEWA.JK</t>
+          <t>PWON.JK</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30159700</v>
+        <v>11514600</v>
       </c>
     </row>
     <row r="8">
@@ -2051,11 +2051,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HUMI.JK</t>
+          <t>CPRO.JK</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>28369300</v>
+        <v>11098300</v>
       </c>
     </row>
     <row r="9">
@@ -2064,11 +2064,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZATA.JK</t>
+          <t>PNLF.JK</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>28114100</v>
+        <v>8881200</v>
       </c>
     </row>
     <row r="10">
@@ -2077,11 +2077,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BKSL.JK</t>
+          <t>ISAT.JK</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>27471400</v>
+        <v>7049300</v>
       </c>
     </row>
     <row r="11">
@@ -2090,11 +2090,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BRMS.JK</t>
+          <t>HRUM.JK</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>27268200</v>
+        <v>6980600</v>
       </c>
     </row>
     <row r="12">
@@ -2103,11 +2103,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LPKR.JK</t>
+          <t>ADRO.JK</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>26787000</v>
+        <v>6694500</v>
       </c>
     </row>
     <row r="13">
@@ -2116,11 +2116,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PNLF.JK</t>
+          <t>DEWA.JK</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23395600</v>
+        <v>6083300</v>
       </c>
     </row>
     <row r="14">
@@ -2129,11 +2129,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PSAB.JK</t>
+          <t>HUMI.JK</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>18756600</v>
+        <v>5593400</v>
       </c>
     </row>
     <row r="15">
@@ -2142,11 +2142,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HRUM.JK</t>
+          <t>INCO.JK</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>16005400</v>
+        <v>5562500</v>
       </c>
     </row>
     <row r="16">
@@ -2155,11 +2155,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ISAT.JK</t>
+          <t>ELSA.JK</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>15712300</v>
+        <v>4172000</v>
       </c>
     </row>
     <row r="17">
@@ -2168,11 +2168,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>INCO.JK</t>
+          <t>CDIA.JK</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>13489400</v>
+        <v>4088000</v>
       </c>
     </row>
     <row r="18">
@@ -2181,11 +2181,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NCKL.JK</t>
+          <t>MDKA.JK</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>12689600</v>
+        <v>4042100</v>
       </c>
     </row>
     <row r="19">
@@ -2194,11 +2194,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ARCI.JK</t>
+          <t>AMRT.JK</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>11558500</v>
+        <v>3727100</v>
       </c>
     </row>
     <row r="20">
@@ -2207,11 +2207,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MDKA.JK</t>
+          <t>RMKO.JK</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>10918200</v>
+        <v>3604100</v>
       </c>
     </row>
     <row r="21">
@@ -2220,11 +2220,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PWON.JK</t>
+          <t>EMAS.JK</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>10074000</v>
+        <v>3184800</v>
       </c>
     </row>
     <row r="22">
@@ -2233,11 +2233,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>EXCL.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9031100</v>
+        <v>2573300</v>
       </c>
     </row>
     <row r="23">
@@ -2246,11 +2246,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BREN.JK</t>
+          <t>GTSI.JK</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>8991800</v>
+        <v>2566600</v>
       </c>
     </row>
     <row r="24">
@@ -2259,11 +2259,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>ADMR.JK</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>8159800</v>
+        <v>2503600</v>
       </c>
     </row>
     <row r="25">
@@ -2272,11 +2272,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>INET.JK</t>
+          <t>UNTR.JK</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>8094200</v>
+        <v>2346400</v>
       </c>
     </row>
     <row r="26">
@@ -2285,11 +2285,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AADI.JK</t>
+          <t>BBYB.JK</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>7865100</v>
+        <v>2202200</v>
       </c>
     </row>
     <row r="27">
@@ -2298,11 +2298,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>VKTR.JK</t>
+          <t>AADI.JK</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6460300</v>
+        <v>2180800</v>
       </c>
     </row>
     <row r="28">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AMRT.JK</t>
+          <t>TOBA.JK</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5663600</v>
+        <v>1845000</v>
       </c>
     </row>
     <row r="29">
@@ -2324,11 +2324,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NICL.JK</t>
+          <t>BBKP.JK</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4197500</v>
+        <v>1828800</v>
       </c>
     </row>
     <row r="30">
@@ -2337,11 +2337,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AMMN.JK</t>
+          <t>RATU.JK</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3795500</v>
+        <v>1576800</v>
       </c>
     </row>
     <row r="31">
@@ -2350,11 +2350,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PGEO.JK</t>
+          <t>COIN.JK</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3606300</v>
+        <v>1433300</v>
       </c>
     </row>
   </sheetData>
@@ -2368,7 +2368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2407,356 +2407,356 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELSA.JK</t>
+          <t>EMAS.JK</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>99.59999999999999</v>
+        <v>87</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>-2.7%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EMAS.JK</t>
+          <t>HRTA.JK</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>98</v>
       </c>
       <c r="C3" t="n">
-        <v>87</v>
+        <v>85.2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-5.3%</t>
+          <t>-6.9%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INCO.JK</t>
+          <t>ELSA.JK</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>97</v>
       </c>
       <c r="C4" t="n">
-        <v>83.40000000000001</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-4.5%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NCKL.JK</t>
+          <t>INCO.JK</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>96</v>
       </c>
       <c r="C5" t="n">
-        <v>82.40000000000001</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-8.1%</t>
+          <t>-1.8%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>TINS.JK</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>95</v>
       </c>
       <c r="C6" t="n">
-        <v>81.59999999999999</v>
+        <v>83</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>-3.3%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IRSX.JK</t>
+          <t>ENRG.JK</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>95</v>
       </c>
       <c r="C7" t="n">
-        <v>81.59999999999999</v>
+        <v>83</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-27.4%</t>
+          <t>-9.4%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HRTA.JK</t>
+          <t>NCKL.JK</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" t="n">
-        <v>80.2</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-8.7%</t>
+          <t>-5.5%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ANTM.JK</t>
+          <t>ADRO.JK</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C9" t="n">
-        <v>75.59999999999999</v>
+        <v>78</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-16.2%</t>
+          <t>-7.5%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INDY.JK</t>
+          <t>ANTM.JK</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C10" t="n">
-        <v>72</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-3.2%</t>
+          <t>-14.9%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MEDC.JK</t>
+          <t>INDY.JK</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C11" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-5.3%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>OASA.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C12" t="n">
-        <v>69</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-18.8%</t>
+          <t>-6.2%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TCPI.JK</t>
+          <t>INKP.JK</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>87</v>
       </c>
       <c r="C13" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-7.1%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ZATA.JK</t>
+          <t>MEDC.JK</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C14" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-24.2%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BMRI.JK</t>
+          <t>OASA.JK</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C15" t="n">
-        <v>65.40000000000001</v>
+        <v>69</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>-20.4%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MDKA.JK</t>
+          <t>TCPI.JK</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C16" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-8.4%</t>
+          <t>-3.7%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ISAT.JK</t>
+          <t>VKTR.JK</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C17" t="n">
-        <v>65</v>
+        <v>68.8</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-10.5%</t>
+          <t>-26.3%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BIPI.JK</t>
+          <t>ZATA.JK</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C18" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-25.7%</t>
+          <t>-3.2%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TINS.JK</t>
+          <t>BMRI.JK</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C19" t="n">
-        <v>58</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>-0.5%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ARCI.JK</t>
+          <t>MDKA.JK</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C20" t="n">
-        <v>57.6</v>
+        <v>65</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-15.8%</t>
+          <t>-6.7%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HUMI.JK</t>
+          <t>BULL.JK</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C21" t="n">
-        <v>57</v>
+        <v>61.8</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2767,36 +2767,36 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RMKO.JK</t>
+          <t>TPIA.JK</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C22" t="n">
-        <v>55.4</v>
+        <v>54.6</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-62.4%</t>
+          <t>-9.3%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TPIA.JK</t>
+          <t>BIPI.JK</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C23" t="n">
-        <v>54.6</v>
+        <v>54</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-6.1%</t>
+          <t>-27.0%</t>
         </is>
       </c>
     </row>
@@ -2807,32 +2807,32 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C24" t="n">
         <v>53.8</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>-2.3%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INDF.JK</t>
+          <t>ISAT.JK</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C25" t="n">
-        <v>53</v>
+        <v>53.4</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-10.1%</t>
+          <t>-9.7%</t>
         </is>
       </c>
     </row>
@@ -2843,14 +2843,14 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C26" t="n">
         <v>52.8</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-15.1%</t>
+          <t>-18.2%</t>
         </is>
       </c>
     </row>
@@ -2861,7 +2861,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C27" t="n">
         <v>52.8</v>
@@ -2875,72 +2875,72 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BRIS.JK</t>
+          <t>CUAN.JK</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C28" t="n">
-        <v>50.8</v>
+        <v>52.2</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-4.0%</t>
+          <t>-33.9%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BBNI.JK</t>
+          <t>BRIS.JK</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C29" t="n">
-        <v>49</v>
+        <v>50.8</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-3.2%</t>
+          <t>-5.6%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ADRO.JK</t>
+          <t>BBNI.JK</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C30" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-7.5%</t>
+          <t>-3.2%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GTSI.JK</t>
+          <t>ARCI.JK</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C31" t="n">
-        <v>46.8</v>
+        <v>47.6</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-34.6%</t>
+          <t>-16.3%</t>
         </is>
       </c>
     </row>
@@ -2951,14 +2951,14 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C32" t="n">
         <v>45</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-49.2%</t>
+          <t>-49.9%</t>
         </is>
       </c>
     </row>
@@ -2969,7 +2969,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C33" t="n">
         <v>44.8</v>
@@ -2983,180 +2983,180 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PNLF.JK</t>
+          <t>DEWA.JK</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C34" t="n">
-        <v>44</v>
+        <v>43.6</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-15.6%</t>
+          <t>-23.9%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>VKTR.JK</t>
+          <t>INDF.JK</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C35" t="n">
-        <v>43.8</v>
+        <v>43</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-31.7%</t>
+          <t>-10.4%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DEWA.JK</t>
+          <t>LPKR.JK</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C36" t="n">
-        <v>38.6</v>
+        <v>41.8</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-30.7%</t>
+          <t>-25.0%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BULL.JK</t>
+          <t>IRSX.JK</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C37" t="n">
-        <v>31.8</v>
+        <v>41.6</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-36.1%</t>
+          <t>-24.8%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ENRG.JK</t>
+          <t>PADI.JK</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C38" t="n">
-        <v>31</v>
+        <v>41.2</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-27.1%</t>
+          <t>-35.7%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>INKP.JK</t>
+          <t>ICBP.JK</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C39" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-11.6%</t>
+          <t>-4.7%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PBSA.JK</t>
+          <t>DADA.JK</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C40" t="n">
-        <v>30.8</v>
+        <v>38.6</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-44.6%</t>
+          <t>-20.6%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ICBP.JK</t>
+          <t>PNLF.JK</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C41" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-4.9%</t>
+          <t>-13.8%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PWON.JK</t>
+          <t>PSKT.JK</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C42" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-6.2%</t>
+          <t>-29.9%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>AMMN.JK</t>
+          <t>TRUE.JK</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C43" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>-54.0%</t>
         </is>
       </c>
     </row>
@@ -3167,716 +3167,878 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C44" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-35.9%</t>
+          <t>-41.1%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>NICL.JK</t>
+          <t>GTSI.JK</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C45" t="n">
-        <v>23.8</v>
+        <v>31.8</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-36.6%</t>
+          <t>-37.1%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>UNVR.JK</t>
+          <t>JPFA.JK</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C46" t="n">
-        <v>23.4</v>
+        <v>31.4</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-18.4%</t>
+          <t>-12.6%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>TLKM.JK</t>
+          <t>PWON.JK</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C47" t="n">
-        <v>21.8</v>
+        <v>29</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-10.4%</t>
+          <t>-5.2%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>EXCL.JK</t>
+          <t>BUMI.JK</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C48" t="n">
-        <v>21.8</v>
+        <v>28</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-33.0%</t>
+          <t>-37.1%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>LPKR.JK</t>
+          <t>BUVA.JK</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C49" t="n">
-        <v>21.8</v>
+        <v>28</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-26.6%</t>
+          <t>-38.5%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>JPFA.JK</t>
+          <t>AMMN.JK</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C50" t="n">
-        <v>21.4</v>
+        <v>27</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-11.9%</t>
+          <t>-7.4%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PANI.JK</t>
+          <t>SRTG.JK</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C51" t="n">
-        <v>20.4</v>
+        <v>27</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-25.6%</t>
+          <t>-12.2%</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BUMI.JK</t>
+          <t>BKSL.JK</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C52" t="n">
-        <v>18</v>
+        <v>26.8</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-41.4%</t>
+          <t>-20.8%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BBYB.JK</t>
+          <t>MINA.JK</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C53" t="n">
-        <v>17.4</v>
+        <v>25.8</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-34.9%</t>
+          <t>-50.2%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>EMTK.JK</t>
+          <t>RMKO.JK</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C54" t="n">
-        <v>16.2</v>
+        <v>25.4</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-37.1%</t>
+          <t>-64.1%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>CPRO.JK</t>
+          <t>HUMI.JK</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C55" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-23.3%</t>
+          <t>-34.3%</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BRMS.JK</t>
+          <t>NICL.JK</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C56" t="n">
-        <v>15.4</v>
+        <v>20.8</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-17.2%</t>
+          <t>-39.0%</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>AMRT.JK</t>
+          <t>PANI.JK</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C57" t="n">
-        <v>14.8</v>
+        <v>20.4</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-3.5%</t>
+          <t>-26.7%</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MBMA.JK</t>
+          <t>BBYB.JK</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C58" t="n">
-        <v>14</v>
+        <v>17.4</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-9.3%</t>
+          <t>-36.6%</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>HRUM.JK</t>
+          <t>EMTK.JK</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C59" t="n">
-        <v>14</v>
+        <v>16.2</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-11.7%</t>
+          <t>-37.1%</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ASII.JK</t>
+          <t>CPRO.JK</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C60" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-8.8%</t>
+          <t>-24.4%</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PGEO.JK</t>
+          <t>BRMS.JK</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C61" t="n">
-        <v>13</v>
+        <v>15.4</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-8.5%</t>
+          <t>-17.6%</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ESSA.JK</t>
+          <t>UNTR.JK</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C62" t="n">
-        <v>13</v>
+        <v>14.8</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-15.8%</t>
+          <t>-8.1%</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>DSSA.JK</t>
+          <t>UNVR.JK</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C63" t="n">
-        <v>12.4</v>
+        <v>14.8</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-16.4%</t>
+          <t>-17.0%</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PSAB.JK</t>
+          <t>MBMA.JK</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C64" t="n">
-        <v>11.8</v>
+        <v>14</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-17.6%</t>
+          <t>-9.9%</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BBKP.JK</t>
+          <t>HRUM.JK</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C65" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-20.2%</t>
+          <t>-11.3%</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BKSL.JK</t>
+          <t>ASII.JK</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C66" t="n">
-        <v>8.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-23.0%</t>
+          <t>-10.1%</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>DADA.JK</t>
+          <t>PGEO.JK</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C67" t="n">
-        <v>8.6</v>
+        <v>13</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-20.6%</t>
+          <t>-9.2%</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CBDK.JK</t>
+          <t>ESSA.JK</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C68" t="n">
-        <v>8.4</v>
+        <v>13</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-33.2%</t>
+          <t>-16.4%</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BBCA.JK</t>
+          <t>TLKM.JK</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C69" t="n">
-        <v>7.8</v>
+        <v>11.8</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-12.5%</t>
+          <t>-12.4%</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>COIN.JK</t>
+          <t>PBSA.JK</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C70" t="n">
-        <v>7.8</v>
+        <v>10.8</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-58.2%</t>
+          <t>-46.1%</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SRTG.JK</t>
+          <t>CBDK.JK</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C71" t="n">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-13.9%</t>
+          <t>-32.6%</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BRPT.JK</t>
+          <t>BBCA.JK</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C72" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-39.7%</t>
+          <t>-15.5%</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>KLBF.JK</t>
+          <t>COIN.JK</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C73" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-14.0%</t>
+          <t>-59.2%</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>INET.JK</t>
+          <t>BRPT.JK</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C74" t="n">
-        <v>5.399999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>-59.1%</t>
+          <t>-43.1%</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>IMPC.JK</t>
+          <t>KLBF.JK</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C75" t="n">
-        <v>5.399999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-43.5%</t>
+          <t>-16.0%</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>CDIA.JK</t>
+          <t>INET.JK</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C76" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-41.2%</t>
+          <t>-58.9%</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BREN.JK</t>
+          <t>IMPC.JK</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C77" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-18.0%</t>
+          <t>-44.0%</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>UNTR.JK</t>
+          <t>CDIA.JK</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C78" t="n">
-        <v>4.8</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-11.0%</t>
+          <t>-43.6%</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>WIFI.JK</t>
+          <t>RATU.JK</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C79" t="n">
-        <v>4.8</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-42.6%</t>
+          <t>-44.7%</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>KIJA.JK</t>
+          <t>BREN.JK</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-35.6%</t>
+          <t>-21.0%</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>GOTO.JK</t>
+          <t>WIFI.JK</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C81" t="n">
-        <v>1.8</v>
+        <v>4.8</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-15.5%</t>
+          <t>-42.4%</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>TOBA.JK</t>
+          <t>AMRT.JK</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C82" t="n">
-        <v>1.8</v>
+        <v>4.8</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>-25.0%</t>
+          <t>-7.8%</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
+          <t>PTRO.JK</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>10</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>-42.2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>RAJA.JK</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>10</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>-39.6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>DSSA.JK</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>10</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>-18.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>KIJA.JK</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>7</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>-36.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>GOTO.JK</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>6</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>-16.9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>EXCL.JK</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>6</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>-36.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>PSAB.JK</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>6</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>-17.6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>TOBA.JK</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>6</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>-25.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>BBKP.JK</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>2</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>-22.3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
           <t>SSIA.JK</t>
         </is>
       </c>
-      <c r="B83" t="n">
+      <c r="B92" t="n">
         <v>1</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C92" t="n">
         <v>-6</v>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>-20.6%</t>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>-22.7%</t>
         </is>
       </c>
     </row>
@@ -3891,7 +4053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3905,7 +4067,7 @@
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="11" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3948,7 +4110,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3956,7 +4118,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ELSA.JK</t>
+          <t>EMAS.JK</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -3964,17 +4126,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>734-806</t>
+          <t>6979-7621</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1015</t>
+          <t>9377</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-21747700</t>
+          <t>3184800</t>
         </is>
       </c>
     </row>
@@ -3985,25 +4147,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>INDY.JK</t>
+          <t>INCO.JK</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3477-3803</t>
+          <t>6723-7227</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4703</t>
+          <t>8701</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-12647400</t>
+          <t>5562500</t>
         </is>
       </c>
     </row>
@@ -4014,25 +4176,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MEDC.JK</t>
+          <t>TINS.JK</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1530-1630</t>
+          <t>3881-4219</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1923</t>
+          <t>5170</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2776500</t>
+          <t>-1117000</t>
         </is>
       </c>
     </row>
@@ -4043,25 +4205,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RMKO.JK</t>
+          <t>NCKL.JK</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>568-792</t>
+          <t>1402-1498</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1399</t>
+          <t>1794</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-11023900</t>
+          <t>-2475500</t>
         </is>
       </c>
     </row>
@@ -4072,32 +4234,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PTBA.JK</t>
+          <t>ANTM.JK</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2507-2593</t>
+          <t>3905-4195</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2991</t>
+          <t>5045</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>291600</t>
+          <t>-16906100</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -4105,7 +4267,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EMAS.JK</t>
+          <t>HRTA.JK</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -4113,17 +4275,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6746-7454</t>
+          <t>2472-2688</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9267</t>
+          <t>3285</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1444500</t>
+          <t>-239100</t>
         </is>
       </c>
     </row>
@@ -4134,25 +4296,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>INCO.JK</t>
+          <t>VKTR.JK</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6591-7109</t>
+          <t>885-1025</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8612</t>
+          <t>1340</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>13489400</t>
+          <t>26210600</t>
         </is>
       </c>
     </row>
@@ -4163,25 +4325,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NCKL.JK</t>
+          <t>ZATA.JK</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1361-1459</t>
+          <t>112-130</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1756</t>
+          <t>171</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>12689600</t>
+          <t>-12543600</t>
         </is>
       </c>
     </row>
@@ -4192,25 +4354,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ANTM.JK</t>
+          <t>PSKT.JK</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3830-4150</t>
+          <t>260-304</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5031</t>
+          <t>426</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>30318800</t>
+          <t>-6222100</t>
         </is>
       </c>
     </row>
@@ -4221,32 +4383,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MDKA.JK</t>
+          <t>BUVA.JK</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3022-3298</t>
+          <t>1238-1432</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4038</t>
+          <t>1944</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10918200</t>
+          <t>-16142300</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -4254,25 +4416,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>ELSA.JK</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2175-2285</t>
+          <t>707-773</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2692</t>
+          <t>957</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>8159800</t>
+          <t>4172000</t>
         </is>
       </c>
     </row>
@@ -4283,25 +4445,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>OASA.JK</t>
+          <t>ENRG.JK</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>397-447</t>
+          <t>1454-1616</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-4349000</t>
+          <t>-2949300</t>
         </is>
       </c>
     </row>
@@ -4312,25 +4474,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PGEO.JK</t>
+          <t>ADRO.JK</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1157-1223</t>
+          <t>2151-2289</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1449</t>
+          <t>2742</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3606300</t>
+          <t>6694500</t>
         </is>
       </c>
     </row>
@@ -4341,25 +4503,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CDIA.JK</t>
+          <t>INDY.JK</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1142-1268</t>
+          <t>3399-3721</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1620</t>
+          <t>4606</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-54834500</t>
+          <t>17200</t>
         </is>
       </c>
     </row>
@@ -4370,32 +4532,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>BREN.JK</t>
+          <t>MEDC.JK</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>8011-8589</t>
+          <t>1532-1628</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>10312</t>
+          <t>1907</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>8991800</t>
+          <t>-679700</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -4403,25 +4565,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>IRSX.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>531-609</t>
+          <t>2078-2182</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>834</t>
+          <t>2568</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1486500</t>
+          <t>2573300</t>
         </is>
       </c>
     </row>
@@ -4432,25 +4594,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>WIFI.JK</t>
+          <t>OASA.JK</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2337-2543</t>
+          <t>391-437</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3126</t>
+          <t>571</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-20181200</t>
+          <t>-14999300</t>
         </is>
       </c>
     </row>
@@ -4461,156 +4623,152 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GOTO.JK</t>
+          <t>PGEO.JK</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>58-62</t>
+          <t>1148-1212</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>1431</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-321363900</t>
+          <t>-1442400</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Consumer Cyclical</t>
-        </is>
-      </c>
+      <c r="A20" t="inlineStr"/>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>HRTA.JK</t>
+          <t>CDIA.JK</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2418-2642</t>
+          <t>1094-1216</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3242</t>
+          <t>1555</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-1953200</t>
+          <t>4088000</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>BREN.JK</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>18</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>7717-8283</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9945</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-2800700</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>TCPI.JK</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>85</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>10820-11380</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>13441</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>-320300</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="n">
         <v>2</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>ZATA.JK</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>85</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>86-102</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>28114100</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="n">
-        <v>3</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>VKTR.JK</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>59</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>817-953</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1288</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>6460300</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TCPI.JK</t>
+          <t>BULL.JK</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11261-11789</t>
+          <t>421-479</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>13375</t>
+          <t>649</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>750900</t>
+          <t>-995300</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -4618,297 +4776,297 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>159-183</t>
+          <t>157-179</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>227</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-174624300</t>
+          <t>-87444100</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>HUMI.JK</t>
+          <t>GTSI.JK</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>215-253</t>
+          <t>280-324</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>447</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>28369300</t>
+          <t>2566600</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>GTSI.JK</t>
+          <t>HUMI.JK</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>289-339</t>
+          <t>216-252</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>352</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-19180200</t>
+          <t>5593400</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
       <c r="B27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BULL.JK</t>
+          <t>BMRI.JK</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>405-471</t>
+          <t>4980-5170</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>659</t>
+          <t>5740</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-122679500</t>
+          <t>-6646400</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Financial Services</t>
-        </is>
-      </c>
+      <c r="A28" t="inlineStr"/>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BMRI.JK</t>
+          <t>BBRI.JK</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4928-5122</t>
+          <t>3716-3844</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>5703</t>
+          <t>4433</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-20586800</t>
+          <t>-26018200</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>BBRI.JK</t>
+          <t>BRIS.JK</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3734-3866</t>
+          <t>2291-2409</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4464</t>
+          <t>2843</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>44073300</t>
+          <t>-4003500</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>BRIS.JK</t>
+          <t>BBNI.JK</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2340-2460</t>
+          <t>4405-4555</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2901</t>
+          <t>5256</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-1087700</t>
+          <t>-2512100</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>BBNI.JK</t>
+          <t>PADI.JK</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4402-4558</t>
+          <t>119-137</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>5270</t>
+          <t>168</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-2577900</t>
+          <t>12339000</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
       <c r="B32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PNLF.JK</t>
+          <t>ISAT.JK</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>274-290</t>
+          <t>2168-2292</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>2713</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>23395600</t>
+          <t>7049300</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Communication Services</t>
-        </is>
-      </c>
+      <c r="A33" t="inlineStr"/>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ISAT.JK</t>
+          <t>EMTK.JK</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2141-2279</t>
+          <t>889-961</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2724</t>
+          <t>1170</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>15712300</t>
+          <t>-92600</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4916,384 +5074,392 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3431-3629</t>
+          <t>3349-3551</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4288</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>40662800</t>
+          <t>-19828900</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>EXCL.JK</t>
+          <t>INET.JK</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2872-3148</t>
+          <t>360-408</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3817</t>
+          <t>540</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>9031100</t>
+          <t>31827500</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>EMTK.JK</t>
+          <t>EXCL.JK</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>888-962</t>
+          <t>2717-2983</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1173</t>
+          <t>3617</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-11013100</t>
+          <t>-12643600</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
       <c r="B37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>INET.JK</t>
+          <t>INDF.JK</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>354-410</t>
+          <t>6572-6778</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>7769</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>8094200</t>
+          <t>-4259700</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Consumer Defensive</t>
-        </is>
-      </c>
+      <c r="A38" t="inlineStr"/>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>INDF.JK</t>
+          <t>ICBP.JK</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>6598-6802</t>
+          <t>8049-8351</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>7784</t>
+          <t>9660</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1164900</t>
+          <t>-4149800</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ICBP.JK</t>
+          <t>JPFA.JK</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>8018-8332</t>
+          <t>2482-2638</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>9660</t>
+          <t>3144</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>233800</t>
+          <t>-1447800</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>UNVR.JK</t>
+          <t>CPRO.JK</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2193-2327</t>
+          <t>63-67</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2772</t>
+          <t>80</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>-865900</t>
+          <t>11098300</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>JPFA.JK</t>
+          <t>UNVR.JK</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2498-2662</t>
+          <t>2235-2365</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>3187</t>
+          <t>2804</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1057400</t>
+          <t>-2854000</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr"/>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
       <c r="B42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CPRO.JK</t>
+          <t>LPKR.JK</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>64-68</t>
+          <t>92-100</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>123</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>33347300</t>
+          <t>-13689500</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Real Estate</t>
-        </is>
-      </c>
+      <c r="A43" t="inlineStr"/>
       <c r="B43" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>KLBF.JK</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>20</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1059-1101</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1278</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>-20671600</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
         <v>1</v>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>PWON.JK</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>51</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>358-370</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>425</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>10074000</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr"/>
-      <c r="B44" t="n">
-        <v>2</v>
-      </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>TRIN.JK</t>
+          <t>IRSX.JK</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1039-1191</t>
+          <t>551-629</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1638</t>
+          <t>856</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>-6569500</t>
+          <t>-121300</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PANI.JK</t>
+          <t>WIFI.JK</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10467-11433</t>
+          <t>2352-2548</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>14005</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>-253800</t>
+          <t>796600</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>BKSL.JK</t>
+          <t>GOTO.JK</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>133-149</t>
+          <t>57-61</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>72</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>27471400</t>
+          <t>-1.3B</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Real Estate</t>
+        </is>
+      </c>
       <c r="B47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5301,7 +5467,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -5320,64 +5486,118 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
+      <c r="A48" t="inlineStr"/>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>LPKR.JK</t>
+          <t>TRUE.JK</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>89-99</t>
+          <t>223-265</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>356</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>26787000</t>
+          <t>410800</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>KLBF.JK</t>
+          <t>TRIN.JK</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1083-1127</t>
+          <t>959-1091</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1310</t>
+          <t>1479</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>-3128800</t>
+          <t>1021700</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="n">
+        <v>4</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>PWON.JK</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>50</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>362-374</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>11514600</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="n">
+        <v>5</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>BKSL.JK</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>45</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>137-153</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>-26171300</t>
         </is>
       </c>
     </row>
@@ -5399,6 +5619,12 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -5428,11 +5654,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BUMI.JK</t>
+          <t>GOTO.JK</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-2102136900</v>
+        <v>-1267941800</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -5446,11 +5672,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GOTO.JK</t>
+          <t>BUMI.JK</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-321363900</v>
+        <v>-815570300</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -5464,11 +5690,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIPI.JK</t>
+          <t>BBCA.JK</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-174624300</v>
+        <v>-179944200</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -5482,11 +5708,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BULL.JK</t>
+          <t>BIPI.JK</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-122679500</v>
+        <v>-87444100</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -5500,11 +5726,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BBCA.JK</t>
+          <t>INET.JK</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-84214600</v>
+        <v>31827500</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -5518,11 +5744,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CDIA.JK</t>
+          <t>VKTR.JK</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-54834500</v>
+        <v>26210600</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -5536,11 +5762,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BBRI.JK</t>
+          <t>BKSL.JK</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>44073300</v>
+        <v>-26171300</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -5554,11 +5780,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>KIJA.JK</t>
+          <t>BBRI.JK</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-44002900</v>
+        <v>-26018200</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -5572,11 +5798,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TLKM.JK</t>
+          <t>MBMA.JK</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>40662800</v>
+        <v>-24313300</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -5590,11 +5816,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CPRO.JK</t>
+          <t>KIJA.JK</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>33347300</v>
+        <v>-23104400</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -5625,10 +5851,10 @@
     <col width="9" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="9" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
-    <col width="11" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
     <col width="9" customWidth="1" min="10" max="10"/>
     <col width="9" customWidth="1" min="11" max="11"/>
@@ -5712,22 +5938,22 @@
         <v>0.19143999</v>
       </c>
       <c r="F2" s="9" t="n">
-        <v>0.144</v>
+        <v>0.128</v>
       </c>
       <c r="G2" s="8" t="n">
-        <v>0.38707</v>
+        <v>0.38872</v>
       </c>
       <c r="H2" s="10" t="n">
-        <v>8.333333</v>
+        <v>8.410394999999999</v>
       </c>
       <c r="I2" s="11" t="n">
-        <v>1.5957382</v>
+        <v>1.6110231</v>
       </c>
       <c r="J2" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K2" s="11" t="n">
-        <v>603</v>
+        <v>603.42</v>
       </c>
     </row>
     <row r="3">
@@ -5757,10 +5983,10 @@
         <v>0.34335998</v>
       </c>
       <c r="H3" s="10" t="n">
-        <v>10.660744</v>
+        <v>10.383121</v>
       </c>
       <c r="I3" s="11" t="n">
-        <v>1.2401497</v>
+        <v>1.2078543</v>
       </c>
       <c r="J3" s="11" t="n">
         <v>0</v>
@@ -5835,16 +6061,16 @@
         <v>0.27552</v>
       </c>
       <c r="H5" s="10" t="n">
-        <v>11.135681</v>
+        <v>11.441648</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>2.4863033</v>
+        <v>2.5568368</v>
       </c>
       <c r="J5" s="14" t="n">
         <v>23.671</v>
       </c>
       <c r="K5" s="11" t="n">
-        <v>126.62</v>
+        <v>126.73</v>
       </c>
     </row>
     <row r="6">
@@ -5874,16 +6100,16 @@
         <v>0.41044</v>
       </c>
       <c r="H6" s="10" t="n">
-        <v>10.245901</v>
+        <v>10.1936245</v>
       </c>
       <c r="I6" s="11" t="n">
-        <v>1.7278161</v>
+        <v>1.7187223</v>
       </c>
       <c r="J6" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="11" t="n">
-        <v>370.88</v>
+        <v>370.82</v>
       </c>
     </row>
     <row r="7">
@@ -5892,11 +6118,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>JPFA.JK</t>
+          <t>PADI.JK</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -5904,25 +6130,25 @@
         </is>
       </c>
       <c r="E7" s="8" t="n">
-        <v>0.20716</v>
-      </c>
-      <c r="F7" s="9" t="n">
-        <v>0.146</v>
-      </c>
-      <c r="G7" s="9" t="n">
-        <v>0.05786</v>
-      </c>
-      <c r="H7" s="10" t="n">
-        <v>8.992680999999999</v>
-      </c>
-      <c r="I7" s="11" t="n">
-        <v>1.7638421</v>
+        <v>0.24911</v>
+      </c>
+      <c r="F7" s="8" t="n">
+        <v>4.381</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <v>0.71615</v>
+      </c>
+      <c r="H7" t="n">
+        <v>33.595802</v>
+      </c>
+      <c r="I7" s="14" t="n">
+        <v>8.005003</v>
       </c>
       <c r="J7" s="14" t="n">
-        <v>62.876</v>
+        <v>5.093</v>
       </c>
       <c r="K7" s="11" t="n">
-        <v>286.9</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="8">
@@ -5931,37 +6157,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BRIS.JK</t>
+          <t>JPFA.JK</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>MID</t>
         </is>
       </c>
-      <c r="E8" s="9" t="n">
-        <v>0.15604</v>
+      <c r="E8" s="8" t="n">
+        <v>0.20716</v>
       </c>
       <c r="F8" s="9" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="G8" s="8" t="n">
-        <v>0.31919</v>
-      </c>
-      <c r="H8" t="n">
-        <v>14.619883</v>
-      </c>
-      <c r="I8" s="15" t="n">
-        <v>2.130973</v>
-      </c>
-      <c r="J8" s="11" t="n">
-        <v>0</v>
+        <v>0.146</v>
+      </c>
+      <c r="G8" s="9" t="n">
+        <v>0.05786</v>
+      </c>
+      <c r="H8" s="10" t="n">
+        <v>8.920482</v>
+      </c>
+      <c r="I8" s="11" t="n">
+        <v>1.7501689</v>
+      </c>
+      <c r="J8" s="14" t="n">
+        <v>62.876</v>
       </c>
       <c r="K8" s="11" t="n">
-        <v>164.16</v>
+        <v>286.98</v>
       </c>
     </row>
     <row r="9">
@@ -5970,7 +6196,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NICL.JK</t>
+          <t>BRIS.JK</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -5981,104 +6207,104 @@
           <t>MID</t>
         </is>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="E9" s="9" t="n">
+        <v>0.15604</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G9" s="8" t="n">
+        <v>0.31919</v>
+      </c>
+      <c r="H9" t="n">
+        <v>14.326648</v>
+      </c>
+      <c r="I9" s="15" t="n">
+        <v>2.086578</v>
+      </c>
+      <c r="J9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="11" t="n">
+        <v>164.03</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NICL.JK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>18</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="n">
         <v>0.65794</v>
       </c>
-      <c r="F9" s="16" t="n">
+      <c r="F10" s="16" t="n">
         <v>-0.261</v>
       </c>
-      <c r="G9" s="8" t="n">
+      <c r="G10" s="8" t="n">
         <v>0.27632</v>
       </c>
-      <c r="H9" t="n">
-        <v>23.094913</v>
-      </c>
-      <c r="I9" s="14" t="n">
-        <v>15.172855</v>
-      </c>
-      <c r="J9" s="11" t="n">
+      <c r="H10" t="n">
+        <v>22.222223</v>
+      </c>
+      <c r="I10" s="14" t="n">
+        <v>14.596671</v>
+      </c>
+      <c r="J10" s="11" t="n">
         <v>0.378</v>
       </c>
-      <c r="K9" s="11" t="n">
-        <v>51.31</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="12" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="12" t="inlineStr">
+      <c r="K10" s="11" t="n">
+        <v>51.3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="inlineStr">
         <is>
           <t>HRTA.JK</t>
         </is>
       </c>
-      <c r="C10" s="12" t="n">
+      <c r="C11" s="12" t="n">
         <v>17</v>
       </c>
-      <c r="D10" s="12" t="inlineStr">
+      <c r="D11" s="12" t="inlineStr">
         <is>
           <t>MID</t>
         </is>
       </c>
-      <c r="E10" s="13" t="n">
+      <c r="E11" s="13" t="n">
         <v>0.28483</v>
       </c>
-      <c r="F10" s="13" t="n">
+      <c r="F11" s="13" t="n">
         <v>1.009</v>
       </c>
-      <c r="G10" s="13" t="n">
+      <c r="G11" s="13" t="n">
         <v>0.023759998</v>
       </c>
-      <c r="H10" s="12" t="n">
-        <v>16.25964</v>
-      </c>
-      <c r="I10" s="15" t="n">
-        <v>4.1330614</v>
-      </c>
-      <c r="J10" s="14" t="n">
+      <c r="H11" s="12" t="n">
+        <v>16.584173</v>
+      </c>
+      <c r="I11" s="15" t="n">
+        <v>4.2147427</v>
+      </c>
+      <c r="J11" s="14" t="n">
         <v>139.825</v>
       </c>
-      <c r="K10" s="11" t="n">
-        <v>155.6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ELSA.JK</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>16</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>MID</t>
-        </is>
-      </c>
-      <c r="E11" s="9" t="n">
-        <v>0.13904001</v>
-      </c>
-      <c r="F11" s="9" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="G11" s="9" t="n">
-        <v>0.048460003</v>
-      </c>
-      <c r="H11" s="10" t="n">
-        <v>8.156779</v>
-      </c>
-      <c r="I11" s="11" t="n">
-        <v>1.0927179</v>
-      </c>
-      <c r="J11" s="14" t="n">
-        <v>4.935</v>
-      </c>
       <c r="K11" s="11" t="n">
-        <v>94.40000000000001</v>
+        <v>155.57</v>
       </c>
     </row>
     <row r="12">
@@ -6087,7 +6313,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ARCI.JK</t>
+          <t>ELSA.JK</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -6098,26 +6324,26 @@
           <t>MID</t>
         </is>
       </c>
-      <c r="E12" s="8" t="n">
-        <v>0.28336</v>
-      </c>
-      <c r="F12" s="8" t="n">
-        <v>0.879</v>
-      </c>
-      <c r="G12" s="8" t="n">
-        <v>0.21154</v>
-      </c>
-      <c r="H12" t="n">
-        <v>29.942217</v>
-      </c>
-      <c r="I12" s="14" t="n">
-        <v>122142.85</v>
+      <c r="E12" s="9" t="n">
+        <v>0.13904001</v>
+      </c>
+      <c r="F12" s="9" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="G12" s="9" t="n">
+        <v>0.048460003</v>
+      </c>
+      <c r="H12" s="10" t="n">
+        <v>7.8373227</v>
+      </c>
+      <c r="I12" s="11" t="n">
+        <v>1.0501444</v>
       </c>
       <c r="J12" s="14" t="n">
-        <v>118.6</v>
+        <v>4.935</v>
       </c>
       <c r="K12" s="11" t="n">
-        <v>57.11</v>
+        <v>94.42</v>
       </c>
     </row>
     <row r="13">
@@ -6147,16 +6373,16 @@
         <v>0.2208</v>
       </c>
       <c r="H13" t="n">
-        <v>24.096188</v>
+        <v>23.256197</v>
       </c>
       <c r="I13" s="14" t="n">
-        <v>162777.77</v>
+        <v>157222.22</v>
       </c>
       <c r="J13" s="14" t="n">
         <v>82.7</v>
       </c>
       <c r="K13" s="11" t="n">
-        <v>303.99</v>
+        <v>304.22</v>
       </c>
     </row>
     <row r="14">
@@ -6165,37 +6391,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BBNI.JK</t>
+          <t>ARCI.JK</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>MID</t>
         </is>
       </c>
-      <c r="E14" s="9" t="n">
-        <v>0.1173</v>
-      </c>
-      <c r="F14" s="9" t="n">
-        <v>0.028</v>
+      <c r="E14" s="8" t="n">
+        <v>0.28336</v>
+      </c>
+      <c r="F14" s="8" t="n">
+        <v>0.879</v>
       </c>
       <c r="G14" s="8" t="n">
-        <v>0.40232</v>
-      </c>
-      <c r="H14" s="10" t="n">
-        <v>8.340313999999999</v>
-      </c>
-      <c r="I14" s="11" t="n">
-        <v>0.97193456</v>
-      </c>
-      <c r="J14" s="11" t="n">
-        <v>0</v>
+        <v>0.21154</v>
+      </c>
+      <c r="H14" t="n">
+        <v>29.761906</v>
+      </c>
+      <c r="I14" s="14" t="n">
+        <v>121428.57</v>
+      </c>
+      <c r="J14" s="14" t="n">
+        <v>118.6</v>
       </c>
       <c r="K14" s="11" t="n">
-        <v>537.15</v>
+        <v>57.12</v>
       </c>
     </row>
     <row r="15">
@@ -6204,7 +6430,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PWON.JK</t>
+          <t>BBNI.JK</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -6216,25 +6442,25 @@
         </is>
       </c>
       <c r="E15" s="9" t="n">
-        <v>0.102419995</v>
+        <v>0.1173</v>
       </c>
       <c r="F15" s="9" t="n">
-        <v>0.144</v>
+        <v>0.028</v>
       </c>
       <c r="G15" s="8" t="n">
-        <v>0.30543</v>
+        <v>0.40232</v>
       </c>
       <c r="H15" s="10" t="n">
-        <v>8.196351999999999</v>
+        <v>8.340313999999999</v>
       </c>
       <c r="I15" s="11" t="n">
-        <v>0.8027488</v>
-      </c>
-      <c r="J15" s="14" t="n">
-        <v>21.136</v>
+        <v>0.97193456</v>
+      </c>
+      <c r="J15" s="11" t="n">
+        <v>0</v>
       </c>
       <c r="K15" s="11" t="n">
-        <v>44.41</v>
+        <v>537.15</v>
       </c>
     </row>
     <row r="16">
@@ -6243,11 +6469,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>INCO.JK</t>
+          <t>PWON.JK</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -6255,25 +6481,25 @@
         </is>
       </c>
       <c r="E16" s="9" t="n">
-        <v>0.02158</v>
-      </c>
-      <c r="F16" s="8" t="n">
-        <v>0.212</v>
-      </c>
-      <c r="G16" s="9" t="n">
-        <v>0.06239</v>
-      </c>
-      <c r="H16" s="17" t="n">
-        <v>68.49315</v>
-      </c>
-      <c r="I16" s="14" t="n">
-        <v>26245.21</v>
-      </c>
-      <c r="J16" s="11" t="n">
-        <v>0.173</v>
+        <v>0.102419995</v>
+      </c>
+      <c r="F16" s="9" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="G16" s="8" t="n">
+        <v>0.30543</v>
+      </c>
+      <c r="H16" s="10" t="n">
+        <v>8.284556</v>
+      </c>
+      <c r="I16" s="11" t="n">
+        <v>0.81157017</v>
+      </c>
+      <c r="J16" s="14" t="n">
+        <v>21.136</v>
       </c>
       <c r="K16" s="11" t="n">
-        <v>100.01</v>
+        <v>44.42</v>
       </c>
     </row>
     <row r="17">
@@ -6282,7 +6508,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>UNVR.JK</t>
+          <t>INCO.JK</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -6293,26 +6519,26 @@
           <t>MID</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n">
-        <v>1.08807</v>
-      </c>
-      <c r="F17" s="9" t="n">
-        <v>0.124</v>
+      <c r="E17" s="9" t="n">
+        <v>0.02158</v>
+      </c>
+      <c r="F17" s="8" t="n">
+        <v>0.212</v>
       </c>
       <c r="G17" s="9" t="n">
-        <v>0.10455</v>
-      </c>
-      <c r="H17" t="n">
-        <v>23.529411</v>
+        <v>0.06239</v>
+      </c>
+      <c r="H17" s="17" t="n">
+        <v>69.93182</v>
       </c>
       <c r="I17" s="14" t="n">
-        <v>25.589926</v>
-      </c>
-      <c r="J17" s="14" t="n">
-        <v>47.547</v>
+        <v>26724.137</v>
+      </c>
+      <c r="J17" s="11" t="n">
+        <v>0.173</v>
       </c>
       <c r="K17" s="11" t="n">
-        <v>96.05</v>
+        <v>99.73999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -6321,7 +6547,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CBDK.JK</t>
+          <t>ISAT.JK</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -6333,25 +6559,25 @@
         </is>
       </c>
       <c r="E18" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8" t="n">
-        <v>0.791</v>
-      </c>
-      <c r="G18" s="8" t="n">
-        <v>0.52018</v>
+        <v>0.15277</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="G18" s="9" t="n">
+        <v>0.09748999999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>23.094688</v>
-      </c>
-      <c r="I18" s="15" t="n">
-        <v>3.928722</v>
+        <v>13.054677</v>
+      </c>
+      <c r="I18" s="11" t="n">
+        <v>1.9801434</v>
       </c>
       <c r="J18" s="14" t="n">
-        <v>2.39</v>
+        <v>138.994</v>
       </c>
       <c r="K18" s="11" t="n">
-        <v>272.79</v>
+        <v>170.82</v>
       </c>
     </row>
     <row r="19">
@@ -6360,37 +6586,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PBSA.JK</t>
+          <t>CBDK.JK</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>MID</t>
         </is>
       </c>
-      <c r="E19" s="8" t="n">
-        <v>0.31697</v>
-      </c>
-      <c r="F19" s="16" t="n">
-        <v>-0.192</v>
-      </c>
-      <c r="G19" s="9" t="n">
-        <v>0.15842</v>
+      <c r="E19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8" t="n">
+        <v>0.791</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>0.52018</v>
       </c>
       <c r="H19" t="n">
-        <v>19.230768</v>
-      </c>
-      <c r="I19" s="14" t="n">
-        <v>5.8249087</v>
-      </c>
-      <c r="J19" s="15" t="n">
-        <v>1.461</v>
+        <v>23.255816</v>
+      </c>
+      <c r="I19" s="15" t="n">
+        <v>3.9599023</v>
+      </c>
+      <c r="J19" s="14" t="n">
+        <v>2.39</v>
       </c>
       <c r="K19" s="11" t="n">
-        <v>77.48</v>
+        <v>273.05</v>
       </c>
     </row>
     <row r="20">
@@ -6399,7 +6625,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BBCA.JK</t>
+          <t>MINA.JK</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -6410,26 +6636,26 @@
           <t>MID</t>
         </is>
       </c>
-      <c r="E20" s="8" t="n">
-        <v>0.21143</v>
-      </c>
-      <c r="F20" s="16" t="n">
-        <v>-0.027</v>
-      </c>
-      <c r="G20" s="8" t="n">
-        <v>0.53282</v>
+      <c r="E20" s="16" t="n">
+        <v>-0.04084</v>
+      </c>
+      <c r="F20" s="8" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="G20" s="9" t="n">
+        <v>-0.69613</v>
       </c>
       <c r="H20" t="n">
-        <v>15.948792</v>
-      </c>
-      <c r="I20" s="15" t="n">
-        <v>3.2559724</v>
+        <v>0</v>
+      </c>
+      <c r="I20" s="14" t="n">
+        <v>12.362583</v>
       </c>
       <c r="J20" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="11" t="n">
-        <v>467.12</v>
+        <v>0.049</v>
+      </c>
+      <c r="K20" s="15" t="n">
+        <v>-0.73</v>
       </c>
     </row>
     <row r="21">
@@ -6438,7 +6664,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>COIN.JK</t>
+          <t>PBSA.JK</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -6449,26 +6675,26 @@
           <t>MID</t>
         </is>
       </c>
-      <c r="E21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="8" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="G21" s="8" t="n">
-        <v>0.30952</v>
-      </c>
-      <c r="H21" s="17" t="n">
-        <v>312.5</v>
+      <c r="E21" s="8" t="n">
+        <v>0.31697</v>
+      </c>
+      <c r="F21" s="16" t="n">
+        <v>-0.192</v>
+      </c>
+      <c r="G21" s="9" t="n">
+        <v>0.15842</v>
+      </c>
+      <c r="H21" t="n">
+        <v>18.726591</v>
       </c>
       <c r="I21" s="14" t="n">
-        <v>15.611315</v>
-      </c>
-      <c r="J21" s="11" t="n">
-        <v>0.261</v>
+        <v>5.668535</v>
+      </c>
+      <c r="J21" s="15" t="n">
+        <v>1.461</v>
       </c>
       <c r="K21" s="11" t="n">
-        <v>6.16</v>
+        <v>77.43000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -6477,37 +6703,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>BBCA.JK</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>MID</t>
         </is>
       </c>
-      <c r="E22" s="9" t="n">
-        <v>0.12082</v>
-      </c>
-      <c r="F22" s="9" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="G22" s="9" t="n">
-        <v>0.0806</v>
-      </c>
-      <c r="H22" s="10" t="n">
-        <v>10.287876</v>
-      </c>
-      <c r="I22" s="14" t="n">
-        <v>19561.404</v>
-      </c>
-      <c r="J22" s="14" t="n">
-        <v>32.802</v>
+      <c r="E22" s="8" t="n">
+        <v>0.21143</v>
+      </c>
+      <c r="F22" s="16" t="n">
+        <v>-0.027</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>0.53282</v>
+      </c>
+      <c r="H22" t="n">
+        <v>15.40832</v>
+      </c>
+      <c r="I22" s="15" t="n">
+        <v>3.1467113</v>
+      </c>
+      <c r="J22" s="11" t="n">
+        <v>0</v>
       </c>
       <c r="K22" s="11" t="n">
-        <v>216.76</v>
+        <v>467.28</v>
       </c>
     </row>
     <row r="23">
@@ -6516,11 +6742,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>IRSX.JK</t>
+          <t>COIN.JK</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -6528,25 +6754,25 @@
         </is>
       </c>
       <c r="E23" s="9" t="n">
-        <v>0.11936</v>
-      </c>
-      <c r="F23" s="16" t="n">
-        <v>-0.5590000000000001</v>
-      </c>
-      <c r="G23" s="9" t="n">
-        <v>0.06455</v>
+        <v>0</v>
+      </c>
+      <c r="F23" s="8" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>0.30952</v>
       </c>
       <c r="H23" s="17" t="n">
-        <v>62.0915</v>
+        <v>303.22583</v>
       </c>
       <c r="I23" s="14" t="n">
-        <v>11.813472</v>
+        <v>15.246375</v>
       </c>
       <c r="J23" s="11" t="n">
-        <v>0.216</v>
+        <v>0.261</v>
       </c>
       <c r="K23" s="11" t="n">
-        <v>9.18</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="24">
@@ -6555,11 +6781,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BRPT.JK</t>
+          <t>CUAN.JK</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -6567,25 +6793,25 @@
         </is>
       </c>
       <c r="E24" s="8" t="n">
-        <v>0.35876</v>
+        <v>0.33183</v>
       </c>
       <c r="F24" s="8" t="n">
-        <v>3.509</v>
+        <v>0.415</v>
       </c>
       <c r="G24" s="9" t="n">
-        <v>0.09752</v>
-      </c>
-      <c r="H24" t="n">
-        <v>20.789642</v>
+        <v>0.13921</v>
+      </c>
+      <c r="H24" s="17" t="n">
+        <v>87.73631</v>
       </c>
       <c r="I24" s="14" t="n">
-        <v>95000</v>
+        <v>603333.3</v>
       </c>
       <c r="J24" s="14" t="n">
-        <v>107.818</v>
+        <v>201.586</v>
       </c>
       <c r="K24" s="11" t="n">
-        <v>109.67</v>
+        <v>20.63</v>
       </c>
     </row>
     <row r="25">
@@ -6594,7 +6820,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>KLBF.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -6606,25 +6832,25 @@
         </is>
       </c>
       <c r="E25" s="9" t="n">
-        <v>0.14554</v>
+        <v>0.12082</v>
       </c>
       <c r="F25" s="9" t="n">
-        <v>0.126</v>
+        <v>0.008</v>
       </c>
       <c r="G25" s="9" t="n">
-        <v>0.10163</v>
-      </c>
-      <c r="H25" t="n">
-        <v>14.429355</v>
-      </c>
-      <c r="I25" s="15" t="n">
-        <v>2.1794226</v>
+        <v>0.0806</v>
+      </c>
+      <c r="H25" s="10" t="n">
+        <v>9.823364</v>
+      </c>
+      <c r="I25" s="14" t="n">
+        <v>18684.21</v>
       </c>
       <c r="J25" s="14" t="n">
-        <v>2.102</v>
+        <v>32.802</v>
       </c>
       <c r="K25" s="11" t="n">
-        <v>76.58</v>
+        <v>216.83</v>
       </c>
     </row>
     <row r="26">
@@ -6633,11 +6859,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PNLF.JK</t>
+          <t>IRSX.JK</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -6645,64 +6871,64 @@
         </is>
       </c>
       <c r="E26" s="9" t="n">
-        <v>0.05041</v>
+        <v>0.11936</v>
       </c>
       <c r="F26" s="16" t="n">
-        <v>-0.07199999999999999</v>
+        <v>-0.5590000000000001</v>
       </c>
       <c r="G26" s="9" t="n">
-        <v>0.15737</v>
-      </c>
-      <c r="H26" s="10" t="n">
-        <v>5.4767914</v>
-      </c>
-      <c r="I26" s="11" t="n">
-        <v>0.2899394</v>
+        <v>0.06455</v>
+      </c>
+      <c r="H26" s="17" t="n">
+        <v>62.105263</v>
+      </c>
+      <c r="I26" s="14" t="n">
+        <v>12.22798</v>
       </c>
       <c r="J26" s="11" t="n">
-        <v>0</v>
+        <v>0.216</v>
       </c>
       <c r="K26" s="11" t="n">
-        <v>51.49</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="12" t="n">
         <v>26</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>CPRO.JK</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>10</v>
-      </c>
-      <c r="D27" t="inlineStr">
+      <c r="B27" s="12" t="inlineStr">
+        <is>
+          <t>BRPT.JK</t>
+        </is>
+      </c>
+      <c r="C27" s="12" t="n">
+        <v>11</v>
+      </c>
+      <c r="D27" s="12" t="inlineStr">
         <is>
           <t>MID</t>
         </is>
       </c>
-      <c r="E27" s="9" t="n">
-        <v>0.10436</v>
-      </c>
-      <c r="F27" s="9" t="n">
-        <v>0.081</v>
-      </c>
-      <c r="G27" s="9" t="n">
-        <v>0.041550003</v>
-      </c>
-      <c r="H27" s="10" t="n">
-        <v>9.565217000000001</v>
-      </c>
-      <c r="I27" s="11" t="n">
-        <v>0.98472184</v>
+      <c r="E27" s="13" t="n">
+        <v>0.35876</v>
+      </c>
+      <c r="F27" s="13" t="n">
+        <v>3.509</v>
+      </c>
+      <c r="G27" s="13" t="n">
+        <v>0.09752</v>
+      </c>
+      <c r="H27" s="12" t="n">
+        <v>19.607843</v>
+      </c>
+      <c r="I27" s="14" t="n">
+        <v>89583.336</v>
       </c>
       <c r="J27" s="14" t="n">
-        <v>43.245</v>
+        <v>107.818</v>
       </c>
       <c r="K27" s="11" t="n">
-        <v>6.9</v>
+        <v>109.65</v>
       </c>
     </row>
     <row r="28">
@@ -6711,37 +6937,37 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RMKO.JK</t>
+          <t>KLBF.JK</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LOW</t>
-        </is>
-      </c>
-      <c r="E28" s="16" t="n">
-        <v>-0.29015</v>
-      </c>
-      <c r="F28" s="8" t="n">
-        <v>0.671</v>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="E28" s="9" t="n">
+        <v>0.14554</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>0.126</v>
       </c>
       <c r="G28" s="9" t="n">
-        <v>-0.21053</v>
+        <v>0.10163</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>14.104741</v>
       </c>
       <c r="I28" s="15" t="n">
-        <v>4.822148</v>
+        <v>2.1301143</v>
       </c>
       <c r="J28" s="14" t="n">
-        <v>65.76600000000001</v>
-      </c>
-      <c r="K28" s="15" t="n">
-        <v>0</v>
+        <v>2.102</v>
+      </c>
+      <c r="K28" s="11" t="n">
+        <v>76.56999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -6750,37 +6976,37 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PANI.JK</t>
+          <t>PNLF.JK</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="E29" s="9" t="n">
-        <v>0.0678</v>
-      </c>
-      <c r="F29" s="8" t="n">
-        <v>0.946</v>
-      </c>
-      <c r="G29" s="8" t="n">
-        <v>0.24195999</v>
-      </c>
-      <c r="H29" s="17" t="n">
-        <v>200</v>
-      </c>
-      <c r="I29" s="14" t="n">
-        <v>8.230675</v>
-      </c>
-      <c r="J29" s="14" t="n">
-        <v>2.054</v>
+        <v>0.05041</v>
+      </c>
+      <c r="F29" s="16" t="n">
+        <v>-0.07199999999999999</v>
+      </c>
+      <c r="G29" s="9" t="n">
+        <v>0.15737</v>
+      </c>
+      <c r="H29" s="10" t="n">
+        <v>5.593319</v>
+      </c>
+      <c r="I29" s="11" t="n">
+        <v>0.29610834</v>
+      </c>
+      <c r="J29" s="11" t="n">
+        <v>0</v>
       </c>
       <c r="K29" s="11" t="n">
-        <v>54.75</v>
+        <v>51.49</v>
       </c>
     </row>
     <row r="30">
@@ -6789,37 +7015,37 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BRMS.JK</t>
+          <t>CPRO.JK</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>MID</t>
         </is>
       </c>
       <c r="E30" s="9" t="n">
-        <v>0.045900002</v>
-      </c>
-      <c r="F30" s="8" t="n">
-        <v>0.329</v>
+        <v>0.10436</v>
+      </c>
+      <c r="F30" s="9" t="n">
+        <v>0.081</v>
       </c>
       <c r="G30" s="9" t="n">
-        <v>0.19652</v>
-      </c>
-      <c r="H30" s="17" t="n">
-        <v>196.20253</v>
-      </c>
-      <c r="I30" s="14" t="n">
-        <v>120555.56</v>
+        <v>0.041550003</v>
+      </c>
+      <c r="H30" s="10" t="n">
+        <v>9.42029</v>
+      </c>
+      <c r="I30" s="11" t="n">
+        <v>0.96980184</v>
       </c>
       <c r="J30" s="14" t="n">
-        <v>12.694</v>
+        <v>43.245</v>
       </c>
       <c r="K30" s="11" t="n">
-        <v>5.53</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="31">
@@ -6828,7 +7054,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>INET.JK</t>
+          <t>RMKO.JK</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -6839,26 +7065,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E31" s="9" t="n">
-        <v>0.06432</v>
+      <c r="E31" s="16" t="n">
+        <v>-0.29015</v>
       </c>
       <c r="F31" s="8" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="G31" s="8" t="n">
-        <v>0.24544</v>
-      </c>
-      <c r="H31" s="17" t="n">
-        <v>276.81158</v>
-      </c>
-      <c r="I31" s="14" t="n">
-        <v>9.398911999999999</v>
+        <v>0.671</v>
+      </c>
+      <c r="G31" s="9" t="n">
+        <v>-0.21053</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="15" t="n">
+        <v>4.609406</v>
       </c>
       <c r="J31" s="14" t="n">
-        <v>2.833</v>
-      </c>
-      <c r="K31" s="11" t="n">
-        <v>1.38</v>
+        <v>65.76600000000001</v>
+      </c>
+      <c r="K31" s="15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -6867,7 +7093,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>IMPC.JK</t>
+          <t>PANI.JK</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -6878,26 +7104,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E32" s="8" t="n">
-        <v>0.23723</v>
-      </c>
-      <c r="F32" s="9" t="n">
-        <v>0.145</v>
-      </c>
-      <c r="G32" s="9" t="n">
-        <v>0.14588</v>
+      <c r="E32" s="9" t="n">
+        <v>0.0678</v>
+      </c>
+      <c r="F32" s="8" t="n">
+        <v>0.946</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>0.24195999</v>
       </c>
       <c r="H32" s="17" t="n">
-        <v>208.37125</v>
+        <v>196.07843</v>
       </c>
       <c r="I32" s="14" t="n">
-        <v>43.761585</v>
+        <v>8.117927</v>
       </c>
       <c r="J32" s="14" t="n">
-        <v>38.133</v>
+        <v>2.054</v>
       </c>
       <c r="K32" s="11" t="n">
-        <v>10.99</v>
+        <v>55.08</v>
       </c>
     </row>
     <row r="33">
@@ -6906,7 +7132,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CDIA.JK</t>
+          <t>BRMS.JK</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -6918,25 +7144,25 @@
         </is>
       </c>
       <c r="E33" s="9" t="n">
-        <v>0</v>
+        <v>0.045900002</v>
       </c>
       <c r="F33" s="8" t="n">
-        <v>0.421</v>
-      </c>
-      <c r="G33" s="8" t="n">
-        <v>0.65328</v>
+        <v>0.329</v>
+      </c>
+      <c r="G33" s="9" t="n">
+        <v>0.19652</v>
       </c>
       <c r="H33" s="17" t="n">
-        <v>103.07956</v>
+        <v>196.00725</v>
       </c>
       <c r="I33" s="14" t="n">
-        <v>150625</v>
+        <v>120000.01</v>
       </c>
       <c r="J33" s="14" t="n">
-        <v>34.873</v>
+        <v>12.694</v>
       </c>
       <c r="K33" s="11" t="n">
-        <v>11.69</v>
+        <v>5.51</v>
       </c>
     </row>
     <row r="34">
@@ -6945,7 +7171,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BREN.JK</t>
+          <t>INET.JK</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -6956,26 +7182,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E34" s="8" t="n">
-        <v>0.22038001</v>
-      </c>
-      <c r="F34" s="9" t="n">
-        <v>0.04</v>
+      <c r="E34" s="9" t="n">
+        <v>0.06432</v>
+      </c>
+      <c r="F34" s="8" t="n">
+        <v>1.905</v>
       </c>
       <c r="G34" s="8" t="n">
-        <v>0.23266001</v>
+        <v>0.24544</v>
       </c>
       <c r="H34" s="17" t="n">
-        <v>454.54544</v>
+        <v>278.26086</v>
       </c>
       <c r="I34" s="14" t="n">
-        <v>1660000</v>
+        <v>9.448121</v>
       </c>
       <c r="J34" s="14" t="n">
-        <v>239.827</v>
+        <v>2.833</v>
       </c>
       <c r="K34" s="11" t="n">
-        <v>18.26</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="35">
@@ -6984,11 +7210,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ADMR.JK</t>
+          <t>IMPC.JK</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -6996,25 +7222,25 @@
         </is>
       </c>
       <c r="E35" s="8" t="n">
-        <v>0.2018</v>
-      </c>
-      <c r="F35" s="16" t="n">
-        <v>-0.012</v>
-      </c>
-      <c r="G35" s="8" t="n">
-        <v>0.31149</v>
-      </c>
-      <c r="H35" t="n">
-        <v>15.151515</v>
+        <v>0.23723</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G35" s="9" t="n">
+        <v>0.14588</v>
+      </c>
+      <c r="H35" s="17" t="n">
+        <v>204.13669</v>
       </c>
       <c r="I35" s="14" t="n">
-        <v>52297.297</v>
+        <v>43.37939</v>
       </c>
       <c r="J35" s="14" t="n">
-        <v>35.836</v>
+        <v>38.133</v>
       </c>
       <c r="K35" s="11" t="n">
-        <v>127.71</v>
+        <v>11.12</v>
       </c>
     </row>
     <row r="36">
@@ -7023,11 +7249,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PTBA.JK</t>
+          <t>CDIA.JK</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -7035,25 +7261,25 @@
         </is>
       </c>
       <c r="E36" s="9" t="n">
-        <v>0.15961</v>
-      </c>
-      <c r="F36" s="16" t="n">
-        <v>-0.012</v>
-      </c>
-      <c r="G36" s="9" t="n">
-        <v>0.075219996</v>
-      </c>
-      <c r="H36" s="10" t="n">
-        <v>8.976661</v>
-      </c>
-      <c r="I36" s="11" t="n">
-        <v>1.4209509</v>
+        <v>0</v>
+      </c>
+      <c r="F36" s="8" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>0.65328</v>
+      </c>
+      <c r="H36" s="17" t="n">
+        <v>98.97172500000001</v>
+      </c>
+      <c r="I36" s="14" t="n">
+        <v>144375</v>
       </c>
       <c r="J36" s="14" t="n">
-        <v>19.582</v>
+        <v>34.873</v>
       </c>
       <c r="K36" s="11" t="n">
-        <v>284.07</v>
+        <v>11.67</v>
       </c>
     </row>
     <row r="37">
@@ -7062,11 +7288,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AADI.JK</t>
+          <t>RATU.JK</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -7074,25 +7300,25 @@
         </is>
       </c>
       <c r="E37" s="8" t="n">
-        <v>0.22769</v>
+        <v>0.45251998</v>
       </c>
       <c r="F37" s="16" t="n">
-        <v>-0.132</v>
-      </c>
-      <c r="G37" s="9" t="n">
-        <v>0.14828</v>
-      </c>
-      <c r="H37" s="10" t="n">
-        <v>5.506608</v>
+        <v>-0.183</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>0.31559</v>
+      </c>
+      <c r="H37" s="17" t="n">
+        <v>65.789474</v>
       </c>
       <c r="I37" s="14" t="n">
-        <v>19325.844</v>
+        <v>394117.62</v>
       </c>
       <c r="J37" s="14" t="n">
-        <v>27.582</v>
+        <v>36.548</v>
       </c>
       <c r="K37" s="11" t="n">
-        <v>1561.76</v>
+        <v>101.84</v>
       </c>
     </row>
     <row r="38">
@@ -7101,37 +7327,37 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AMRT.JK</t>
+          <t>BREN.JK</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
           <t>LOW</t>
         </is>
       </c>
-      <c r="E38" s="9" t="n">
-        <v>0.17877</v>
+      <c r="E38" s="8" t="n">
+        <v>0.22038001</v>
       </c>
       <c r="F38" s="9" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="G38" s="9" t="n">
-        <v>0.02461</v>
-      </c>
-      <c r="H38" t="n">
-        <v>26.17659</v>
-      </c>
-      <c r="I38" s="15" t="n">
-        <v>4.640929</v>
+        <v>0.04</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>0.23266001</v>
+      </c>
+      <c r="H38" s="17" t="n">
+        <v>454.54544</v>
+      </c>
+      <c r="I38" s="14" t="n">
+        <v>1600000</v>
       </c>
       <c r="J38" s="14" t="n">
-        <v>10.566</v>
+        <v>239.827</v>
       </c>
       <c r="K38" s="11" t="n">
-        <v>73.73</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="39">
@@ -7140,7 +7366,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>UNTR.JK</t>
+          <t>ADMR.JK</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -7151,26 +7377,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E39" s="9" t="n">
-        <v>0.16168</v>
+      <c r="E39" s="8" t="n">
+        <v>0.2018</v>
       </c>
       <c r="F39" s="16" t="n">
-        <v>-0.089</v>
-      </c>
-      <c r="G39" s="9" t="n">
-        <v>0.113900006</v>
-      </c>
-      <c r="H39" s="10" t="n">
-        <v>6.7024126</v>
-      </c>
-      <c r="I39" s="11" t="n">
-        <v>1.0645361</v>
+        <v>-0.012</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>0.31149</v>
+      </c>
+      <c r="H39" t="n">
+        <v>14.598825</v>
+      </c>
+      <c r="I39" s="14" t="n">
+        <v>50405.406</v>
       </c>
       <c r="J39" s="14" t="n">
-        <v>19.014</v>
+        <v>35.836</v>
       </c>
       <c r="K39" s="11" t="n">
-        <v>4244.74</v>
+        <v>127.75</v>
       </c>
     </row>
     <row r="40">
@@ -7179,7 +7405,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>WIFI.JK</t>
+          <t>PTBA.JK</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -7191,25 +7417,25 @@
         </is>
       </c>
       <c r="E40" s="9" t="n">
-        <v>0.08821999</v>
-      </c>
-      <c r="F40" s="8" t="n">
-        <v>1.559</v>
-      </c>
-      <c r="G40" s="8" t="n">
-        <v>0.28702</v>
-      </c>
-      <c r="H40" t="n">
-        <v>17.330776</v>
+        <v>0.15961</v>
+      </c>
+      <c r="F40" s="16" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="G40" s="9" t="n">
+        <v>0.075219996</v>
+      </c>
+      <c r="H40" s="10" t="n">
+        <v>8.976661</v>
       </c>
       <c r="I40" s="11" t="n">
-        <v>1.8202721</v>
+        <v>1.4209509</v>
       </c>
       <c r="J40" s="14" t="n">
-        <v>44.892</v>
+        <v>19.582</v>
       </c>
       <c r="K40" s="11" t="n">
-        <v>140.79</v>
+        <v>284.07</v>
       </c>
     </row>
     <row r="41">
@@ -7218,37 +7444,37 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DADA.JK</t>
+          <t>AADI.JK</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
           <t>LOW</t>
         </is>
       </c>
-      <c r="E41" s="9" t="n">
-        <v>0.0051700003</v>
-      </c>
-      <c r="F41" s="9" t="n">
-        <v>0.08</v>
+      <c r="E41" s="8" t="n">
+        <v>0.22769</v>
+      </c>
+      <c r="F41" s="16" t="n">
+        <v>-0.132</v>
       </c>
       <c r="G41" s="9" t="n">
-        <v>0.046129998</v>
-      </c>
-      <c r="H41" t="n">
-        <v>14.947683</v>
-      </c>
-      <c r="I41" s="11" t="n">
-        <v>0.91653985</v>
+        <v>0.14828</v>
+      </c>
+      <c r="H41" s="10" t="n">
+        <v>5.5710306</v>
+      </c>
+      <c r="I41" s="14" t="n">
+        <v>19550.562</v>
       </c>
       <c r="J41" s="14" t="n">
-        <v>28.16</v>
+        <v>27.582</v>
       </c>
       <c r="K41" s="11" t="n">
-        <v>3.345</v>
+        <v>1561.65</v>
       </c>
     </row>
   </sheetData>

--- a/reports/HEDGEFUND_TERMINAL.xlsx
+++ b/reports/HEDGEFUND_TERMINAL.xlsx
@@ -496,7 +496,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>18 February 2026</t>
+          <t>20 February 2026</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7"/>
@@ -577,7 +577,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>EMAS.JK</t>
+          <t>MEDC.JK</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -585,7 +585,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.2M</t>
+          <t>-679700</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>HRTA.JK</t>
+          <t>BIPI.JK</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -605,7 +605,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-239100</t>
+          <t>-87.4M</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>INCO.JK</t>
+          <t>NCKL.JK</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -655,7 +655,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.6M</t>
+          <t>-2.5M</t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>TINS.JK</t>
+          <t>HRTA.JK</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -680,7 +680,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-1.1M</t>
+          <t>-239100</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.5</v>
+        <v>73.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -743,30 +743,30 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2. Energy</t>
+          <t>2. Basic Materials</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>59.8</v>
+        <v>61.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-800.7M</t>
+          <t>-47.0M</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3. Basic Materials</t>
+          <t>3. Energy</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>58.6</v>
+        <v>60.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-71.3M</t>
+          <t>-804.3M</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>49.5</v>
+        <v>47.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>45.1</v>
+        <v>46.8</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
     <col width="20" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
     <col width="13" customWidth="1" min="12" max="12"/>
     <col width="9" customWidth="1" min="13" max="13"/>
   </cols>
@@ -912,7 +912,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EMAS.JK</t>
+          <t>MEDC.JK</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -920,40 +920,40 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6979-7621</t>
+          <t>1657-1763</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6335.714285714285</v>
+        <v>1550.892857142857</v>
       </c>
       <c r="F2" t="n">
-        <v>8524.107142857143</v>
+        <v>1920</v>
       </c>
       <c r="G2" t="n">
-        <v>9376.517857142859</v>
+        <v>2076.964285714286</v>
       </c>
       <c r="H2" t="n">
-        <v>10630.35714285714</v>
+        <v>2286.25</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>78%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>31.70%</t>
+          <t>8.76%</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>13312538875.9</v>
+        <v>26.2</v>
       </c>
       <c r="L2" t="n">
-        <v>3184800</v>
+        <v>-679700</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -963,7 +963,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HRTA.JK</t>
+          <t>BIPI.JK</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -971,36 +971,36 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2472-2688</t>
+          <t>231-257</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2255.892857142857</v>
+        <v>205.9642857142857</v>
       </c>
       <c r="F3" t="n">
-        <v>2986.428571428572</v>
+        <v>289.5714285714286</v>
       </c>
       <c r="G3" t="n">
-        <v>3285.071428571429</v>
+        <v>322.4642857142857</v>
       </c>
       <c r="H3" t="n">
-        <v>3682.678571428572</v>
+        <v>366.3214285714286</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>62%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>28.42%</t>
+          <t>56.52%</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>32.31</v>
+        <v>11.4</v>
       </c>
       <c r="L3" t="n">
-        <v>-239100</v>
+        <v>-87444100</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -1022,33 +1022,33 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>707-773</t>
+          <t>778-842</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>640.3571428571429</v>
+        <v>712.5</v>
       </c>
       <c r="F4" t="n">
-        <v>870.1785714285713</v>
+        <v>940</v>
       </c>
       <c r="G4" t="n">
-        <v>957.1964285714286</v>
+        <v>1037.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1096.428571428571</v>
+        <v>1167.5</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>69%</t>
+          <t>78%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>14.19%</t>
+          <t>18.17%</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>9.94</v>
+        <v>22.66</v>
       </c>
       <c r="L4" t="n">
         <v>4172000</v>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>INCO.JK</t>
+          <t>NCKL.JK</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -1073,40 +1073,40 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6723-7227</t>
+          <t>1459-1541</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6219.642857142857</v>
+        <v>1376.25</v>
       </c>
       <c r="F5" t="n">
-        <v>7909.821428571429</v>
+        <v>1655.357142857143</v>
       </c>
       <c r="G5" t="n">
-        <v>8700.803571428572</v>
+        <v>1820.892857142857</v>
       </c>
       <c r="H5" t="n">
-        <v>9503.571428571429</v>
+        <v>1921.607142857143</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>92%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>29.30%</t>
+          <t>19.31%</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>45.18</v>
+        <v>102.88</v>
       </c>
       <c r="L5" t="n">
-        <v>5562500</v>
+        <v>-2475500</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TINS.JK</t>
+          <t>HRTA.JK</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -1124,36 +1124,36 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3881-4219</t>
+          <t>2595-2805</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3542.142857142857</v>
+        <v>2385.535714285714</v>
       </c>
       <c r="F6" t="n">
-        <v>4700.357142857143</v>
+        <v>3091.428571428572</v>
       </c>
       <c r="G6" t="n">
-        <v>5170.392857142858</v>
+        <v>3378.035714285714</v>
       </c>
       <c r="H6" t="n">
-        <v>5822.857142857143</v>
+        <v>3760.178571428572</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5.16%</t>
+          <t>27.42%</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>5.19</v>
+        <v>29.77</v>
       </c>
       <c r="L6" t="n">
-        <v>-1117000</v>
+        <v>-239100</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -1167,48 +1167,48 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENRG.JK</t>
+          <t>INCO.JK</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1454-1616</t>
+          <t>6617-7083</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1292.321428571429</v>
+        <v>6150.892857142857</v>
       </c>
       <c r="F7" t="n">
-        <v>1815.714285714286</v>
+        <v>7717.857142857143</v>
       </c>
       <c r="G7" t="n">
-        <v>1997.285714285714</v>
+        <v>8489.642857142859</v>
       </c>
       <c r="H7" t="n">
-        <v>2281.964285714286</v>
+        <v>9199.107142857143</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>69%</t>
+          <t>92%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>16.08%</t>
+          <t>31.85%</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>3.26</v>
+        <v>810.83</v>
       </c>
       <c r="L7" t="n">
-        <v>-2949300</v>
+        <v>5562500</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>DISTRIB</t>
+          <t>ACCUM</t>
         </is>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NCKL.JK</t>
+          <t>TINS.JK</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -1226,36 +1226,36 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1402-1498</t>
+          <t>3834-4146</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1304.821428571428</v>
+        <v>3520.714285714286</v>
       </c>
       <c r="F8" t="n">
-        <v>1631.25</v>
+        <v>4586.785714285715</v>
       </c>
       <c r="G8" t="n">
-        <v>1794.375</v>
+        <v>5045.464285714286</v>
       </c>
       <c r="H8" t="n">
-        <v>1941.25</v>
+        <v>5614.285714285714</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>17.60%</t>
+          <t>5.04%</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>23.55</v>
+        <v>4.93</v>
       </c>
       <c r="L8" t="n">
-        <v>-2475500</v>
+        <v>-1117000</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1269,48 +1269,48 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ADRO.JK</t>
+          <t>ENRG.JK</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2151-2289</t>
+          <t>1478-1632</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2013.214285714286</v>
+        <v>1324.107142857143</v>
       </c>
       <c r="F9" t="n">
-        <v>2492.5</v>
+        <v>1849.464285714286</v>
       </c>
       <c r="G9" t="n">
-        <v>2741.75</v>
+        <v>2034.410714285714</v>
       </c>
       <c r="H9" t="n">
-        <v>2967.5</v>
+        <v>2356.964285714286</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>13.72%</t>
+          <t>10.77%</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>19.45</v>
+        <v>2.42</v>
       </c>
       <c r="L9" t="n">
-        <v>6694500</v>
+        <v>-2949300</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -1320,44 +1320,44 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ANTM.JK</t>
+          <t>ZATA.JK</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3905-4195</t>
+          <t>113-129</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3615</v>
+        <v>96.03571428571428</v>
       </c>
       <c r="F10" t="n">
-        <v>4586.071428571428</v>
+        <v>153.9642857142857</v>
       </c>
       <c r="G10" t="n">
-        <v>5044.678571428572</v>
+        <v>169.3607142857143</v>
       </c>
       <c r="H10" t="n">
-        <v>5498.571428571428</v>
+        <v>211.4642857142857</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>17.89%</t>
+          <t>29.89%</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>225.38</v>
+        <v>12.15</v>
       </c>
       <c r="L10" t="n">
-        <v>-16906100</v>
+        <v>-12543600</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1371,48 +1371,48 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>INDY.JK</t>
+          <t>PSKT.JK</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3399-3721</t>
+          <t>313-355</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3076.785714285714</v>
+        <v>270.8928571428572</v>
       </c>
       <c r="F11" t="n">
-        <v>4187.142857142857</v>
+        <v>416.8571428571428</v>
       </c>
       <c r="G11" t="n">
-        <v>4605.857142857143</v>
+        <v>458.5428571428571</v>
       </c>
       <c r="H11" t="n">
-        <v>5274.642857142857</v>
+        <v>561.1071428571429</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>95%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>35.16%</t>
+          <t>6.22%</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>129.52</v>
+        <v>1.62</v>
       </c>
       <c r="L11" t="n">
-        <v>17200</v>
+        <v>-6222100</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -1422,44 +1422,44 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>ADMR.JK</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2078-2182</t>
+          <t>1955-2105</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1975.178571428572</v>
+        <v>1805</v>
       </c>
       <c r="F12" t="n">
-        <v>2334.285714285714</v>
+        <v>2327.857142857143</v>
       </c>
       <c r="G12" t="n">
-        <v>2567.714285714286</v>
+        <v>2560.642857142858</v>
       </c>
       <c r="H12" t="n">
-        <v>2690.535714285714</v>
+        <v>2847.857142857143</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>9.83%</t>
+          <t>23.83%</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>4129201817.8</v>
+        <v>50.98</v>
       </c>
       <c r="L12" t="n">
-        <v>2573300</v>
+        <v>2503600</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>INKP.JK</t>
+          <t>ADRO.JK</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1481,40 +1481,40 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>9544-10156</t>
+          <t>2240-2360</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>8931.25</v>
+        <v>2120</v>
       </c>
       <c r="F13" t="n">
-        <v>10981.25</v>
+        <v>2536.785714285714</v>
       </c>
       <c r="G13" t="n">
-        <v>12079.375</v>
+        <v>2790.464285714286</v>
       </c>
       <c r="H13" t="n">
-        <v>12906.25</v>
+        <v>2949.285714285714</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>9.01%</t>
+          <t>15.10%</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>7.17</v>
+        <v>63.36</v>
       </c>
       <c r="L13" t="n">
-        <v>-6541900</v>
+        <v>6694500</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>DISTRIB</t>
+          <t>ACCUM</t>
         </is>
       </c>
     </row>
@@ -1524,44 +1524,44 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MEDC.JK</t>
+          <t>INKP.JK</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1532-1628</t>
+          <t>10032-10568</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1437.5</v>
+        <v>9496.428571428572</v>
       </c>
       <c r="F14" t="n">
-        <v>1767.321428571428</v>
+        <v>11350</v>
       </c>
       <c r="G14" t="n">
-        <v>1907.142857142857</v>
+        <v>12485</v>
       </c>
       <c r="H14" t="n">
-        <v>2093.571428571428</v>
+        <v>13175</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>7.53%</t>
+          <t>8.92%</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>17.33</v>
+        <v>6.7</v>
       </c>
       <c r="L14" t="n">
-        <v>-679700</v>
+        <v>-6541900</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>OASA.JK</t>
+          <t>HRUM.JK</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1583,40 +1583,40 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>391-437</t>
+          <t>1205-1275</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>343.9285714285714</v>
+        <v>1133.928571428572</v>
       </c>
       <c r="F15" t="n">
-        <v>504.2142857142857</v>
+        <v>1375</v>
       </c>
       <c r="G15" t="n">
-        <v>571.0714285714286</v>
+        <v>1512.5</v>
       </c>
       <c r="H15" t="n">
-        <v>660.2142857142857</v>
+        <v>1607.5</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>90%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>38.79%</t>
+          <t>5.73%</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>105.11</v>
+        <v>3.45</v>
       </c>
       <c r="L15" t="n">
-        <v>-14999300</v>
+        <v>6980600</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>DISTRIB</t>
+          <t>ACCUM</t>
         </is>
       </c>
     </row>
@@ -1626,44 +1626,44 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TCPI.JK</t>
+          <t>ANTM.JK</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10820-11380</t>
+          <t>4095-4365</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>10258.92857142857</v>
+        <v>3823.928571428572</v>
       </c>
       <c r="F16" t="n">
-        <v>12218.75</v>
+        <v>4727.5</v>
       </c>
       <c r="G16" t="n">
-        <v>13440.625</v>
+        <v>5200.25</v>
       </c>
       <c r="H16" t="n">
-        <v>14175</v>
+        <v>5572.5</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>95%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>18.19%</t>
+          <t>18.93%</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>7641210669.53</v>
+        <v>729.8</v>
       </c>
       <c r="L16" t="n">
-        <v>-320300</v>
+        <v>-16906100</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>VKTR.JK</t>
+          <t>MDKA.JK</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1685,36 +1685,36 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>885-1025</t>
+          <t>3402-3658</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>745</v>
+        <v>3147.5</v>
       </c>
       <c r="F17" t="n">
-        <v>1196.964285714286</v>
+        <v>4000.357142857143</v>
       </c>
       <c r="G17" t="n">
-        <v>1340</v>
+        <v>4343.214285714286</v>
       </c>
       <c r="H17" t="n">
-        <v>1598.214285714286</v>
+        <v>4800.357142857143</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>36.84%</t>
+          <t>19.05%</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>10.2</v>
+        <v>49.95</v>
       </c>
       <c r="L17" t="n">
-        <v>26210600</v>
+        <v>4042100</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1728,48 +1728,48 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ZATA.JK</t>
+          <t>EMAS.JK</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>112-130</t>
+          <t>7469-8131</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>94.85714285714286</v>
+        <v>6806.25</v>
       </c>
       <c r="F18" t="n">
-        <v>155.6428571428571</v>
+        <v>9060.714285714286</v>
       </c>
       <c r="G18" t="n">
-        <v>171.2071428571429</v>
+        <v>9990.178571428571</v>
       </c>
       <c r="H18" t="n">
-        <v>216.1428571428571</v>
+        <v>11229.46428571429</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>27.56%</t>
+          <t>31.80%</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>10.16</v>
+        <v>12718298438.75</v>
       </c>
       <c r="L18" t="n">
-        <v>-12543600</v>
+        <v>3184800</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>DISTRIB</t>
+          <t>ACCUM</t>
         </is>
       </c>
     </row>
@@ -1779,48 +1779,48 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BMRI.JK</t>
+          <t>INDY.JK</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4980-5170</t>
+          <t>3729-4011</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4790</v>
+        <v>3446.785714285714</v>
       </c>
       <c r="F19" t="n">
-        <v>5455</v>
+        <v>4419.285714285714</v>
       </c>
       <c r="G19" t="n">
-        <v>5740</v>
+        <v>4827.5</v>
       </c>
       <c r="H19" t="n">
-        <v>6120</v>
+        <v>5371.785714285714</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1.43%</t>
+          <t>36.51%</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>2.67</v>
+        <v>14605189026.88</v>
       </c>
       <c r="L19" t="n">
-        <v>-6646400</v>
+        <v>17200</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>DISTRIB</t>
+          <t>ACCUM</t>
         </is>
       </c>
     </row>
@@ -1830,44 +1830,44 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MDKA.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3088-3352</t>
+          <t>2134-2226</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2824.642857142857</v>
+        <v>2043.392857142857</v>
       </c>
       <c r="F20" t="n">
-        <v>3707.5</v>
+        <v>2360</v>
       </c>
       <c r="G20" t="n">
-        <v>4078.25</v>
+        <v>2596</v>
       </c>
       <c r="H20" t="n">
-        <v>4537.5</v>
+        <v>2673.75</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>81%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>17.56%</t>
+          <t>10.11%</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>23.51</v>
+        <v>4043205452.8</v>
       </c>
       <c r="L20" t="n">
-        <v>4042100</v>
+        <v>2573300</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -1881,44 +1881,44 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BULL.JK</t>
+          <t>PTBA.JK</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>421-479</t>
+          <t>2603-2677</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>361.7142857142857</v>
+        <v>2529.642857142857</v>
       </c>
       <c r="F21" t="n">
-        <v>564.0714285714286</v>
+        <v>2786.071428571428</v>
       </c>
       <c r="G21" t="n">
-        <v>648.7142857142858</v>
+        <v>2895.357142857143</v>
       </c>
       <c r="H21" t="n">
-        <v>761.5714285714287</v>
+        <v>3041.071428571428</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>36.38%</t>
+          <t>5.33%</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>6.97</v>
+        <v>18.07</v>
       </c>
       <c r="L21" t="n">
-        <v>-995300</v>
+        <v>-382400</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2207,11 +2207,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RMKO.JK</t>
+          <t>EMAS.JK</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3604100</v>
+        <v>3184800</v>
       </c>
     </row>
     <row r="21">
@@ -2220,11 +2220,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>EMAS.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3184800</v>
+        <v>2573300</v>
       </c>
     </row>
     <row r="22">
@@ -2233,11 +2233,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>GTSI.JK</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2573300</v>
+        <v>2566600</v>
       </c>
     </row>
     <row r="23">
@@ -2246,11 +2246,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>GTSI.JK</t>
+          <t>ADMR.JK</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2566600</v>
+        <v>2503600</v>
       </c>
     </row>
     <row r="24">
@@ -2259,11 +2259,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ADMR.JK</t>
+          <t>UNTR.JK</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2503600</v>
+        <v>2346400</v>
       </c>
     </row>
     <row r="25">
@@ -2272,11 +2272,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>UNTR.JK</t>
+          <t>BBYB.JK</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2346400</v>
+        <v>2202200</v>
       </c>
     </row>
     <row r="26">
@@ -2285,11 +2285,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BBYB.JK</t>
+          <t>AADI.JK</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2202200</v>
+        <v>2180800</v>
       </c>
     </row>
     <row r="27">
@@ -2298,11 +2298,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AADI.JK</t>
+          <t>TOBA.JK</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2180800</v>
+        <v>1845000</v>
       </c>
     </row>
     <row r="28">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TOBA.JK</t>
+          <t>BBKP.JK</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1845000</v>
+        <v>1828800</v>
       </c>
     </row>
     <row r="29">
@@ -2324,11 +2324,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BBKP.JK</t>
+          <t>RATU.JK</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1828800</v>
+        <v>1576800</v>
       </c>
     </row>
     <row r="30">
@@ -2337,11 +2337,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>RATU.JK</t>
+          <t>COIN.JK</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1576800</v>
+        <v>1433300</v>
       </c>
     </row>
     <row r="31">
@@ -2350,11 +2350,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>COIN.JK</t>
+          <t>TRIN.JK</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1433300</v>
+        <v>1021700</v>
       </c>
     </row>
   </sheetData>
@@ -2368,7 +2368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2407,36 +2407,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EMAS.JK</t>
+          <t>MEDC.JK</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-2.7%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HRTA.JK</t>
+          <t>BIPI.JK</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>98</v>
       </c>
       <c r="C3" t="n">
-        <v>85.2</v>
+        <v>124</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-6.9%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
@@ -2450,479 +2450,479 @@
         <v>97</v>
       </c>
       <c r="C4" t="n">
-        <v>84.59999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-4.5%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>INCO.JK</t>
+          <t>NCKL.JK</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>96</v>
       </c>
       <c r="C5" t="n">
-        <v>83.40000000000001</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>-2.3%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TINS.JK</t>
+          <t>HRTA.JK</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>95</v>
       </c>
       <c r="C6" t="n">
-        <v>83</v>
+        <v>85.2</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>-2.5%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ENRG.JK</t>
+          <t>INCO.JK</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" t="n">
-        <v>83</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-9.4%</t>
+          <t>-3.5%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NCKL.JK</t>
+          <t>TINS.JK</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>93</v>
       </c>
       <c r="C8" t="n">
-        <v>82.40000000000001</v>
+        <v>83</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-5.5%</t>
+          <t>-4.8%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ADRO.JK</t>
+          <t>ENRG.JK</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C9" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-7.5%</t>
+          <t>-8.3%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ANTM.JK</t>
+          <t>ZATA.JK</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C10" t="n">
-        <v>75.59999999999999</v>
+        <v>83</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-14.9%</t>
+          <t>-3.2%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INDY.JK</t>
+          <t>PSKT.JK</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-5.3%</t>
+          <t>-16.9%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>ADMR.JK</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" t="n">
-        <v>71.59999999999999</v>
+        <v>79.8</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-6.2%</t>
+          <t>-11.0%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INKP.JK</t>
+          <t>ADRO.JK</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>87</v>
       </c>
       <c r="C13" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-7.1%</t>
+          <t>-4.2%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MEDC.JK</t>
+          <t>INKP.JK</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C14" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-2.8%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>OASA.JK</t>
+          <t>HRUM.JK</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>85</v>
       </c>
       <c r="C15" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-20.4%</t>
+          <t>-3.5%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TCPI.JK</t>
+          <t>ANTM.JK</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" t="n">
-        <v>69</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-3.7%</t>
+          <t>-11.1%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>VKTR.JK</t>
+          <t>MDKA.JK</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>83</v>
       </c>
       <c r="C17" t="n">
-        <v>68.8</v>
+        <v>72</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-26.3%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ZATA.JK</t>
+          <t>EMAS.JK</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C18" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-3.2%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BMRI.JK</t>
+          <t>INDY.JK</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C19" t="n">
-        <v>65.40000000000001</v>
+        <v>72</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MDKA.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" t="n">
-        <v>65</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-6.7%</t>
+          <t>-4.0%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BULL.JK</t>
+          <t>PTBA.JK</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" t="n">
-        <v>61.8</v>
+        <v>69.8</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-34.3%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>TPIA.JK</t>
+          <t>TCPI.JK</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" t="n">
-        <v>54.6</v>
+        <v>69</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-9.3%</t>
+          <t>-2.8%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BIPI.JK</t>
+          <t>OASA.JK</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>76</v>
       </c>
       <c r="C23" t="n">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-27.0%</t>
+          <t>-12.3%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BBRI.JK</t>
+          <t>AADI.JK</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>75</v>
       </c>
       <c r="C24" t="n">
-        <v>53.8</v>
+        <v>62.8</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ISAT.JK</t>
+          <t>BULL.JK</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>74</v>
       </c>
       <c r="C25" t="n">
-        <v>53.4</v>
+        <v>61.8</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-9.7%</t>
+          <t>-21.9%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ADMR.JK</t>
+          <t>VKTR.JK</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>73</v>
       </c>
       <c r="C26" t="n">
-        <v>52.8</v>
+        <v>58.8</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-18.2%</t>
+          <t>-23.2%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PTBA.JK</t>
+          <t>BMRI.JK</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C27" t="n">
-        <v>52.8</v>
+        <v>57.4</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>-3.8%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CUAN.JK</t>
+          <t>PADI.JK</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" t="n">
-        <v>52.2</v>
+        <v>56.2</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-33.9%</t>
+          <t>-30.2%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BRIS.JK</t>
+          <t>AMMN.JK</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" t="n">
-        <v>50.8</v>
+        <v>55</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-5.6%</t>
+          <t>-5.8%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BBNI.JK</t>
+          <t>SRTG.JK</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>69</v>
       </c>
       <c r="C30" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-3.2%</t>
+          <t>-8.5%</t>
         </is>
       </c>
     </row>
@@ -2933,248 +2933,248 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" t="n">
-        <v>47.6</v>
+        <v>54.6</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-16.3%</t>
+          <t>-13.1%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>RMKE.JK</t>
+          <t>BBRI.JK</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" t="n">
-        <v>45</v>
+        <v>53.8</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-49.9%</t>
+          <t>-2.6%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>AADI.JK</t>
+          <t>NICL.JK</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C33" t="n">
-        <v>44.8</v>
+        <v>53.8</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-32.9%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DEWA.JK</t>
+          <t>ISAT.JK</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>64</v>
       </c>
       <c r="C34" t="n">
-        <v>43.6</v>
+        <v>53.4</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-23.9%</t>
+          <t>-10.1%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>INDF.JK</t>
+          <t>LPKR.JK</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" t="n">
-        <v>43</v>
+        <v>51.8</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-10.4%</t>
+          <t>-23.4%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>LPKR.JK</t>
+          <t>BRIS.JK</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" t="n">
-        <v>41.8</v>
+        <v>50.8</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-25.0%</t>
+          <t>-4.5%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IRSX.JK</t>
+          <t>PWON.JK</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" t="n">
-        <v>41.6</v>
+        <v>49</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-24.8%</t>
+          <t>-5.2%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PADI.JK</t>
+          <t>HUMI.JK</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" t="n">
-        <v>41.2</v>
+        <v>47</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-35.7%</t>
+          <t>-26.4%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ICBP.JK</t>
+          <t>TRUE.JK</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C39" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-4.7%</t>
+          <t>-49.1%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>DADA.JK</t>
+          <t>DEWA.JK</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" t="n">
-        <v>38.6</v>
+        <v>43.6</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-20.6%</t>
+          <t>-21.5%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PNLF.JK</t>
+          <t>INDF.JK</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-13.8%</t>
+          <t>-9.7%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PSKT.JK</t>
+          <t>IRSX.JK</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" t="n">
-        <v>35</v>
+        <v>41.6</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-29.9%</t>
+          <t>-22.3%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TRUE.JK</t>
+          <t>ICBP.JK</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C43" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-54.0%</t>
+          <t>-5.5%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>TRIN.JK</t>
+          <t>DADA.JK</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" t="n">
-        <v>32</v>
+        <v>38.6</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-41.1%</t>
+          <t>-20.6%</t>
         </is>
       </c>
     </row>
@@ -3185,284 +3185,284 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45" t="n">
-        <v>31.8</v>
+        <v>36.8</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-37.1%</t>
+          <t>-30.8%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>JPFA.JK</t>
+          <t>PNLF.JK</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" t="n">
-        <v>31.4</v>
+        <v>36</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-12.6%</t>
+          <t>-14.4%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PWON.JK</t>
+          <t>MINA.JK</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" t="n">
-        <v>29</v>
+        <v>35.8</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>-39.5%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BUMI.JK</t>
+          <t>RMKE.JK</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C48" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-37.1%</t>
+          <t>-42.8%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BUVA.JK</t>
+          <t>AMRT.JK</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C49" t="n">
-        <v>28</v>
+        <v>34.8</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-38.5%</t>
+          <t>-5.0%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>AMMN.JK</t>
+          <t>TPIA.JK</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C50" t="n">
-        <v>27</v>
+        <v>34.6</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-7.4%</t>
+          <t>-13.1%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SRTG.JK</t>
+          <t>TRIN.JK</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C51" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-12.2%</t>
+          <t>-40.2%</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BKSL.JK</t>
+          <t>BBNI.JK</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C52" t="n">
-        <v>26.8</v>
+        <v>29</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-20.8%</t>
+          <t>-3.9%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>MINA.JK</t>
+          <t>BUMI.JK</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C53" t="n">
-        <v>25.8</v>
+        <v>28</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-50.2%</t>
+          <t>-35.3%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>RMKO.JK</t>
+          <t>BUVA.JK</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>42</v>
       </c>
       <c r="C54" t="n">
-        <v>25.4</v>
+        <v>28</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-64.1%</t>
+          <t>-33.2%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HUMI.JK</t>
+          <t>EMTK.JK</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C55" t="n">
-        <v>25</v>
+        <v>26.2</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-34.3%</t>
+          <t>-32.7%</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>NICL.JK</t>
+          <t>UNTR.JK</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C56" t="n">
-        <v>20.8</v>
+        <v>24.8</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-39.0%</t>
+          <t>-5.3%</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PANI.JK</t>
+          <t>ESSA.JK</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C57" t="n">
-        <v>20.4</v>
+        <v>23</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-26.7%</t>
+          <t>-13.7%</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BBYB.JK</t>
+          <t>BREN.JK</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C58" t="n">
-        <v>17.4</v>
+        <v>20.4</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-36.6%</t>
+          <t>-20.0%</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>EMTK.JK</t>
+          <t>BKSL.JK</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C59" t="n">
-        <v>16.2</v>
+        <v>18.8</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-37.1%</t>
+          <t>-19.7%</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CPRO.JK</t>
+          <t>BBYB.JK</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C60" t="n">
-        <v>16</v>
+        <v>17.4</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-24.4%</t>
+          <t>-34.2%</t>
         </is>
       </c>
     </row>
@@ -3473,572 +3473,536 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C61" t="n">
         <v>15.4</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-17.6%</t>
+          <t>-19.5%</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>UNTR.JK</t>
+          <t>UNVR.JK</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C62" t="n">
         <v>14.8</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-8.1%</t>
+          <t>-19.9%</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>UNVR.JK</t>
+          <t>TLKM.JK</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C63" t="n">
-        <v>14.8</v>
+        <v>11.8</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-17.0%</t>
+          <t>-11.7%</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MBMA.JK</t>
+          <t>JPFA.JK</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C64" t="n">
-        <v>14</v>
+        <v>11.4</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-9.9%</t>
+          <t>-15.4%</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>HRUM.JK</t>
+          <t>CBDK.JK</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C65" t="n">
-        <v>14</v>
+        <v>8.4</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-11.3%</t>
+          <t>-34.7%</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ASII.JK</t>
+          <t>BBCA.JK</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C66" t="n">
-        <v>13</v>
+        <v>7.8</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-10.1%</t>
+          <t>-15.0%</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PGEO.JK</t>
+          <t>COIN.JK</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C67" t="n">
-        <v>13</v>
+        <v>7.8</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-9.2%</t>
+          <t>-57.9%</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ESSA.JK</t>
+          <t>PBSA.JK</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C68" t="n">
-        <v>13</v>
+        <v>7.8</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-16.4%</t>
+          <t>-48.0%</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>TLKM.JK</t>
+          <t>CUAN.JK</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C69" t="n">
-        <v>11.8</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-12.4%</t>
+          <t>-35.9%</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PBSA.JK</t>
+          <t>BRPT.JK</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C70" t="n">
-        <v>10.8</v>
+        <v>6.6</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-46.1%</t>
+          <t>-43.5%</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CBDK.JK</t>
+          <t>KLBF.JK</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C71" t="n">
-        <v>8.4</v>
+        <v>6.6</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-32.6%</t>
+          <t>-13.9%</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BBCA.JK</t>
+          <t>CPRO.JK</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C72" t="n">
-        <v>7.8</v>
+        <v>6</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-15.5%</t>
+          <t>-24.4%</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>COIN.JK</t>
+          <t>INET.JK</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C73" t="n">
-        <v>7.8</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-59.2%</t>
+          <t>-54.9%</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BRPT.JK</t>
+          <t>IMPC.JK</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>20</v>
       </c>
       <c r="C74" t="n">
-        <v>6.6</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>-43.1%</t>
+          <t>-41.5%</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>KLBF.JK</t>
+          <t>CDIA.JK</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>20</v>
       </c>
       <c r="C75" t="n">
-        <v>6.6</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-16.0%</t>
+          <t>-42.4%</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>INET.JK</t>
+          <t>RATU.JK</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C76" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-58.9%</t>
+          <t>-36.3%</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>IMPC.JK</t>
+          <t>PANI.JK</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C77" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-44.0%</t>
+          <t>-24.3%</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CDIA.JK</t>
+          <t>WIFI.JK</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C78" t="n">
-        <v>5.399999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-43.6%</t>
+          <t>-40.9%</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>RATU.JK</t>
+          <t>ASII.JK</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C79" t="n">
-        <v>5.399999999999999</v>
+        <v>3</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-44.7%</t>
+          <t>-10.8%</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BREN.JK</t>
+          <t>PGEO.JK</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C80" t="n">
-        <v>5.399999999999999</v>
+        <v>3</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-21.0%</t>
+          <t>-11.2%</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>WIFI.JK</t>
+          <t>PTRO.JK</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C81" t="n">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-42.4%</t>
+          <t>-43.2%</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>AMRT.JK</t>
+          <t>RAJA.JK</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C82" t="n">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>-7.8%</t>
+          <t>-38.9%</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>PTRO.JK</t>
+          <t>DSSA.JK</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C83" t="n">
         <v>2.4</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>-42.2%</t>
+          <t>-23.4%</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>RAJA.JK</t>
+          <t>GOTO.JK</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C84" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>-39.6%</t>
+          <t>-14.1%</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>DSSA.JK</t>
+          <t>EXCL.JK</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C85" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>-18.7%</t>
+          <t>-36.3%</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>KIJA.JK</t>
+          <t>PSAB.JK</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>7</v>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>-36.7%</t>
+          <t>-14.5%</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>GOTO.JK</t>
+          <t>TOBA.JK</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C87" t="n">
         <v>1.8</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>-16.9%</t>
+          <t>-21.4%</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>EXCL.JK</t>
+          <t>KIJA.JK</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C88" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>-36.5%</t>
+          <t>-35.0%</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>PSAB.JK</t>
+          <t>BBKP.JK</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C89" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-17.6%</t>
+          <t>-22.3%</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>TOBA.JK</t>
+          <t>SSIA.JK</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>1.8</v>
+        <v>-6</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>-25.5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>BBKP.JK</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>2</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>-22.3%</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>SSIA.JK</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>1</v>
-      </c>
-      <c r="C92" t="n">
-        <v>-6</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>-22.7%</t>
+          <t>-24.3%</t>
         </is>
       </c>
     </row>
@@ -4110,7 +4074,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -4118,7 +4082,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EMAS.JK</t>
+          <t>MEDC.JK</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -4126,17 +4090,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6979-7621</t>
+          <t>1657-1763</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9377</t>
+          <t>2077</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3184800</t>
+          <t>-679700</t>
         </is>
       </c>
     </row>
@@ -4147,25 +4111,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>INCO.JK</t>
+          <t>ELSA.JK</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6723-7227</t>
+          <t>778-842</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8701</t>
+          <t>1038</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5562500</t>
+          <t>4172000</t>
         </is>
       </c>
     </row>
@@ -4176,25 +4140,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TINS.JK</t>
+          <t>ENRG.JK</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3881-4219</t>
+          <t>1478-1632</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5170</t>
+          <t>2034</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-1117000</t>
+          <t>-2949300</t>
         </is>
       </c>
     </row>
@@ -4205,25 +4169,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NCKL.JK</t>
+          <t>ADRO.JK</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1402-1498</t>
+          <t>2240-2360</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1794</t>
+          <t>2790</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-2475500</t>
+          <t>6694500</t>
         </is>
       </c>
     </row>
@@ -4234,32 +4198,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ANTM.JK</t>
+          <t>HRUM.JK</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3905-4195</t>
+          <t>1205-1275</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5045</t>
+          <t>1513</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-16906100</t>
+          <t>6980600</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -4267,7 +4231,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>HRTA.JK</t>
+          <t>BIPI.JK</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -4275,17 +4239,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2472-2688</t>
+          <t>231-257</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3285</t>
+          <t>322</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-239100</t>
+          <t>-87444100</t>
         </is>
       </c>
     </row>
@@ -4296,25 +4260,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>VKTR.JK</t>
+          <t>TCPI.JK</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>885-1025</t>
+          <t>10959-11441</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1340</t>
+          <t>13378</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>26210600</t>
+          <t>-320300</t>
         </is>
       </c>
     </row>
@@ -4325,25 +4289,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ZATA.JK</t>
+          <t>BULL.JK</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>112-130</t>
+          <t>506-564</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>713</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-12543600</t>
+          <t>-995300</t>
         </is>
       </c>
     </row>
@@ -4354,25 +4318,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PSKT.JK</t>
+          <t>HUMI.JK</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>260-304</t>
+          <t>244-280</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>382</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-6222100</t>
+          <t>5593400</t>
         </is>
       </c>
     </row>
@@ -4383,32 +4347,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BUVA.JK</t>
+          <t>GTSI.JK</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1238-1432</t>
+          <t>313-351</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1944</t>
+          <t>461</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-16142300</t>
+          <t>2566600</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -4416,25 +4380,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ELSA.JK</t>
+          <t>NCKL.JK</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>707-773</t>
+          <t>1459-1541</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>957</t>
+          <t>1821</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>4172000</t>
+          <t>-2475500</t>
         </is>
       </c>
     </row>
@@ -4445,25 +4409,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ENRG.JK</t>
+          <t>INCO.JK</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1454-1616</t>
+          <t>6617-7083</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>8490</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-2949300</t>
+          <t>5562500</t>
         </is>
       </c>
     </row>
@@ -4474,25 +4438,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ADRO.JK</t>
+          <t>TINS.JK</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2151-2289</t>
+          <t>3834-4146</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2742</t>
+          <t>5045</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>6694500</t>
+          <t>-1117000</t>
         </is>
       </c>
     </row>
@@ -4503,25 +4467,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>INDY.JK</t>
+          <t>ADMR.JK</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3399-3721</t>
+          <t>1955-2105</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4606</t>
+          <t>2561</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>17200</t>
+          <t>2503600</t>
         </is>
       </c>
     </row>
@@ -4532,32 +4496,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MEDC.JK</t>
+          <t>INKP.JK</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1532-1628</t>
+          <t>10032-10568</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1907</t>
+          <t>12485</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-679700</t>
+          <t>-6541900</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -4565,25 +4529,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>HRTA.JK</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2078-2182</t>
+          <t>2595-2805</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2568</t>
+          <t>3378</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2573300</t>
+          <t>-239100</t>
         </is>
       </c>
     </row>
@@ -4594,25 +4558,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>OASA.JK</t>
+          <t>ZATA.JK</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>391-437</t>
+          <t>113-129</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>169</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-14999300</t>
+          <t>-12543600</t>
         </is>
       </c>
     </row>
@@ -4623,25 +4587,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PGEO.JK</t>
+          <t>PSKT.JK</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1148-1212</t>
+          <t>313-355</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1431</t>
+          <t>459</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-1442400</t>
+          <t>-6222100</t>
         </is>
       </c>
     </row>
@@ -4652,25 +4616,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CDIA.JK</t>
+          <t>VKTR.JK</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1094-1216</t>
+          <t>937-1053</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1555</t>
+          <t>1340</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>4088000</t>
+          <t>26210600</t>
         </is>
       </c>
     </row>
@@ -4681,32 +4645,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>BREN.JK</t>
+          <t>MINA.JK</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7717-8283</t>
+          <t>359-409</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>9945</t>
+          <t>551</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-2800700</t>
+          <t>12447000</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -4714,25 +4678,25 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>TCPI.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10820-11380</t>
+          <t>2134-2226</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>13441</t>
+          <t>2596</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-320300</t>
+          <t>2573300</t>
         </is>
       </c>
     </row>
@@ -4743,25 +4707,25 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BULL.JK</t>
+          <t>OASA.JK</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>421-479</t>
+          <t>433-479</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>603</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-995300</t>
+          <t>-14999300</t>
         </is>
       </c>
     </row>
@@ -4772,25 +4736,25 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BIPI.JK</t>
+          <t>BREN.JK</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>157-179</t>
+          <t>7855-8345</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>9969</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-87444100</t>
+          <t>-2800700</t>
         </is>
       </c>
     </row>
@@ -4801,25 +4765,25 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>GTSI.JK</t>
+          <t>CDIA.JK</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>280-324</t>
+          <t>1124-1236</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>1568</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2566600</t>
+          <t>4088000</t>
         </is>
       </c>
     </row>
@@ -4830,25 +4794,25 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>HUMI.JK</t>
+          <t>PGEO.JK</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>216-252</t>
+          <t>1127-1183</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>1386</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>5593400</t>
+          <t>-1442400</t>
         </is>
       </c>
     </row>
@@ -4867,16 +4831,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4980-5170</t>
+          <t>4981-5169</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5740</t>
+          <t>5995</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -4892,25 +4856,25 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BBRI.JK</t>
+          <t>PADI.JK</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3716-3844</t>
+          <t>130-148</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4433</t>
+          <t>185</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-26018200</t>
+          <t>12339000</t>
         </is>
       </c>
     </row>
@@ -4921,25 +4885,25 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>BRIS.JK</t>
+          <t>SRTG.JK</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2291-2409</t>
+          <t>1790-1890</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2843</t>
+          <t>2240</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-4003500</t>
+          <t>-1175200</t>
         </is>
       </c>
     </row>
@@ -4950,25 +4914,25 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>BBNI.JK</t>
+          <t>BBRI.JK</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4405-4555</t>
+          <t>3713-3827</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>5256</t>
+          <t>4395</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-2512100</t>
+          <t>-26018200</t>
         </is>
       </c>
     </row>
@@ -4979,25 +4943,25 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PADI.JK</t>
+          <t>BRIS.JK</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>119-137</t>
+          <t>2295-2405</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>2826</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>12339000</t>
+          <t>-4003500</t>
         </is>
       </c>
     </row>
@@ -5016,16 +4980,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2168-2292</t>
+          <t>2169-2271</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2713</t>
+          <t>2663</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -5045,16 +5009,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>889-961</t>
+          <t>957-1023</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1170</t>
+          <t>1231</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -5074,16 +5038,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3349-3551</t>
+          <t>3405-3555</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4205</t>
+          <t>4142</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -5103,16 +5067,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>360-408</t>
+          <t>400-444</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>568</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -5132,16 +5096,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2717-2983</t>
+          <t>2750-2970</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>3617</t>
+          <t>3595</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -5153,7 +5117,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -5161,25 +5125,25 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>INDF.JK</t>
+          <t>LPKR.JK</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>6572-6778</t>
+          <t>95-101</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>7769</t>
+          <t>122</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-4259700</t>
+          <t>-13689500</t>
         </is>
       </c>
     </row>
@@ -5190,181 +5154,181 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ICBP.JK</t>
+          <t>KLBF.JK</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>8049-8351</t>
+          <t>1063-1097</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>9660</t>
+          <t>1261</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-4149800</t>
+          <t>-20671600</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Real Estate</t>
+        </is>
+      </c>
       <c r="B39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>JPFA.JK</t>
+          <t>PWON.JK</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2482-2638</t>
+          <t>363-373</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>3144</t>
+          <t>425</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>-1447800</t>
+          <t>11514600</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CPRO.JK</t>
+          <t>TRUE.JK</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>63-67</t>
+          <t>249-291</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>398</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>11098300</t>
+          <t>410800</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>UNVR.JK</t>
+          <t>DADA.JK</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2235-2365</t>
+          <t>50-50</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2804</t>
+          <t>55</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-2854000</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
+      <c r="A42" t="inlineStr"/>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>LPKR.JK</t>
+          <t>TRIN.JK</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>92-100</t>
+          <t>980-1100</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>1454</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-13689500</t>
+          <t>1021700</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>KLBF.JK</t>
+          <t>BKSL.JK</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1059-1101</t>
+          <t>140-154</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1278</t>
+          <t>191</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-20671600</t>
+          <t>-26171300</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -5372,25 +5336,25 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>IRSX.JK</t>
+          <t>INDF.JK</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>551-629</t>
+          <t>6627-6823</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>856</t>
+          <t>7770</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>-121300</t>
+          <t>-4259700</t>
         </is>
       </c>
     </row>
@@ -5401,25 +5365,25 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>WIFI.JK</t>
+          <t>ICBP.JK</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2352-2548</t>
+          <t>7994-8256</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>9500</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>796600</t>
+          <t>-4149800</t>
         </is>
       </c>
     </row>
@@ -5430,174 +5394,174 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>GOTO.JK</t>
+          <t>AMRT.JK</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>57-61</t>
+          <t>1855-1945</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>2282</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-1.3B</t>
+          <t>3727100</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Real Estate</t>
-        </is>
-      </c>
+      <c r="A47" t="inlineStr"/>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DADA.JK</t>
+          <t>UNVR.JK</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>50-50</t>
+          <t>2159-2281</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>2703</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-2854000</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>TRUE.JK</t>
+          <t>JPFA.JK</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>223-265</t>
+          <t>2418-2542</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>2988</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>410800</t>
+          <t>-1447800</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr"/>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="B49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>TRIN.JK</t>
+          <t>IRSX.JK</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>959-1091</t>
+          <t>574-646</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1479</t>
+          <t>828</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1021700</t>
+          <t>-121300</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PWON.JK</t>
+          <t>WIFI.JK</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>362-374</t>
+          <t>2418-2602</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>3157</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>11514600</t>
+          <t>796600</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>BKSL.JK</t>
+          <t>GOTO.JK</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>137-153</t>
+          <t>60-62</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>73</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>-26171300</t>
+          <t>-1.3B</t>
         </is>
       </c>
     </row>
@@ -5798,11 +5762,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MBMA.JK</t>
+          <t>KIJA.JK</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-24313300</v>
+        <v>-23104400</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -5816,11 +5780,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>KIJA.JK</t>
+          <t>BRPT.JK</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-23104400</v>
+        <v>-21591600</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -5854,7 +5818,7 @@
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
     <col width="9" customWidth="1" min="10" max="10"/>
     <col width="9" customWidth="1" min="11" max="11"/>
@@ -5983,16 +5947,16 @@
         <v>0.34335998</v>
       </c>
       <c r="H3" s="10" t="n">
-        <v>10.383121</v>
+        <v>10.780772</v>
       </c>
       <c r="I3" s="11" t="n">
-        <v>1.2078543</v>
+        <v>1.253068</v>
       </c>
       <c r="J3" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="11" t="n">
-        <v>36.02</v>
+        <v>35.99</v>
       </c>
     </row>
     <row r="4">
@@ -6022,16 +5986,16 @@
         <v>0.43205002</v>
       </c>
       <c r="H4" s="12" t="n">
-        <v>7.5639873</v>
+        <v>8.094849</v>
       </c>
       <c r="I4" s="11" t="n">
-        <v>1.4450032</v>
+        <v>1.5465438</v>
       </c>
       <c r="J4" s="14" t="n">
         <v>2.444</v>
       </c>
       <c r="K4" s="11" t="n">
-        <v>122.29</v>
+        <v>122.3</v>
       </c>
     </row>
     <row r="5">
@@ -6061,10 +6025,10 @@
         <v>0.27552</v>
       </c>
       <c r="H5" s="10" t="n">
-        <v>11.441648</v>
+        <v>11.836186</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>2.5568368</v>
+        <v>2.6450036</v>
       </c>
       <c r="J5" s="14" t="n">
         <v>23.671</v>
@@ -6100,16 +6064,16 @@
         <v>0.41044</v>
       </c>
       <c r="H6" s="10" t="n">
-        <v>10.1936245</v>
+        <v>10.162547</v>
       </c>
       <c r="I6" s="11" t="n">
-        <v>1.7187223</v>
+        <v>1.7141755</v>
       </c>
       <c r="J6" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="11" t="n">
-        <v>370.82</v>
+        <v>370.97</v>
       </c>
     </row>
     <row r="7">
@@ -6139,16 +6103,16 @@
         <v>0.71615</v>
       </c>
       <c r="H7" t="n">
-        <v>33.595802</v>
+        <v>36.387436</v>
       </c>
       <c r="I7" s="14" t="n">
-        <v>8.005003</v>
+        <v>8.692933</v>
       </c>
       <c r="J7" s="14" t="n">
         <v>5.093</v>
       </c>
       <c r="K7" s="11" t="n">
-        <v>3.81</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="8">
@@ -6178,10 +6142,10 @@
         <v>0.05786</v>
       </c>
       <c r="H8" s="10" t="n">
-        <v>8.920482</v>
+        <v>8.641717</v>
       </c>
       <c r="I8" s="11" t="n">
-        <v>1.7501689</v>
+        <v>1.6954762</v>
       </c>
       <c r="J8" s="14" t="n">
         <v>62.876</v>
@@ -6196,7 +6160,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BRIS.JK</t>
+          <t>NICL.JK</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -6207,26 +6171,26 @@
           <t>MID</t>
         </is>
       </c>
-      <c r="E9" s="9" t="n">
-        <v>0.15604</v>
-      </c>
-      <c r="F9" s="9" t="n">
-        <v>0.075</v>
+      <c r="E9" s="8" t="n">
+        <v>0.65794</v>
+      </c>
+      <c r="F9" s="16" t="n">
+        <v>-0.261</v>
       </c>
       <c r="G9" s="8" t="n">
-        <v>0.31919</v>
+        <v>0.27632</v>
       </c>
       <c r="H9" t="n">
-        <v>14.326648</v>
-      </c>
-      <c r="I9" s="15" t="n">
-        <v>2.086578</v>
+        <v>24.463938</v>
+      </c>
+      <c r="I9" s="14" t="n">
+        <v>16.069143</v>
       </c>
       <c r="J9" s="11" t="n">
-        <v>0</v>
+        <v>0.378</v>
       </c>
       <c r="K9" s="11" t="n">
-        <v>164.03</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="10">
@@ -6235,7 +6199,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NICL.JK</t>
+          <t>BRIS.JK</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -6246,26 +6210,26 @@
           <t>MID</t>
         </is>
       </c>
-      <c r="E10" s="8" t="n">
-        <v>0.65794</v>
-      </c>
-      <c r="F10" s="16" t="n">
-        <v>-0.261</v>
+      <c r="E10" s="9" t="n">
+        <v>0.15604</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>0.075</v>
       </c>
       <c r="G10" s="8" t="n">
-        <v>0.27632</v>
+        <v>0.31919</v>
       </c>
       <c r="H10" t="n">
-        <v>22.222223</v>
-      </c>
-      <c r="I10" s="14" t="n">
-        <v>14.596671</v>
+        <v>14.331017</v>
+      </c>
+      <c r="I10" s="15" t="n">
+        <v>2.086578</v>
       </c>
       <c r="J10" s="11" t="n">
-        <v>0.378</v>
+        <v>0</v>
       </c>
       <c r="K10" s="11" t="n">
-        <v>51.3</v>
+        <v>163.98</v>
       </c>
     </row>
     <row r="11">
@@ -6295,16 +6259,16 @@
         <v>0.023759998</v>
       </c>
       <c r="H11" s="12" t="n">
-        <v>16.584173</v>
+        <v>17.365578</v>
       </c>
       <c r="I11" s="15" t="n">
-        <v>4.2147427</v>
+        <v>4.410777</v>
       </c>
       <c r="J11" s="14" t="n">
         <v>139.825</v>
       </c>
       <c r="K11" s="11" t="n">
-        <v>155.57</v>
+        <v>155.48</v>
       </c>
     </row>
     <row r="12">
@@ -6334,16 +6298,16 @@
         <v>0.048460003</v>
       </c>
       <c r="H12" s="10" t="n">
-        <v>7.8373227</v>
+        <v>8.577783</v>
       </c>
       <c r="I12" s="11" t="n">
-        <v>1.0501444</v>
+        <v>1.1494824</v>
       </c>
       <c r="J12" s="14" t="n">
         <v>4.935</v>
       </c>
       <c r="K12" s="11" t="n">
-        <v>94.42</v>
+        <v>94.43000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -6352,7 +6316,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TPIA.JK</t>
+          <t>ARCI.JK</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -6364,25 +6328,25 @@
         </is>
       </c>
       <c r="E13" s="8" t="n">
-        <v>0.42018002</v>
+        <v>0.28336</v>
       </c>
       <c r="F13" s="8" t="n">
-        <v>4.295</v>
+        <v>0.879</v>
       </c>
       <c r="G13" s="8" t="n">
-        <v>0.2208</v>
+        <v>0.21154</v>
       </c>
       <c r="H13" t="n">
-        <v>23.256197</v>
+        <v>30.808168</v>
       </c>
       <c r="I13" s="14" t="n">
-        <v>157222.22</v>
+        <v>126071.42</v>
       </c>
       <c r="J13" s="14" t="n">
-        <v>82.7</v>
+        <v>118.6</v>
       </c>
       <c r="K13" s="11" t="n">
-        <v>304.22</v>
+        <v>57.29</v>
       </c>
     </row>
     <row r="14">
@@ -6391,7 +6355,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ARCI.JK</t>
+          <t>TPIA.JK</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -6403,25 +6367,25 @@
         </is>
       </c>
       <c r="E14" s="8" t="n">
-        <v>0.28336</v>
+        <v>0.42018002</v>
       </c>
       <c r="F14" s="8" t="n">
-        <v>0.879</v>
+        <v>4.295</v>
       </c>
       <c r="G14" s="8" t="n">
-        <v>0.21154</v>
+        <v>0.2208</v>
       </c>
       <c r="H14" t="n">
-        <v>29.761906</v>
+        <v>22.264944</v>
       </c>
       <c r="I14" s="14" t="n">
-        <v>121428.57</v>
+        <v>150555.55</v>
       </c>
       <c r="J14" s="14" t="n">
-        <v>118.6</v>
+        <v>82.7</v>
       </c>
       <c r="K14" s="11" t="n">
-        <v>57.12</v>
+        <v>304.29</v>
       </c>
     </row>
     <row r="15">
@@ -6430,7 +6394,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BBNI.JK</t>
+          <t>PWON.JK</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -6442,25 +6406,25 @@
         </is>
       </c>
       <c r="E15" s="9" t="n">
-        <v>0.1173</v>
+        <v>0.102419995</v>
       </c>
       <c r="F15" s="9" t="n">
-        <v>0.028</v>
+        <v>0.144</v>
       </c>
       <c r="G15" s="8" t="n">
-        <v>0.40232</v>
+        <v>0.30543</v>
       </c>
       <c r="H15" s="10" t="n">
-        <v>8.340313999999999</v>
+        <v>8.288288</v>
       </c>
       <c r="I15" s="11" t="n">
-        <v>0.97193456</v>
-      </c>
-      <c r="J15" s="11" t="n">
-        <v>0</v>
+        <v>0.81157017</v>
+      </c>
+      <c r="J15" s="14" t="n">
+        <v>21.136</v>
       </c>
       <c r="K15" s="11" t="n">
-        <v>537.15</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="16">
@@ -6469,7 +6433,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PWON.JK</t>
+          <t>BBNI.JK</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -6481,25 +6445,25 @@
         </is>
       </c>
       <c r="E16" s="9" t="n">
-        <v>0.102419995</v>
+        <v>0.1173</v>
       </c>
       <c r="F16" s="9" t="n">
-        <v>0.144</v>
+        <v>0.028</v>
       </c>
       <c r="G16" s="8" t="n">
-        <v>0.30543</v>
+        <v>0.40232</v>
       </c>
       <c r="H16" s="10" t="n">
-        <v>8.284556</v>
+        <v>8.284927</v>
       </c>
       <c r="I16" s="11" t="n">
-        <v>0.81157017</v>
-      </c>
-      <c r="J16" s="14" t="n">
-        <v>21.136</v>
+        <v>0.9654261</v>
+      </c>
+      <c r="J16" s="11" t="n">
+        <v>0</v>
       </c>
       <c r="K16" s="11" t="n">
-        <v>44.42</v>
+        <v>537.12</v>
       </c>
     </row>
     <row r="17">
@@ -6529,16 +6493,16 @@
         <v>0.06239</v>
       </c>
       <c r="H17" s="17" t="n">
-        <v>69.93182</v>
+        <v>68.49315</v>
       </c>
       <c r="I17" s="14" t="n">
-        <v>26724.137</v>
+        <v>26245.21</v>
       </c>
       <c r="J17" s="11" t="n">
         <v>0.173</v>
       </c>
       <c r="K17" s="11" t="n">
-        <v>99.73999999999999</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="18">
@@ -6568,16 +6532,16 @@
         <v>0.09748999999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>13.054677</v>
+        <v>12.989292</v>
       </c>
       <c r="I18" s="11" t="n">
-        <v>1.9801434</v>
+        <v>1.9712639</v>
       </c>
       <c r="J18" s="14" t="n">
         <v>138.994</v>
       </c>
       <c r="K18" s="11" t="n">
-        <v>170.82</v>
+        <v>170.91</v>
       </c>
     </row>
     <row r="19">
@@ -6607,10 +6571,10 @@
         <v>0.52018</v>
       </c>
       <c r="H19" t="n">
-        <v>23.255816</v>
+        <v>22.523348</v>
       </c>
       <c r="I19" s="15" t="n">
-        <v>3.9599023</v>
+        <v>3.835181</v>
       </c>
       <c r="J19" s="14" t="n">
         <v>2.39</v>
@@ -6649,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="14" t="n">
-        <v>12.362583</v>
+        <v>15.022886</v>
       </c>
       <c r="J20" s="11" t="n">
         <v>0.049</v>
@@ -6664,7 +6628,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PBSA.JK</t>
+          <t>BBCA.JK</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -6676,25 +6640,25 @@
         </is>
       </c>
       <c r="E21" s="8" t="n">
-        <v>0.31697</v>
+        <v>0.21143</v>
       </c>
       <c r="F21" s="16" t="n">
-        <v>-0.192</v>
-      </c>
-      <c r="G21" s="9" t="n">
-        <v>0.15842</v>
+        <v>-0.027</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>0.53282</v>
       </c>
       <c r="H21" t="n">
-        <v>18.726591</v>
-      </c>
-      <c r="I21" s="14" t="n">
-        <v>5.668535</v>
-      </c>
-      <c r="J21" s="15" t="n">
-        <v>1.461</v>
+        <v>15.361066</v>
+      </c>
+      <c r="I21" s="15" t="n">
+        <v>3.1357853</v>
+      </c>
+      <c r="J21" s="11" t="n">
+        <v>0</v>
       </c>
       <c r="K21" s="11" t="n">
-        <v>77.43000000000001</v>
+        <v>467.09</v>
       </c>
     </row>
     <row r="22">
@@ -6703,7 +6667,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BBCA.JK</t>
+          <t>COIN.JK</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -6714,26 +6678,26 @@
           <t>MID</t>
         </is>
       </c>
-      <c r="E22" s="8" t="n">
-        <v>0.21143</v>
-      </c>
-      <c r="F22" s="16" t="n">
-        <v>-0.027</v>
+      <c r="E22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8" t="n">
+        <v>8.94</v>
       </c>
       <c r="G22" s="8" t="n">
-        <v>0.53282</v>
-      </c>
-      <c r="H22" t="n">
-        <v>15.40832</v>
-      </c>
-      <c r="I22" s="15" t="n">
-        <v>3.1467113</v>
+        <v>0.30952</v>
+      </c>
+      <c r="H22" s="17" t="n">
+        <v>308.4261</v>
+      </c>
+      <c r="I22" s="14" t="n">
+        <v>15.732962</v>
       </c>
       <c r="J22" s="11" t="n">
-        <v>0</v>
+        <v>0.261</v>
       </c>
       <c r="K22" s="11" t="n">
-        <v>467.28</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="23">
@@ -6742,7 +6706,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>COIN.JK</t>
+          <t>PBSA.JK</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -6753,26 +6717,26 @@
           <t>MID</t>
         </is>
       </c>
-      <c r="E23" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="8" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="G23" s="8" t="n">
-        <v>0.30952</v>
-      </c>
-      <c r="H23" s="17" t="n">
-        <v>303.22583</v>
+      <c r="E23" s="8" t="n">
+        <v>0.31697</v>
+      </c>
+      <c r="F23" s="16" t="n">
+        <v>-0.192</v>
+      </c>
+      <c r="G23" s="9" t="n">
+        <v>0.15842</v>
+      </c>
+      <c r="H23" t="n">
+        <v>18.097208</v>
       </c>
       <c r="I23" s="14" t="n">
-        <v>15.246375</v>
-      </c>
-      <c r="J23" s="11" t="n">
-        <v>0.261</v>
+        <v>5.4730687</v>
+      </c>
+      <c r="J23" s="15" t="n">
+        <v>1.461</v>
       </c>
       <c r="K23" s="11" t="n">
-        <v>6.2</v>
+        <v>77.36</v>
       </c>
     </row>
     <row r="24">
@@ -6802,16 +6766,16 @@
         <v>0.13921</v>
       </c>
       <c r="H24" s="17" t="n">
-        <v>87.73631</v>
+        <v>85.029076</v>
       </c>
       <c r="I24" s="14" t="n">
-        <v>603333.3</v>
+        <v>585000</v>
       </c>
       <c r="J24" s="14" t="n">
         <v>201.586</v>
       </c>
       <c r="K24" s="11" t="n">
-        <v>20.63</v>
+        <v>20.64</v>
       </c>
     </row>
     <row r="25">
@@ -6841,16 +6805,16 @@
         <v>0.0806</v>
       </c>
       <c r="H25" s="10" t="n">
-        <v>9.823364</v>
+        <v>10.040068</v>
       </c>
       <c r="I25" s="14" t="n">
-        <v>18684.21</v>
+        <v>19122.807</v>
       </c>
       <c r="J25" s="14" t="n">
         <v>32.802</v>
       </c>
       <c r="K25" s="11" t="n">
-        <v>216.83</v>
+        <v>217.13</v>
       </c>
     </row>
     <row r="26">
@@ -6880,16 +6844,16 @@
         <v>0.06455</v>
       </c>
       <c r="H26" s="17" t="n">
-        <v>62.105263</v>
+        <v>62.11813</v>
       </c>
       <c r="I26" s="14" t="n">
-        <v>12.22798</v>
+        <v>12.642487</v>
       </c>
       <c r="J26" s="11" t="n">
         <v>0.216</v>
       </c>
       <c r="K26" s="11" t="n">
-        <v>9.5</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="27">
@@ -6919,10 +6883,10 @@
         <v>0.09752</v>
       </c>
       <c r="H27" s="12" t="n">
-        <v>19.607843</v>
+        <v>19.151846</v>
       </c>
       <c r="I27" s="14" t="n">
-        <v>89583.336</v>
+        <v>87500</v>
       </c>
       <c r="J27" s="14" t="n">
         <v>107.818</v>
@@ -6997,16 +6961,16 @@
         <v>0.15737</v>
       </c>
       <c r="H29" s="10" t="n">
-        <v>5.593319</v>
+        <v>5.555556</v>
       </c>
       <c r="I29" s="11" t="n">
-        <v>0.29610834</v>
+        <v>0.29405203</v>
       </c>
       <c r="J29" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K29" s="11" t="n">
-        <v>51.49</v>
+        <v>51.48</v>
       </c>
     </row>
     <row r="30">
@@ -7054,7 +7018,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>RMKO.JK</t>
+          <t>BREN.JK</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -7065,26 +7029,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E31" s="16" t="n">
-        <v>-0.29015</v>
-      </c>
-      <c r="F31" s="8" t="n">
-        <v>0.671</v>
-      </c>
-      <c r="G31" s="9" t="n">
-        <v>-0.21053</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="15" t="n">
-        <v>4.609406</v>
+      <c r="E31" s="8" t="n">
+        <v>0.22038001</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>0.23266001</v>
+      </c>
+      <c r="H31" s="17" t="n">
+        <v>447.5138</v>
+      </c>
+      <c r="I31" s="14" t="n">
+        <v>1620000</v>
       </c>
       <c r="J31" s="14" t="n">
-        <v>65.76600000000001</v>
-      </c>
-      <c r="K31" s="15" t="n">
-        <v>0</v>
+        <v>239.827</v>
+      </c>
+      <c r="K31" s="11" t="n">
+        <v>18.1</v>
       </c>
     </row>
     <row r="32">
@@ -7093,7 +7057,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PANI.JK</t>
+          <t>BRMS.JK</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -7105,25 +7069,25 @@
         </is>
       </c>
       <c r="E32" s="9" t="n">
-        <v>0.0678</v>
+        <v>0.045900002</v>
       </c>
       <c r="F32" s="8" t="n">
-        <v>0.946</v>
-      </c>
-      <c r="G32" s="8" t="n">
-        <v>0.24195999</v>
+        <v>0.329</v>
+      </c>
+      <c r="G32" s="9" t="n">
+        <v>0.19652</v>
       </c>
       <c r="H32" s="17" t="n">
-        <v>196.07843</v>
+        <v>191.47005</v>
       </c>
       <c r="I32" s="14" t="n">
-        <v>8.117927</v>
+        <v>117222.23</v>
       </c>
       <c r="J32" s="14" t="n">
-        <v>2.054</v>
+        <v>12.694</v>
       </c>
       <c r="K32" s="11" t="n">
-        <v>55.08</v>
+        <v>5.51</v>
       </c>
     </row>
     <row r="33">
@@ -7132,7 +7096,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BRMS.JK</t>
+          <t>INET.JK</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -7144,25 +7108,25 @@
         </is>
       </c>
       <c r="E33" s="9" t="n">
-        <v>0.045900002</v>
+        <v>0.06432</v>
       </c>
       <c r="F33" s="8" t="n">
-        <v>0.329</v>
-      </c>
-      <c r="G33" s="9" t="n">
-        <v>0.19652</v>
+        <v>1.905</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>0.24544</v>
       </c>
       <c r="H33" s="17" t="n">
-        <v>196.00725</v>
+        <v>305.7971</v>
       </c>
       <c r="I33" s="14" t="n">
-        <v>120000.01</v>
+        <v>10.383091</v>
       </c>
       <c r="J33" s="14" t="n">
-        <v>12.694</v>
+        <v>2.833</v>
       </c>
       <c r="K33" s="11" t="n">
-        <v>5.51</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="34">
@@ -7171,7 +7135,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>INET.JK</t>
+          <t>IMPC.JK</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -7182,26 +7146,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E34" s="9" t="n">
-        <v>0.06432</v>
-      </c>
-      <c r="F34" s="8" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="G34" s="8" t="n">
-        <v>0.24544</v>
+      <c r="E34" s="8" t="n">
+        <v>0.23723</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G34" s="9" t="n">
+        <v>0.14588</v>
       </c>
       <c r="H34" s="17" t="n">
-        <v>278.26086</v>
+        <v>214.67392</v>
       </c>
       <c r="I34" s="14" t="n">
-        <v>9.448121</v>
+        <v>45.290375</v>
       </c>
       <c r="J34" s="14" t="n">
-        <v>2.833</v>
+        <v>38.133</v>
       </c>
       <c r="K34" s="11" t="n">
-        <v>1.38</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="35">
@@ -7210,7 +7174,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>IMPC.JK</t>
+          <t>CDIA.JK</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -7221,26 +7185,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E35" s="8" t="n">
-        <v>0.23723</v>
-      </c>
-      <c r="F35" s="9" t="n">
-        <v>0.145</v>
-      </c>
-      <c r="G35" s="9" t="n">
-        <v>0.14588</v>
+      <c r="E35" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="8" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>0.65328</v>
       </c>
       <c r="H35" s="17" t="n">
-        <v>204.13669</v>
+        <v>100.42553</v>
       </c>
       <c r="I35" s="14" t="n">
-        <v>43.37939</v>
+        <v>147500</v>
       </c>
       <c r="J35" s="14" t="n">
-        <v>38.133</v>
+        <v>34.873</v>
       </c>
       <c r="K35" s="11" t="n">
-        <v>11.12</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="36">
@@ -7249,7 +7213,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CDIA.JK</t>
+          <t>RATU.JK</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -7260,26 +7224,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="8" t="n">
-        <v>0.421</v>
+      <c r="E36" s="8" t="n">
+        <v>0.45251998</v>
+      </c>
+      <c r="F36" s="16" t="n">
+        <v>-0.183</v>
       </c>
       <c r="G36" s="8" t="n">
-        <v>0.65328</v>
+        <v>0.31559</v>
       </c>
       <c r="H36" s="17" t="n">
-        <v>98.97172500000001</v>
+        <v>75.85429000000001</v>
       </c>
       <c r="I36" s="14" t="n">
-        <v>144375</v>
+        <v>454411.75</v>
       </c>
       <c r="J36" s="14" t="n">
-        <v>34.873</v>
+        <v>36.548</v>
       </c>
       <c r="K36" s="11" t="n">
-        <v>11.67</v>
+        <v>101.84</v>
       </c>
     </row>
     <row r="37">
@@ -7288,7 +7252,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>RATU.JK</t>
+          <t>PANI.JK</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -7299,26 +7263,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E37" s="8" t="n">
-        <v>0.45251998</v>
-      </c>
-      <c r="F37" s="16" t="n">
-        <v>-0.183</v>
+      <c r="E37" s="9" t="n">
+        <v>0.0678</v>
+      </c>
+      <c r="F37" s="8" t="n">
+        <v>0.946</v>
       </c>
       <c r="G37" s="8" t="n">
-        <v>0.31559</v>
+        <v>0.24195999</v>
       </c>
       <c r="H37" s="17" t="n">
-        <v>65.789474</v>
+        <v>194.27954</v>
       </c>
       <c r="I37" s="14" t="n">
-        <v>394117.62</v>
+        <v>8.117927</v>
       </c>
       <c r="J37" s="14" t="n">
-        <v>36.548</v>
+        <v>2.054</v>
       </c>
       <c r="K37" s="11" t="n">
-        <v>101.84</v>
+        <v>55.59</v>
       </c>
     </row>
     <row r="38">
@@ -7327,11 +7291,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BREN.JK</t>
+          <t>ADMR.JK</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -7339,25 +7303,25 @@
         </is>
       </c>
       <c r="E38" s="8" t="n">
-        <v>0.22038001</v>
-      </c>
-      <c r="F38" s="9" t="n">
-        <v>0.04</v>
+        <v>0.2018</v>
+      </c>
+      <c r="F38" s="16" t="n">
+        <v>-0.012</v>
       </c>
       <c r="G38" s="8" t="n">
-        <v>0.23266001</v>
-      </c>
-      <c r="H38" s="17" t="n">
-        <v>454.54544</v>
+        <v>0.31149</v>
+      </c>
+      <c r="H38" t="n">
+        <v>15.869293</v>
       </c>
       <c r="I38" s="14" t="n">
-        <v>1600000</v>
+        <v>54864.863</v>
       </c>
       <c r="J38" s="14" t="n">
-        <v>239.827</v>
+        <v>35.836</v>
       </c>
       <c r="K38" s="11" t="n">
-        <v>17.6</v>
+        <v>127.92</v>
       </c>
     </row>
     <row r="39">
@@ -7366,7 +7330,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ADMR.JK</t>
+          <t>PTBA.JK</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -7377,26 +7341,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E39" s="8" t="n">
-        <v>0.2018</v>
+      <c r="E39" s="9" t="n">
+        <v>0.15961</v>
       </c>
       <c r="F39" s="16" t="n">
         <v>-0.012</v>
       </c>
-      <c r="G39" s="8" t="n">
-        <v>0.31149</v>
-      </c>
-      <c r="H39" t="n">
-        <v>14.598825</v>
-      </c>
-      <c r="I39" s="14" t="n">
-        <v>50405.406</v>
+      <c r="G39" s="9" t="n">
+        <v>0.075219996</v>
+      </c>
+      <c r="H39" s="10" t="n">
+        <v>9.295446999999999</v>
+      </c>
+      <c r="I39" s="11" t="n">
+        <v>1.471102</v>
       </c>
       <c r="J39" s="14" t="n">
-        <v>35.836</v>
+        <v>19.582</v>
       </c>
       <c r="K39" s="11" t="n">
-        <v>127.75</v>
+        <v>284.01</v>
       </c>
     </row>
     <row r="40">
@@ -7405,7 +7369,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PTBA.JK</t>
+          <t>AADI.JK</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -7416,26 +7380,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E40" s="9" t="n">
-        <v>0.15961</v>
+      <c r="E40" s="8" t="n">
+        <v>0.22769</v>
       </c>
       <c r="F40" s="16" t="n">
-        <v>-0.012</v>
+        <v>-0.132</v>
       </c>
       <c r="G40" s="9" t="n">
-        <v>0.075219996</v>
+        <v>0.14828</v>
       </c>
       <c r="H40" s="10" t="n">
-        <v>8.976661</v>
-      </c>
-      <c r="I40" s="11" t="n">
-        <v>1.4209509</v>
+        <v>6.1071925</v>
+      </c>
+      <c r="I40" s="14" t="n">
+        <v>21460.674</v>
       </c>
       <c r="J40" s="14" t="n">
-        <v>19.582</v>
+        <v>27.582</v>
       </c>
       <c r="K40" s="11" t="n">
-        <v>284.07</v>
+        <v>1563.73</v>
       </c>
     </row>
     <row r="41">
@@ -7444,7 +7408,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AADI.JK</t>
+          <t>AMRT.JK</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -7455,26 +7419,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E41" s="8" t="n">
-        <v>0.22769</v>
-      </c>
-      <c r="F41" s="16" t="n">
-        <v>-0.132</v>
+      <c r="E41" s="9" t="n">
+        <v>0.17877</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>0.057</v>
       </c>
       <c r="G41" s="9" t="n">
-        <v>0.14828</v>
-      </c>
-      <c r="H41" s="10" t="n">
-        <v>5.5710306</v>
-      </c>
-      <c r="I41" s="14" t="n">
-        <v>19550.562</v>
+        <v>0.02461</v>
+      </c>
+      <c r="H41" t="n">
+        <v>25.7697</v>
+      </c>
+      <c r="I41" s="15" t="n">
+        <v>4.5687904</v>
       </c>
       <c r="J41" s="14" t="n">
-        <v>27.582</v>
+        <v>10.566</v>
       </c>
       <c r="K41" s="11" t="n">
-        <v>1561.65</v>
+        <v>73.73</v>
       </c>
     </row>
   </sheetData>

--- a/reports/HEDGEFUND_TERMINAL.xlsx
+++ b/reports/HEDGEFUND_TERMINAL.xlsx
@@ -483,7 +483,7 @@
     <col width="9" customWidth="1" min="3" max="3"/>
     <col width="31" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -496,7 +496,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>20 February 2026</t>
+          <t>23 February 2026</t>
         </is>
       </c>
     </row>
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7"/>
@@ -555,7 +555,7 @@
       </c>
       <c r="B8" s="6" t="inlineStr">
         <is>
-          <t>-2.8B</t>
+          <t>-1.8B</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="B9" s="6" t="inlineStr">
         <is>
-          <t>-2.5B</t>
+          <t>-1.7B</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-679700</t>
+          <t>766200</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BIPI.JK</t>
+          <t>ENRG.JK</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -605,19 +605,19 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-87.4M</t>
+          <t>56.6M</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1. Communication Services</t>
+          <t>1. Financial Services</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6.3M</t>
+          <t>115.0M</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -630,19 +630,19 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.2M</t>
+          <t>-21.6M</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2. Consumer Cyclical</t>
+          <t>2. Consumer Defensive</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3.5M</t>
+          <t>48.8M</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -655,19 +655,19 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-2.5M</t>
+          <t>-5.5M</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3. Consumer Defensive</t>
+          <t>3. Real Estate</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2.1M</t>
+          <t>29.9M</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -680,19 +680,19 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-239100</t>
+          <t>-2.9M</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4. Utilities</t>
+          <t>4. Communication Services</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-14.3M</t>
+          <t>1.0M</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -709,12 +709,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5. Healthcare</t>
+          <t>5. Utilities</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-34.4M</t>
+          <t>-2.8M</t>
         </is>
       </c>
     </row>
@@ -732,11 +732,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.5</v>
+        <v>63.4</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3.5M</t>
+          <t>-18.6M</t>
         </is>
       </c>
     </row>
@@ -747,11 +747,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>61.5</v>
+        <v>61.4</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-47.0M</t>
+          <t>-165.8M</t>
         </is>
       </c>
     </row>
@@ -762,41 +762,41 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60.5</v>
+        <v>61.1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-804.3M</t>
+          <t>-494.1M</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4. Financial Services</t>
+          <t>4. Industrials</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>47.5</v>
+        <v>50.9</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-193.6M</t>
+          <t>-102.8M</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5. Industrials</t>
+          <t>5. Financial Services</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>46.8</v>
+        <v>49.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-85.4M</t>
+          <t>115.0M</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="8" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
-    <col width="13" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
     <col width="9" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
@@ -920,20 +920,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1657-1763</t>
+          <t>1682-1778</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1550.892857142857</v>
+        <v>1584.821428571428</v>
       </c>
       <c r="F2" t="n">
-        <v>1920</v>
+        <v>1921.428571428571</v>
       </c>
       <c r="G2" t="n">
-        <v>2076.964285714286</v>
+        <v>2113.571428571428</v>
       </c>
       <c r="H2" t="n">
-        <v>2286.25</v>
+        <v>2255.178571428572</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -942,18 +942,18 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>8.76%</t>
+          <t>9.16%</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>26.2</v>
+        <v>27.36</v>
       </c>
       <c r="L2" t="n">
-        <v>-679700</v>
+        <v>766200</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>DISTRIB</t>
+          <t>ACCUM</t>
         </is>
       </c>
     </row>
@@ -963,7 +963,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIPI.JK</t>
+          <t>ENRG.JK</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -971,40 +971,40 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>231-257</t>
+          <t>1613-1767</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>205.9642857142857</v>
+        <v>1458.571428571429</v>
       </c>
       <c r="F3" t="n">
-        <v>289.5714285714286</v>
+        <v>1994.821428571428</v>
       </c>
       <c r="G3" t="n">
-        <v>322.4642857142857</v>
+        <v>2222.5</v>
       </c>
       <c r="H3" t="n">
-        <v>366.3214285714286</v>
+        <v>2526.071428571428</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>62%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>56.52%</t>
+          <t>9.48%</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>11.4</v>
+        <v>2.25</v>
       </c>
       <c r="L3" t="n">
-        <v>-87444100</v>
+        <v>56554200</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>DISTRIB</t>
+          <t>ACCUM</t>
         </is>
       </c>
     </row>
@@ -1022,40 +1022,40 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>778-842</t>
+          <t>770-830</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>712.5</v>
+        <v>709.4642857142858</v>
       </c>
       <c r="F4" t="n">
-        <v>940</v>
+        <v>920.7142857142858</v>
       </c>
       <c r="G4" t="n">
-        <v>1037.5</v>
+        <v>1012.785714285714</v>
       </c>
       <c r="H4" t="n">
-        <v>1167.5</v>
+        <v>1131.964285714286</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>78%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>18.17%</t>
+          <t>19.50%</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>22.66</v>
+        <v>28.46</v>
       </c>
       <c r="L4" t="n">
-        <v>4172000</v>
+        <v>-21636100</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1459-1541</t>
+          <t>1438-1512</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1376.25</v>
+        <v>1364.107142857143</v>
       </c>
       <c r="F5" t="n">
-        <v>1655.357142857143</v>
+        <v>1613.214285714286</v>
       </c>
       <c r="G5" t="n">
-        <v>1820.892857142857</v>
+        <v>1774.535714285714</v>
       </c>
       <c r="H5" t="n">
-        <v>1921.607142857143</v>
+        <v>1849.464285714286</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -1095,14 +1095,14 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>19.31%</t>
+          <t>19.25%</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>102.88</v>
+        <v>102.56</v>
       </c>
       <c r="L5" t="n">
-        <v>-2475500</v>
+        <v>-5503000</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -1124,20 +1124,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2595-2805</t>
+          <t>2656-2844</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2385.535714285714</v>
+        <v>2468.75</v>
       </c>
       <c r="F6" t="n">
-        <v>3091.428571428572</v>
+        <v>3097.142857142857</v>
       </c>
       <c r="G6" t="n">
-        <v>3378.035714285714</v>
+        <v>3350.535714285714</v>
       </c>
       <c r="H6" t="n">
-        <v>3760.178571428572</v>
+        <v>3688.392857142857</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -1146,14 +1146,14 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>27.42%</t>
+          <t>26.97%</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>29.77</v>
+        <v>29.29</v>
       </c>
       <c r="L6" t="n">
-        <v>-239100</v>
+        <v>-2895500</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>INCO.JK</t>
+          <t>MBMA.JK</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -1175,40 +1175,40 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6617-7083</t>
+          <t>820-890</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6150.892857142857</v>
+        <v>749.4642857142857</v>
       </c>
       <c r="F7" t="n">
-        <v>7717.857142857143</v>
+        <v>989.2857142857143</v>
       </c>
       <c r="G7" t="n">
-        <v>8489.642857142859</v>
+        <v>1088.214285714286</v>
       </c>
       <c r="H7" t="n">
-        <v>9199.107142857143</v>
+        <v>1220.535714285714</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>31.85%</t>
+          <t>16.52%</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>810.83</v>
+        <v>14.27</v>
       </c>
       <c r="L7" t="n">
-        <v>5562500</v>
+        <v>-73678300</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -1218,44 +1218,44 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TINS.JK</t>
+          <t>BIPI.JK</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3834-4146</t>
+          <t>215-241</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3520.714285714286</v>
+        <v>189.4285714285714</v>
       </c>
       <c r="F8" t="n">
-        <v>4586.785714285715</v>
+        <v>276.3214285714286</v>
       </c>
       <c r="G8" t="n">
-        <v>5045.464285714286</v>
+        <v>303.9535714285714</v>
       </c>
       <c r="H8" t="n">
-        <v>5614.285714285714</v>
+        <v>359.0714285714286</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>62%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>5.04%</t>
+          <t>56.50%</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>4.93</v>
+        <v>11.39</v>
       </c>
       <c r="L8" t="n">
-        <v>-1117000</v>
+        <v>-104512900</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1269,48 +1269,48 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENRG.JK</t>
+          <t>INCO.JK</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1478-1632</t>
+          <t>6695-7105</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1324.107142857143</v>
+        <v>6283.928571428572</v>
       </c>
       <c r="F9" t="n">
-        <v>1849.464285714286</v>
+        <v>7657.142857142857</v>
       </c>
       <c r="G9" t="n">
-        <v>2034.410714285714</v>
+        <v>8422.857142857143</v>
       </c>
       <c r="H9" t="n">
-        <v>2356.964285714286</v>
+        <v>8944.642857142857</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>92%</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>10.77%</t>
+          <t>32.01%</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>2.42</v>
+        <v>814.78</v>
       </c>
       <c r="L9" t="n">
-        <v>-2949300</v>
+        <v>745400</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>DISTRIB</t>
+          <t>ACCUM</t>
         </is>
       </c>
     </row>
@@ -1320,48 +1320,48 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZATA.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>113-129</t>
+          <t>2153-2227</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>96.03571428571428</v>
+        <v>2079.642857142857</v>
       </c>
       <c r="F10" t="n">
-        <v>153.9642857142857</v>
+        <v>2335</v>
       </c>
       <c r="G10" t="n">
-        <v>169.3607142857143</v>
+        <v>2568.5</v>
       </c>
       <c r="H10" t="n">
-        <v>211.4642857142857</v>
+        <v>2587.5</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>57%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>29.89%</t>
+          <t>10.06%</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>12.15</v>
+        <v>4025338057.04</v>
       </c>
       <c r="L10" t="n">
-        <v>-12543600</v>
+        <v>10200200</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>DISTRIB</t>
+          <t>ACCUM</t>
         </is>
       </c>
     </row>
@@ -1371,44 +1371,44 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PSKT.JK</t>
+          <t>ADMR.JK</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>313-355</t>
+          <t>2004-2136</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>270.8928571428572</v>
+        <v>1873.392857142857</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8571428571428</v>
+        <v>2330</v>
       </c>
       <c r="G11" t="n">
-        <v>458.5428571428571</v>
+        <v>2563</v>
       </c>
       <c r="H11" t="n">
-        <v>561.1071428571429</v>
+        <v>2783.75</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>6.22%</t>
+          <t>23.72%</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>1.62</v>
+        <v>50.75</v>
       </c>
       <c r="L11" t="n">
-        <v>-6222100</v>
+        <v>-25253200</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ADMR.JK</t>
+          <t>ADRO.JK</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1430,40 +1430,40 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1955-2105</t>
+          <t>2251-2349</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1805</v>
+        <v>2152.142857142857</v>
       </c>
       <c r="F12" t="n">
-        <v>2327.857142857143</v>
+        <v>2493.928571428572</v>
       </c>
       <c r="G12" t="n">
-        <v>2560.642857142858</v>
+        <v>2743.321428571429</v>
       </c>
       <c r="H12" t="n">
-        <v>2847.857142857143</v>
+        <v>2831.428571428572</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>23.83%</t>
+          <t>15.28%</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>50.98</v>
+        <v>145.96</v>
       </c>
       <c r="L12" t="n">
-        <v>2503600</v>
+        <v>-2979900</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ADRO.JK</t>
+          <t>ANTM.JK</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1481,40 +1481,40 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2240-2360</t>
+          <t>4108-4332</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2120</v>
+        <v>3883.571428571428</v>
       </c>
       <c r="F13" t="n">
-        <v>2536.785714285714</v>
+        <v>4624.642857142857</v>
       </c>
       <c r="G13" t="n">
-        <v>2790.464285714286</v>
+        <v>5087.107142857143</v>
       </c>
       <c r="H13" t="n">
-        <v>2949.285714285714</v>
+        <v>5307.142857142857</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>92%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>15.10%</t>
+          <t>18.88%</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>63.36</v>
+        <v>342.8</v>
       </c>
       <c r="L13" t="n">
-        <v>6694500</v>
+        <v>-30506300</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -1524,48 +1524,48 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>INKP.JK</t>
+          <t>MDKA.JK</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10032-10568</t>
+          <t>3476-3704</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>9496.428571428572</v>
+        <v>3247.142857142857</v>
       </c>
       <c r="F14" t="n">
-        <v>11350</v>
+        <v>4007.5</v>
       </c>
       <c r="G14" t="n">
-        <v>12485</v>
+        <v>4310.714285714285</v>
       </c>
       <c r="H14" t="n">
-        <v>13175</v>
+        <v>4715</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>8.92%</t>
+          <t>19.20%</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>6.7</v>
+        <v>50.35</v>
       </c>
       <c r="L14" t="n">
-        <v>-6541900</v>
+        <v>6595200</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>DISTRIB</t>
+          <t>ACCUM</t>
         </is>
       </c>
     </row>
@@ -1575,48 +1575,48 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HRUM.JK</t>
+          <t>EMAS.JK</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1205-1275</t>
+          <t>7608-8192</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1133.928571428572</v>
+        <v>7024.107142857143</v>
       </c>
       <c r="F15" t="n">
-        <v>1375</v>
+        <v>9003.571428571428</v>
       </c>
       <c r="G15" t="n">
-        <v>1512.5</v>
+        <v>9903.928571428571</v>
       </c>
       <c r="H15" t="n">
-        <v>1607.5</v>
+        <v>10897.32142857143</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>5.73%</t>
+          <t>31.27%</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>3.45</v>
+        <v>12509059593.61</v>
       </c>
       <c r="L15" t="n">
-        <v>6980600</v>
+        <v>-658500</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -1626,44 +1626,44 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ANTM.JK</t>
+          <t>INDY.JK</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4095-4365</t>
+          <t>3591-3849</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3823.928571428572</v>
+        <v>3334.285714285714</v>
       </c>
       <c r="F16" t="n">
-        <v>4727.5</v>
+        <v>4219.285714285714</v>
       </c>
       <c r="G16" t="n">
-        <v>5200.25</v>
+        <v>4641.214285714285</v>
       </c>
       <c r="H16" t="n">
-        <v>5572.5</v>
+        <v>5084.285714285714</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>95%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>18.93%</t>
+          <t>35.98%</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>729.8</v>
+        <v>14390565956.95</v>
       </c>
       <c r="L16" t="n">
-        <v>-16906100</v>
+        <v>-1117600</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MDKA.JK</t>
+          <t>PTBA.JK</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1685,20 +1685,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3402-3658</t>
+          <t>2590-2650</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3147.5</v>
+        <v>2528.928571428572</v>
       </c>
       <c r="F17" t="n">
-        <v>4000.357142857143</v>
+        <v>2740.357142857143</v>
       </c>
       <c r="G17" t="n">
-        <v>4343.214285714286</v>
+        <v>2950.357142857143</v>
       </c>
       <c r="H17" t="n">
-        <v>4800.357142857143</v>
+        <v>3014.392857142857</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1707,14 +1707,14 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>19.05%</t>
+          <t>5.52%</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>49.95</v>
+        <v>22.39</v>
       </c>
       <c r="L17" t="n">
-        <v>4042100</v>
+        <v>1793800</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1728,28 +1728,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>EMAS.JK</t>
+          <t>TCPI.JK</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7469-8131</t>
+          <t>11391-11809</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6806.25</v>
+        <v>10973.21428571429</v>
       </c>
       <c r="F18" t="n">
-        <v>9060.714285714286</v>
+        <v>12433.03571428571</v>
       </c>
       <c r="G18" t="n">
-        <v>9990.178571428571</v>
+        <v>13057.14285714286</v>
       </c>
       <c r="H18" t="n">
-        <v>11229.46428571429</v>
+        <v>13889.28571428571</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1758,14 +1758,14 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>31.80%</t>
+          <t>19.28%</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>12718298438.75</v>
+        <v>7713746713.54</v>
       </c>
       <c r="L18" t="n">
-        <v>3184800</v>
+        <v>328500</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1779,44 +1779,44 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>INDY.JK</t>
+          <t>TINS.JK</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3729-4011</t>
+          <t>3779-4061</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3446.785714285714</v>
+        <v>3496.785714285714</v>
       </c>
       <c r="F19" t="n">
-        <v>4419.285714285714</v>
+        <v>4455.357142857143</v>
       </c>
       <c r="G19" t="n">
-        <v>4827.5</v>
+        <v>4900.892857142858</v>
       </c>
       <c r="H19" t="n">
-        <v>5371.785714285714</v>
+        <v>5375.357142857143</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>36.51%</t>
+          <t>4.97%</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>14605189026.88</v>
+        <v>4.87</v>
       </c>
       <c r="L19" t="n">
-        <v>17200</v>
+        <v>32300</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -1830,44 +1830,44 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>HRUM.JK</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2134-2226</t>
+          <t>1178-1242</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2043.392857142857</v>
+        <v>1114.642857142857</v>
       </c>
       <c r="F20" t="n">
-        <v>2360</v>
+        <v>1332.857142857143</v>
       </c>
       <c r="G20" t="n">
-        <v>2596</v>
+        <v>1466.142857142857</v>
       </c>
       <c r="H20" t="n">
-        <v>2673.75</v>
+        <v>1545.357142857143</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>10.11%</t>
+          <t>5.74%</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>4043205452.8</v>
+        <v>3.46</v>
       </c>
       <c r="L20" t="n">
-        <v>2573300</v>
+        <v>746000</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PTBA.JK</t>
+          <t>AADI.JK</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1889,36 +1889,36 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2603-2677</t>
+          <t>9123-9527</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2529.642857142857</v>
+        <v>8719.642857142857</v>
       </c>
       <c r="F21" t="n">
-        <v>2786.071428571428</v>
+        <v>10108.03571428571</v>
       </c>
       <c r="G21" t="n">
-        <v>2895.357142857143</v>
+        <v>11118.83928571429</v>
       </c>
       <c r="H21" t="n">
-        <v>3041.071428571428</v>
+        <v>11464.28571428571</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>5.33%</t>
+          <t>6.10%</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>18.07</v>
+        <v>3.82</v>
       </c>
       <c r="L21" t="n">
-        <v>-382400</v>
+        <v>-4000</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1973,11 +1973,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>INET.JK</t>
+          <t>BBRI.JK</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31827500</v>
+        <v>105416300</v>
       </c>
     </row>
     <row r="3">
@@ -1986,11 +1986,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>VKTR.JK</t>
+          <t>ENRG.JK</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26210600</v>
+        <v>56554200</v>
       </c>
     </row>
     <row r="4">
@@ -1999,11 +1999,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRMS.JK</t>
+          <t>AMRT.JK</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15163900</v>
+        <v>37773100</v>
       </c>
     </row>
     <row r="5">
@@ -2012,11 +2012,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MINA.JK</t>
+          <t>PWON.JK</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12447000</v>
+        <v>37538300</v>
       </c>
     </row>
     <row r="6">
@@ -2025,11 +2025,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PADI.JK</t>
+          <t>BMRI.JK</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12339000</v>
+        <v>33741800</v>
       </c>
     </row>
     <row r="7">
@@ -2038,11 +2038,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PWON.JK</t>
+          <t>TLKM.JK</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11514600</v>
+        <v>13783000</v>
       </c>
     </row>
     <row r="8">
@@ -2055,7 +2055,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11098300</v>
+        <v>12850400</v>
       </c>
     </row>
     <row r="9">
@@ -2064,11 +2064,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PNLF.JK</t>
+          <t>CUAN.JK</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8881200</v>
+        <v>11666100</v>
       </c>
     </row>
     <row r="10">
@@ -2077,11 +2077,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ISAT.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7049300</v>
+        <v>10200200</v>
       </c>
     </row>
     <row r="11">
@@ -2090,11 +2090,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HRUM.JK</t>
+          <t>BBNI.JK</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6980600</v>
+        <v>8426900</v>
       </c>
     </row>
     <row r="12">
@@ -2103,11 +2103,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ADRO.JK</t>
+          <t>PSKT.JK</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6694500</v>
+        <v>7483200</v>
       </c>
     </row>
     <row r="13">
@@ -2116,11 +2116,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DEWA.JK</t>
+          <t>BKSL.JK</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6083300</v>
+        <v>7075200</v>
       </c>
     </row>
     <row r="14">
@@ -2129,11 +2129,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HUMI.JK</t>
+          <t>MDKA.JK</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5593400</v>
+        <v>6595200</v>
       </c>
     </row>
     <row r="15">
@@ -2142,11 +2142,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>INCO.JK</t>
+          <t>PNLF.JK</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5562500</v>
+        <v>6312700</v>
       </c>
     </row>
     <row r="16">
@@ -2155,11 +2155,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ELSA.JK</t>
+          <t>ASII.JK</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4172000</v>
+        <v>6227500</v>
       </c>
     </row>
     <row r="17">
@@ -2168,11 +2168,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CDIA.JK</t>
+          <t>JPFA.JK</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4088000</v>
+        <v>5002500</v>
       </c>
     </row>
     <row r="18">
@@ -2181,11 +2181,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MDKA.JK</t>
+          <t>IRSX.JK</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4042100</v>
+        <v>4580900</v>
       </c>
     </row>
     <row r="19">
@@ -2194,11 +2194,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AMRT.JK</t>
+          <t>EXCL.JK</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3727100</v>
+        <v>4119100</v>
       </c>
     </row>
     <row r="20">
@@ -2207,11 +2207,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>EMAS.JK</t>
+          <t>PTRO.JK</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3184800</v>
+        <v>4111100</v>
       </c>
     </row>
     <row r="21">
@@ -2220,11 +2220,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>ISAT.JK</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2573300</v>
+        <v>4049500</v>
       </c>
     </row>
     <row r="22">
@@ -2233,11 +2233,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GTSI.JK</t>
+          <t>TRIN.JK</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2566600</v>
+        <v>3499700</v>
       </c>
     </row>
     <row r="23">
@@ -2246,11 +2246,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ADMR.JK</t>
+          <t>UNVR.JK</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2503600</v>
+        <v>2865100</v>
       </c>
     </row>
     <row r="24">
@@ -2259,11 +2259,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>UNTR.JK</t>
+          <t>BRPT.JK</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2346400</v>
+        <v>2074300</v>
       </c>
     </row>
     <row r="25">
@@ -2272,11 +2272,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BBYB.JK</t>
+          <t>UNTR.JK</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2202200</v>
+        <v>1859000</v>
       </c>
     </row>
     <row r="26">
@@ -2285,11 +2285,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AADI.JK</t>
+          <t>PTBA.JK</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2180800</v>
+        <v>1793800</v>
       </c>
     </row>
     <row r="27">
@@ -2298,11 +2298,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TOBA.JK</t>
+          <t>IMPC.JK</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1845000</v>
+        <v>1615500</v>
       </c>
     </row>
     <row r="28">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BBKP.JK</t>
+          <t>AMMN.JK</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1828800</v>
+        <v>937300</v>
       </c>
     </row>
     <row r="29">
@@ -2324,11 +2324,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>RATU.JK</t>
+          <t>MEDC.JK</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1576800</v>
+        <v>766200</v>
       </c>
     </row>
     <row r="30">
@@ -2337,11 +2337,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>COIN.JK</t>
+          <t>HRUM.JK</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1433300</v>
+        <v>746000</v>
       </c>
     </row>
     <row r="31">
@@ -2350,11 +2350,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRIN.JK</t>
+          <t>INCO.JK</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1021700</v>
+        <v>745400</v>
       </c>
     </row>
   </sheetData>
@@ -2368,7 +2368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2425,18 +2425,18 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BIPI.JK</t>
+          <t>ENRG.JK</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>98</v>
       </c>
       <c r="C3" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.3%</t>
         </is>
       </c>
     </row>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-1.2%</t>
         </is>
       </c>
     </row>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>-3.9%</t>
         </is>
       </c>
     </row>
@@ -2490,219 +2490,219 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-2.5%</t>
+          <t>-0.7%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INCO.JK</t>
+          <t>MBMA.JK</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>94</v>
       </c>
       <c r="C7" t="n">
-        <v>83.40000000000001</v>
+        <v>84</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-3.5%</t>
+          <t>-5.5%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TINS.JK</t>
+          <t>BIPI.JK</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-4.8%</t>
+          <t>-6.6%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ENRG.JK</t>
+          <t>INCO.JK</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" t="n">
-        <v>83</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-8.3%</t>
+          <t>-2.8%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ZATA.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C10" t="n">
-        <v>83</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-3.2%</t>
+          <t>-3.5%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PSKT.JK</t>
+          <t>ADMR.JK</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C11" t="n">
-        <v>80</v>
+        <v>79.8</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-16.9%</t>
+          <t>-9.2%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ADMR.JK</t>
+          <t>ADRO.JK</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>88</v>
       </c>
       <c r="C12" t="n">
-        <v>79.8</v>
+        <v>78</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-11.0%</t>
+          <t>-4.2%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ADRO.JK</t>
+          <t>ANTM.JK</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>87</v>
       </c>
       <c r="C13" t="n">
-        <v>78</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-4.2%</t>
+          <t>-11.3%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INKP.JK</t>
+          <t>MDKA.JK</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HRUM.JK</t>
+          <t>EMAS.JK</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C15" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-3.5%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ANTM.JK</t>
+          <t>INDY.JK</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C16" t="n">
-        <v>75.59999999999999</v>
+        <v>72</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-11.1%</t>
+          <t>-3.9%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MDKA.JK</t>
+          <t>PTBA.JK</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>83</v>
       </c>
       <c r="C17" t="n">
-        <v>72</v>
+        <v>69.8</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.8%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>EMAS.JK</t>
+          <t>TCPI.JK</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2713,212 +2713,212 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INDY.JK</t>
+          <t>TINS.JK</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C19" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-6.4%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>HRUM.JK</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C20" t="n">
-        <v>71.59999999999999</v>
+        <v>67</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-4.0%</t>
+          <t>-5.8%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PTBA.JK</t>
+          <t>AADI.JK</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>78</v>
       </c>
       <c r="C21" t="n">
-        <v>69.8</v>
+        <v>62.8</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-2.4%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>TCPI.JK</t>
+          <t>BULL.JK</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>77</v>
       </c>
       <c r="C22" t="n">
-        <v>69</v>
+        <v>61.8</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>-25.5%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>OASA.JK</t>
+          <t>VKTR.JK</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>76</v>
       </c>
       <c r="C23" t="n">
-        <v>64</v>
+        <v>58.8</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-12.3%</t>
+          <t>-21.2%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AADI.JK</t>
+          <t>BMRI.JK</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>75</v>
       </c>
       <c r="C24" t="n">
-        <v>62.8</v>
+        <v>57.4</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-2.8%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BULL.JK</t>
+          <t>PADI.JK</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>74</v>
       </c>
       <c r="C25" t="n">
-        <v>61.8</v>
+        <v>56.2</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-21.9%</t>
+          <t>-32.2%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>VKTR.JK</t>
+          <t>AMMN.JK</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>73</v>
       </c>
       <c r="C26" t="n">
-        <v>58.8</v>
+        <v>55</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-23.2%</t>
+          <t>-3.1%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BMRI.JK</t>
+          <t>SRTG.JK</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C27" t="n">
-        <v>57.4</v>
+        <v>55</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-3.8%</t>
+          <t>-8.5%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PADI.JK</t>
+          <t>ARCI.JK</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C28" t="n">
-        <v>56.2</v>
+        <v>54.6</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-30.2%</t>
+          <t>-10.8%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AMMN.JK</t>
+          <t>BBRI.JK</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" t="n">
-        <v>55</v>
+        <v>53.8</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-5.8%</t>
+          <t>-0.8%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SRTG.JK</t>
+          <t>ISAT.JK</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" t="n">
-        <v>55</v>
+        <v>53.4</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2929,540 +2929,540 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ARCI.JK</t>
+          <t>UNTR.JK</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>67</v>
       </c>
       <c r="C31" t="n">
-        <v>54.6</v>
+        <v>52.8</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-13.1%</t>
+          <t>-3.9%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BBRI.JK</t>
+          <t>LPKR.JK</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>66</v>
       </c>
       <c r="C32" t="n">
-        <v>53.8</v>
+        <v>51.8</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>-24.2%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>NICL.JK</t>
+          <t>INKP.JK</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33" t="n">
-        <v>53.8</v>
+        <v>51</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-32.9%</t>
+          <t>-7.5%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ISAT.JK</t>
+          <t>BRIS.JK</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>64</v>
       </c>
       <c r="C34" t="n">
-        <v>53.4</v>
+        <v>50.8</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-10.1%</t>
+          <t>-4.5%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>LPKR.JK</t>
+          <t>PSKT.JK</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C35" t="n">
-        <v>51.8</v>
+        <v>50</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-23.4%</t>
+          <t>-16.9%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BRIS.JK</t>
+          <t>PWON.JK</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C36" t="n">
-        <v>50.8</v>
+        <v>49</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-4.5%</t>
+          <t>-3.6%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PWON.JK</t>
+          <t>HUMI.JK</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C37" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>-29.2%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HUMI.JK</t>
+          <t>INDF.JK</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C38" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-26.4%</t>
+          <t>-10.7%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TRUE.JK</t>
+          <t>IRSX.JK</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>58</v>
       </c>
       <c r="C39" t="n">
-        <v>45</v>
+        <v>41.6</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-49.1%</t>
+          <t>-21.7%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>DEWA.JK</t>
+          <t>ICBP.JK</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>57</v>
       </c>
       <c r="C40" t="n">
-        <v>43.6</v>
+        <v>40</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-21.5%</t>
+          <t>-6.7%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>INDF.JK</t>
+          <t>OASA.JK</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>56</v>
       </c>
       <c r="C41" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-9.7%</t>
+          <t>-15.8%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>IRSX.JK</t>
+          <t>BKSL.JK</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>55</v>
       </c>
       <c r="C42" t="n">
-        <v>41.6</v>
+        <v>38.8</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-22.3%</t>
+          <t>-21.3%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ICBP.JK</t>
+          <t>DADA.JK</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C43" t="n">
-        <v>40</v>
+        <v>38.6</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-5.5%</t>
+          <t>-20.6%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>DADA.JK</t>
+          <t>GTSI.JK</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C44" t="n">
-        <v>38.6</v>
+        <v>36.8</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-20.6%</t>
+          <t>-32.9%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>GTSI.JK</t>
+          <t>PNLF.JK</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C45" t="n">
-        <v>36.8</v>
+        <v>36</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-30.8%</t>
+          <t>-13.8%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PNLF.JK</t>
+          <t>MINA.JK</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C46" t="n">
-        <v>36</v>
+        <v>35.8</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-14.4%</t>
+          <t>-39.8%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MINA.JK</t>
+          <t>RMKO.JK</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" t="n">
-        <v>35.8</v>
+        <v>35.4</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-39.5%</t>
+          <t>-51.1%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>RMKE.JK</t>
+          <t>ASII.JK</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>48</v>
       </c>
       <c r="C48" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-42.8%</t>
+          <t>-11.5%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>AMRT.JK</t>
+          <t>BBNI.JK</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>47</v>
       </c>
       <c r="C49" t="n">
-        <v>34.8</v>
+        <v>29</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-3.5%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TPIA.JK</t>
+          <t>DEWA.JK</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>46</v>
       </c>
       <c r="C50" t="n">
-        <v>34.6</v>
+        <v>28.6</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-13.1%</t>
+          <t>-24.5%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TRIN.JK</t>
+          <t>BUMI.JK</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C51" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-40.2%</t>
+          <t>-36.6%</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BBNI.JK</t>
+          <t>RMKE.JK</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C52" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>-45.8%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BUMI.JK</t>
+          <t>TRIN.JK</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C53" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-35.3%</t>
+          <t>-38.5%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BUVA.JK</t>
+          <t>TRUE.JK</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C54" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-33.2%</t>
+          <t>-52.8%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>EMTK.JK</t>
+          <t>NICL.JK</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C55" t="n">
-        <v>26.2</v>
+        <v>20.8</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-32.7%</t>
+          <t>-35.8%</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>UNTR.JK</t>
+          <t>EXCL.JK</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C56" t="n">
-        <v>24.8</v>
+        <v>19.8</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-5.3%</t>
+          <t>-30.5%</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ESSA.JK</t>
+          <t>TPIA.JK</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>38</v>
       </c>
       <c r="C57" t="n">
-        <v>23</v>
+        <v>19.6</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-13.7%</t>
+          <t>-13.8%</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BREN.JK</t>
+          <t>DSSA.JK</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>37</v>
       </c>
       <c r="C58" t="n">
-        <v>20.4</v>
+        <v>17.4</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-20.0%</t>
+          <t>-25.0%</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BKSL.JK</t>
+          <t>BBYB.JK</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C59" t="n">
-        <v>18.8</v>
+        <v>17.4</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-19.7%</t>
+          <t>-34.9%</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BBYB.JK</t>
+          <t>EMTK.JK</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60" t="n">
-        <v>17.4</v>
+        <v>16.2</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-34.2%</t>
+          <t>-34.0%</t>
         </is>
       </c>
     </row>
@@ -3473,14 +3473,14 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C61" t="n">
         <v>15.4</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-19.5%</t>
+          <t>-19.1%</t>
         </is>
       </c>
     </row>
@@ -3491,489 +3491,489 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C62" t="n">
         <v>14.8</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-19.9%</t>
+          <t>-19.1%</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TLKM.JK</t>
+          <t>BUVA.JK</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C63" t="n">
-        <v>11.8</v>
+        <v>13</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-11.7%</t>
+          <t>-35.9%</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>JPFA.JK</t>
+          <t>ESSA.JK</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C64" t="n">
-        <v>11.4</v>
+        <v>13</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-15.4%</t>
+          <t>-13.7%</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CBDK.JK</t>
+          <t>TLKM.JK</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C65" t="n">
-        <v>8.4</v>
+        <v>11.8</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-34.7%</t>
+          <t>-11.7%</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BBCA.JK</t>
+          <t>GOTO.JK</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C66" t="n">
-        <v>7.8</v>
+        <v>11.8</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-15.0%</t>
+          <t>-14.1%</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>COIN.JK</t>
+          <t>JPFA.JK</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C67" t="n">
-        <v>7.8</v>
+        <v>11.4</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-57.9%</t>
+          <t>-18.8%</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PBSA.JK</t>
+          <t>CBDK.JK</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C68" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-48.0%</t>
+          <t>-35.3%</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CUAN.JK</t>
+          <t>BBCA.JK</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C69" t="n">
-        <v>7.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-35.9%</t>
+          <t>-14.4%</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BRPT.JK</t>
+          <t>COIN.JK</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C70" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-43.5%</t>
+          <t>-59.8%</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>KLBF.JK</t>
+          <t>PBSA.JK</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C71" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-13.9%</t>
+          <t>-48.5%</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CPRO.JK</t>
+          <t>CUAN.JK</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C72" t="n">
-        <v>6</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-24.4%</t>
+          <t>-36.7%</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>INET.JK</t>
+          <t>BRPT.JK</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C73" t="n">
-        <v>5.399999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-54.9%</t>
+          <t>-45.7%</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>IMPC.JK</t>
+          <t>KLBF.JK</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C74" t="n">
-        <v>5.399999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>-41.5%</t>
+          <t>-15.9%</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CDIA.JK</t>
+          <t>CPRO.JK</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C75" t="n">
-        <v>5.399999999999999</v>
+        <v>6</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-42.4%</t>
+          <t>-24.4%</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>RATU.JK</t>
+          <t>INET.JK</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C76" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-36.3%</t>
+          <t>-55.9%</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>PANI.JK</t>
+          <t>IMPC.JK</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C77" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-24.3%</t>
+          <t>-41.0%</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>WIFI.JK</t>
+          <t>CDIA.JK</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C78" t="n">
-        <v>4.8</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-40.9%</t>
+          <t>-44.3%</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ASII.JK</t>
+          <t>RATU.JK</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-10.8%</t>
+          <t>-37.9%</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PGEO.JK</t>
+          <t>PANI.JK</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-11.2%</t>
+          <t>-27.0%</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>PTRO.JK</t>
+          <t>BREN.JK</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C81" t="n">
-        <v>2.4</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-43.2%</t>
+          <t>-20.5%</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>RAJA.JK</t>
+          <t>WIFI.JK</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>11</v>
       </c>
       <c r="C82" t="n">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>-38.9%</t>
+          <t>-41.2%</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>DSSA.JK</t>
+          <t>AMRT.JK</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>11</v>
       </c>
       <c r="C83" t="n">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>-23.4%</t>
+          <t>-9.3%</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>GOTO.JK</t>
+          <t>PGEO.JK</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>-14.1%</t>
+          <t>-12.3%</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>EXCL.JK</t>
+          <t>PTRO.JK</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>7</v>
       </c>
       <c r="C85" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>-36.3%</t>
+          <t>-45.2%</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>PSAB.JK</t>
+          <t>RAJA.JK</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>7</v>
       </c>
       <c r="C86" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>-14.5%</t>
+          <t>-40.9%</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>TOBA.JK</t>
+          <t>PSAB.JK</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C87" t="n">
         <v>1.8</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>-21.4%</t>
+          <t>-13.7%</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>KIJA.JK</t>
+          <t>TOBA.JK</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>-35.0%</t>
+          <t>-23.4%</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BBKP.JK</t>
+          <t>KIJA.JK</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -3984,23 +3984,41 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-22.3%</t>
+          <t>-35.6%</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
+          <t>BBKP.JK</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>3</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>-22.3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
           <t>SSIA.JK</t>
         </is>
       </c>
-      <c r="B90" t="n">
+      <c r="B91" t="n">
         <v>1</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C91" t="n">
         <v>-6</v>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>-24.3%</t>
         </is>
@@ -4031,7 +4049,7 @@
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="11" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4090,17 +4108,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1657-1763</t>
+          <t>1682-1778</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2077</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-679700</t>
+          <t>766200</t>
         </is>
       </c>
     </row>
@@ -4111,25 +4129,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ELSA.JK</t>
+          <t>ENRG.JK</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>778-842</t>
+          <t>1613-1767</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1038</t>
+          <t>2222</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4172000</t>
+          <t>56554200</t>
         </is>
       </c>
     </row>
@@ -4140,25 +4158,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ENRG.JK</t>
+          <t>ELSA.JK</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1478-1632</t>
+          <t>770-830</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2034</t>
+          <t>1013</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-2949300</t>
+          <t>-21636100</t>
         </is>
       </c>
     </row>
@@ -4173,21 +4191,21 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2240-2360</t>
+          <t>2251-2349</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2790</t>
+          <t>2743</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>6694500</t>
+          <t>-2979900</t>
         </is>
       </c>
     </row>
@@ -4198,32 +4216,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>HRUM.JK</t>
+          <t>INDY.JK</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1205-1275</t>
+          <t>3591-3849</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1513</t>
+          <t>4641</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>6980600</t>
+          <t>-1117600</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -4231,25 +4249,25 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BIPI.JK</t>
+          <t>NCKL.JK</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>231-257</t>
+          <t>1438-1512</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>1775</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-87444100</t>
+          <t>-5503000</t>
         </is>
       </c>
     </row>
@@ -4260,25 +4278,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TCPI.JK</t>
+          <t>MBMA.JK</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10959-11441</t>
+          <t>820-890</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>13378</t>
+          <t>1088</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-320300</t>
+          <t>-73678300</t>
         </is>
       </c>
     </row>
@@ -4289,25 +4307,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BULL.JK</t>
+          <t>INCO.JK</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>506-564</t>
+          <t>6695-7105</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>8423</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-995300</t>
+          <t>745400</t>
         </is>
       </c>
     </row>
@@ -4318,25 +4336,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HUMI.JK</t>
+          <t>ADMR.JK</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>244-280</t>
+          <t>2004-2136</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>2563</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>5593400</t>
+          <t>-25253200</t>
         </is>
       </c>
     </row>
@@ -4347,32 +4365,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GTSI.JK</t>
+          <t>ANTM.JK</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>313-351</t>
+          <t>4108-4332</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>5087</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2566600</t>
+          <t>-30506300</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -4380,25 +4398,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NCKL.JK</t>
+          <t>HRTA.JK</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1459-1541</t>
+          <t>2656-2844</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1821</t>
+          <t>3351</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-2475500</t>
+          <t>-2895500</t>
         </is>
       </c>
     </row>
@@ -4409,25 +4427,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>INCO.JK</t>
+          <t>VKTR.JK</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6617-7083</t>
+          <t>962-1078</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8490</t>
+          <t>1369</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>5562500</t>
+          <t>-2430100</t>
         </is>
       </c>
     </row>
@@ -4438,25 +4456,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>TINS.JK</t>
+          <t>PSKT.JK</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3834-4146</t>
+          <t>314-354</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5045</t>
+          <t>454</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-1117000</t>
+          <t>7483200</t>
         </is>
       </c>
     </row>
@@ -4467,25 +4485,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ADMR.JK</t>
+          <t>MINA.JK</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1955-2105</t>
+          <t>359-405</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2561</t>
+          <t>541</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2503600</t>
+          <t>-4347200</t>
         </is>
       </c>
     </row>
@@ -4496,32 +4514,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>INKP.JK</t>
+          <t>BUVA.JK</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10032-10568</t>
+          <t>1306-1474</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>12485</t>
+          <t>1973</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-6541900</t>
+          <t>-16450400</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -4529,25 +4547,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>HRTA.JK</t>
+          <t>BIPI.JK</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2595-2805</t>
+          <t>215-241</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3378</t>
+          <t>304</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-239100</t>
+          <t>-104512900</t>
         </is>
       </c>
     </row>
@@ -4558,25 +4576,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ZATA.JK</t>
+          <t>TCPI.JK</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>113-129</t>
+          <t>11391-11809</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>13057</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-12543600</t>
+          <t>328500</t>
         </is>
       </c>
     </row>
@@ -4587,25 +4605,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PSKT.JK</t>
+          <t>BULL.JK</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>313-355</t>
+          <t>483-537</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>677</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-6222100</t>
+          <t>-2075700</t>
         </is>
       </c>
     </row>
@@ -4616,25 +4634,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>VKTR.JK</t>
+          <t>HUMI.JK</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>937-1053</t>
+          <t>235-269</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1340</t>
+          <t>369</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>26210600</t>
+          <t>-571700</t>
         </is>
       </c>
     </row>
@@ -4645,25 +4663,25 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MINA.JK</t>
+          <t>GTSI.JK</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>359-409</t>
+          <t>304-340</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>444</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>12447000</t>
+          <t>-3409300</t>
         </is>
       </c>
     </row>
@@ -4682,21 +4700,21 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2134-2226</t>
+          <t>2153-2227</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2596</t>
+          <t>2568</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2573300</t>
+          <t>10200200</t>
         </is>
       </c>
     </row>
@@ -4711,21 +4729,21 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>433-479</t>
+          <t>417-459</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>603</t>
+          <t>582</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-14999300</t>
+          <t>-2360900</t>
         </is>
       </c>
     </row>
@@ -4736,25 +4754,25 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BREN.JK</t>
+          <t>CDIA.JK</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>7855-8345</t>
+          <t>1092-1188</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>9969</t>
+          <t>1472</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-2800700</t>
+          <t>-7662000</t>
         </is>
       </c>
     </row>
@@ -4765,25 +4783,25 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CDIA.JK</t>
+          <t>BREN.JK</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1124-1236</t>
+          <t>7876-8224</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1568</t>
+          <t>9603</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>4088000</t>
+          <t>-65600</t>
         </is>
       </c>
     </row>
@@ -4798,21 +4816,21 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1127-1183</t>
+          <t>1117-1163</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1386</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-1442400</t>
+          <t>-2798000</t>
         </is>
       </c>
     </row>
@@ -4831,21 +4849,21 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4981-5169</t>
+          <t>5047-5203</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5995</t>
+          <t>5980</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-6646400</t>
+          <t>33741800</t>
         </is>
       </c>
     </row>
@@ -4860,21 +4878,21 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>130-148</t>
+          <t>127-143</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>182</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>12339000</t>
+          <t>-1255200</t>
         </is>
       </c>
     </row>
@@ -4889,21 +4907,21 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1790-1890</t>
+          <t>1794-1886</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2240</t>
+          <t>2220</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-1175200</t>
+          <t>-1514600</t>
         </is>
       </c>
     </row>
@@ -4918,21 +4936,21 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3713-3827</t>
+          <t>3797-3883</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4395</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-26018200</t>
+          <t>105416300</t>
         </is>
       </c>
     </row>
@@ -4947,21 +4965,21 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2295-2405</t>
+          <t>2296-2384</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2826</t>
+          <t>2768</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-4003500</t>
+          <t>-1137600</t>
         </is>
       </c>
     </row>
@@ -4980,21 +4998,21 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2169-2271</t>
+          <t>2214-2306</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2663</t>
+          <t>2687</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>7049300</t>
+          <t>4049500</t>
         </is>
       </c>
     </row>
@@ -5005,7 +5023,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>EMTK.JK</t>
+          <t>EXCL.JK</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -5013,17 +5031,17 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>957-1023</t>
+          <t>3021-3219</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1231</t>
+          <t>3862</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-92600</t>
+          <t>4119100</t>
         </is>
       </c>
     </row>
@@ -5034,25 +5052,25 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>TLKM.JK</t>
+          <t>EMTK.JK</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3405-3555</t>
+          <t>940-1000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4142</t>
+          <t>1194</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-19828900</t>
+          <t>-5460200</t>
         </is>
       </c>
     </row>
@@ -5063,25 +5081,25 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>INET.JK</t>
+          <t>TLKM.JK</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>400-444</t>
+          <t>3416-3544</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>4092</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>31827500</t>
+          <t>13783000</t>
         </is>
       </c>
     </row>
@@ -5092,25 +5110,25 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>EXCL.JK</t>
+          <t>INET.JK</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2750-2970</t>
+          <t>392-432</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>3595</t>
+          <t>547</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-12643600</t>
+          <t>-15489100</t>
         </is>
       </c>
     </row>
@@ -5129,21 +5147,21 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>95-101</t>
+          <t>94-100</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>119</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-13689500</t>
+          <t>-266800</t>
         </is>
       </c>
     </row>
@@ -5158,21 +5176,21 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1063-1097</t>
+          <t>1041-1069</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1261</t>
+          <t>1210</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-20671600</t>
+          <t>-34214900</t>
         </is>
       </c>
     </row>
@@ -5191,21 +5209,21 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>363-373</t>
+          <t>370-378</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>420</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>11514600</t>
+          <t>37538300</t>
         </is>
       </c>
     </row>
@@ -5216,25 +5234,25 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>TRUE.JK</t>
+          <t>BKSL.JK</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>249-291</t>
+          <t>138-150</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>184</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>410800</t>
+          <t>7075200</t>
         </is>
       </c>
     </row>
@@ -5249,7 +5267,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -5278,21 +5296,21 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>980-1100</t>
+          <t>1014-1126</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1454</t>
+          <t>1456</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1021700</t>
+          <t>3499700</t>
         </is>
       </c>
     </row>
@@ -5303,25 +5321,25 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>BKSL.JK</t>
+          <t>TRUE.JK</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>140-154</t>
+          <t>229-271</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>386</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-26171300</t>
+          <t>314000</t>
         </is>
       </c>
     </row>
@@ -5340,21 +5358,21 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>6627-6823</t>
+          <t>6571-6729</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>7770</t>
+          <t>7479</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>-4259700</t>
+          <t>-8356000</t>
         </is>
       </c>
     </row>
@@ -5369,21 +5387,21 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>7994-8256</t>
+          <t>7905-8145</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>9500</t>
+          <t>9296</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>-4149800</t>
+          <t>-1298800</t>
         </is>
       </c>
     </row>
@@ -5394,25 +5412,25 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>AMRT.JK</t>
+          <t>UNVR.JK</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1855-1945</t>
+          <t>2188-2292</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2282</t>
+          <t>2689</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>3727100</t>
+          <t>2865100</t>
         </is>
       </c>
     </row>
@@ -5423,25 +5441,25 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>UNVR.JK</t>
+          <t>JPFA.JK</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2159-2281</t>
+          <t>2324-2436</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2703</t>
+          <t>2854</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>-2854000</t>
+          <t>5002500</t>
         </is>
       </c>
     </row>
@@ -5452,25 +5470,25 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>JPFA.JK</t>
+          <t>CPRO.JK</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2418-2542</t>
+          <t>64-66</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2988</t>
+          <t>78</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>-1447800</t>
+          <t>12850400</t>
         </is>
       </c>
     </row>
@@ -5489,21 +5507,21 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>574-646</t>
+          <t>582-648</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>819</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>-121300</t>
+          <t>4580900</t>
         </is>
       </c>
     </row>
@@ -5514,25 +5532,25 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>WIFI.JK</t>
+          <t>GOTO.JK</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2418-2602</t>
+          <t>60-62</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>3157</t>
+          <t>72</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>796600</t>
+          <t>-1.1B</t>
         </is>
       </c>
     </row>
@@ -5543,25 +5561,25 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>GOTO.JK</t>
+          <t>WIFI.JK</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>60-62</t>
+          <t>2420-2580</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>3093</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>-1.3B</t>
+          <t>-2694000</t>
         </is>
       </c>
     </row>
@@ -5622,7 +5640,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-1267941800</v>
+        <v>-1086768900</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -5640,7 +5658,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-815570300</v>
+        <v>-487670800</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -5654,11 +5672,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BBCA.JK</t>
+          <t>BBRI.JK</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-179944200</v>
+        <v>105416300</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -5676,7 +5694,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-87444100</v>
+        <v>-104512900</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -5690,11 +5708,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>INET.JK</t>
+          <t>MBMA.JK</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>31827500</v>
+        <v>-73678300</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -5708,11 +5726,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>VKTR.JK</t>
+          <t>ENRG.JK</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26210600</v>
+        <v>56554200</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -5726,11 +5744,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BKSL.JK</t>
+          <t>AMRT.JK</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-26171300</v>
+        <v>37773100</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -5744,11 +5762,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BBRI.JK</t>
+          <t>PWON.JK</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-26018200</v>
+        <v>37538300</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -5762,11 +5780,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>KIJA.JK</t>
+          <t>KLBF.JK</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-23104400</v>
+        <v>-34214900</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -5780,11 +5798,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BRPT.JK</t>
+          <t>BMRI.JK</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-21591600</v>
+        <v>33741800</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -5821,7 +5839,7 @@
     <col width="11" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
     <col width="9" customWidth="1" min="10" max="10"/>
-    <col width="9" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5908,16 +5926,16 @@
         <v>0.38872</v>
       </c>
       <c r="H2" s="10" t="n">
-        <v>8.410394999999999</v>
+        <v>8.496212</v>
       </c>
       <c r="I2" s="11" t="n">
-        <v>1.6110231</v>
+        <v>1.6268952</v>
       </c>
       <c r="J2" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K2" s="11" t="n">
-        <v>603.42</v>
+        <v>603.21</v>
       </c>
     </row>
     <row r="3">
@@ -5947,16 +5965,16 @@
         <v>0.34335998</v>
       </c>
       <c r="H3" s="10" t="n">
-        <v>10.780772</v>
+        <v>10.660744</v>
       </c>
       <c r="I3" s="11" t="n">
-        <v>1.253068</v>
+        <v>1.2401497</v>
       </c>
       <c r="J3" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="11" t="n">
-        <v>35.99</v>
+        <v>36.02</v>
       </c>
     </row>
     <row r="4">
@@ -5986,16 +6004,16 @@
         <v>0.43205002</v>
       </c>
       <c r="H4" s="12" t="n">
-        <v>8.094849</v>
+        <v>7.93002</v>
       </c>
       <c r="I4" s="11" t="n">
-        <v>1.5465438</v>
+        <v>1.5153006</v>
       </c>
       <c r="J4" s="14" t="n">
         <v>2.444</v>
       </c>
       <c r="K4" s="11" t="n">
-        <v>122.3</v>
+        <v>122.32</v>
       </c>
     </row>
     <row r="5">
@@ -6025,16 +6043,16 @@
         <v>0.27552</v>
       </c>
       <c r="H5" s="10" t="n">
-        <v>11.836186</v>
+        <v>11.641673</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>2.6450036</v>
+        <v>2.6009202</v>
       </c>
       <c r="J5" s="14" t="n">
         <v>23.671</v>
       </c>
       <c r="K5" s="11" t="n">
-        <v>126.73</v>
+        <v>126.7</v>
       </c>
     </row>
     <row r="6">
@@ -6064,16 +6082,16 @@
         <v>0.41044</v>
       </c>
       <c r="H6" s="10" t="n">
-        <v>10.162547</v>
+        <v>10.352078</v>
       </c>
       <c r="I6" s="11" t="n">
-        <v>1.7141755</v>
+        <v>1.7460036</v>
       </c>
       <c r="J6" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="11" t="n">
-        <v>370.97</v>
+        <v>370.94</v>
       </c>
     </row>
     <row r="7">
@@ -6103,10 +6121,10 @@
         <v>0.71615</v>
       </c>
       <c r="H7" t="n">
-        <v>36.387436</v>
+        <v>35.340313</v>
       </c>
       <c r="I7" s="14" t="n">
-        <v>8.692933</v>
+        <v>8.442777</v>
       </c>
       <c r="J7" s="14" t="n">
         <v>5.093</v>
@@ -6142,16 +6160,16 @@
         <v>0.05786</v>
       </c>
       <c r="H8" s="10" t="n">
-        <v>8.641717</v>
+        <v>8.291816000000001</v>
       </c>
       <c r="I8" s="11" t="n">
-        <v>1.6954762</v>
+        <v>1.6271101</v>
       </c>
       <c r="J8" s="14" t="n">
         <v>62.876</v>
       </c>
       <c r="K8" s="11" t="n">
-        <v>286.98</v>
+        <v>287.03</v>
       </c>
     </row>
     <row r="9">
@@ -6160,7 +6178,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NICL.JK</t>
+          <t>BRIS.JK</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -6171,26 +6189,26 @@
           <t>MID</t>
         </is>
       </c>
-      <c r="E9" s="8" t="n">
-        <v>0.65794</v>
-      </c>
-      <c r="F9" s="16" t="n">
-        <v>-0.261</v>
+      <c r="E9" s="9" t="n">
+        <v>0.15604</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>0.075</v>
       </c>
       <c r="G9" s="8" t="n">
-        <v>0.27632</v>
+        <v>0.31919</v>
       </c>
       <c r="H9" t="n">
-        <v>24.463938</v>
-      </c>
-      <c r="I9" s="14" t="n">
-        <v>16.069143</v>
+        <v>14.265683</v>
+      </c>
+      <c r="I9" s="15" t="n">
+        <v>2.077699</v>
       </c>
       <c r="J9" s="11" t="n">
-        <v>0.378</v>
+        <v>0</v>
       </c>
       <c r="K9" s="11" t="n">
-        <v>51.3</v>
+        <v>164.03</v>
       </c>
     </row>
     <row r="10">
@@ -6199,7 +6217,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BRIS.JK</t>
+          <t>NICL.JK</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -6210,26 +6228,26 @@
           <t>MID</t>
         </is>
       </c>
-      <c r="E10" s="9" t="n">
-        <v>0.15604</v>
-      </c>
-      <c r="F10" s="9" t="n">
-        <v>0.075</v>
+      <c r="E10" s="8" t="n">
+        <v>0.65794</v>
+      </c>
+      <c r="F10" s="16" t="n">
+        <v>-0.261</v>
       </c>
       <c r="G10" s="8" t="n">
-        <v>0.31919</v>
+        <v>0.27632</v>
       </c>
       <c r="H10" t="n">
-        <v>14.331017</v>
-      </c>
-      <c r="I10" s="15" t="n">
-        <v>2.086578</v>
+        <v>23.364485</v>
+      </c>
+      <c r="I10" s="14" t="n">
+        <v>15.364917</v>
       </c>
       <c r="J10" s="11" t="n">
-        <v>0</v>
+        <v>0.378</v>
       </c>
       <c r="K10" s="11" t="n">
-        <v>163.98</v>
+        <v>51.36</v>
       </c>
     </row>
     <row r="11">
@@ -6259,16 +6277,16 @@
         <v>0.023759998</v>
       </c>
       <c r="H11" s="12" t="n">
-        <v>17.365578</v>
+        <v>17.698545</v>
       </c>
       <c r="I11" s="15" t="n">
-        <v>4.410777</v>
+        <v>4.4924583</v>
       </c>
       <c r="J11" s="14" t="n">
         <v>139.825</v>
       </c>
       <c r="K11" s="11" t="n">
-        <v>155.48</v>
+        <v>155.38</v>
       </c>
     </row>
     <row r="12">
@@ -6298,16 +6316,16 @@
         <v>0.048460003</v>
       </c>
       <c r="H12" s="10" t="n">
-        <v>8.577783</v>
+        <v>8.474576000000001</v>
       </c>
       <c r="I12" s="11" t="n">
-        <v>1.1494824</v>
+        <v>1.1352912</v>
       </c>
       <c r="J12" s="14" t="n">
         <v>4.935</v>
       </c>
       <c r="K12" s="11" t="n">
-        <v>94.43000000000001</v>
+        <v>94.40000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -6337,16 +6355,16 @@
         <v>0.21154</v>
       </c>
       <c r="H13" t="n">
-        <v>30.808168</v>
+        <v>31.643356</v>
       </c>
       <c r="I13" s="14" t="n">
-        <v>126071.42</v>
+        <v>129285.71</v>
       </c>
       <c r="J13" s="14" t="n">
         <v>118.6</v>
       </c>
       <c r="K13" s="11" t="n">
-        <v>57.29</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="14">
@@ -6376,16 +6394,16 @@
         <v>0.2208</v>
       </c>
       <c r="H14" t="n">
-        <v>22.264944</v>
+        <v>22.075235</v>
       </c>
       <c r="I14" s="14" t="n">
-        <v>150555.55</v>
+        <v>149444.44</v>
       </c>
       <c r="J14" s="14" t="n">
         <v>82.7</v>
       </c>
       <c r="K14" s="11" t="n">
-        <v>304.29</v>
+        <v>304.64</v>
       </c>
     </row>
     <row r="15">
@@ -6415,16 +6433,16 @@
         <v>0.30543</v>
       </c>
       <c r="H15" s="10" t="n">
-        <v>8.288288</v>
+        <v>8.425322</v>
       </c>
       <c r="I15" s="11" t="n">
-        <v>0.81157017</v>
+        <v>0.82480234</v>
       </c>
       <c r="J15" s="14" t="n">
         <v>21.136</v>
       </c>
       <c r="K15" s="11" t="n">
-        <v>44.4</v>
+        <v>44.39</v>
       </c>
     </row>
     <row r="16">
@@ -6454,16 +6472,16 @@
         <v>0.40232</v>
       </c>
       <c r="H16" s="10" t="n">
-        <v>8.284927</v>
+        <v>8.326347999999999</v>
       </c>
       <c r="I16" s="11" t="n">
-        <v>0.9654261</v>
+        <v>0.96976507</v>
       </c>
       <c r="J16" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K16" s="11" t="n">
-        <v>537.12</v>
+        <v>536.85</v>
       </c>
     </row>
     <row r="17">
@@ -6493,16 +6511,16 @@
         <v>0.06239</v>
       </c>
       <c r="H17" s="17" t="n">
-        <v>68.49315</v>
+        <v>68.965515</v>
       </c>
       <c r="I17" s="14" t="n">
-        <v>26245.21</v>
+        <v>26436.781</v>
       </c>
       <c r="J17" s="11" t="n">
         <v>0.173</v>
       </c>
       <c r="K17" s="11" t="n">
-        <v>100.01</v>
+        <v>100.05</v>
       </c>
     </row>
     <row r="18">
@@ -6532,16 +6550,16 @@
         <v>0.09748999999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>12.989292</v>
-      </c>
-      <c r="I18" s="11" t="n">
-        <v>1.9712639</v>
+        <v>13.227203</v>
+      </c>
+      <c r="I18" s="15" t="n">
+        <v>2.006782</v>
       </c>
       <c r="J18" s="14" t="n">
         <v>138.994</v>
       </c>
       <c r="K18" s="11" t="n">
-        <v>170.91</v>
+        <v>170.86</v>
       </c>
     </row>
     <row r="19">
@@ -6571,16 +6589,16 @@
         <v>0.52018</v>
       </c>
       <c r="H19" t="n">
-        <v>22.523348</v>
+        <v>22.321428</v>
       </c>
       <c r="I19" s="15" t="n">
-        <v>3.835181</v>
+        <v>3.8040006</v>
       </c>
       <c r="J19" s="14" t="n">
         <v>2.39</v>
       </c>
       <c r="K19" s="11" t="n">
-        <v>273.05</v>
+        <v>273.28</v>
       </c>
     </row>
     <row r="20">
@@ -6613,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="14" t="n">
-        <v>15.022886</v>
+        <v>14.944642</v>
       </c>
       <c r="J20" s="11" t="n">
         <v>0.049</v>
@@ -6649,16 +6667,16 @@
         <v>0.53282</v>
       </c>
       <c r="H21" t="n">
-        <v>15.361066</v>
+        <v>15.479711</v>
       </c>
       <c r="I21" s="15" t="n">
-        <v>3.1357853</v>
+        <v>3.1576376</v>
       </c>
       <c r="J21" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K21" s="11" t="n">
-        <v>467.09</v>
+        <v>466.74</v>
       </c>
     </row>
     <row r="22">
@@ -6688,16 +6706,16 @@
         <v>0.30952</v>
       </c>
       <c r="H22" s="17" t="n">
-        <v>308.4261</v>
+        <v>293.9778</v>
       </c>
       <c r="I22" s="14" t="n">
-        <v>15.732962</v>
+        <v>15.043631</v>
       </c>
       <c r="J22" s="11" t="n">
         <v>0.261</v>
       </c>
       <c r="K22" s="11" t="n">
-        <v>6.29</v>
+        <v>6.31</v>
       </c>
     </row>
     <row r="23">
@@ -6727,16 +6745,16 @@
         <v>0.15842</v>
       </c>
       <c r="H23" t="n">
-        <v>18.097208</v>
+        <v>17.889435</v>
       </c>
       <c r="I23" s="14" t="n">
-        <v>5.4730687</v>
+        <v>5.4144287</v>
       </c>
       <c r="J23" s="15" t="n">
         <v>1.461</v>
       </c>
       <c r="K23" s="11" t="n">
-        <v>77.36</v>
+        <v>77.42</v>
       </c>
     </row>
     <row r="24">
@@ -6766,16 +6784,16 @@
         <v>0.13921</v>
       </c>
       <c r="H24" s="17" t="n">
-        <v>85.029076</v>
+        <v>84.01937</v>
       </c>
       <c r="I24" s="14" t="n">
-        <v>585000</v>
+        <v>578333.3</v>
       </c>
       <c r="J24" s="14" t="n">
         <v>201.586</v>
       </c>
       <c r="K24" s="11" t="n">
-        <v>20.64</v>
+        <v>20.65</v>
       </c>
     </row>
     <row r="25">
@@ -6805,16 +6823,16 @@
         <v>0.0806</v>
       </c>
       <c r="H25" s="10" t="n">
-        <v>10.040068</v>
+        <v>10.090771</v>
       </c>
       <c r="I25" s="14" t="n">
-        <v>19122.807</v>
+        <v>19210.525</v>
       </c>
       <c r="J25" s="14" t="n">
         <v>32.802</v>
       </c>
       <c r="K25" s="11" t="n">
-        <v>217.13</v>
+        <v>217.03</v>
       </c>
     </row>
     <row r="26">
@@ -6844,16 +6862,16 @@
         <v>0.06455</v>
       </c>
       <c r="H26" s="17" t="n">
-        <v>62.11813</v>
+        <v>62.121216</v>
       </c>
       <c r="I26" s="14" t="n">
-        <v>12.642487</v>
+        <v>12.746114</v>
       </c>
       <c r="J26" s="11" t="n">
         <v>0.216</v>
       </c>
       <c r="K26" s="11" t="n">
-        <v>9.82</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="27">
@@ -6883,16 +6901,16 @@
         <v>0.09752</v>
       </c>
       <c r="H27" s="12" t="n">
-        <v>19.151846</v>
+        <v>18.415535</v>
       </c>
       <c r="I27" s="14" t="n">
-        <v>87500</v>
+        <v>84166.664</v>
       </c>
       <c r="J27" s="14" t="n">
         <v>107.818</v>
       </c>
       <c r="K27" s="11" t="n">
-        <v>109.65</v>
+        <v>109.69</v>
       </c>
     </row>
     <row r="28">
@@ -6922,16 +6940,16 @@
         <v>0.10163</v>
       </c>
       <c r="H28" t="n">
-        <v>14.104741</v>
+        <v>13.774645</v>
       </c>
       <c r="I28" s="15" t="n">
-        <v>2.1301143</v>
+        <v>2.0808063</v>
       </c>
       <c r="J28" s="14" t="n">
         <v>2.102</v>
       </c>
       <c r="K28" s="11" t="n">
-        <v>76.56999999999999</v>
+        <v>76.59</v>
       </c>
     </row>
     <row r="29">
@@ -6961,16 +6979,16 @@
         <v>0.15737</v>
       </c>
       <c r="H29" s="10" t="n">
-        <v>5.555556</v>
+        <v>5.593319</v>
       </c>
       <c r="I29" s="11" t="n">
-        <v>0.29405203</v>
+        <v>0.29610834</v>
       </c>
       <c r="J29" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K29" s="11" t="n">
-        <v>51.48</v>
+        <v>51.49</v>
       </c>
     </row>
     <row r="30">
@@ -7018,7 +7036,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BREN.JK</t>
+          <t>RMKO.JK</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -7029,26 +7047,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E31" s="8" t="n">
-        <v>0.22038001</v>
-      </c>
-      <c r="F31" s="9" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G31" s="8" t="n">
-        <v>0.23266001</v>
-      </c>
-      <c r="H31" s="17" t="n">
-        <v>447.5138</v>
+      <c r="E31" s="16" t="n">
+        <v>-0.29015</v>
+      </c>
+      <c r="F31" s="8" t="n">
+        <v>0.671</v>
+      </c>
+      <c r="G31" s="9" t="n">
+        <v>-0.21053</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
       </c>
       <c r="I31" s="14" t="n">
-        <v>1620000</v>
+        <v>6.275883</v>
       </c>
       <c r="J31" s="14" t="n">
-        <v>239.827</v>
-      </c>
-      <c r="K31" s="11" t="n">
-        <v>18.1</v>
+        <v>65.76600000000001</v>
+      </c>
+      <c r="K31" s="15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -7078,10 +7096,10 @@
         <v>0.19652</v>
       </c>
       <c r="H32" s="17" t="n">
-        <v>191.47005</v>
+        <v>192.37749</v>
       </c>
       <c r="I32" s="14" t="n">
-        <v>117222.23</v>
+        <v>117777.78</v>
       </c>
       <c r="J32" s="14" t="n">
         <v>12.694</v>
@@ -7117,16 +7135,16 @@
         <v>0.24544</v>
       </c>
       <c r="H33" s="17" t="n">
-        <v>305.7971</v>
+        <v>294.2857</v>
       </c>
       <c r="I33" s="14" t="n">
-        <v>10.383091</v>
+        <v>10.137047</v>
       </c>
       <c r="J33" s="14" t="n">
         <v>2.833</v>
       </c>
       <c r="K33" s="11" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="34">
@@ -7156,16 +7174,16 @@
         <v>0.14588</v>
       </c>
       <c r="H34" s="17" t="n">
-        <v>214.67392</v>
+        <v>217.47043</v>
       </c>
       <c r="I34" s="14" t="n">
-        <v>45.290375</v>
+        <v>45.672573</v>
       </c>
       <c r="J34" s="14" t="n">
         <v>38.133</v>
       </c>
       <c r="K34" s="11" t="n">
-        <v>11.04</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="35">
@@ -7195,16 +7213,16 @@
         <v>0.65328</v>
       </c>
       <c r="H35" s="17" t="n">
-        <v>100.42553</v>
+        <v>97.10392</v>
       </c>
       <c r="I35" s="14" t="n">
-        <v>147500</v>
+        <v>142500</v>
       </c>
       <c r="J35" s="14" t="n">
         <v>34.873</v>
       </c>
       <c r="K35" s="11" t="n">
-        <v>11.75</v>
+        <v>11.74</v>
       </c>
     </row>
     <row r="36">
@@ -7234,16 +7252,16 @@
         <v>0.31559</v>
       </c>
       <c r="H36" s="17" t="n">
-        <v>75.85429000000001</v>
+        <v>73.52941</v>
       </c>
       <c r="I36" s="14" t="n">
-        <v>454411.75</v>
+        <v>442647.03</v>
       </c>
       <c r="J36" s="14" t="n">
         <v>36.548</v>
       </c>
       <c r="K36" s="11" t="n">
-        <v>101.84</v>
+        <v>102.34</v>
       </c>
     </row>
     <row r="37">
@@ -7273,16 +7291,16 @@
         <v>0.24195999</v>
       </c>
       <c r="H37" s="17" t="n">
-        <v>194.27954</v>
+        <v>188.68779</v>
       </c>
       <c r="I37" s="14" t="n">
-        <v>8.117927</v>
+        <v>7.836054</v>
       </c>
       <c r="J37" s="14" t="n">
         <v>2.054</v>
       </c>
       <c r="K37" s="11" t="n">
-        <v>55.59</v>
+        <v>55.25</v>
       </c>
     </row>
     <row r="38">
@@ -7291,11 +7309,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ADMR.JK</t>
+          <t>BREN.JK</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -7303,25 +7321,25 @@
         </is>
       </c>
       <c r="E38" s="8" t="n">
-        <v>0.2018</v>
-      </c>
-      <c r="F38" s="16" t="n">
-        <v>-0.012</v>
+        <v>0.22038001</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>0.04</v>
       </c>
       <c r="G38" s="8" t="n">
-        <v>0.31149</v>
-      </c>
-      <c r="H38" t="n">
-        <v>15.869293</v>
+        <v>0.23266001</v>
+      </c>
+      <c r="H38" s="17" t="n">
+        <v>454.54547</v>
       </c>
       <c r="I38" s="14" t="n">
-        <v>54864.863</v>
+        <v>1610000</v>
       </c>
       <c r="J38" s="14" t="n">
-        <v>35.836</v>
+        <v>239.827</v>
       </c>
       <c r="K38" s="11" t="n">
-        <v>127.92</v>
+        <v>17.71</v>
       </c>
     </row>
     <row r="39">
@@ -7330,7 +7348,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PTBA.JK</t>
+          <t>ADMR.JK</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -7341,26 +7359,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E39" s="9" t="n">
-        <v>0.15961</v>
+      <c r="E39" s="8" t="n">
+        <v>0.2018</v>
       </c>
       <c r="F39" s="16" t="n">
         <v>-0.012</v>
       </c>
-      <c r="G39" s="9" t="n">
-        <v>0.075219996</v>
-      </c>
-      <c r="H39" s="10" t="n">
-        <v>9.295446999999999</v>
-      </c>
-      <c r="I39" s="11" t="n">
-        <v>1.471102</v>
+      <c r="G39" s="8" t="n">
+        <v>0.31149</v>
+      </c>
+      <c r="H39" t="n">
+        <v>16.180723</v>
+      </c>
+      <c r="I39" s="14" t="n">
+        <v>55945.945</v>
       </c>
       <c r="J39" s="14" t="n">
-        <v>19.582</v>
+        <v>35.836</v>
       </c>
       <c r="K39" s="11" t="n">
-        <v>284.01</v>
+        <v>127.93</v>
       </c>
     </row>
     <row r="40">
@@ -7369,7 +7387,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AADI.JK</t>
+          <t>PTBA.JK</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -7380,26 +7398,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E40" s="8" t="n">
-        <v>0.22769</v>
+      <c r="E40" s="9" t="n">
+        <v>0.15961</v>
       </c>
       <c r="F40" s="16" t="n">
-        <v>-0.132</v>
+        <v>-0.012</v>
       </c>
       <c r="G40" s="9" t="n">
-        <v>0.14828</v>
+        <v>0.075219996</v>
       </c>
       <c r="H40" s="10" t="n">
-        <v>6.1071925</v>
-      </c>
-      <c r="I40" s="14" t="n">
-        <v>21460.674</v>
+        <v>9.225027000000001</v>
+      </c>
+      <c r="I40" s="11" t="n">
+        <v>1.4599574</v>
       </c>
       <c r="J40" s="14" t="n">
-        <v>27.582</v>
+        <v>19.582</v>
       </c>
       <c r="K40" s="11" t="n">
-        <v>1563.73</v>
+        <v>284.01</v>
       </c>
     </row>
     <row r="41">
@@ -7408,7 +7426,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AMRT.JK</t>
+          <t>AADI.JK</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -7419,26 +7437,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E41" s="9" t="n">
-        <v>0.17877</v>
-      </c>
-      <c r="F41" s="9" t="n">
-        <v>0.057</v>
+      <c r="E41" s="8" t="n">
+        <v>0.22769</v>
+      </c>
+      <c r="F41" s="16" t="n">
+        <v>-0.132</v>
       </c>
       <c r="G41" s="9" t="n">
-        <v>0.02461</v>
-      </c>
-      <c r="H41" t="n">
-        <v>25.7697</v>
-      </c>
-      <c r="I41" s="15" t="n">
-        <v>4.5687904</v>
+        <v>0.14828</v>
+      </c>
+      <c r="H41" s="10" t="n">
+        <v>5.9630384</v>
+      </c>
+      <c r="I41" s="14" t="n">
+        <v>20955.057</v>
       </c>
       <c r="J41" s="14" t="n">
-        <v>10.566</v>
+        <v>27.582</v>
       </c>
       <c r="K41" s="11" t="n">
-        <v>73.73</v>
+        <v>1563.8</v>
       </c>
     </row>
   </sheetData>

--- a/reports/HEDGEFUND_TERMINAL.xlsx
+++ b/reports/HEDGEFUND_TERMINAL.xlsx
@@ -496,7 +496,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>23 February 2026</t>
+          <t>24 February 2026</t>
         </is>
       </c>
     </row>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>50.5</v>
+        <v>50.7</v>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MEDC.JK</t>
+          <t>ELSA.JK</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -585,7 +585,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>766200</t>
+          <t>-21.6M</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ENRG.JK</t>
+          <t>MEDC.JK</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -605,7 +605,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>56.6M</t>
+          <t>766200</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ELSA.JK</t>
+          <t>NCKL.JK</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -630,7 +630,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-21.6M</t>
+          <t>-5.5M</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NCKL.JK</t>
+          <t>HRTA.JK</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -655,7 +655,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-5.5M</t>
+          <t>-2.9M</t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>HRTA.JK</t>
+          <t>MBMA.JK</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -680,7 +680,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-2.9M</t>
+          <t>-73.7M</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>63.4</v>
+        <v>67.8</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>61.4</v>
+        <v>62.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>61.1</v>
+        <v>59.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>50.9</v>
+        <v>51.3</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>49.5</v>
+        <v>47.3</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MEDC.JK</t>
+          <t>ELSA.JK</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -920,40 +920,40 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1682-1778</t>
+          <t>752-808</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1584.821428571428</v>
+        <v>696.4285714285714</v>
       </c>
       <c r="F2" t="n">
-        <v>1921.428571428571</v>
+        <v>891.4285714285714</v>
       </c>
       <c r="G2" t="n">
-        <v>2113.571428571428</v>
+        <v>980.5714285714287</v>
       </c>
       <c r="H2" t="n">
-        <v>2255.178571428572</v>
+        <v>1086.428571428572</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>78%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>9.16%</t>
+          <t>21.58%</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>27.36</v>
+        <v>51.81</v>
       </c>
       <c r="L2" t="n">
-        <v>766200</v>
+        <v>-21636100</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -963,7 +963,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENRG.JK</t>
+          <t>MEDC.JK</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -971,36 +971,36 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1613-1767</t>
+          <t>1641-1729</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1458.571428571429</v>
+        <v>1552.678571428572</v>
       </c>
       <c r="F3" t="n">
-        <v>1994.821428571428</v>
+        <v>1861.428571428572</v>
       </c>
       <c r="G3" t="n">
-        <v>2222.5</v>
+        <v>2047.571428571429</v>
       </c>
       <c r="H3" t="n">
-        <v>2526.071428571428</v>
+        <v>2170.178571428572</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>9.48%</t>
+          <t>9.79%</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>2.25</v>
+        <v>32.74</v>
       </c>
       <c r="L3" t="n">
-        <v>56554200</v>
+        <v>766200</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ELSA.JK</t>
+          <t>NCKL.JK</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -1022,36 +1022,36 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>770-830</t>
+          <t>1496-1564</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>709.4642857142858</v>
+        <v>1427.678571428572</v>
       </c>
       <c r="F4" t="n">
-        <v>920.7142857142858</v>
+        <v>1658.928571428572</v>
       </c>
       <c r="G4" t="n">
-        <v>1012.785714285714</v>
+        <v>1824.821428571429</v>
       </c>
       <c r="H4" t="n">
-        <v>1131.964285714286</v>
+        <v>1880.178571428572</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>92%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>19.50%</t>
+          <t>19.20%</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>28.46</v>
+        <v>102.32</v>
       </c>
       <c r="L4" t="n">
-        <v>-21636100</v>
+        <v>-5503000</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NCKL.JK</t>
+          <t>HRTA.JK</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -1073,36 +1073,36 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1438-1512</t>
+          <t>2742-2918</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1364.107142857143</v>
+        <v>2564.821428571428</v>
       </c>
       <c r="F5" t="n">
-        <v>1613.214285714286</v>
+        <v>3169.642857142857</v>
       </c>
       <c r="G5" t="n">
-        <v>1774.535714285714</v>
+        <v>3486.607142857144</v>
       </c>
       <c r="H5" t="n">
-        <v>1849.464285714286</v>
+        <v>3755.892857142857</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>19.25%</t>
+          <t>26.84%</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>102.56</v>
+        <v>29.16</v>
       </c>
       <c r="L5" t="n">
-        <v>-5503000</v>
+        <v>-2895500</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HRTA.JK</t>
+          <t>MBMA.JK</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -1124,36 +1124,36 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2656-2844</t>
+          <t>847-913</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2468.75</v>
+        <v>781.9642857142857</v>
       </c>
       <c r="F6" t="n">
-        <v>3097.142857142857</v>
+        <v>1005.357142857143</v>
       </c>
       <c r="G6" t="n">
-        <v>3350.535714285714</v>
+        <v>1105.892857142857</v>
       </c>
       <c r="H6" t="n">
-        <v>3688.392857142857</v>
+        <v>1221.607142857143</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>78%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>26.97%</t>
+          <t>17.28%</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>29.29</v>
+        <v>17.9</v>
       </c>
       <c r="L6" t="n">
-        <v>-2895500</v>
+        <v>-73678300</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -1167,44 +1167,44 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MBMA.JK</t>
+          <t>BIPI.JK</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>820-890</t>
+          <t>256-284</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>749.4642857142857</v>
+        <v>226.9285714285714</v>
       </c>
       <c r="F7" t="n">
-        <v>989.2857142857143</v>
+        <v>326.3571428571428</v>
       </c>
       <c r="G7" t="n">
-        <v>1088.214285714286</v>
+        <v>368.3571428571428</v>
       </c>
       <c r="H7" t="n">
-        <v>1220.535714285714</v>
+        <v>424.3571428571428</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>16.52%</t>
+          <t>57.42%</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>14.27</v>
+        <v>11.78</v>
       </c>
       <c r="L7" t="n">
-        <v>-73678300</v>
+        <v>-104512900</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1218,48 +1218,48 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIPI.JK</t>
+          <t>TCPI.JK</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>215-241</t>
+          <t>11604-11946</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>189.4285714285714</v>
+        <v>11263.39285714286</v>
       </c>
       <c r="F8" t="n">
-        <v>276.3214285714286</v>
+        <v>12454.46428571428</v>
       </c>
       <c r="G8" t="n">
-        <v>303.9535714285714</v>
+        <v>12963.39285714286</v>
       </c>
       <c r="H8" t="n">
-        <v>359.0714285714286</v>
+        <v>13641.96428571428</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>62%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>56.50%</t>
+          <t>19.15%</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>11.39</v>
+        <v>7658171191.41</v>
       </c>
       <c r="L8" t="n">
-        <v>-104512900</v>
+        <v>328500</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>DISTRIB</t>
+          <t>ACCUM</t>
         </is>
       </c>
     </row>
@@ -1277,20 +1277,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6695-7105</t>
+          <t>6823-7177</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6283.928571428572</v>
+        <v>6469.642857142857</v>
       </c>
       <c r="F9" t="n">
-        <v>7657.142857142857</v>
+        <v>7653.571428571429</v>
       </c>
       <c r="G9" t="n">
-        <v>8422.857142857143</v>
+        <v>8418.928571428572</v>
       </c>
       <c r="H9" t="n">
-        <v>8944.642857142857</v>
+        <v>8766.071428571429</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -1299,11 +1299,11 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>32.01%</t>
+          <t>31.84%</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>814.78</v>
+        <v>810.5700000000001</v>
       </c>
       <c r="L9" t="n">
         <v>745400</v>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>ENRG.JK</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1328,36 +1328,36 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2153-2227</t>
+          <t>1513-1657</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2079.642857142857</v>
+        <v>1369.107142857143</v>
       </c>
       <c r="F10" t="n">
-        <v>2335</v>
+        <v>1870.178571428572</v>
       </c>
       <c r="G10" t="n">
-        <v>2568.5</v>
+        <v>2057.196428571429</v>
       </c>
       <c r="H10" t="n">
-        <v>2587.5</v>
+        <v>2367.678571428572</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>10.06%</t>
+          <t>7.03%</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>4025338057.04</v>
+        <v>1.93</v>
       </c>
       <c r="L10" t="n">
-        <v>10200200</v>
+        <v>56554200</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ADMR.JK</t>
+          <t>ANTM.JK</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1379,36 +1379,36 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2004-2136</t>
+          <t>4286-4474</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1873.392857142857</v>
+        <v>4099.285714285715</v>
       </c>
       <c r="F11" t="n">
-        <v>2330</v>
+        <v>4733.928571428572</v>
       </c>
       <c r="G11" t="n">
-        <v>2563</v>
+        <v>5207.321428571429</v>
       </c>
       <c r="H11" t="n">
-        <v>2783.75</v>
+        <v>5341.428571428572</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>92%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>23.72%</t>
+          <t>18.79%</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>50.75</v>
+        <v>341.11</v>
       </c>
       <c r="L11" t="n">
-        <v>-25253200</v>
+        <v>-30506300</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ADRO.JK</t>
+          <t>INKP.JK</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1430,36 +1430,36 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2251-2349</t>
+          <t>10074-10526</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2152.142857142857</v>
+        <v>9622.321428571429</v>
       </c>
       <c r="F12" t="n">
-        <v>2493.928571428572</v>
+        <v>11176.78571428571</v>
       </c>
       <c r="G12" t="n">
-        <v>2743.321428571429</v>
+        <v>12294.46428571429</v>
       </c>
       <c r="H12" t="n">
-        <v>2831.428571428572</v>
+        <v>12695.53571428571</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>90%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>15.28%</t>
+          <t>8.27%</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>145.96</v>
+        <v>5.64</v>
       </c>
       <c r="L12" t="n">
-        <v>-2979900</v>
+        <v>-1912500</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ANTM.JK</t>
+          <t>MDKA.JK</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1481,40 +1481,40 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4108-4332</t>
+          <t>3690-3890</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3883.571428571428</v>
+        <v>3490</v>
       </c>
       <c r="F13" t="n">
-        <v>4624.642857142857</v>
+        <v>4167.5</v>
       </c>
       <c r="G13" t="n">
-        <v>5087.107142857143</v>
+        <v>4445</v>
       </c>
       <c r="H13" t="n">
-        <v>5307.142857142857</v>
+        <v>4815</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>18.88%</t>
+          <t>20.01%</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>342.8</v>
+        <v>67.48</v>
       </c>
       <c r="L13" t="n">
-        <v>-30506300</v>
+        <v>6595200</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>DISTRIB</t>
+          <t>ACCUM</t>
         </is>
       </c>
     </row>
@@ -1524,48 +1524,48 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MDKA.JK</t>
+          <t>EMAS.JK</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3476-3704</t>
+          <t>8039-8611</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3247.142857142857</v>
+        <v>7467.857142857143</v>
       </c>
       <c r="F14" t="n">
-        <v>4007.5</v>
+        <v>9425</v>
       </c>
       <c r="G14" t="n">
-        <v>4310.714285714285</v>
+        <v>10367.5</v>
       </c>
       <c r="H14" t="n">
-        <v>4715</v>
+        <v>11325</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>19.20%</t>
+          <t>30.91%</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>50.35</v>
+        <v>12363597031.74</v>
       </c>
       <c r="L14" t="n">
-        <v>6595200</v>
+        <v>-658500</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -1575,44 +1575,44 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>EMAS.JK</t>
+          <t>PADI.JK</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>7608-8192</t>
+          <t>144-164</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>7024.107142857143</v>
+        <v>125.5</v>
       </c>
       <c r="F15" t="n">
-        <v>9003.571428571428</v>
+        <v>188.25</v>
       </c>
       <c r="G15" t="n">
-        <v>9903.928571428571</v>
+        <v>207.075</v>
       </c>
       <c r="H15" t="n">
-        <v>10897.32142857143</v>
+        <v>246</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>31.27%</t>
+          <t>11.90%</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>12509059593.61</v>
+        <v>1.9</v>
       </c>
       <c r="L15" t="n">
-        <v>-658500</v>
+        <v>-1255200</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1626,48 +1626,48 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>INDY.JK</t>
+          <t>PTBA.JK</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3591-3849</t>
+          <t>2564-2616</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3334.285714285714</v>
+        <v>2512.857142857143</v>
       </c>
       <c r="F16" t="n">
-        <v>4219.285714285714</v>
+        <v>2691.785714285714</v>
       </c>
       <c r="G16" t="n">
-        <v>4641.214285714285</v>
+        <v>2869.285714285714</v>
       </c>
       <c r="H16" t="n">
-        <v>5084.285714285714</v>
+        <v>2960.964285714286</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>35.98%</t>
+          <t>5.78%</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>14390565956.95</v>
+        <v>45.74</v>
       </c>
       <c r="L16" t="n">
-        <v>-1117600</v>
+        <v>1793800</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>DISTRIB</t>
+          <t>ACCUM</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PTBA.JK</t>
+          <t>TINS.JK</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1685,36 +1685,36 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2590-2650</t>
+          <t>4012-4288</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2528.928571428572</v>
+        <v>3735.357142857143</v>
       </c>
       <c r="F17" t="n">
-        <v>2740.357142857143</v>
+        <v>4677.142857142857</v>
       </c>
       <c r="G17" t="n">
-        <v>2950.357142857143</v>
+        <v>5144.857142857143</v>
       </c>
       <c r="H17" t="n">
-        <v>3014.392857142857</v>
+        <v>5584.642857142857</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>5.52%</t>
+          <t>5.37%</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>22.39</v>
+        <v>5.18</v>
       </c>
       <c r="L17" t="n">
-        <v>1793800</v>
+        <v>32300</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TCPI.JK</t>
+          <t>AADI.JK</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1736,40 +1736,40 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>11391-11809</t>
+          <t>8751-9149</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>10973.21428571429</v>
+        <v>8352.678571428571</v>
       </c>
       <c r="F18" t="n">
-        <v>12433.03571428571</v>
+        <v>9730.357142857143</v>
       </c>
       <c r="G18" t="n">
-        <v>13057.14285714286</v>
+        <v>10703.39285714286</v>
       </c>
       <c r="H18" t="n">
-        <v>13889.28571428571</v>
+        <v>11086.60714285714</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>19.28%</t>
+          <t>7.07%</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>7713746713.54</v>
+        <v>5.02</v>
       </c>
       <c r="L18" t="n">
-        <v>328500</v>
+        <v>-4000</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TINS.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1787,36 +1787,36 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3779-4061</t>
+          <t>2216-2284</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3496.785714285714</v>
+        <v>2148.214285714286</v>
       </c>
       <c r="F19" t="n">
-        <v>4455.357142857143</v>
+        <v>2384.642857142857</v>
       </c>
       <c r="G19" t="n">
-        <v>4900.892857142858</v>
+        <v>2619.642857142857</v>
       </c>
       <c r="H19" t="n">
-        <v>5375.357142857143</v>
+        <v>2623.107142857143</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>98%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>4.97%</t>
+          <t>9.84%</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>4.87</v>
+        <v>447.58</v>
       </c>
       <c r="L19" t="n">
-        <v>32300</v>
+        <v>10200200</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HRUM.JK</t>
+          <t>BMRI.JK</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1838,36 +1838,36 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1178-1242</t>
+          <t>5304-5446</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1114.642857142857</v>
+        <v>5161.25</v>
       </c>
       <c r="F20" t="n">
-        <v>1332.857142857143</v>
+        <v>5657.321428571428</v>
       </c>
       <c r="G20" t="n">
-        <v>1466.142857142857</v>
+        <v>5868.392857142857</v>
       </c>
       <c r="H20" t="n">
-        <v>1545.357142857143</v>
+        <v>6149.821428571428</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>62%</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>5.74%</t>
+          <t>1.39%</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>3.46</v>
+        <v>2.55</v>
       </c>
       <c r="L20" t="n">
-        <v>746000</v>
+        <v>33741800</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AADI.JK</t>
+          <t>ARCI.JK</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1889,20 +1889,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>9123-9527</t>
+          <t>1779-1871</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>8719.642857142857</v>
+        <v>1686.785714285714</v>
       </c>
       <c r="F21" t="n">
-        <v>10108.03571428571</v>
+        <v>1997.5</v>
       </c>
       <c r="G21" t="n">
-        <v>11118.83928571429</v>
+        <v>2197.25</v>
       </c>
       <c r="H21" t="n">
-        <v>11464.28571428571</v>
+        <v>2292.5</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1911,14 +1911,14 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>6.10%</t>
+          <t>15.11%</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>3.82</v>
+        <v>7.94</v>
       </c>
       <c r="L21" t="n">
-        <v>-4000</v>
+        <v>-11431200</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2407,126 +2407,126 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MEDC.JK</t>
+          <t>ELSA.JK</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>127</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-3.7%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ENRG.JK</t>
+          <t>MEDC.JK</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>98</v>
       </c>
       <c r="C3" t="n">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-2.6%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ELSA.JK</t>
+          <t>NCKL.JK</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>97</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59999999999999</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>-1.0%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NCKL.JK</t>
+          <t>HRTA.JK</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>96</v>
       </c>
       <c r="C5" t="n">
-        <v>89.40000000000001</v>
+        <v>85.2</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>-0.7%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HRTA.JK</t>
+          <t>MBMA.JK</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>95</v>
       </c>
       <c r="C6" t="n">
-        <v>85.2</v>
+        <v>84</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>-2.8%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MBMA.JK</t>
+          <t>BIPI.JK</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C7" t="n">
         <v>84</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-5.5%</t>
+          <t>-1.5%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BIPI.JK</t>
+          <t>TCPI.JK</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" t="n">
         <v>84</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-6.6%</t>
+          <t>-0.6%</t>
         </is>
       </c>
     </row>
@@ -2544,781 +2544,781 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>-1.4%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>ENRG.JK</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>91</v>
       </c>
       <c r="C10" t="n">
-        <v>81.59999999999999</v>
+        <v>76</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-3.5%</t>
+          <t>-6.5%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ADMR.JK</t>
+          <t>ANTM.JK</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>90</v>
       </c>
       <c r="C11" t="n">
-        <v>79.8</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-9.2%</t>
+          <t>-8.0%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ADRO.JK</t>
+          <t>INKP.JK</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>88</v>
       </c>
       <c r="C12" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-4.2%</t>
+          <t>-2.8%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ANTM.JK</t>
+          <t>MDKA.JK</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>87</v>
       </c>
       <c r="C13" t="n">
-        <v>75.59999999999999</v>
+        <v>72</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-11.3%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MDKA.JK</t>
+          <t>EMAS.JK</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C14" t="n">
         <v>72</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.9%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EMAS.JK</t>
+          <t>PADI.JK</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" t="n">
-        <v>72</v>
+        <v>70.2</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-22.6%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INDY.JK</t>
+          <t>PTBA.JK</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C16" t="n">
-        <v>72</v>
+        <v>69.8</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>-1.9%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PTBA.JK</t>
+          <t>TINS.JK</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>83</v>
       </c>
       <c r="C17" t="n">
-        <v>69.8</v>
+        <v>68</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-0.8%</t>
+          <t>-1.0%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TCPI.JK</t>
+          <t>AADI.JK</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>82</v>
       </c>
       <c r="C18" t="n">
-        <v>69</v>
+        <v>62.8</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-6.3%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TINS.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>81</v>
       </c>
       <c r="C19" t="n">
-        <v>68</v>
+        <v>61.6</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-6.4%</t>
+          <t>-0.9%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HRUM.JK</t>
+          <t>BMRI.JK</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>80</v>
       </c>
       <c r="C20" t="n">
-        <v>67</v>
+        <v>57.4</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-5.8%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AADI.JK</t>
+          <t>ARCI.JK</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>78</v>
       </c>
       <c r="C21" t="n">
-        <v>62.8</v>
+        <v>54.6</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-2.4%</t>
+          <t>-10.1%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BULL.JK</t>
+          <t>OASA.JK</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>77</v>
       </c>
       <c r="C22" t="n">
-        <v>61.8</v>
+        <v>54</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-25.5%</t>
+          <t>-15.0%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>VKTR.JK</t>
+          <t>BBRI.JK</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>76</v>
       </c>
       <c r="C23" t="n">
-        <v>58.8</v>
+        <v>53.8</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-21.2%</t>
+          <t>-0.8%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BMRI.JK</t>
+          <t>INDY.JK</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>75</v>
       </c>
       <c r="C24" t="n">
-        <v>57.4</v>
+        <v>52</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>-5.2%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PADI.JK</t>
+          <t>HRUM.JK</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C25" t="n">
-        <v>56.2</v>
+        <v>52</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-32.2%</t>
+          <t>-6.6%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>AMMN.JK</t>
+          <t>BULL.JK</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>73</v>
       </c>
       <c r="C26" t="n">
-        <v>55</v>
+        <v>51.8</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-3.1%</t>
+          <t>-24.1%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SRTG.JK</t>
+          <t>BRIS.JK</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" t="n">
-        <v>55</v>
+        <v>50.8</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-8.5%</t>
+          <t>-3.7%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ARCI.JK</t>
+          <t>PSKT.JK</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>71</v>
       </c>
       <c r="C28" t="n">
-        <v>54.6</v>
+        <v>50</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-10.8%</t>
+          <t>-19.4%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BBRI.JK</t>
+          <t>ADMR.JK</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>70</v>
       </c>
       <c r="C29" t="n">
-        <v>53.8</v>
+        <v>49.8</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-0.8%</t>
+          <t>-11.4%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ISAT.JK</t>
+          <t>ADRO.JK</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>68</v>
       </c>
       <c r="C30" t="n">
-        <v>53.4</v>
+        <v>48</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-8.5%</t>
+          <t>-4.6%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>UNTR.JK</t>
+          <t>HUMI.JK</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>67</v>
       </c>
       <c r="C31" t="n">
-        <v>52.8</v>
+        <v>47</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>-29.8%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>LPKR.JK</t>
+          <t>UNTR.JK</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>66</v>
       </c>
       <c r="C32" t="n">
-        <v>51.8</v>
+        <v>44.8</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-24.2%</t>
+          <t>-3.7%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>INKP.JK</t>
+          <t>VKTR.JK</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>65</v>
       </c>
       <c r="C33" t="n">
-        <v>51</v>
+        <v>43.8</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-7.5%</t>
+          <t>-25.1%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BRIS.JK</t>
+          <t>IRSX.JK</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>64</v>
       </c>
       <c r="C34" t="n">
-        <v>50.8</v>
+        <v>41.6</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-4.5%</t>
+          <t>-19.7%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PSKT.JK</t>
+          <t>TPIA.JK</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>63</v>
       </c>
       <c r="C35" t="n">
-        <v>50</v>
+        <v>39.6</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-16.9%</t>
+          <t>-7.7%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PWON.JK</t>
+          <t>DADA.JK</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>62</v>
       </c>
       <c r="C36" t="n">
-        <v>49</v>
+        <v>38.6</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>-20.6%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HUMI.JK</t>
+          <t>INDF.JK</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>61</v>
       </c>
       <c r="C37" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-29.2%</t>
+          <t>-11.4%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>INDF.JK</t>
+          <t>AMMN.JK</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>60</v>
       </c>
       <c r="C38" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>-8.6%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>IRSX.JK</t>
+          <t>GTSI.JK</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>58</v>
       </c>
       <c r="C39" t="n">
-        <v>41.6</v>
+        <v>36.8</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-21.7%</t>
+          <t>-34.2%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ICBP.JK</t>
+          <t>MINA.JK</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>57</v>
       </c>
       <c r="C40" t="n">
-        <v>40</v>
+        <v>35.8</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-6.7%</t>
+          <t>-36.4%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>OASA.JK</t>
+          <t>EXCL.JK</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>56</v>
       </c>
       <c r="C41" t="n">
-        <v>39</v>
+        <v>34.8</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-15.8%</t>
+          <t>-29.4%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BKSL.JK</t>
+          <t>UNVR.JK</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42" t="n">
-        <v>38.8</v>
+        <v>34.8</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-21.3%</t>
+          <t>-15.2%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>DADA.JK</t>
+          <t>GOTO.JK</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>54</v>
       </c>
       <c r="C43" t="n">
-        <v>38.6</v>
+        <v>31.8</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-20.6%</t>
+          <t>-14.1%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>GTSI.JK</t>
+          <t>BBNI.JK</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>53</v>
       </c>
       <c r="C44" t="n">
-        <v>36.8</v>
+        <v>29</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-32.9%</t>
+          <t>-3.9%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PNLF.JK</t>
+          <t>PWON.JK</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C45" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-13.8%</t>
+          <t>-5.7%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MINA.JK</t>
+          <t>DEWA.JK</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>51</v>
       </c>
       <c r="C46" t="n">
-        <v>35.8</v>
+        <v>28.6</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-39.8%</t>
+          <t>-31.3%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>RMKO.JK</t>
+          <t>BUMI.JK</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>50</v>
       </c>
       <c r="C47" t="n">
-        <v>35.4</v>
+        <v>28</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-51.1%</t>
+          <t>-40.9%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ASII.JK</t>
+          <t>BUVA.JK</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C48" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-11.5%</t>
+          <t>-33.4%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BBNI.JK</t>
+          <t>RMKE.JK</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C49" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-3.5%</t>
+          <t>-49.6%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>DEWA.JK</t>
+          <t>JPFA.JK</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>46</v>
       </c>
       <c r="C50" t="n">
-        <v>28.6</v>
+        <v>26.4</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-24.5%</t>
+          <t>-17.4%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BUMI.JK</t>
+          <t>RMKO.JK</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>45</v>
       </c>
       <c r="C51" t="n">
-        <v>28</v>
+        <v>25.4</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-36.6%</t>
+          <t>-59.1%</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>RMKE.JK</t>
+          <t>ICBP.JK</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C52" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-45.8%</t>
+          <t>-7.6%</t>
         </is>
       </c>
     </row>
@@ -3329,57 +3329,57 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C53" t="n">
         <v>25</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-38.5%</t>
+          <t>-36.8%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>TRUE.JK</t>
+          <t>LPKR.JK</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C54" t="n">
-        <v>25</v>
+        <v>21.8</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-52.8%</t>
+          <t>-20.3%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>NICL.JK</t>
+          <t>KLBF.JK</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>41</v>
       </c>
       <c r="C55" t="n">
-        <v>20.8</v>
+        <v>21.6</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-35.8%</t>
+          <t>-15.5%</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>EXCL.JK</t>
+          <t>AMRT.JK</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -3390,205 +3390,205 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-30.5%</t>
+          <t>-10.8%</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TPIA.JK</t>
+          <t>ISAT.JK</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>38</v>
       </c>
       <c r="C57" t="n">
-        <v>19.6</v>
+        <v>18.4</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-13.8%</t>
+          <t>-5.7%</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>DSSA.JK</t>
+          <t>ESSA.JK</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>37</v>
       </c>
       <c r="C58" t="n">
-        <v>17.4</v>
+        <v>18</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-25.0%</t>
+          <t>-13.7%</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BBYB.JK</t>
+          <t>TRUE.JK</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>37</v>
       </c>
       <c r="C59" t="n">
-        <v>17.4</v>
+        <v>18</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-34.9%</t>
+          <t>-55.1%</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>EMTK.JK</t>
+          <t>BBYB.JK</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>35</v>
       </c>
       <c r="C60" t="n">
-        <v>16.2</v>
+        <v>17.4</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-34.0%</t>
+          <t>-36.3%</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BRMS.JK</t>
+          <t>SRTG.JK</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>34</v>
       </c>
       <c r="C61" t="n">
-        <v>15.4</v>
+        <v>17</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-19.1%</t>
+          <t>-11.9%</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>UNVR.JK</t>
+          <t>TOBA.JK</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>33</v>
       </c>
       <c r="C62" t="n">
-        <v>14.8</v>
+        <v>16.8</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-19.1%</t>
+          <t>-24.0%</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BUVA.JK</t>
+          <t>EMTK.JK</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>32</v>
       </c>
       <c r="C63" t="n">
-        <v>13</v>
+        <v>16.2</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-35.9%</t>
+          <t>-37.1%</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ESSA.JK</t>
+          <t>PNLF.JK</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C64" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-13.7%</t>
+          <t>-16.8%</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TLKM.JK</t>
+          <t>CPRO.JK</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C65" t="n">
-        <v>11.8</v>
+        <v>16</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-11.7%</t>
+          <t>-24.4%</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>GOTO.JK</t>
+          <t>ASII.JK</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C66" t="n">
-        <v>11.8</v>
+        <v>13</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-14.1%</t>
+          <t>-11.5%</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>JPFA.JK</t>
+          <t>NICL.JK</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>27</v>
       </c>
       <c r="C67" t="n">
-        <v>11.4</v>
+        <v>10.8</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-18.8%</t>
+          <t>-40.1%</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-35.3%</t>
+          <t>-37.4%</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-59.8%</t>
+          <t>-62.7%</t>
         </is>
       </c>
     </row>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-48.5%</t>
+          <t>-50.7%</t>
         </is>
       </c>
     </row>
@@ -3678,7 +3678,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-36.7%</t>
+          <t>-37.2%</t>
         </is>
       </c>
     </row>
@@ -3696,43 +3696,43 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-45.7%</t>
+          <t>-45.4%</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>KLBF.JK</t>
+          <t>PTRO.JK</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C74" t="n">
-        <v>6.6</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>-15.9%</t>
+          <t>-48.4%</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CPRO.JK</t>
+          <t>BRMS.JK</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-24.4%</t>
+          <t>-22.9%</t>
         </is>
       </c>
     </row>
@@ -3743,14 +3743,14 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C76" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-55.9%</t>
+          <t>-59.1%</t>
         </is>
       </c>
     </row>
@@ -3761,14 +3761,14 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C77" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-41.0%</t>
+          <t>-44.4%</t>
         </is>
       </c>
     </row>
@@ -3779,14 +3779,14 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C78" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-44.3%</t>
+          <t>-46.3%</t>
         </is>
       </c>
     </row>
@@ -3797,14 +3797,14 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C79" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-37.9%</t>
+          <t>-39.2%</t>
         </is>
       </c>
     </row>
@@ -3815,14 +3815,14 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C80" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-27.0%</t>
+          <t>-29.2%</t>
         </is>
       </c>
     </row>
@@ -3833,14 +3833,14 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C81" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-20.5%</t>
+          <t>-21.5%</t>
         </is>
       </c>
     </row>
@@ -3858,79 +3858,79 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>-41.2%</t>
+          <t>-41.6%</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>AMRT.JK</t>
+          <t>PGEO.JK</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C83" t="n">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>-9.3%</t>
+          <t>-14.6%</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>PGEO.JK</t>
+          <t>RAJA.JK</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>8</v>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>-12.3%</t>
+          <t>-42.3%</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>PTRO.JK</t>
+          <t>DSSA.JK</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="n">
         <v>2.4</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>-45.2%</t>
+          <t>-27.2%</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>RAJA.JK</t>
+          <t>TLKM.JK</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C86" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>-40.9%</t>
+          <t>-9.1%</t>
         </is>
       </c>
     </row>
@@ -3941,68 +3941,68 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C87" t="n">
         <v>1.8</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>-13.7%</t>
+          <t>-15.3%</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>TOBA.JK</t>
+          <t>BBKP.JK</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C88" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>-23.4%</t>
+          <t>-21.3%</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>KIJA.JK</t>
+          <t>BKSL.JK</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>3</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>-1.2</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-35.6%</t>
+          <t>-25.1%</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BBKP.JK</t>
+          <t>KIJA.JK</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>-22.3%</t>
+          <t>-37.9%</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>-24.3%</t>
+          <t>-25.3%</t>
         </is>
       </c>
     </row>
@@ -4100,7 +4100,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MEDC.JK</t>
+          <t>ELSA.JK</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -4108,17 +4108,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1682-1778</t>
+          <t>752-808</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2114</t>
+          <t>981</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>766200</t>
+          <t>-21636100</t>
         </is>
       </c>
     </row>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ENRG.JK</t>
+          <t>MEDC.JK</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -4137,17 +4137,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1613-1767</t>
+          <t>1641-1729</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2222</t>
+          <t>2048</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>56554200</t>
+          <t>766200</t>
         </is>
       </c>
     </row>
@@ -4158,25 +4158,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ELSA.JK</t>
+          <t>ENRG.JK</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>770-830</t>
+          <t>1513-1657</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1013</t>
+          <t>2057</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-21636100</t>
+          <t>56554200</t>
         </is>
       </c>
     </row>
@@ -4187,25 +4187,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ADRO.JK</t>
+          <t>PTBA.JK</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2251-2349</t>
+          <t>2564-2616</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2743</t>
+          <t>2869</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-2979900</t>
+          <t>1793800</t>
         </is>
       </c>
     </row>
@@ -4216,25 +4216,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>INDY.JK</t>
+          <t>AADI.JK</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3591-3849</t>
+          <t>8751-9149</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4641</t>
+          <t>10703</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-1117600</t>
+          <t>-4000</t>
         </is>
       </c>
     </row>
@@ -4253,16 +4253,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1438-1512</t>
+          <t>1496-1564</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1775</t>
+          <t>1825</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -4282,16 +4282,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>820-890</t>
+          <t>847-913</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1088</t>
+          <t>1106</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -4315,12 +4315,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6695-7105</t>
+          <t>6823-7177</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8423</t>
+          <t>8419</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ADMR.JK</t>
+          <t>ANTM.JK</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -4344,17 +4344,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2004-2136</t>
+          <t>4286-4474</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2563</t>
+          <t>5207</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-25253200</t>
+          <t>-30506300</t>
         </is>
       </c>
     </row>
@@ -4365,25 +4365,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ANTM.JK</t>
+          <t>INKP.JK</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4108-4332</t>
+          <t>10074-10526</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5087</t>
+          <t>12294</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-30506300</t>
+          <t>-1912500</t>
         </is>
       </c>
     </row>
@@ -4402,16 +4402,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2656-2844</t>
+          <t>2742-2918</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3351</t>
+          <t>3487</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -4427,25 +4427,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>VKTR.JK</t>
+          <t>PSKT.JK</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>962-1078</t>
+          <t>303-345</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1369</t>
+          <t>446</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-2430100</t>
+          <t>7483200</t>
         </is>
       </c>
     </row>
@@ -4456,25 +4456,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PSKT.JK</t>
+          <t>VKTR.JK</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>314-354</t>
+          <t>917-1023</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>1331</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>7483200</t>
+          <t>-2430100</t>
         </is>
       </c>
     </row>
@@ -4489,16 +4489,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>359-405</t>
+          <t>380-428</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>565</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -4518,16 +4518,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1306-1474</t>
+          <t>1366-1524</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1973</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -4551,16 +4551,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>215-241</t>
+          <t>256-284</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>368</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -4580,16 +4580,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11391-11809</t>
+          <t>11604-11946</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>13057</t>
+          <t>12963</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -4609,16 +4609,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>483-537</t>
+          <t>494-546</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>683</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -4638,16 +4638,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>235-269</t>
+          <t>234-266</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>342</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -4667,16 +4667,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>304-340</t>
+          <t>299-333</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>419</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -4688,7 +4688,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -4696,25 +4696,25 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>PADI.JK</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2153-2227</t>
+          <t>144-164</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2568</t>
+          <t>207</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10200200</t>
+          <t>-1255200</t>
         </is>
       </c>
     </row>
@@ -4725,25 +4725,25 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>OASA.JK</t>
+          <t>BMRI.JK</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>417-459</t>
+          <t>5304-5446</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>5868</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-2360900</t>
+          <t>33741800</t>
         </is>
       </c>
     </row>
@@ -4754,25 +4754,25 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CDIA.JK</t>
+          <t>BBRI.JK</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1092-1188</t>
+          <t>3833-3907</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1472</t>
+          <t>4261</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-7662000</t>
+          <t>105416300</t>
         </is>
       </c>
     </row>
@@ -4783,25 +4783,25 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BREN.JK</t>
+          <t>BRIS.JK</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7876-8224</t>
+          <t>2321-2399</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>9603</t>
+          <t>2765</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-65600</t>
+          <t>-1137600</t>
         </is>
       </c>
     </row>
@@ -4812,32 +4812,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PGEO.JK</t>
+          <t>BBNI.JK</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1117-1163</t>
+          <t>4405-4495</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>4938</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-2798000</t>
+          <t>8426900</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -4845,25 +4845,25 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BMRI.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5047-5203</t>
+          <t>2216-2284</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5980</t>
+          <t>2620</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>33741800</t>
+          <t>10200200</t>
         </is>
       </c>
     </row>
@@ -4874,25 +4874,25 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PADI.JK</t>
+          <t>OASA.JK</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>127-143</t>
+          <t>422-462</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>574</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-1255200</t>
+          <t>-2360900</t>
         </is>
       </c>
     </row>
@@ -4903,25 +4903,25 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SRTG.JK</t>
+          <t>CDIA.JK</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1794-1886</t>
+          <t>1057-1143</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2220</t>
+          <t>1395</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-1514600</t>
+          <t>-7662000</t>
         </is>
       </c>
     </row>
@@ -4932,25 +4932,25 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>BBRI.JK</t>
+          <t>BREN.JK</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3797-3883</t>
+          <t>7809-8091</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4308</t>
+          <t>9345</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>105416300</t>
+          <t>-65600</t>
         </is>
       </c>
     </row>
@@ -4961,32 +4961,32 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>BRIS.JK</t>
+          <t>PGEO.JK</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2296-2384</t>
+          <t>1092-1128</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2768</t>
+          <t>1298</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-1137600</t>
+          <t>-2798000</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -4994,25 +4994,25 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ISAT.JK</t>
+          <t>IRSX.JK</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2214-2306</t>
+          <t>599-661</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2687</t>
+          <t>828</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>4049500</t>
+          <t>4580900</t>
         </is>
       </c>
     </row>
@@ -5023,25 +5023,25 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>EXCL.JK</t>
+          <t>GOTO.JK</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3021-3219</t>
+          <t>60-62</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3862</t>
+          <t>72</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>4119100</t>
+          <t>-1.1B</t>
         </is>
       </c>
     </row>
@@ -5052,534 +5052,534 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>EMTK.JK</t>
+          <t>WIFI.JK</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>940-1000</t>
+          <t>2414-2546</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1194</t>
+          <t>3011</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-5460200</t>
+          <t>-2694000</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Real Estate</t>
+        </is>
+      </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>TLKM.JK</t>
+          <t>DADA.JK</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3416-3544</t>
+          <t>50-50</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>4092</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>13783000</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>INET.JK</t>
+          <t>PWON.JK</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>392-432</t>
+          <t>362-370</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>409</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-15489100</t>
+          <t>37538300</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
+      <c r="A37" t="inlineStr"/>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>LPKR.JK</t>
+          <t>TRIN.JK</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>94-100</t>
+          <t>1045-1155</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>1482</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-266800</t>
+          <t>3499700</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>KLBF.JK</t>
+          <t>TRUE.JK</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1041-1069</t>
+          <t>217-259</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>381</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-34214900</t>
+          <t>314000</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Real Estate</t>
-        </is>
-      </c>
+      <c r="A39" t="inlineStr"/>
       <c r="B39" t="n">
+        <v>5</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CBDK.JK</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>26</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>5707-6093</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7336</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>81700</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
         <v>1</v>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>PWON.JK</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>62</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>370-378</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>420</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>37538300</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr"/>
-      <c r="B40" t="n">
-        <v>2</v>
-      </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>BKSL.JK</t>
+          <t>INDF.JK</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>138-150</t>
+          <t>6530-6670</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>7330</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>7075200</t>
+          <t>-8356000</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DADA.JK</t>
+          <t>UNVR.JK</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>50-50</t>
+          <t>2300-2400</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>2802</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2865100</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>TRIN.JK</t>
+          <t>JPFA.JK</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1014-1126</t>
+          <t>2372-2468</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1456</t>
+          <t>2866</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>3499700</t>
+          <t>5002500</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="n">
+        <v>4</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ICBP.JK</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>44</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>7848-8052</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9043</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>-1298800</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="n">
         <v>5</v>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>TRUE.JK</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>43</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>229-271</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>386</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>314000</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Consumer Defensive</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>AMRT.JK</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>40</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1749-1821</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2116</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>37773100</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
         <v>1</v>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>INDF.JK</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>60</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>6571-6729</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>7479</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>-8356000</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="n">
-        <v>2</v>
-      </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ICBP.JK</t>
+          <t>EXCL.JK</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>7905-8145</t>
+          <t>3084-3256</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>9296</t>
+          <t>3852</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>-1298800</t>
+          <t>4119100</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>UNVR.JK</t>
+          <t>ISAT.JK</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2188-2292</t>
+          <t>2285-2375</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2689</t>
+          <t>2759</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2865100</t>
+          <t>4049500</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>JPFA.JK</t>
+          <t>EMTK.JK</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2324-2436</t>
+          <t>901-949</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2854</t>
+          <t>1121</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>5002500</t>
+          <t>-5460200</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="n">
+        <v>4</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>INET.JK</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>20</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>364-400</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>-15489100</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="n">
         <v>5</v>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>CPRO.JK</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>18</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>64-66</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>12850400</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>TLKM.JK</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>6</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>3530-3630</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4105</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>13783000</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
         <v>1</v>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>IRSX.JK</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>58</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>582-648</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>819</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>4580900</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr"/>
-      <c r="B50" t="n">
-        <v>2</v>
-      </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>GOTO.JK</t>
+          <t>LPKR.JK</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>60-62</t>
+          <t>99-105</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>124</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>-1.1B</t>
+          <t>-266800</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>WIFI.JK</t>
+          <t>KLBF.JK</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2420-2580</t>
+          <t>1046-1074</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>3093</t>
+          <t>1209</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>-2694000</t>
+          <t>-34214900</t>
         </is>
       </c>
     </row>
@@ -5836,7 +5836,7 @@
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
-    <col width="11" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
     <col width="9" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
@@ -5926,16 +5926,16 @@
         <v>0.38872</v>
       </c>
       <c r="H2" s="10" t="n">
-        <v>8.496212</v>
+        <v>8.906969</v>
       </c>
       <c r="I2" s="11" t="n">
-        <v>1.6268952</v>
+        <v>1.706256</v>
       </c>
       <c r="J2" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K2" s="11" t="n">
-        <v>603.21</v>
+        <v>603.46</v>
       </c>
     </row>
     <row r="3">
@@ -5965,16 +5965,16 @@
         <v>0.34335998</v>
       </c>
       <c r="H3" s="10" t="n">
-        <v>10.660744</v>
+        <v>10.444445</v>
       </c>
       <c r="I3" s="11" t="n">
-        <v>1.2401497</v>
+        <v>1.2143134</v>
       </c>
       <c r="J3" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="11" t="n">
-        <v>36.02</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -6004,16 +6004,16 @@
         <v>0.43205002</v>
       </c>
       <c r="H4" s="12" t="n">
-        <v>7.93002</v>
+        <v>7.55966</v>
       </c>
       <c r="I4" s="11" t="n">
-        <v>1.5153006</v>
+        <v>1.4450032</v>
       </c>
       <c r="J4" s="14" t="n">
         <v>2.444</v>
       </c>
       <c r="K4" s="11" t="n">
-        <v>122.32</v>
+        <v>122.36</v>
       </c>
     </row>
     <row r="5">
@@ -6022,37 +6022,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NCKL.JK</t>
+          <t>BBRI.JK</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>MID</t>
         </is>
       </c>
-      <c r="E5" s="8" t="n">
-        <v>0.25308</v>
+      <c r="E5" s="9" t="n">
+        <v>0.16936001</v>
       </c>
       <c r="F5" s="9" t="n">
-        <v>0.097</v>
+        <v>0.065</v>
       </c>
       <c r="G5" s="8" t="n">
-        <v>0.27552</v>
+        <v>0.41044</v>
       </c>
       <c r="H5" s="10" t="n">
-        <v>11.641673</v>
-      </c>
-      <c r="I5" s="15" t="n">
-        <v>2.6009202</v>
-      </c>
-      <c r="J5" s="14" t="n">
-        <v>23.671</v>
+        <v>10.4343605</v>
+      </c>
+      <c r="I5" s="11" t="n">
+        <v>1.7596443</v>
+      </c>
+      <c r="J5" s="11" t="n">
+        <v>0</v>
       </c>
       <c r="K5" s="11" t="n">
-        <v>126.7</v>
+        <v>370.89</v>
       </c>
     </row>
     <row r="6">
@@ -6061,37 +6061,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BBRI.JK</t>
+          <t>NCKL.JK</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>MID</t>
         </is>
       </c>
-      <c r="E6" s="9" t="n">
-        <v>0.16936001</v>
+      <c r="E6" s="8" t="n">
+        <v>0.25308</v>
       </c>
       <c r="F6" s="9" t="n">
-        <v>0.065</v>
+        <v>0.097</v>
       </c>
       <c r="G6" s="8" t="n">
-        <v>0.41044</v>
-      </c>
-      <c r="H6" s="10" t="n">
-        <v>10.352078</v>
-      </c>
-      <c r="I6" s="11" t="n">
-        <v>1.7460036</v>
-      </c>
-      <c r="J6" s="11" t="n">
-        <v>0</v>
+        <v>0.27552</v>
+      </c>
+      <c r="H6" t="n">
+        <v>12.076722</v>
+      </c>
+      <c r="I6" s="15" t="n">
+        <v>2.6979036</v>
+      </c>
+      <c r="J6" s="14" t="n">
+        <v>23.671</v>
       </c>
       <c r="K6" s="11" t="n">
-        <v>370.94</v>
+        <v>126.69</v>
       </c>
     </row>
     <row r="7">
@@ -6100,11 +6100,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PADI.JK</t>
+          <t>JPFA.JK</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -6112,25 +6112,25 @@
         </is>
       </c>
       <c r="E7" s="8" t="n">
-        <v>0.24911</v>
-      </c>
-      <c r="F7" s="8" t="n">
-        <v>4.381</v>
-      </c>
-      <c r="G7" s="8" t="n">
-        <v>0.71615</v>
-      </c>
-      <c r="H7" t="n">
-        <v>35.340313</v>
-      </c>
-      <c r="I7" s="14" t="n">
-        <v>8.442777</v>
+        <v>0.20716</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="G7" s="9" t="n">
+        <v>0.05786</v>
+      </c>
+      <c r="H7" s="10" t="n">
+        <v>8.431762000000001</v>
+      </c>
+      <c r="I7" s="11" t="n">
+        <v>1.6544566</v>
       </c>
       <c r="J7" s="14" t="n">
-        <v>5.093</v>
+        <v>62.876</v>
       </c>
       <c r="K7" s="11" t="n">
-        <v>3.82</v>
+        <v>287.01</v>
       </c>
     </row>
     <row r="8">
@@ -6139,37 +6139,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>JPFA.JK</t>
+          <t>BRIS.JK</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>MID</t>
         </is>
       </c>
-      <c r="E8" s="8" t="n">
-        <v>0.20716</v>
+      <c r="E8" s="9" t="n">
+        <v>0.15604</v>
       </c>
       <c r="F8" s="9" t="n">
-        <v>0.146</v>
-      </c>
-      <c r="G8" s="9" t="n">
-        <v>0.05786</v>
-      </c>
-      <c r="H8" s="10" t="n">
-        <v>8.291816000000001</v>
-      </c>
-      <c r="I8" s="11" t="n">
-        <v>1.6271101</v>
-      </c>
-      <c r="J8" s="14" t="n">
-        <v>62.876</v>
+        <v>0.075</v>
+      </c>
+      <c r="G8" s="8" t="n">
+        <v>0.31919</v>
+      </c>
+      <c r="H8" t="n">
+        <v>14.376218</v>
+      </c>
+      <c r="I8" s="15" t="n">
+        <v>2.095457</v>
+      </c>
+      <c r="J8" s="11" t="n">
+        <v>0</v>
       </c>
       <c r="K8" s="11" t="n">
-        <v>287.03</v>
+        <v>164.16</v>
       </c>
     </row>
     <row r="9">
@@ -6178,7 +6178,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BRIS.JK</t>
+          <t>NICL.JK</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -6189,104 +6189,104 @@
           <t>MID</t>
         </is>
       </c>
-      <c r="E9" s="9" t="n">
-        <v>0.15604</v>
-      </c>
-      <c r="F9" s="9" t="n">
-        <v>0.075</v>
+      <c r="E9" s="8" t="n">
+        <v>0.65794</v>
+      </c>
+      <c r="F9" s="16" t="n">
+        <v>-0.261</v>
       </c>
       <c r="G9" s="8" t="n">
-        <v>0.31919</v>
+        <v>0.27632</v>
       </c>
       <c r="H9" t="n">
-        <v>14.265683</v>
-      </c>
-      <c r="I9" s="15" t="n">
-        <v>2.077699</v>
+        <v>21.836615</v>
+      </c>
+      <c r="I9" s="14" t="n">
+        <v>14.34059</v>
       </c>
       <c r="J9" s="11" t="n">
-        <v>0</v>
+        <v>0.378</v>
       </c>
       <c r="K9" s="11" t="n">
-        <v>164.03</v>
+        <v>51.29</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>NICL.JK</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>18</v>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="B10" s="12" t="inlineStr">
+        <is>
+          <t>HRTA.JK</t>
+        </is>
+      </c>
+      <c r="C10" s="12" t="n">
+        <v>17</v>
+      </c>
+      <c r="D10" s="12" t="inlineStr">
         <is>
           <t>MID</t>
         </is>
       </c>
-      <c r="E10" s="8" t="n">
-        <v>0.65794</v>
-      </c>
-      <c r="F10" s="16" t="n">
-        <v>-0.261</v>
-      </c>
-      <c r="G10" s="8" t="n">
-        <v>0.27632</v>
-      </c>
-      <c r="H10" t="n">
-        <v>23.364485</v>
-      </c>
-      <c r="I10" s="14" t="n">
-        <v>15.364917</v>
-      </c>
-      <c r="J10" s="11" t="n">
-        <v>0.378</v>
+      <c r="E10" s="13" t="n">
+        <v>0.28483</v>
+      </c>
+      <c r="F10" s="13" t="n">
+        <v>1.009</v>
+      </c>
+      <c r="G10" s="13" t="n">
+        <v>0.023759998</v>
+      </c>
+      <c r="H10" s="12" t="n">
+        <v>18.186491</v>
+      </c>
+      <c r="I10" s="15" t="n">
+        <v>4.623148</v>
+      </c>
+      <c r="J10" s="14" t="n">
+        <v>139.825</v>
       </c>
       <c r="K10" s="11" t="n">
-        <v>51.36</v>
+        <v>155.61</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="12" t="n">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="inlineStr">
-        <is>
-          <t>HRTA.JK</t>
-        </is>
-      </c>
-      <c r="C11" s="12" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PADI.JK</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>17</v>
       </c>
-      <c r="D11" s="12" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>MID</t>
         </is>
       </c>
-      <c r="E11" s="13" t="n">
-        <v>0.28483</v>
-      </c>
-      <c r="F11" s="13" t="n">
-        <v>1.009</v>
-      </c>
-      <c r="G11" s="13" t="n">
-        <v>0.023759998</v>
-      </c>
-      <c r="H11" s="12" t="n">
-        <v>17.698545</v>
-      </c>
-      <c r="I11" s="15" t="n">
-        <v>4.4924583</v>
+      <c r="E11" s="8" t="n">
+        <v>0.24911</v>
+      </c>
+      <c r="F11" s="8" t="n">
+        <v>4.381</v>
+      </c>
+      <c r="G11" s="8" t="n">
+        <v>0.71615</v>
+      </c>
+      <c r="H11" s="17" t="n">
+        <v>40.314137</v>
+      </c>
+      <c r="I11" s="14" t="n">
+        <v>9.631019999999999</v>
       </c>
       <c r="J11" s="14" t="n">
-        <v>139.825</v>
+        <v>5.093</v>
       </c>
       <c r="K11" s="11" t="n">
-        <v>155.38</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="12">
@@ -6316,16 +6316,16 @@
         <v>0.048460003</v>
       </c>
       <c r="H12" s="10" t="n">
-        <v>8.474576000000001</v>
+        <v>8.265338</v>
       </c>
       <c r="I12" s="11" t="n">
-        <v>1.1352912</v>
+        <v>1.106909</v>
       </c>
       <c r="J12" s="14" t="n">
         <v>4.935</v>
       </c>
       <c r="K12" s="11" t="n">
-        <v>94.40000000000001</v>
+        <v>94.37</v>
       </c>
     </row>
     <row r="13">
@@ -6355,16 +6355,16 @@
         <v>0.21154</v>
       </c>
       <c r="H13" t="n">
-        <v>31.643356</v>
+        <v>31.717066</v>
       </c>
       <c r="I13" s="14" t="n">
-        <v>129285.71</v>
+        <v>130357.14</v>
       </c>
       <c r="J13" s="14" t="n">
         <v>118.6</v>
       </c>
       <c r="K13" s="11" t="n">
-        <v>57.2</v>
+        <v>57.54</v>
       </c>
     </row>
     <row r="14">
@@ -6394,16 +6394,16 @@
         <v>0.2208</v>
       </c>
       <c r="H14" t="n">
-        <v>22.075235</v>
+        <v>23.527874</v>
       </c>
       <c r="I14" s="14" t="n">
-        <v>149444.44</v>
+        <v>160000</v>
       </c>
       <c r="J14" s="14" t="n">
         <v>82.7</v>
       </c>
       <c r="K14" s="11" t="n">
-        <v>304.64</v>
+        <v>306.02</v>
       </c>
     </row>
     <row r="15">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PWON.JK</t>
+          <t>BBNI.JK</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -6424,25 +6424,25 @@
         </is>
       </c>
       <c r="E15" s="9" t="n">
-        <v>0.102419995</v>
+        <v>0.1173</v>
       </c>
       <c r="F15" s="9" t="n">
-        <v>0.144</v>
+        <v>0.028</v>
       </c>
       <c r="G15" s="8" t="n">
-        <v>0.30543</v>
+        <v>0.40232</v>
       </c>
       <c r="H15" s="10" t="n">
-        <v>8.425322</v>
+        <v>8.289094</v>
       </c>
       <c r="I15" s="11" t="n">
-        <v>0.82480234</v>
-      </c>
-      <c r="J15" s="14" t="n">
-        <v>21.136</v>
+        <v>0.9654261</v>
+      </c>
+      <c r="J15" s="11" t="n">
+        <v>0</v>
       </c>
       <c r="K15" s="11" t="n">
-        <v>44.39</v>
+        <v>536.85</v>
       </c>
     </row>
     <row r="16">
@@ -6451,7 +6451,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BBNI.JK</t>
+          <t>PWON.JK</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -6463,25 +6463,25 @@
         </is>
       </c>
       <c r="E16" s="9" t="n">
-        <v>0.1173</v>
+        <v>0.102419995</v>
       </c>
       <c r="F16" s="9" t="n">
-        <v>0.028</v>
+        <v>0.144</v>
       </c>
       <c r="G16" s="8" t="n">
-        <v>0.40232</v>
+        <v>0.30543</v>
       </c>
       <c r="H16" s="10" t="n">
-        <v>8.326347999999999</v>
+        <v>8.245100000000001</v>
       </c>
       <c r="I16" s="11" t="n">
-        <v>0.96976507</v>
-      </c>
-      <c r="J16" s="11" t="n">
-        <v>0</v>
+        <v>0.8071595</v>
+      </c>
+      <c r="J16" s="14" t="n">
+        <v>21.136</v>
       </c>
       <c r="K16" s="11" t="n">
-        <v>536.85</v>
+        <v>44.39</v>
       </c>
     </row>
     <row r="17">
@@ -6511,16 +6511,16 @@
         <v>0.06239</v>
       </c>
       <c r="H17" s="17" t="n">
-        <v>68.965515</v>
+        <v>69.92308</v>
       </c>
       <c r="I17" s="14" t="n">
-        <v>26436.781</v>
+        <v>26819.922</v>
       </c>
       <c r="J17" s="11" t="n">
         <v>0.173</v>
       </c>
       <c r="K17" s="11" t="n">
-        <v>100.05</v>
+        <v>100.11</v>
       </c>
     </row>
     <row r="18">
@@ -6550,16 +6550,16 @@
         <v>0.09748999999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>13.227203</v>
+        <v>13.642486</v>
       </c>
       <c r="I18" s="15" t="n">
-        <v>2.006782</v>
+        <v>2.0689392</v>
       </c>
       <c r="J18" s="14" t="n">
         <v>138.994</v>
       </c>
       <c r="K18" s="11" t="n">
-        <v>170.86</v>
+        <v>170.79</v>
       </c>
     </row>
     <row r="19">
@@ -6589,16 +6589,16 @@
         <v>0.52018</v>
       </c>
       <c r="H19" t="n">
-        <v>22.321428</v>
+        <v>21.622812</v>
       </c>
       <c r="I19" s="15" t="n">
-        <v>3.8040006</v>
+        <v>3.6792793</v>
       </c>
       <c r="J19" s="14" t="n">
         <v>2.39</v>
       </c>
       <c r="K19" s="11" t="n">
-        <v>273.28</v>
+        <v>272.86</v>
       </c>
     </row>
     <row r="20">
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="14" t="n">
-        <v>14.944642</v>
+        <v>15.805328</v>
       </c>
       <c r="J20" s="11" t="n">
         <v>0.049</v>
@@ -6667,7 +6667,7 @@
         <v>0.53282</v>
       </c>
       <c r="H21" t="n">
-        <v>15.479711</v>
+        <v>15.464469</v>
       </c>
       <c r="I21" s="15" t="n">
         <v>3.1576376</v>
@@ -6676,7 +6676,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="11" t="n">
-        <v>466.74</v>
+        <v>467.2</v>
       </c>
     </row>
     <row r="22">
@@ -6706,10 +6706,10 @@
         <v>0.30952</v>
       </c>
       <c r="H22" s="17" t="n">
-        <v>293.9778</v>
+        <v>272.5832</v>
       </c>
       <c r="I22" s="14" t="n">
-        <v>15.043631</v>
+        <v>13.948812</v>
       </c>
       <c r="J22" s="11" t="n">
         <v>0.261</v>
@@ -6745,16 +6745,16 @@
         <v>0.15842</v>
       </c>
       <c r="H23" t="n">
-        <v>17.889435</v>
+        <v>17.098982</v>
       </c>
       <c r="I23" s="14" t="n">
-        <v>5.4144287</v>
+        <v>5.179868</v>
       </c>
       <c r="J23" s="15" t="n">
         <v>1.461</v>
       </c>
       <c r="K23" s="11" t="n">
-        <v>77.42</v>
+        <v>77.48999999999999</v>
       </c>
     </row>
     <row r="24">
@@ -6784,16 +6784,16 @@
         <v>0.13921</v>
       </c>
       <c r="H24" s="17" t="n">
-        <v>84.01937</v>
+        <v>82.37548</v>
       </c>
       <c r="I24" s="14" t="n">
-        <v>578333.3</v>
+        <v>573333.3</v>
       </c>
       <c r="J24" s="14" t="n">
         <v>201.586</v>
       </c>
       <c r="K24" s="11" t="n">
-        <v>20.65</v>
+        <v>20.88</v>
       </c>
     </row>
     <row r="25">
@@ -6823,16 +6823,16 @@
         <v>0.0806</v>
       </c>
       <c r="H25" s="10" t="n">
-        <v>10.090771</v>
+        <v>10.314004</v>
       </c>
       <c r="I25" s="14" t="n">
-        <v>19210.525</v>
+        <v>19736.842</v>
       </c>
       <c r="J25" s="14" t="n">
         <v>32.802</v>
       </c>
       <c r="K25" s="11" t="n">
-        <v>217.03</v>
+        <v>218.15</v>
       </c>
     </row>
     <row r="26">
@@ -6862,94 +6862,94 @@
         <v>0.06455</v>
       </c>
       <c r="H26" s="17" t="n">
-        <v>62.121216</v>
+        <v>59.266228</v>
       </c>
       <c r="I26" s="14" t="n">
-        <v>12.746114</v>
+        <v>13.056994</v>
       </c>
       <c r="J26" s="11" t="n">
         <v>0.216</v>
       </c>
       <c r="K26" s="11" t="n">
-        <v>9.9</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="12" t="n">
+      <c r="A27" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="12" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>KLBF.JK</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>11</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="E27" s="9" t="n">
+        <v>0.14554</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="G27" s="9" t="n">
+        <v>0.10163</v>
+      </c>
+      <c r="H27" t="n">
+        <v>13.843542</v>
+      </c>
+      <c r="I27" s="15" t="n">
+        <v>2.090668</v>
+      </c>
+      <c r="J27" s="14" t="n">
+        <v>2.102</v>
+      </c>
+      <c r="K27" s="11" t="n">
+        <v>76.56999999999999</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="12" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="12" t="inlineStr">
         <is>
           <t>BRPT.JK</t>
         </is>
       </c>
-      <c r="C27" s="12" t="n">
+      <c r="C28" s="12" t="n">
         <v>11</v>
       </c>
-      <c r="D27" s="12" t="inlineStr">
+      <c r="D28" s="12" t="inlineStr">
         <is>
           <t>MID</t>
         </is>
       </c>
-      <c r="E27" s="13" t="n">
+      <c r="E28" s="13" t="n">
         <v>0.35876</v>
       </c>
-      <c r="F27" s="13" t="n">
+      <c r="F28" s="13" t="n">
         <v>3.509</v>
       </c>
-      <c r="G27" s="13" t="n">
+      <c r="G28" s="13" t="n">
         <v>0.09752</v>
       </c>
-      <c r="H27" s="12" t="n">
-        <v>18.415535</v>
-      </c>
-      <c r="I27" s="14" t="n">
-        <v>84166.664</v>
-      </c>
-      <c r="J27" s="14" t="n">
+      <c r="H28" s="12" t="n">
+        <v>18.419382</v>
+      </c>
+      <c r="I28" s="14" t="n">
+        <v>84583.336</v>
+      </c>
+      <c r="J28" s="14" t="n">
         <v>107.818</v>
       </c>
-      <c r="K27" s="11" t="n">
-        <v>109.69</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>KLBF.JK</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>11</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>MID</t>
-        </is>
-      </c>
-      <c r="E28" s="9" t="n">
-        <v>0.14554</v>
-      </c>
-      <c r="F28" s="9" t="n">
-        <v>0.126</v>
-      </c>
-      <c r="G28" s="9" t="n">
-        <v>0.10163</v>
-      </c>
-      <c r="H28" t="n">
-        <v>13.774645</v>
-      </c>
-      <c r="I28" s="15" t="n">
-        <v>2.0808063</v>
-      </c>
-      <c r="J28" s="14" t="n">
-        <v>2.102</v>
-      </c>
       <c r="K28" s="11" t="n">
-        <v>76.59</v>
+        <v>110.21</v>
       </c>
     </row>
     <row r="29">
@@ -6979,16 +6979,16 @@
         <v>0.15737</v>
       </c>
       <c r="H29" s="10" t="n">
-        <v>5.593319</v>
+        <v>5.4001555</v>
       </c>
       <c r="I29" s="11" t="n">
-        <v>0.29610834</v>
+        <v>0.2858268</v>
       </c>
       <c r="J29" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K29" s="11" t="n">
-        <v>51.49</v>
+        <v>51.48</v>
       </c>
     </row>
     <row r="30">
@@ -7060,7 +7060,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="14" t="n">
-        <v>6.275883</v>
+        <v>5.247631</v>
       </c>
       <c r="J31" s="14" t="n">
         <v>65.76600000000001</v>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BRMS.JK</t>
+          <t>PTRO.JK</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -7087,25 +7087,25 @@
         </is>
       </c>
       <c r="E32" s="9" t="n">
-        <v>0.045900002</v>
+        <v>0.05801</v>
       </c>
       <c r="F32" s="8" t="n">
-        <v>0.329</v>
+        <v>0.317</v>
       </c>
       <c r="G32" s="9" t="n">
-        <v>0.19652</v>
-      </c>
-      <c r="H32" s="17" t="n">
-        <v>192.37749</v>
+        <v>0.01754</v>
+      </c>
+      <c r="H32" t="n">
+        <v>38.88889</v>
       </c>
       <c r="I32" s="14" t="n">
-        <v>117777.78</v>
+        <v>277083.34</v>
       </c>
       <c r="J32" s="14" t="n">
-        <v>12.694</v>
+        <v>276.511</v>
       </c>
       <c r="K32" s="11" t="n">
-        <v>5.51</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33">
@@ -7114,7 +7114,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>INET.JK</t>
+          <t>BRMS.JK</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -7126,25 +7126,25 @@
         </is>
       </c>
       <c r="E33" s="9" t="n">
-        <v>0.06432</v>
+        <v>0.045900002</v>
       </c>
       <c r="F33" s="8" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="G33" s="8" t="n">
-        <v>0.24544</v>
+        <v>0.329</v>
+      </c>
+      <c r="G33" s="9" t="n">
+        <v>0.19652</v>
       </c>
       <c r="H33" s="17" t="n">
-        <v>294.2857</v>
+        <v>179.7153</v>
       </c>
       <c r="I33" s="14" t="n">
-        <v>10.137047</v>
+        <v>112222.23</v>
       </c>
       <c r="J33" s="14" t="n">
-        <v>2.833</v>
+        <v>12.694</v>
       </c>
       <c r="K33" s="11" t="n">
-        <v>1.4</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="34">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>IMPC.JK</t>
+          <t>INET.JK</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -7164,26 +7164,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E34" s="8" t="n">
-        <v>0.23723</v>
-      </c>
-      <c r="F34" s="9" t="n">
-        <v>0.145</v>
-      </c>
-      <c r="G34" s="9" t="n">
-        <v>0.14588</v>
+      <c r="E34" s="9" t="n">
+        <v>0.06432</v>
+      </c>
+      <c r="F34" s="8" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>0.24544</v>
       </c>
       <c r="H34" s="17" t="n">
-        <v>217.47043</v>
+        <v>278.83212</v>
       </c>
       <c r="I34" s="14" t="n">
-        <v>45.672573</v>
+        <v>9.398911999999999</v>
       </c>
       <c r="J34" s="14" t="n">
-        <v>38.133</v>
+        <v>2.833</v>
       </c>
       <c r="K34" s="11" t="n">
-        <v>10.99</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="35">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CDIA.JK</t>
+          <t>IMPC.JK</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -7203,26 +7203,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="8" t="n">
-        <v>0.421</v>
-      </c>
-      <c r="G35" s="8" t="n">
-        <v>0.65328</v>
+      <c r="E35" s="8" t="n">
+        <v>0.23723</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G35" s="9" t="n">
+        <v>0.14588</v>
       </c>
       <c r="H35" s="17" t="n">
-        <v>97.10392</v>
+        <v>204.17422</v>
       </c>
       <c r="I35" s="14" t="n">
-        <v>142500</v>
+        <v>42.997192</v>
       </c>
       <c r="J35" s="14" t="n">
-        <v>34.873</v>
+        <v>38.133</v>
       </c>
       <c r="K35" s="11" t="n">
-        <v>11.74</v>
+        <v>11.02</v>
       </c>
     </row>
     <row r="36">
@@ -7231,7 +7231,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>RATU.JK</t>
+          <t>CDIA.JK</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -7242,26 +7242,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E36" s="8" t="n">
-        <v>0.45251998</v>
-      </c>
-      <c r="F36" s="16" t="n">
-        <v>-0.183</v>
+      <c r="E36" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="8" t="n">
+        <v>0.421</v>
       </c>
       <c r="G36" s="8" t="n">
-        <v>0.31559</v>
+        <v>0.65328</v>
       </c>
       <c r="H36" s="17" t="n">
-        <v>73.52941</v>
+        <v>93.45793999999999</v>
       </c>
       <c r="I36" s="14" t="n">
-        <v>442647.03</v>
+        <v>137500</v>
       </c>
       <c r="J36" s="14" t="n">
-        <v>36.548</v>
+        <v>34.873</v>
       </c>
       <c r="K36" s="11" t="n">
-        <v>102.34</v>
+        <v>11.77</v>
       </c>
     </row>
     <row r="37">
@@ -7270,7 +7270,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PANI.JK</t>
+          <t>RATU.JK</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -7281,26 +7281,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E37" s="9" t="n">
-        <v>0.0678</v>
-      </c>
-      <c r="F37" s="8" t="n">
-        <v>0.946</v>
+      <c r="E37" s="8" t="n">
+        <v>0.45251998</v>
+      </c>
+      <c r="F37" s="16" t="n">
+        <v>-0.183</v>
       </c>
       <c r="G37" s="8" t="n">
-        <v>0.24195999</v>
+        <v>0.31559</v>
       </c>
       <c r="H37" s="17" t="n">
-        <v>188.68779</v>
+        <v>71.71334</v>
       </c>
       <c r="I37" s="14" t="n">
-        <v>7.836054</v>
+        <v>433823.5</v>
       </c>
       <c r="J37" s="14" t="n">
-        <v>2.054</v>
+        <v>36.548</v>
       </c>
       <c r="K37" s="11" t="n">
-        <v>55.25</v>
+        <v>102.84</v>
       </c>
     </row>
     <row r="38">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BREN.JK</t>
+          <t>PANI.JK</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -7320,26 +7320,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E38" s="8" t="n">
-        <v>0.22038001</v>
-      </c>
-      <c r="F38" s="9" t="n">
-        <v>0.04</v>
+      <c r="E38" s="9" t="n">
+        <v>0.0678</v>
+      </c>
+      <c r="F38" s="8" t="n">
+        <v>0.946</v>
       </c>
       <c r="G38" s="8" t="n">
-        <v>0.23266001</v>
+        <v>0.24195999</v>
       </c>
       <c r="H38" s="17" t="n">
-        <v>454.54547</v>
+        <v>184.98169</v>
       </c>
       <c r="I38" s="14" t="n">
-        <v>1610000</v>
+        <v>7.5917645</v>
       </c>
       <c r="J38" s="14" t="n">
-        <v>239.827</v>
+        <v>2.054</v>
       </c>
       <c r="K38" s="11" t="n">
-        <v>17.71</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="39">
@@ -7348,11 +7348,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ADMR.JK</t>
+          <t>BREN.JK</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -7360,25 +7360,25 @@
         </is>
       </c>
       <c r="E39" s="8" t="n">
-        <v>0.2018</v>
-      </c>
-      <c r="F39" s="16" t="n">
-        <v>-0.012</v>
+        <v>0.22038001</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>0.04</v>
       </c>
       <c r="G39" s="8" t="n">
-        <v>0.31149</v>
-      </c>
-      <c r="H39" t="n">
-        <v>16.180723</v>
+        <v>0.23266001</v>
+      </c>
+      <c r="H39" s="17" t="n">
+        <v>447.3832</v>
       </c>
       <c r="I39" s="14" t="n">
-        <v>55945.945</v>
+        <v>1590000</v>
       </c>
       <c r="J39" s="14" t="n">
-        <v>35.836</v>
+        <v>239.827</v>
       </c>
       <c r="K39" s="11" t="n">
-        <v>127.93</v>
+        <v>17.77</v>
       </c>
     </row>
     <row r="40">
@@ -7408,16 +7408,16 @@
         <v>0.075219996</v>
       </c>
       <c r="H40" s="10" t="n">
-        <v>9.225027000000001</v>
+        <v>9.118434000000001</v>
       </c>
       <c r="I40" s="11" t="n">
-        <v>1.4599574</v>
+        <v>1.4432403</v>
       </c>
       <c r="J40" s="14" t="n">
         <v>19.582</v>
       </c>
       <c r="K40" s="11" t="n">
-        <v>284.01</v>
+        <v>284.04</v>
       </c>
     </row>
     <row r="41">
@@ -7447,16 +7447,16 @@
         <v>0.14828</v>
       </c>
       <c r="H41" s="10" t="n">
-        <v>5.9630384</v>
+        <v>5.6944714</v>
       </c>
       <c r="I41" s="14" t="n">
-        <v>20955.057</v>
+        <v>20112.36</v>
       </c>
       <c r="J41" s="14" t="n">
         <v>27.582</v>
       </c>
       <c r="K41" s="11" t="n">
-        <v>1563.8</v>
+        <v>1571.7</v>
       </c>
     </row>
   </sheetData>

--- a/reports/HEDGEFUND_TERMINAL.xlsx
+++ b/reports/HEDGEFUND_TERMINAL.xlsx
@@ -478,7 +478,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="27" customWidth="1" min="1" max="1"/>
+    <col width="26" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
     <col width="9" customWidth="1" min="3" max="3"/>
     <col width="31" customWidth="1" min="4" max="4"/>
@@ -496,7 +496,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>24 February 2026</t>
+          <t>26 February 2026</t>
         </is>
       </c>
     </row>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>50.7</v>
+        <v>50.5</v>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7"/>
@@ -572,12 +572,12 @@
       </c>
       <c r="B9" s="6" t="inlineStr">
         <is>
-          <t>-1.7B</t>
+          <t>-1.3B</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ELSA.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -585,7 +585,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-21.6M</t>
+          <t>10.2M</t>
         </is>
       </c>
     </row>
@@ -612,17 +612,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1. Financial Services</t>
+          <t>1. Consumer Cyclical</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>115.0M</t>
+          <t>297.8M</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NCKL.JK</t>
+          <t>HRTA.JK</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -630,24 +630,24 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-5.5M</t>
+          <t>-2.9M</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2. Consumer Defensive</t>
+          <t>2. Financial Services</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>48.8M</t>
+          <t>115.0M</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>HRTA.JK</t>
+          <t>ELSA.JK</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -655,24 +655,24 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-2.9M</t>
+          <t>-21.6M</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3. Real Estate</t>
+          <t>3. Consumer Defensive</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>29.9M</t>
+          <t>48.8M</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>MBMA.JK</t>
+          <t>OASA.JK</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -680,19 +680,19 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-73.7M</t>
+          <t>-2.4M</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4. Communication Services</t>
+          <t>4. Real Estate</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.0M</t>
+          <t>29.9M</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -709,12 +709,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5. Utilities</t>
+          <t>5. Industrials</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-2.8M</t>
+          <t>1.7M</t>
         </is>
       </c>
     </row>
@@ -732,11 +732,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>67.8</v>
+        <v>76.7</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-18.6M</t>
+          <t>297.8M</t>
         </is>
       </c>
     </row>
@@ -747,11 +747,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>62.5</v>
+        <v>58.4</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-165.8M</t>
+          <t>-163.9M</t>
         </is>
       </c>
     </row>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>59.5</v>
+        <v>54.6</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -773,30 +773,30 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4. Industrials</t>
+          <t>4. Financial Services</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>51.3</v>
+        <v>48.6</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-102.8M</t>
+          <t>115.0M</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5. Financial Services</t>
+          <t>5. Technology</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>47.3</v>
+        <v>48.3</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>115.0M</t>
+          <t>-1.1B</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="8" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="13" customWidth="1" min="12" max="12"/>
     <col width="9" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
@@ -912,7 +912,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELSA.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -920,40 +920,40 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>752-808</t>
+          <t>2257-2323</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>696.4285714285714</v>
+        <v>2190.357142857143</v>
       </c>
       <c r="F2" t="n">
-        <v>891.4285714285714</v>
+        <v>2421.785714285714</v>
       </c>
       <c r="G2" t="n">
-        <v>980.5714285714287</v>
+        <v>2520.357142857143</v>
       </c>
       <c r="H2" t="n">
-        <v>1086.428571428572</v>
+        <v>2651.785714285714</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>98%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>21.58%</t>
+          <t>9.62%</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>51.81</v>
+        <v>437.97</v>
       </c>
       <c r="L2" t="n">
-        <v>-21636100</v>
+        <v>10200200</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>DISTRIB</t>
+          <t>ACCUM</t>
         </is>
       </c>
     </row>
@@ -971,33 +971,33 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1641-1729</t>
+          <t>1685-1775</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1552.678571428572</v>
+        <v>1594.464285714286</v>
       </c>
       <c r="F3" t="n">
-        <v>1861.428571428572</v>
+        <v>1910.714285714286</v>
       </c>
       <c r="G3" t="n">
-        <v>2047.571428571429</v>
+        <v>2101.785714285714</v>
       </c>
       <c r="H3" t="n">
-        <v>2170.178571428572</v>
+        <v>2226.964285714286</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>9.79%</t>
+          <t>10.09%</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>32.74</v>
+        <v>39.62</v>
       </c>
       <c r="L3" t="n">
         <v>766200</v>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NCKL.JK</t>
+          <t>HRTA.JK</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -1022,36 +1022,36 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1496-1564</t>
+          <t>2894-3066</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1427.678571428572</v>
+        <v>2721.785714285714</v>
       </c>
       <c r="F4" t="n">
-        <v>1658.928571428572</v>
+        <v>3310.357142857143</v>
       </c>
       <c r="G4" t="n">
-        <v>1824.821428571429</v>
+        <v>3554.642857142857</v>
       </c>
       <c r="H4" t="n">
-        <v>1880.178571428572</v>
+        <v>3880.357142857143</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>19.20%</t>
+          <t>26.51%</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>102.32</v>
+        <v>28.81</v>
       </c>
       <c r="L4" t="n">
-        <v>-5503000</v>
+        <v>-2895500</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HRTA.JK</t>
+          <t>ELSA.JK</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -1073,36 +1073,36 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2742-2918</t>
+          <t>812-868</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2564.821428571428</v>
+        <v>755.3571428571429</v>
       </c>
       <c r="F5" t="n">
-        <v>3169.642857142857</v>
+        <v>952.8571428571428</v>
       </c>
       <c r="G5" t="n">
-        <v>3486.607142857144</v>
+        <v>1037.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3755.892857142857</v>
+        <v>1150.357142857143</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>26.84%</t>
+          <t>22.15%</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>29.16</v>
+        <v>71.75</v>
       </c>
       <c r="L5" t="n">
-        <v>-2895500</v>
+        <v>-21636100</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MBMA.JK</t>
+          <t>OASA.JK</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -1124,20 +1124,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>847-913</t>
+          <t>435-473</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>781.9642857142857</v>
+        <v>397</v>
       </c>
       <c r="F6" t="n">
-        <v>1005.357142857143</v>
+        <v>529.3571428571429</v>
       </c>
       <c r="G6" t="n">
-        <v>1105.892857142857</v>
+        <v>582.2928571428572</v>
       </c>
       <c r="H6" t="n">
-        <v>1221.607142857143</v>
+        <v>660.8571428571429</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -1146,14 +1146,14 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>17.28%</t>
+          <t>38.38%</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>17.9</v>
+        <v>32.16</v>
       </c>
       <c r="L6" t="n">
-        <v>-73678300</v>
+        <v>-2360900</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIPI.JK</t>
+          <t>TCPI.JK</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -1175,40 +1175,40 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>256-284</t>
+          <t>12023-12377</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>226.9285714285714</v>
+        <v>11669.64285714286</v>
       </c>
       <c r="F7" t="n">
-        <v>326.3571428571428</v>
+        <v>12904.46428571428</v>
       </c>
       <c r="G7" t="n">
-        <v>368.3571428571428</v>
+        <v>13432.14285714286</v>
       </c>
       <c r="H7" t="n">
-        <v>424.3571428571428</v>
+        <v>14135.71428571428</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>57.42%</t>
+          <t>19.04%</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>11.78</v>
+        <v>7615447667.47</v>
       </c>
       <c r="L7" t="n">
-        <v>-104512900</v>
+        <v>328500</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>DISTRIB</t>
+          <t>ACCUM</t>
         </is>
       </c>
     </row>
@@ -1218,44 +1218,44 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TCPI.JK</t>
+          <t>INCO.JK</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11604-11946</t>
+          <t>7174-7526</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>11263.39285714286</v>
+        <v>6822.321428571428</v>
       </c>
       <c r="F8" t="n">
-        <v>12454.46428571428</v>
+        <v>7983.928571428571</v>
       </c>
       <c r="G8" t="n">
-        <v>12963.39285714286</v>
+        <v>8441.964285714286</v>
       </c>
       <c r="H8" t="n">
-        <v>13641.96428571428</v>
+        <v>9052.678571428571</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>92%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>19.15%</t>
+          <t>31.66%</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>7658171191.41</v>
+        <v>805.91</v>
       </c>
       <c r="L8" t="n">
-        <v>328500</v>
+        <v>745400</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>INCO.JK</t>
+          <t>BULL.JK</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -1277,40 +1277,40 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6823-7177</t>
+          <t>511-559</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6469.642857142857</v>
+        <v>463.1071428571429</v>
       </c>
       <c r="F9" t="n">
-        <v>7653.571428571429</v>
+        <v>628.0714285714286</v>
       </c>
       <c r="G9" t="n">
-        <v>8418.928571428572</v>
+        <v>690.8785714285715</v>
       </c>
       <c r="H9" t="n">
-        <v>8766.071428571429</v>
+        <v>789.3214285714284</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>62%</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>31.84%</t>
+          <t>25.80%</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>810.5700000000001</v>
+        <v>4.19</v>
       </c>
       <c r="L9" t="n">
-        <v>745400</v>
+        <v>-2075700</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENRG.JK</t>
+          <t>MBMA.JK</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1328,40 +1328,40 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1513-1657</t>
+          <t>813-877</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1369.107142857143</v>
+        <v>749.1071428571429</v>
       </c>
       <c r="F10" t="n">
-        <v>1870.178571428572</v>
+        <v>967.5</v>
       </c>
       <c r="G10" t="n">
-        <v>2057.196428571429</v>
+        <v>1064.25</v>
       </c>
       <c r="H10" t="n">
-        <v>2367.678571428572</v>
+        <v>1178.75</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>7.03%</t>
+          <t>17.45%</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>1.93</v>
+        <v>18.86</v>
       </c>
       <c r="L10" t="n">
-        <v>56554200</v>
+        <v>-73678300</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -1371,48 +1371,48 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ANTM.JK</t>
+          <t>ENRG.JK</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4286-4474</t>
+          <t>1477-1613</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4099.285714285715</v>
+        <v>1339.821428571429</v>
       </c>
       <c r="F11" t="n">
-        <v>4733.928571428572</v>
+        <v>1815.892857142857</v>
       </c>
       <c r="G11" t="n">
-        <v>5207.321428571429</v>
+        <v>1997.482142857143</v>
       </c>
       <c r="H11" t="n">
-        <v>5341.428571428572</v>
+        <v>2288.392857142857</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>62%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>18.79%</t>
+          <t>5.96%</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>341.11</v>
+        <v>1.79</v>
       </c>
       <c r="L11" t="n">
-        <v>-30506300</v>
+        <v>56554200</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>DISTRIB</t>
+          <t>ACCUM</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>INKP.JK</t>
+          <t>ZATA.JK</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1430,40 +1430,40 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10074-10526</t>
+          <t>157-169</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>9622.321428571429</v>
+        <v>143.7142857142857</v>
       </c>
       <c r="F12" t="n">
-        <v>11176.78571428571</v>
+        <v>188.3928571428571</v>
       </c>
       <c r="G12" t="n">
-        <v>12294.46428571429</v>
+        <v>207.3571428571428</v>
       </c>
       <c r="H12" t="n">
-        <v>12695.53571428571</v>
+        <v>232.6428571428571</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>8.27%</t>
+          <t>35.30%</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>5.64</v>
+        <v>17.45</v>
       </c>
       <c r="L12" t="n">
-        <v>-1912500</v>
+        <v>316433400</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>DISTRIB</t>
+          <t>ACCUM</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MDKA.JK</t>
+          <t>PSKT.JK</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1481,36 +1481,36 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3690-3890</t>
+          <t>300-340</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3490</v>
+        <v>260.5357142857143</v>
       </c>
       <c r="F13" t="n">
-        <v>4167.5</v>
+        <v>398</v>
       </c>
       <c r="G13" t="n">
-        <v>4445</v>
+        <v>437.8</v>
       </c>
       <c r="H13" t="n">
-        <v>4815</v>
+        <v>533.75</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>38%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>20.01%</t>
+          <t>-2.40%</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>67.48</v>
+        <v>0.78</v>
       </c>
       <c r="L13" t="n">
-        <v>6595200</v>
+        <v>7483200</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1524,48 +1524,48 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>EMAS.JK</t>
+          <t>MDKA.JK</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>8039-8611</t>
+          <t>3725-3915</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>7467.857142857143</v>
+        <v>3536.071428571428</v>
       </c>
       <c r="F14" t="n">
-        <v>9425</v>
+        <v>4176.071428571428</v>
       </c>
       <c r="G14" t="n">
-        <v>10367.5</v>
+        <v>4437.5</v>
       </c>
       <c r="H14" t="n">
-        <v>11325</v>
+        <v>4786.071428571428</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>30.91%</t>
+          <t>20.33%</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>12363597031.74</v>
+        <v>79.91</v>
       </c>
       <c r="L14" t="n">
-        <v>-658500</v>
+        <v>6595200</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>DISTRIB</t>
+          <t>ACCUM</t>
         </is>
       </c>
     </row>
@@ -1575,44 +1575,44 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PADI.JK</t>
+          <t>EMAS.JK</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>144-164</t>
+          <t>8062-8588</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>125.5</v>
+        <v>7534.821428571428</v>
       </c>
       <c r="F15" t="n">
-        <v>188.25</v>
+        <v>9335.714285714286</v>
       </c>
       <c r="G15" t="n">
-        <v>207.075</v>
+        <v>10269.28571428572</v>
       </c>
       <c r="H15" t="n">
-        <v>246</v>
+        <v>11079.46428571429</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>57%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>11.90%</t>
+          <t>29.95%</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>1.9</v>
+        <v>11978122432.06</v>
       </c>
       <c r="L15" t="n">
-        <v>-1255200</v>
+        <v>-658500</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1634,33 +1634,33 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2564-2616</t>
+          <t>2605-2655</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2512.857142857143</v>
+        <v>2555</v>
       </c>
       <c r="F16" t="n">
-        <v>2691.785714285714</v>
+        <v>2727.857142857143</v>
       </c>
       <c r="G16" t="n">
-        <v>2869.285714285714</v>
+        <v>2897.857142857143</v>
       </c>
       <c r="H16" t="n">
-        <v>2960.964285714286</v>
+        <v>3000.642857142857</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>90%</t>
+          <t>92%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>5.78%</t>
+          <t>5.87%</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>45.74</v>
+        <v>78.70999999999999</v>
       </c>
       <c r="L16" t="n">
         <v>1793800</v>
@@ -1685,20 +1685,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4012-4288</t>
+          <t>4206-4474</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3735.357142857143</v>
+        <v>3937.142857142857</v>
       </c>
       <c r="F17" t="n">
-        <v>4677.142857142857</v>
+        <v>4834.285714285715</v>
       </c>
       <c r="G17" t="n">
-        <v>5144.857142857143</v>
+        <v>5194.285714285715</v>
       </c>
       <c r="H17" t="n">
-        <v>5584.642857142857</v>
+        <v>5674.285714285715</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1707,11 +1707,11 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>5.37%</t>
+          <t>5.45%</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>5.18</v>
+        <v>5.24</v>
       </c>
       <c r="L17" t="n">
         <v>32300</v>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AADI.JK</t>
+          <t>NCKL.JK</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1736,36 +1736,36 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>8751-9149</t>
+          <t>1497-1563</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>8352.678571428571</v>
+        <v>1430.357142857143</v>
       </c>
       <c r="F18" t="n">
-        <v>9730.357142857143</v>
+        <v>1655.892857142857</v>
       </c>
       <c r="G18" t="n">
-        <v>10703.39285714286</v>
+        <v>1821.482142857143</v>
       </c>
       <c r="H18" t="n">
-        <v>11086.60714285714</v>
+        <v>1872.142857142857</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>7.07%</t>
+          <t>18.89%</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>5.02</v>
+        <v>96.56999999999999</v>
       </c>
       <c r="L18" t="n">
-        <v>-4000</v>
+        <v>-5503000</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1779,48 +1779,48 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>ADMR.JK</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2216-2284</t>
+          <t>2096-2204</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2148.214285714286</v>
+        <v>1986.607142857143</v>
       </c>
       <c r="F19" t="n">
-        <v>2384.642857142857</v>
+        <v>2367.321428571428</v>
       </c>
       <c r="G19" t="n">
-        <v>2619.642857142857</v>
+        <v>2604.053571428572</v>
       </c>
       <c r="H19" t="n">
-        <v>2623.107142857143</v>
+        <v>2747.321428571428</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>98%</t>
+          <t>78%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>9.84%</t>
+          <t>22.79%</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>447.58</v>
+        <v>23.87</v>
       </c>
       <c r="L19" t="n">
-        <v>10200200</v>
+        <v>-25253200</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -1830,48 +1830,48 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BMRI.JK</t>
+          <t>AADI.JK</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5304-5446</t>
+          <t>9034-9416</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5161.25</v>
+        <v>8651.785714285714</v>
       </c>
       <c r="F20" t="n">
-        <v>5657.321428571428</v>
+        <v>9973.214285714286</v>
       </c>
       <c r="G20" t="n">
-        <v>5868.392857142857</v>
+        <v>10970.53571428572</v>
       </c>
       <c r="H20" t="n">
-        <v>6149.821428571428</v>
+        <v>11273.21428571429</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>62%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>1.39%</t>
+          <t>7.54%</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>2.55</v>
+        <v>5.91</v>
       </c>
       <c r="L20" t="n">
-        <v>33741800</v>
+        <v>-4000</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ARCI.JK</t>
+          <t>BBRI.JK</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1889,40 +1889,40 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1779-1871</t>
+          <t>3933-4007</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1686.785714285714</v>
+        <v>3858.571428571428</v>
       </c>
       <c r="F21" t="n">
-        <v>1997.5</v>
+        <v>4112.142857142857</v>
       </c>
       <c r="G21" t="n">
-        <v>2197.25</v>
+        <v>4217.142857142857</v>
       </c>
       <c r="H21" t="n">
-        <v>2292.5</v>
+        <v>4357.142857142857</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>15.11%</t>
+          <t>3.27%</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>7.94</v>
+        <v>20.61</v>
       </c>
       <c r="L21" t="n">
-        <v>-11431200</v>
+        <v>105416300</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>DISTRIB</t>
+          <t>ACCUM</t>
         </is>
       </c>
     </row>
@@ -1973,11 +1973,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BBRI.JK</t>
+          <t>ZATA.JK</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>105416300</v>
+        <v>316433400</v>
       </c>
     </row>
     <row r="3">
@@ -1986,11 +1986,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENRG.JK</t>
+          <t>BBRI.JK</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>56554200</v>
+        <v>105416300</v>
       </c>
     </row>
     <row r="4">
@@ -1999,11 +1999,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AMRT.JK</t>
+          <t>ENRG.JK</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37773100</v>
+        <v>56554200</v>
       </c>
     </row>
     <row r="5">
@@ -2012,11 +2012,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PWON.JK</t>
+          <t>AMRT.JK</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>37538300</v>
+        <v>37773100</v>
       </c>
     </row>
     <row r="6">
@@ -2025,11 +2025,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BMRI.JK</t>
+          <t>PWON.JK</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33741800</v>
+        <v>37538300</v>
       </c>
     </row>
     <row r="7">
@@ -2038,11 +2038,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TLKM.JK</t>
+          <t>BMRI.JK</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13783000</v>
+        <v>33741800</v>
       </c>
     </row>
     <row r="8">
@@ -2051,11 +2051,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CPRO.JK</t>
+          <t>TLKM.JK</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12850400</v>
+        <v>13783000</v>
       </c>
     </row>
     <row r="9">
@@ -2064,11 +2064,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CUAN.JK</t>
+          <t>CPRO.JK</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>11666100</v>
+        <v>12850400</v>
       </c>
     </row>
     <row r="10">
@@ -2077,11 +2077,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>CUAN.JK</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>10200200</v>
+        <v>11666100</v>
       </c>
     </row>
     <row r="11">
@@ -2090,11 +2090,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BBNI.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8426900</v>
+        <v>10200200</v>
       </c>
     </row>
     <row r="12">
@@ -2103,11 +2103,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PSKT.JK</t>
+          <t>BBNI.JK</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7483200</v>
+        <v>8426900</v>
       </c>
     </row>
     <row r="13">
@@ -2116,11 +2116,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BKSL.JK</t>
+          <t>PSKT.JK</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7075200</v>
+        <v>7483200</v>
       </c>
     </row>
     <row r="14">
@@ -2129,11 +2129,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MDKA.JK</t>
+          <t>BKSL.JK</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6595200</v>
+        <v>7075200</v>
       </c>
     </row>
     <row r="15">
@@ -2142,11 +2142,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PNLF.JK</t>
+          <t>MDKA.JK</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6312700</v>
+        <v>6595200</v>
       </c>
     </row>
     <row r="16">
@@ -2155,11 +2155,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ASII.JK</t>
+          <t>PNLF.JK</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6227500</v>
+        <v>6312700</v>
       </c>
     </row>
     <row r="17">
@@ -2168,11 +2168,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>JPFA.JK</t>
+          <t>ASII.JK</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5002500</v>
+        <v>6227500</v>
       </c>
     </row>
     <row r="18">
@@ -2181,11 +2181,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>IRSX.JK</t>
+          <t>JPFA.JK</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4580900</v>
+        <v>5002500</v>
       </c>
     </row>
     <row r="19">
@@ -2194,11 +2194,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>EXCL.JK</t>
+          <t>IRSX.JK</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4119100</v>
+        <v>4580900</v>
       </c>
     </row>
     <row r="20">
@@ -2207,11 +2207,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PTRO.JK</t>
+          <t>EXCL.JK</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4111100</v>
+        <v>4119100</v>
       </c>
     </row>
     <row r="21">
@@ -2220,11 +2220,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ISAT.JK</t>
+          <t>PTRO.JK</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4049500</v>
+        <v>4111100</v>
       </c>
     </row>
     <row r="22">
@@ -2233,11 +2233,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TRIN.JK</t>
+          <t>ISAT.JK</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3499700</v>
+        <v>4049500</v>
       </c>
     </row>
     <row r="23">
@@ -2246,11 +2246,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>UNVR.JK</t>
+          <t>TRIN.JK</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2865100</v>
+        <v>3499700</v>
       </c>
     </row>
     <row r="24">
@@ -2259,11 +2259,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BRPT.JK</t>
+          <t>UNVR.JK</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2074300</v>
+        <v>2865100</v>
       </c>
     </row>
     <row r="25">
@@ -2272,11 +2272,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>UNTR.JK</t>
+          <t>BRPT.JK</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1859000</v>
+        <v>2074300</v>
       </c>
     </row>
     <row r="26">
@@ -2285,11 +2285,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PTBA.JK</t>
+          <t>UNTR.JK</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1793800</v>
+        <v>1859000</v>
       </c>
     </row>
     <row r="27">
@@ -2298,11 +2298,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>IMPC.JK</t>
+          <t>PTBA.JK</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1615500</v>
+        <v>1793800</v>
       </c>
     </row>
     <row r="28">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AMMN.JK</t>
+          <t>IMPC.JK</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>937300</v>
+        <v>1615500</v>
       </c>
     </row>
     <row r="29">
@@ -2324,11 +2324,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MEDC.JK</t>
+          <t>AMMN.JK</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>766200</v>
+        <v>937300</v>
       </c>
     </row>
     <row r="30">
@@ -2337,11 +2337,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>HRUM.JK</t>
+          <t>MEDC.JK</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>746000</v>
+        <v>766200</v>
       </c>
     </row>
     <row r="31">
@@ -2350,11 +2350,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>INCO.JK</t>
+          <t>HRUM.JK</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>745400</v>
+        <v>746000</v>
       </c>
     </row>
   </sheetData>
@@ -2368,7 +2368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2407,18 +2407,18 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELSA.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>99.59999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-3.7%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
@@ -2436,50 +2436,50 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NCKL.JK</t>
+          <t>HRTA.JK</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>97</v>
       </c>
       <c r="C4" t="n">
-        <v>86.40000000000001</v>
+        <v>85.2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-1.0%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HRTA.JK</t>
+          <t>ELSA.JK</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>96</v>
       </c>
       <c r="C5" t="n">
-        <v>85.2</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MBMA.JK</t>
+          <t>OASA.JK</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2490,14 +2490,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>-12.7%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BIPI.JK</t>
+          <t>TCPI.JK</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2508,151 +2508,151 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TCPI.JK</t>
+          <t>INCO.JK</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" t="n">
-        <v>84</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INCO.JK</t>
+          <t>BULL.JK</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>92</v>
       </c>
       <c r="C9" t="n">
-        <v>83.40000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-1.4%</t>
+          <t>-21.9%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ENRG.JK</t>
+          <t>MBMA.JK</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>91</v>
       </c>
       <c r="C10" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-6.5%</t>
+          <t>-6.6%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ANTM.JK</t>
+          <t>ENRG.JK</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" t="n">
-        <v>75.59999999999999</v>
+        <v>76</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-8.0%</t>
+          <t>-8.8%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INKP.JK</t>
+          <t>ZATA.JK</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>88</v>
       </c>
       <c r="C12" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MDKA.JK</t>
+          <t>PSKT.JK</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>87</v>
       </c>
       <c r="C13" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-20.4%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>EMAS.JK</t>
+          <t>MDKA.JK</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" t="n">
         <v>72</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PADI.JK</t>
+          <t>EMAS.JK</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C15" t="n">
-        <v>70.2</v>
+        <v>72</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-22.6%</t>
+          <t>-0.9%</t>
         </is>
       </c>
     </row>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-1.9%</t>
+          <t>-0.4%</t>
         </is>
       </c>
     </row>
@@ -2688,295 +2688,295 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-1.0%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AADI.JK</t>
+          <t>NCKL.JK</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>82</v>
       </c>
       <c r="C18" t="n">
-        <v>62.8</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-6.3%</t>
+          <t>-1.0%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>ADMR.JK</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" t="n">
-        <v>61.6</v>
+        <v>64.8</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>-5.7%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BMRI.JK</t>
+          <t>AADI.JK</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" t="n">
-        <v>57.4</v>
+        <v>62.8</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-3.4%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ARCI.JK</t>
+          <t>BBRI.JK</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>78</v>
       </c>
       <c r="C21" t="n">
-        <v>54.6</v>
+        <v>61.8</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-10.1%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>OASA.JK</t>
+          <t>PADI.JK</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>77</v>
       </c>
       <c r="C22" t="n">
-        <v>54</v>
+        <v>60.2</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-15.0%</t>
+          <t>-17.6%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BBRI.JK</t>
+          <t>ADRO.JK</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>76</v>
       </c>
       <c r="C23" t="n">
-        <v>53.8</v>
+        <v>58</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-0.8%</t>
+          <t>-1.2%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>INDY.JK</t>
+          <t>BMRI.JK</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>75</v>
       </c>
       <c r="C24" t="n">
-        <v>52</v>
+        <v>57.4</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>-1.4%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HRUM.JK</t>
+          <t>ARCI.JK</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" t="n">
-        <v>52</v>
+        <v>54.6</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-6.6%</t>
+          <t>-7.1%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BULL.JK</t>
+          <t>UNTR.JK</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>73</v>
       </c>
       <c r="C26" t="n">
-        <v>51.8</v>
+        <v>52.8</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-24.1%</t>
+          <t>-1.5%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BRIS.JK</t>
+          <t>INDY.JK</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" t="n">
-        <v>50.8</v>
+        <v>52</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-3.7%</t>
+          <t>-4.4%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PSKT.JK</t>
+          <t>MINA.JK</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" t="n">
-        <v>50</v>
+        <v>50.8</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-19.4%</t>
+          <t>-33.5%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ADMR.JK</t>
+          <t>BRIS.JK</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>70</v>
       </c>
       <c r="C29" t="n">
-        <v>49.8</v>
+        <v>50.8</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-11.4%</t>
+          <t>-2.4%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ADRO.JK</t>
+          <t>HRUM.JK</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>68</v>
       </c>
       <c r="C30" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-4.6%</t>
+          <t>-4.3%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HUMI.JK</t>
+          <t>GOTO.JK</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>67</v>
       </c>
       <c r="C31" t="n">
-        <v>47</v>
+        <v>46.8</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-29.8%</t>
+          <t>-15.5%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>UNTR.JK</t>
+          <t>ANTM.JK</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>66</v>
       </c>
       <c r="C32" t="n">
-        <v>44.8</v>
+        <v>45.6</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-3.7%</t>
+          <t>-6.3%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>VKTR.JK</t>
+          <t>EXCL.JK</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>65</v>
       </c>
       <c r="C33" t="n">
-        <v>43.8</v>
+        <v>44.8</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-25.1%</t>
+          <t>-25.2%</t>
         </is>
       </c>
     </row>
@@ -2994,169 +2994,169 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-19.7%</t>
+          <t>-19.1%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>TPIA.JK</t>
+          <t>BUVA.JK</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" t="n">
-        <v>39.6</v>
+        <v>40</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-7.7%</t>
+          <t>-23.5%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DADA.JK</t>
+          <t>TPIA.JK</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" t="n">
-        <v>38.6</v>
+        <v>39.6</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-20.6%</t>
+          <t>-11.2%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>INDF.JK</t>
+          <t>DADA.JK</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" t="n">
-        <v>38</v>
+        <v>38.6</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-11.4%</t>
+          <t>-20.6%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>AMMN.JK</t>
+          <t>INDF.JK</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-8.6%</t>
+          <t>-11.4%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GTSI.JK</t>
+          <t>RATU.JK</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>58</v>
       </c>
       <c r="C39" t="n">
-        <v>36.8</v>
+        <v>35.4</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-34.2%</t>
+          <t>-38.4%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MINA.JK</t>
+          <t>UNVR.JK</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>57</v>
       </c>
       <c r="C40" t="n">
-        <v>35.8</v>
+        <v>34.8</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-36.4%</t>
+          <t>-15.9%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>EXCL.JK</t>
+          <t>VKTR.JK</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>56</v>
       </c>
       <c r="C41" t="n">
-        <v>34.8</v>
+        <v>33.8</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-29.4%</t>
+          <t>-23.2%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>UNVR.JK</t>
+          <t>ISAT.JK</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" t="n">
-        <v>34.8</v>
+        <v>33.4</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-15.2%</t>
+          <t>-3.6%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>GOTO.JK</t>
+          <t>GTSI.JK</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C43" t="n">
         <v>31.8</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-14.1%</t>
+          <t>-35.4%</t>
         </is>
       </c>
     </row>
@@ -3167,14 +3167,14 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" t="n">
         <v>29</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>-2.8%</t>
         </is>
       </c>
     </row>
@@ -3185,14 +3185,14 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45" t="n">
         <v>29</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-5.7%</t>
+          <t>-4.6%</t>
         </is>
       </c>
     </row>
@@ -3203,752 +3203,752 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" t="n">
         <v>28.6</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-31.3%</t>
+          <t>-31.9%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BUMI.JK</t>
+          <t>JPFA.JK</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" t="n">
-        <v>28</v>
+        <v>26.4</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-40.9%</t>
+          <t>-17.7%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BUVA.JK</t>
+          <t>RMKO.JK</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C48" t="n">
-        <v>28</v>
+        <v>25.4</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-33.4%</t>
+          <t>-61.3%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>RMKE.JK</t>
+          <t>HUMI.JK</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C49" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-49.6%</t>
+          <t>-30.3%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>JPFA.JK</t>
+          <t>TRIN.JK</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C50" t="n">
-        <v>26.4</v>
+        <v>25</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-17.4%</t>
+          <t>-37.9%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>RMKO.JK</t>
+          <t>SRTG.JK</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C51" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-59.1%</t>
+          <t>-9.7%</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ICBP.JK</t>
+          <t>LPKR.JK</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" t="n">
-        <v>25</v>
+        <v>21.8</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-7.6%</t>
+          <t>-20.3%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TRIN.JK</t>
+          <t>KLBF.JK</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C53" t="n">
-        <v>25</v>
+        <v>21.6</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-36.8%</t>
+          <t>-11.2%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>LPKR.JK</t>
+          <t>AMRT.JK</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C54" t="n">
-        <v>21.8</v>
+        <v>19.8</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-20.3%</t>
+          <t>-13.2%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>KLBF.JK</t>
+          <t>ESSA.JK</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C55" t="n">
-        <v>21.6</v>
+        <v>18</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-15.5%</t>
+          <t>-13.7%</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>AMRT.JK</t>
+          <t>BBCA.JK</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C56" t="n">
-        <v>19.8</v>
+        <v>17.8</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-10.8%</t>
+          <t>-13.3%</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ISAT.JK</t>
+          <t>BBYB.JK</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>38</v>
       </c>
       <c r="C57" t="n">
-        <v>18.4</v>
+        <v>17.4</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-5.7%</t>
+          <t>-36.3%</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ESSA.JK</t>
+          <t>EMTK.JK</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>37</v>
       </c>
       <c r="C58" t="n">
-        <v>18</v>
+        <v>16.2</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-13.7%</t>
+          <t>-37.4%</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TRUE.JK</t>
+          <t>ICBP.JK</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C59" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-55.1%</t>
+          <t>-6.7%</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BBYB.JK</t>
+          <t>ASII.JK</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C60" t="n">
-        <v>17.4</v>
+        <v>13</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-36.3%</t>
+          <t>-10.1%</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SRTG.JK</t>
+          <t>NICL.JK</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C61" t="n">
-        <v>17</v>
+        <v>10.8</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-11.9%</t>
+          <t>-38.0%</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>TOBA.JK</t>
+          <t>BKSL.JK</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C62" t="n">
-        <v>16.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-24.0%</t>
+          <t>-21.9%</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>EMTK.JK</t>
+          <t>CBDK.JK</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C63" t="n">
-        <v>16.2</v>
+        <v>8.4</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-37.1%</t>
+          <t>-37.9%</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PNLF.JK</t>
+          <t>COIN.JK</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C64" t="n">
-        <v>16</v>
+        <v>7.8</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-16.8%</t>
+          <t>-63.8%</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CPRO.JK</t>
+          <t>PBSA.JK</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C65" t="n">
-        <v>16</v>
+        <v>7.8</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-24.4%</t>
+          <t>-50.7%</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ASII.JK</t>
+          <t>CUAN.JK</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>28</v>
       </c>
       <c r="C66" t="n">
-        <v>13</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-11.5%</t>
+          <t>-38.7%</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>NICL.JK</t>
+          <t>AMMN.JK</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C67" t="n">
-        <v>10.8</v>
+        <v>7</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-40.1%</t>
+          <t>-10.4%</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CBDK.JK</t>
+          <t>BRPT.JK</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C68" t="n">
-        <v>8.4</v>
+        <v>6.6</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-37.4%</t>
+          <t>-45.7%</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BBCA.JK</t>
+          <t>PNLF.JK</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C69" t="n">
-        <v>7.8</v>
+        <v>6</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-14.4%</t>
+          <t>-18.0%</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>COIN.JK</t>
+          <t>CPRO.JK</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C70" t="n">
-        <v>7.8</v>
+        <v>6</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-62.7%</t>
+          <t>-24.4%</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>PBSA.JK</t>
+          <t>PTRO.JK</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C71" t="n">
-        <v>7.8</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-50.7%</t>
+          <t>-47.5%</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CUAN.JK</t>
+          <t>BRMS.JK</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>22</v>
       </c>
       <c r="C72" t="n">
-        <v>7.199999999999999</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-37.2%</t>
+          <t>-25.2%</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BRPT.JK</t>
+          <t>INET.JK</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C73" t="n">
-        <v>6.6</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-45.4%</t>
+          <t>-57.6%</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>PTRO.JK</t>
+          <t>IMPC.JK</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C74" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>-48.4%</t>
+          <t>-45.2%</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BRMS.JK</t>
+          <t>CDIA.JK</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C75" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-22.9%</t>
+          <t>-47.0%</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>INET.JK</t>
+          <t>PANI.JK</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C76" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-59.1%</t>
+          <t>-29.4%</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>IMPC.JK</t>
+          <t>BREN.JK</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C77" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-44.4%</t>
+          <t>-20.7%</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CDIA.JK</t>
+          <t>WIFI.JK</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C78" t="n">
-        <v>5.399999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-46.3%</t>
+          <t>-37.9%</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>RATU.JK</t>
+          <t>PGEO.JK</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C79" t="n">
-        <v>5.399999999999999</v>
+        <v>3</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-39.2%</t>
+          <t>-14.2%</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PANI.JK</t>
+          <t>TRUE.JK</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C80" t="n">
-        <v>5.399999999999999</v>
+        <v>3</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-29.2%</t>
+          <t>-54.7%</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BREN.JK</t>
+          <t>RAJA.JK</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C81" t="n">
-        <v>5.399999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-21.5%</t>
+          <t>-41.7%</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>WIFI.JK</t>
+          <t>DSSA.JK</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>11</v>
       </c>
       <c r="C82" t="n">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>-41.6%</t>
+          <t>-27.8%</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>PGEO.JK</t>
+          <t>TLKM.JK</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>-14.6%</t>
+          <t>-8.6%</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>RAJA.JK</t>
+          <t>PSAB.JK</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>8</v>
       </c>
       <c r="C84" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>-42.3%</t>
+          <t>-13.0%</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>DSSA.JK</t>
+          <t>TOBA.JK</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>8</v>
       </c>
       <c r="C85" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>-27.2%</t>
+          <t>-22.9%</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>TLKM.JK</t>
+          <t>BUMI.JK</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C86" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>-9.1%</t>
+          <t>-41.8%</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>PSAB.JK</t>
+          <t>RMKE.JK</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C87" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>-15.3%</t>
+          <t>-50.8%</t>
         </is>
       </c>
     </row>
@@ -3959,68 +3959,50 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>-21.3%</t>
+          <t>-20.2%</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BKSL.JK</t>
+          <t>KIJA.JK</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C89" t="n">
-        <v>-1.2</v>
+        <v>-3</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-25.1%</t>
+          <t>-38.4%</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>KIJA.JK</t>
+          <t>SSIA.JK</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>-37.9%</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>SSIA.JK</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>1</v>
-      </c>
-      <c r="C91" t="n">
-        <v>-6</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>-25.3%</t>
+          <t>-25.8%</t>
         </is>
       </c>
     </row>
@@ -4049,7 +4031,7 @@
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="11" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4092,7 +4074,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -4100,7 +4082,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ELSA.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -4108,17 +4090,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>752-808</t>
+          <t>2257-2323</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>981</t>
+          <t>2520</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-21636100</t>
+          <t>10200200</t>
         </is>
       </c>
     </row>
@@ -4129,25 +4111,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MEDC.JK</t>
+          <t>OASA.JK</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1641-1729</t>
+          <t>435-473</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2048</t>
+          <t>582</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>766200</t>
+          <t>-2360900</t>
         </is>
       </c>
     </row>
@@ -4158,25 +4140,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ENRG.JK</t>
+          <t>CDIA.JK</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1513-1657</t>
+          <t>1047-1123</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2057</t>
+          <t>1358</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>56554200</t>
+          <t>-7662000</t>
         </is>
       </c>
     </row>
@@ -4187,25 +4169,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PTBA.JK</t>
+          <t>BREN.JK</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2564-2616</t>
+          <t>7639-7911</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2869</t>
+          <t>9129</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1793800</t>
+          <t>-65600</t>
         </is>
       </c>
     </row>
@@ -4216,32 +4198,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AADI.JK</t>
+          <t>PGEO.JK</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8751-9149</t>
+          <t>1098-1132</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10703</t>
+          <t>1289</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-4000</t>
+          <t>-2798000</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -4249,25 +4231,25 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NCKL.JK</t>
+          <t>MEDC.JK</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1496-1564</t>
+          <t>1685-1775</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1825</t>
+          <t>2102</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-5503000</t>
+          <t>766200</t>
         </is>
       </c>
     </row>
@@ -4278,25 +4260,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MBMA.JK</t>
+          <t>ELSA.JK</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>847-913</t>
+          <t>812-868</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>1038</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-73678300</t>
+          <t>-21636100</t>
         </is>
       </c>
     </row>
@@ -4307,25 +4289,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>INCO.JK</t>
+          <t>ENRG.JK</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6823-7177</t>
+          <t>1477-1613</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8419</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>745400</t>
+          <t>56554200</t>
         </is>
       </c>
     </row>
@@ -4336,25 +4318,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ANTM.JK</t>
+          <t>PTBA.JK</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4286-4474</t>
+          <t>2605-2655</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5207</t>
+          <t>2898</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-30506300</t>
+          <t>1793800</t>
         </is>
       </c>
     </row>
@@ -4365,25 +4347,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>INKP.JK</t>
+          <t>AADI.JK</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10074-10526</t>
+          <t>9034-9416</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>12294</t>
+          <t>10971</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-1912500</t>
+          <t>-4000</t>
         </is>
       </c>
     </row>
@@ -4402,16 +4384,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2742-2918</t>
+          <t>2894-3066</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3487</t>
+          <t>3555</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -4427,25 +4409,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PSKT.JK</t>
+          <t>ZATA.JK</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>303-345</t>
+          <t>157-169</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>207</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>7483200</t>
+          <t>316433400</t>
         </is>
       </c>
     </row>
@@ -4456,25 +4438,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>VKTR.JK</t>
+          <t>PSKT.JK</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>917-1023</t>
+          <t>300-340</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1331</t>
+          <t>438</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-2430100</t>
+          <t>7483200</t>
         </is>
       </c>
     </row>
@@ -4489,16 +4471,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>380-428</t>
+          <t>400-444</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>559</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -4518,16 +4500,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1366-1524</t>
+          <t>1583-1737</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>2161</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -4547,7 +4529,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>BIPI.JK</t>
+          <t>TCPI.JK</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -4555,17 +4537,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>256-284</t>
+          <t>12023-12377</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>13432</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-104512900</t>
+          <t>328500</t>
         </is>
       </c>
     </row>
@@ -4576,25 +4558,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>TCPI.JK</t>
+          <t>BULL.JK</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11604-11946</t>
+          <t>511-559</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>12963</t>
+          <t>691</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>328500</t>
+          <t>-2075700</t>
         </is>
       </c>
     </row>
@@ -4605,25 +4587,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>BULL.JK</t>
+          <t>GTSI.JK</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>494-546</t>
+          <t>296-324</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>683</t>
+          <t>401</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-2075700</t>
+          <t>-3409300</t>
         </is>
       </c>
     </row>
@@ -4638,16 +4620,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>234-266</t>
+          <t>235-261</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>330</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -4663,32 +4645,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>GTSI.JK</t>
+          <t>ASII.JK</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>299-333</t>
+          <t>6555-6745</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>7602</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-3409300</t>
+          <t>6227500</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -4696,25 +4678,25 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PADI.JK</t>
+          <t>INCO.JK</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>144-164</t>
+          <t>7174-7526</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>8442</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-1255200</t>
+          <t>745400</t>
         </is>
       </c>
     </row>
@@ -4725,25 +4707,25 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BMRI.JK</t>
+          <t>MBMA.JK</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5304-5446</t>
+          <t>813-877</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5868</t>
+          <t>1064</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>33741800</t>
+          <t>-73678300</t>
         </is>
       </c>
     </row>
@@ -4754,25 +4736,25 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BBRI.JK</t>
+          <t>MDKA.JK</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3833-3907</t>
+          <t>3725-3915</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4261</t>
+          <t>4438</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>105416300</t>
+          <t>6595200</t>
         </is>
       </c>
     </row>
@@ -4783,25 +4765,25 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BRIS.JK</t>
+          <t>EMAS.JK</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2321-2399</t>
+          <t>8062-8588</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2765</t>
+          <t>10269</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-1137600</t>
+          <t>-658500</t>
         </is>
       </c>
     </row>
@@ -4812,32 +4794,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BBNI.JK</t>
+          <t>TINS.JK</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4405-4495</t>
+          <t>4206-4474</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4938</t>
+          <t>5194</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>8426900</t>
+          <t>32300</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -4845,25 +4827,25 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>BBRI.JK</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2216-2284</t>
+          <t>3933-4007</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2620</t>
+          <t>4217</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>10200200</t>
+          <t>105416300</t>
         </is>
       </c>
     </row>
@@ -4874,7 +4856,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>OASA.JK</t>
+          <t>PADI.JK</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -4882,17 +4864,17 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>422-462</t>
+          <t>154-174</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>220</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-2360900</t>
+          <t>-1255200</t>
         </is>
       </c>
     </row>
@@ -4903,25 +4885,25 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CDIA.JK</t>
+          <t>BMRI.JK</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1057-1143</t>
+          <t>5231-5369</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1395</t>
+          <t>6049</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-7662000</t>
+          <t>33741800</t>
         </is>
       </c>
     </row>
@@ -4932,25 +4914,25 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>BREN.JK</t>
+          <t>BRIS.JK</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>7809-8091</t>
+          <t>2353-2427</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>9345</t>
+          <t>2791</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-65600</t>
+          <t>-1137600</t>
         </is>
       </c>
     </row>
@@ -4961,25 +4943,25 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PGEO.JK</t>
+          <t>BBNI.JK</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1092-1128</t>
+          <t>4461-4539</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1298</t>
+          <t>4921</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-2798000</t>
+          <t>8426900</t>
         </is>
       </c>
     </row>
@@ -4994,25 +4976,25 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>IRSX.JK</t>
+          <t>GOTO.JK</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>599-661</t>
+          <t>59-61</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>71</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>4580900</t>
+          <t>-1.1B</t>
         </is>
       </c>
     </row>
@@ -5023,25 +5005,25 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>GOTO.JK</t>
+          <t>IRSX.JK</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>60-62</t>
+          <t>608-662</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>815</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-1.1B</t>
+          <t>4580900</t>
         </is>
       </c>
     </row>
@@ -5056,16 +5038,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2414-2546</t>
+          <t>2575-2705</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3011</t>
+          <t>3179</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -5077,7 +5059,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -5085,25 +5067,25 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DADA.JK</t>
+          <t>EXCL.JK</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>50-50</t>
+          <t>3278-3442</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>4044</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4119100</t>
         </is>
       </c>
     </row>
@@ -5114,25 +5096,25 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PWON.JK</t>
+          <t>ISAT.JK</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>362-370</t>
+          <t>2335-2425</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>2811</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>37538300</t>
+          <t>4049500</t>
         </is>
       </c>
     </row>
@@ -5143,25 +5125,25 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>TRIN.JK</t>
+          <t>EMTK.JK</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1045-1155</t>
+          <t>898-942</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1482</t>
+          <t>1105</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>3499700</t>
+          <t>-5460200</t>
         </is>
       </c>
     </row>
@@ -5172,25 +5154,25 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TRUE.JK</t>
+          <t>INET.JK</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>217-259</t>
+          <t>380-412</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>500</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>314000</t>
+          <t>-15489100</t>
         </is>
       </c>
     </row>
@@ -5201,32 +5183,32 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CBDK.JK</t>
+          <t>TLKM.JK</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5707-6093</t>
+          <t>3552-3648</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>7336</t>
+          <t>4105</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>81700</t>
+          <t>13783000</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -5234,25 +5216,25 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>INDF.JK</t>
+          <t>DADA.JK</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>6530-6670</t>
+          <t>50-50</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>7330</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>-8356000</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5263,25 +5245,25 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>UNVR.JK</t>
+          <t>PWON.JK</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2300-2400</t>
+          <t>366-374</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2802</t>
+          <t>412</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2865100</t>
+          <t>37538300</t>
         </is>
       </c>
     </row>
@@ -5292,25 +5274,25 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>JPFA.JK</t>
+          <t>TRIN.JK</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2372-2468</t>
+          <t>1028-1132</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2866</t>
+          <t>1414</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>5002500</t>
+          <t>3499700</t>
         </is>
       </c>
     </row>
@@ -5321,25 +5303,25 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ICBP.JK</t>
+          <t>BKSL.JK</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>7848-8052</t>
+          <t>138-148</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>9043</t>
+          <t>177</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-1298800</t>
+          <t>7075200</t>
         </is>
       </c>
     </row>
@@ -5350,32 +5332,32 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>AMRT.JK</t>
+          <t>CBDK.JK</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1749-1821</t>
+          <t>5702-5998</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2116</t>
+          <t>7084</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>37773100</t>
+          <t>81700</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -5383,25 +5365,25 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>EXCL.JK</t>
+          <t>INDF.JK</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3084-3256</t>
+          <t>6512-6638</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>3852</t>
+          <t>7227</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>4119100</t>
+          <t>-8356000</t>
         </is>
       </c>
     </row>
@@ -5412,25 +5394,25 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ISAT.JK</t>
+          <t>UNVR.JK</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2285-2375</t>
+          <t>2282-2378</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2759</t>
+          <t>2770</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>4049500</t>
+          <t>2865100</t>
         </is>
       </c>
     </row>
@@ -5441,25 +5423,25 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>EMTK.JK</t>
+          <t>JPFA.JK</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>901-949</t>
+          <t>2364-2456</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1121</t>
+          <t>2849</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>-5460200</t>
+          <t>5002500</t>
         </is>
       </c>
     </row>
@@ -5470,25 +5452,25 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>INET.JK</t>
+          <t>AMRT.JK</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>364-400</t>
+          <t>1699-1771</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>2062</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>-15489100</t>
+          <t>37773100</t>
         </is>
       </c>
     </row>
@@ -5499,25 +5481,25 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>TLKM.JK</t>
+          <t>ICBP.JK</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3530-3630</t>
+          <t>7932-8118</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>4105</t>
+          <t>9011</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>13783000</t>
+          <t>-1298800</t>
         </is>
       </c>
     </row>
@@ -5536,7 +5518,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -5565,16 +5547,16 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1046-1074</t>
+          <t>1101-1129</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1209</t>
+          <t>1265</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -5672,11 +5654,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BBRI.JK</t>
+          <t>ZATA.JK</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>105416300</v>
+        <v>316433400</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -5690,11 +5672,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIPI.JK</t>
+          <t>BBRI.JK</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-104512900</v>
+        <v>105416300</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -5836,7 +5818,7 @@
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
     <col width="9" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
@@ -5926,16 +5908,16 @@
         <v>0.38872</v>
       </c>
       <c r="H2" s="10" t="n">
-        <v>8.906969</v>
+        <v>8.788366</v>
       </c>
       <c r="I2" s="11" t="n">
-        <v>1.706256</v>
+        <v>1.6824478</v>
       </c>
       <c r="J2" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K2" s="11" t="n">
-        <v>603.46</v>
+        <v>603.0700000000001</v>
       </c>
     </row>
     <row r="3">
@@ -5965,7 +5947,7 @@
         <v>0.34335998</v>
       </c>
       <c r="H3" s="10" t="n">
-        <v>10.444445</v>
+        <v>10.450251</v>
       </c>
       <c r="I3" s="11" t="n">
         <v>1.2143134</v>
@@ -5974,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="11" t="n">
-        <v>36</v>
+        <v>35.98</v>
       </c>
     </row>
     <row r="4">
@@ -6004,10 +5986,10 @@
         <v>0.43205002</v>
       </c>
       <c r="H4" s="12" t="n">
-        <v>7.55966</v>
+        <v>7.518797</v>
       </c>
       <c r="I4" s="11" t="n">
-        <v>1.4450032</v>
+        <v>1.4371923</v>
       </c>
       <c r="J4" s="14" t="n">
         <v>2.444</v>
@@ -6043,16 +6025,16 @@
         <v>0.41044</v>
       </c>
       <c r="H5" s="10" t="n">
-        <v>10.4343605</v>
+        <v>10.697061</v>
       </c>
       <c r="I5" s="11" t="n">
-        <v>1.7596443</v>
+        <v>1.8051132</v>
       </c>
       <c r="J5" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="11" t="n">
-        <v>370.89</v>
+        <v>371.13</v>
       </c>
     </row>
     <row r="6">
@@ -6082,7 +6064,7 @@
         <v>0.27552</v>
       </c>
       <c r="H6" t="n">
-        <v>12.076722</v>
+        <v>12.077676</v>
       </c>
       <c r="I6" s="15" t="n">
         <v>2.6979036</v>
@@ -6091,7 +6073,7 @@
         <v>23.671</v>
       </c>
       <c r="K6" s="11" t="n">
-        <v>126.69</v>
+        <v>126.68</v>
       </c>
     </row>
     <row r="7">
@@ -6121,16 +6103,16 @@
         <v>0.05786</v>
       </c>
       <c r="H7" s="10" t="n">
-        <v>8.431762000000001</v>
+        <v>8.431585</v>
       </c>
       <c r="I7" s="11" t="n">
-        <v>1.6544566</v>
+        <v>1.64762</v>
       </c>
       <c r="J7" s="14" t="n">
         <v>62.876</v>
       </c>
       <c r="K7" s="11" t="n">
-        <v>287.01</v>
+        <v>285.83</v>
       </c>
     </row>
     <row r="8">
@@ -6160,16 +6142,16 @@
         <v>0.31919</v>
       </c>
       <c r="H8" t="n">
-        <v>14.376218</v>
+        <v>14.388056</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>2.095457</v>
+        <v>2.1220942</v>
       </c>
       <c r="J8" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="11" t="n">
-        <v>164.16</v>
+        <v>166.11</v>
       </c>
     </row>
     <row r="9">
@@ -6199,16 +6181,16 @@
         <v>0.27632</v>
       </c>
       <c r="H9" t="n">
-        <v>21.836615</v>
+        <v>21.833239</v>
       </c>
       <c r="I9" s="14" t="n">
-        <v>14.34059</v>
+        <v>14.852754</v>
       </c>
       <c r="J9" s="11" t="n">
         <v>0.378</v>
       </c>
       <c r="K9" s="11" t="n">
-        <v>51.29</v>
+        <v>53.13</v>
       </c>
     </row>
     <row r="10">
@@ -6238,16 +6220,16 @@
         <v>0.023759998</v>
       </c>
       <c r="H10" s="12" t="n">
-        <v>18.186491</v>
+        <v>18.215158</v>
       </c>
       <c r="I10" s="15" t="n">
-        <v>4.623148</v>
+        <v>4.8681912</v>
       </c>
       <c r="J10" s="14" t="n">
         <v>139.825</v>
       </c>
       <c r="K10" s="11" t="n">
-        <v>155.61</v>
+        <v>163.6</v>
       </c>
     </row>
     <row r="11">
@@ -6277,10 +6259,10 @@
         <v>0.71615</v>
       </c>
       <c r="H11" s="17" t="n">
-        <v>40.314137</v>
+        <v>42.93194</v>
       </c>
       <c r="I11" s="14" t="n">
-        <v>9.631019999999999</v>
+        <v>10.256411</v>
       </c>
       <c r="J11" s="14" t="n">
         <v>5.093</v>
@@ -6316,16 +6298,16 @@
         <v>0.048460003</v>
       </c>
       <c r="H12" s="10" t="n">
-        <v>8.265338</v>
+        <v>8.8964205</v>
       </c>
       <c r="I12" s="11" t="n">
-        <v>1.106909</v>
+        <v>1.1920558</v>
       </c>
       <c r="J12" s="14" t="n">
         <v>4.935</v>
       </c>
       <c r="K12" s="11" t="n">
-        <v>94.37</v>
+        <v>94.42</v>
       </c>
     </row>
     <row r="13">
@@ -6355,16 +6337,16 @@
         <v>0.21154</v>
       </c>
       <c r="H13" t="n">
-        <v>31.717066</v>
+        <v>31.744694</v>
       </c>
       <c r="I13" s="14" t="n">
-        <v>130357.14</v>
+        <v>134642.86</v>
       </c>
       <c r="J13" s="14" t="n">
         <v>118.6</v>
       </c>
       <c r="K13" s="11" t="n">
-        <v>57.54</v>
+        <v>59.38</v>
       </c>
     </row>
     <row r="14">
@@ -6394,16 +6376,16 @@
         <v>0.2208</v>
       </c>
       <c r="H14" t="n">
-        <v>23.527874</v>
+        <v>22.684093</v>
       </c>
       <c r="I14" s="14" t="n">
-        <v>160000</v>
+        <v>153888.88</v>
       </c>
       <c r="J14" s="14" t="n">
         <v>82.7</v>
       </c>
       <c r="K14" s="11" t="n">
-        <v>306.02</v>
+        <v>305.28</v>
       </c>
     </row>
     <row r="15">
@@ -6433,16 +6415,16 @@
         <v>0.40232</v>
       </c>
       <c r="H15" s="10" t="n">
-        <v>8.289094</v>
+        <v>8.378016000000001</v>
       </c>
       <c r="I15" s="11" t="n">
-        <v>0.9654261</v>
+        <v>0.97627354</v>
       </c>
       <c r="J15" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K15" s="11" t="n">
-        <v>536.85</v>
+        <v>537.12</v>
       </c>
     </row>
     <row r="16">
@@ -6472,16 +6454,16 @@
         <v>0.30543</v>
       </c>
       <c r="H16" s="10" t="n">
-        <v>8.245100000000001</v>
+        <v>8.244206</v>
       </c>
       <c r="I16" s="11" t="n">
-        <v>0.8071595</v>
+        <v>0.8159809</v>
       </c>
       <c r="J16" s="14" t="n">
         <v>21.136</v>
       </c>
       <c r="K16" s="11" t="n">
-        <v>44.39</v>
+        <v>44.88</v>
       </c>
     </row>
     <row r="17">
@@ -6511,16 +6493,16 @@
         <v>0.06239</v>
       </c>
       <c r="H17" s="17" t="n">
-        <v>69.92308</v>
+        <v>73.426575</v>
       </c>
       <c r="I17" s="14" t="n">
-        <v>26819.922</v>
+        <v>28160.918</v>
       </c>
       <c r="J17" s="11" t="n">
         <v>0.173</v>
       </c>
       <c r="K17" s="11" t="n">
-        <v>100.11</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="18">
@@ -6550,16 +6532,16 @@
         <v>0.09748999999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>13.642486</v>
+        <v>13.642878</v>
       </c>
       <c r="I18" s="15" t="n">
-        <v>2.0689392</v>
+        <v>2.113337</v>
       </c>
       <c r="J18" s="14" t="n">
         <v>138.994</v>
       </c>
       <c r="K18" s="11" t="n">
-        <v>170.79</v>
+        <v>174.45</v>
       </c>
     </row>
     <row r="19">
@@ -6589,16 +6571,16 @@
         <v>0.52018</v>
       </c>
       <c r="H19" t="n">
-        <v>21.622812</v>
+        <v>21.597874</v>
       </c>
       <c r="I19" s="15" t="n">
-        <v>3.6792793</v>
+        <v>3.648099</v>
       </c>
       <c r="J19" s="14" t="n">
         <v>2.39</v>
       </c>
       <c r="K19" s="11" t="n">
-        <v>272.86</v>
+        <v>270.86</v>
       </c>
     </row>
     <row r="20">
@@ -6631,13 +6613,13 @@
         <v>0</v>
       </c>
       <c r="I20" s="14" t="n">
-        <v>15.805328</v>
+        <v>16.509525</v>
       </c>
       <c r="J20" s="11" t="n">
         <v>0.049</v>
       </c>
       <c r="K20" s="15" t="n">
-        <v>-0.73</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="21">
@@ -6667,16 +6649,16 @@
         <v>0.53282</v>
       </c>
       <c r="H21" t="n">
-        <v>15.464469</v>
+        <v>15.693963</v>
       </c>
       <c r="I21" s="15" t="n">
-        <v>3.1576376</v>
+        <v>3.2013419</v>
       </c>
       <c r="J21" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K21" s="11" t="n">
-        <v>467.2</v>
+        <v>466.74</v>
       </c>
     </row>
     <row r="22">
@@ -6706,16 +6688,16 @@
         <v>0.30952</v>
       </c>
       <c r="H22" s="17" t="n">
-        <v>272.5832</v>
+        <v>277.8702</v>
       </c>
       <c r="I22" s="14" t="n">
-        <v>13.948812</v>
+        <v>13.543323</v>
       </c>
       <c r="J22" s="11" t="n">
         <v>0.261</v>
       </c>
       <c r="K22" s="11" t="n">
-        <v>6.31</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="23">
@@ -6745,7 +6727,7 @@
         <v>0.15842</v>
       </c>
       <c r="H23" t="n">
-        <v>17.098982</v>
+        <v>17.12329</v>
       </c>
       <c r="I23" s="14" t="n">
         <v>5.179868</v>
@@ -6754,7 +6736,7 @@
         <v>1.461</v>
       </c>
       <c r="K23" s="11" t="n">
-        <v>77.48999999999999</v>
+        <v>77.38</v>
       </c>
     </row>
     <row r="24">
@@ -6784,16 +6766,16 @@
         <v>0.13921</v>
       </c>
       <c r="H24" s="17" t="n">
-        <v>82.37548</v>
+        <v>82.6365</v>
       </c>
       <c r="I24" s="14" t="n">
-        <v>573333.3</v>
+        <v>560000</v>
       </c>
       <c r="J24" s="14" t="n">
         <v>201.586</v>
       </c>
       <c r="K24" s="11" t="n">
-        <v>20.88</v>
+        <v>20.33</v>
       </c>
     </row>
     <row r="25">
@@ -6823,16 +6805,16 @@
         <v>0.0806</v>
       </c>
       <c r="H25" s="10" t="n">
-        <v>10.314004</v>
+        <v>10.514233</v>
       </c>
       <c r="I25" s="14" t="n">
-        <v>19736.842</v>
+        <v>20087.719</v>
       </c>
       <c r="J25" s="14" t="n">
         <v>32.802</v>
       </c>
       <c r="K25" s="11" t="n">
-        <v>218.15</v>
+        <v>217.8</v>
       </c>
     </row>
     <row r="26">
@@ -6862,16 +6844,16 @@
         <v>0.06455</v>
       </c>
       <c r="H26" s="17" t="n">
-        <v>59.266228</v>
+        <v>62.13307</v>
       </c>
       <c r="I26" s="14" t="n">
-        <v>13.056994</v>
+        <v>13.160622</v>
       </c>
       <c r="J26" s="11" t="n">
         <v>0.216</v>
       </c>
       <c r="K26" s="11" t="n">
-        <v>10.63</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="27">
@@ -6901,16 +6883,16 @@
         <v>0.10163</v>
       </c>
       <c r="H27" t="n">
-        <v>13.843542</v>
+        <v>13.83203</v>
       </c>
       <c r="I27" s="15" t="n">
-        <v>2.090668</v>
+        <v>2.199146</v>
       </c>
       <c r="J27" s="14" t="n">
         <v>2.102</v>
       </c>
       <c r="K27" s="11" t="n">
-        <v>76.56999999999999</v>
+        <v>80.61</v>
       </c>
     </row>
     <row r="28">
@@ -6940,16 +6922,16 @@
         <v>0.09752</v>
       </c>
       <c r="H28" s="12" t="n">
-        <v>18.419382</v>
+        <v>18.450857</v>
       </c>
       <c r="I28" s="14" t="n">
-        <v>84583.336</v>
+        <v>84166.664</v>
       </c>
       <c r="J28" s="14" t="n">
         <v>107.818</v>
       </c>
       <c r="K28" s="11" t="n">
-        <v>110.21</v>
+        <v>109.48</v>
       </c>
     </row>
     <row r="29">
@@ -6979,10 +6961,10 @@
         <v>0.15737</v>
       </c>
       <c r="H29" s="10" t="n">
-        <v>5.4001555</v>
+        <v>5.3224554</v>
       </c>
       <c r="I29" s="11" t="n">
-        <v>0.2858268</v>
+        <v>0.28171417</v>
       </c>
       <c r="J29" s="11" t="n">
         <v>0</v>
@@ -7036,7 +7018,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>RMKO.JK</t>
+          <t>RATU.JK</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -7047,26 +7029,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E31" s="16" t="n">
-        <v>-0.29015</v>
-      </c>
-      <c r="F31" s="8" t="n">
-        <v>0.671</v>
-      </c>
-      <c r="G31" s="9" t="n">
-        <v>-0.21053</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
+      <c r="E31" s="8" t="n">
+        <v>0.45251998</v>
+      </c>
+      <c r="F31" s="16" t="n">
+        <v>-0.183</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>0.31559</v>
+      </c>
+      <c r="H31" s="17" t="n">
+        <v>72.91971599999999</v>
       </c>
       <c r="I31" s="14" t="n">
-        <v>5.247631</v>
+        <v>439705.84</v>
       </c>
       <c r="J31" s="14" t="n">
-        <v>65.76600000000001</v>
-      </c>
-      <c r="K31" s="15" t="n">
-        <v>0</v>
+        <v>36.548</v>
+      </c>
+      <c r="K31" s="11" t="n">
+        <v>102.51</v>
       </c>
     </row>
     <row r="32">
@@ -7075,7 +7057,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PTRO.JK</t>
+          <t>RMKO.JK</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -7086,26 +7068,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E32" s="9" t="n">
-        <v>0.05801</v>
+      <c r="E32" s="16" t="n">
+        <v>-0.29015</v>
       </c>
       <c r="F32" s="8" t="n">
-        <v>0.317</v>
+        <v>0.671</v>
       </c>
       <c r="G32" s="9" t="n">
-        <v>0.01754</v>
+        <v>-0.21053</v>
       </c>
       <c r="H32" t="n">
-        <v>38.88889</v>
-      </c>
-      <c r="I32" s="14" t="n">
-        <v>277083.34</v>
+        <v>0</v>
+      </c>
+      <c r="I32" s="15" t="n">
+        <v>4.9639754</v>
       </c>
       <c r="J32" s="14" t="n">
-        <v>276.511</v>
-      </c>
-      <c r="K32" s="11" t="n">
-        <v>171</v>
+        <v>65.76600000000001</v>
+      </c>
+      <c r="K32" s="15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -7114,7 +7096,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BRMS.JK</t>
+          <t>PTRO.JK</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -7126,25 +7108,25 @@
         </is>
       </c>
       <c r="E33" s="9" t="n">
-        <v>0.045900002</v>
+        <v>0.05801</v>
       </c>
       <c r="F33" s="8" t="n">
-        <v>0.329</v>
+        <v>0.317</v>
       </c>
       <c r="G33" s="9" t="n">
-        <v>0.19652</v>
-      </c>
-      <c r="H33" s="17" t="n">
-        <v>179.7153</v>
+        <v>0.01754</v>
+      </c>
+      <c r="H33" t="n">
+        <v>39.640747</v>
       </c>
       <c r="I33" s="14" t="n">
-        <v>112222.23</v>
+        <v>282291.66</v>
       </c>
       <c r="J33" s="14" t="n">
-        <v>12.694</v>
+        <v>276.511</v>
       </c>
       <c r="K33" s="11" t="n">
-        <v>5.62</v>
+        <v>170.91</v>
       </c>
     </row>
     <row r="34">
@@ -7153,7 +7135,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>INET.JK</t>
+          <t>BRMS.JK</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -7165,25 +7147,25 @@
         </is>
       </c>
       <c r="E34" s="9" t="n">
-        <v>0.06432</v>
+        <v>0.045900002</v>
       </c>
       <c r="F34" s="8" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="G34" s="8" t="n">
-        <v>0.24544</v>
+        <v>0.329</v>
+      </c>
+      <c r="G34" s="9" t="n">
+        <v>0.19652</v>
       </c>
       <c r="H34" s="17" t="n">
-        <v>278.83212</v>
+        <v>181.81819</v>
       </c>
       <c r="I34" s="14" t="n">
-        <v>9.398911999999999</v>
+        <v>108888.89</v>
       </c>
       <c r="J34" s="14" t="n">
-        <v>2.833</v>
+        <v>12.694</v>
       </c>
       <c r="K34" s="11" t="n">
-        <v>1.37</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="35">
@@ -7192,7 +7174,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>IMPC.JK</t>
+          <t>INET.JK</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -7203,26 +7185,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E35" s="8" t="n">
-        <v>0.23723</v>
-      </c>
-      <c r="F35" s="9" t="n">
-        <v>0.145</v>
-      </c>
-      <c r="G35" s="9" t="n">
-        <v>0.14588</v>
+      <c r="E35" s="9" t="n">
+        <v>0.06432</v>
+      </c>
+      <c r="F35" s="8" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>0.24544</v>
       </c>
       <c r="H35" s="17" t="n">
-        <v>204.17422</v>
+        <v>276.9231</v>
       </c>
       <c r="I35" s="14" t="n">
-        <v>42.997192</v>
+        <v>9.743375</v>
       </c>
       <c r="J35" s="14" t="n">
-        <v>38.133</v>
+        <v>2.833</v>
       </c>
       <c r="K35" s="11" t="n">
-        <v>11.02</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="36">
@@ -7231,7 +7213,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CDIA.JK</t>
+          <t>IMPC.JK</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -7242,26 +7224,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="8" t="n">
-        <v>0.421</v>
-      </c>
-      <c r="G36" s="8" t="n">
-        <v>0.65328</v>
+      <c r="E36" s="8" t="n">
+        <v>0.23723</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G36" s="9" t="n">
+        <v>0.14588</v>
       </c>
       <c r="H36" s="17" t="n">
-        <v>93.45793999999999</v>
+        <v>204.04411</v>
       </c>
       <c r="I36" s="14" t="n">
-        <v>137500</v>
+        <v>42.423897</v>
       </c>
       <c r="J36" s="14" t="n">
-        <v>34.873</v>
+        <v>38.133</v>
       </c>
       <c r="K36" s="11" t="n">
-        <v>11.77</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="37">
@@ -7270,7 +7252,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>RATU.JK</t>
+          <t>CDIA.JK</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -7281,26 +7263,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E37" s="8" t="n">
-        <v>0.45251998</v>
-      </c>
-      <c r="F37" s="16" t="n">
-        <v>-0.183</v>
+      <c r="E37" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="8" t="n">
+        <v>0.421</v>
       </c>
       <c r="G37" s="8" t="n">
-        <v>0.31559</v>
+        <v>0.65328</v>
       </c>
       <c r="H37" s="17" t="n">
-        <v>71.71334</v>
+        <v>93.45392</v>
       </c>
       <c r="I37" s="14" t="n">
-        <v>433823.5</v>
+        <v>135625</v>
       </c>
       <c r="J37" s="14" t="n">
-        <v>36.548</v>
+        <v>34.873</v>
       </c>
       <c r="K37" s="11" t="n">
-        <v>102.84</v>
+        <v>11.61</v>
       </c>
     </row>
     <row r="38">
@@ -7330,16 +7312,16 @@
         <v>0.24195999</v>
       </c>
       <c r="H38" s="17" t="n">
-        <v>184.98169</v>
+        <v>178.57143</v>
       </c>
       <c r="I38" s="14" t="n">
-        <v>7.5917645</v>
+        <v>7.4414325</v>
       </c>
       <c r="J38" s="14" t="n">
         <v>2.054</v>
       </c>
       <c r="K38" s="11" t="n">
-        <v>54.6</v>
+        <v>55.44</v>
       </c>
     </row>
     <row r="39">
@@ -7369,16 +7351,16 @@
         <v>0.23266001</v>
       </c>
       <c r="H39" s="17" t="n">
-        <v>447.3832</v>
+        <v>434.8434</v>
       </c>
       <c r="I39" s="14" t="n">
-        <v>1590000</v>
+        <v>1555000</v>
       </c>
       <c r="J39" s="14" t="n">
         <v>239.827</v>
       </c>
       <c r="K39" s="11" t="n">
-        <v>17.77</v>
+        <v>17.88</v>
       </c>
     </row>
     <row r="40">
@@ -7408,16 +7390,16 @@
         <v>0.075219996</v>
       </c>
       <c r="H40" s="10" t="n">
-        <v>9.118434000000001</v>
+        <v>9.256652000000001</v>
       </c>
       <c r="I40" s="11" t="n">
-        <v>1.4432403</v>
+        <v>1.4655297</v>
       </c>
       <c r="J40" s="14" t="n">
         <v>19.582</v>
       </c>
       <c r="K40" s="11" t="n">
-        <v>284.04</v>
+        <v>284.12</v>
       </c>
     </row>
     <row r="41">
@@ -7426,7 +7408,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AADI.JK</t>
+          <t>ADMR.JK</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -7438,25 +7420,25 @@
         </is>
       </c>
       <c r="E41" s="8" t="n">
-        <v>0.22769</v>
+        <v>0.2018</v>
       </c>
       <c r="F41" s="16" t="n">
-        <v>-0.132</v>
-      </c>
-      <c r="G41" s="9" t="n">
-        <v>0.14828</v>
-      </c>
-      <c r="H41" s="10" t="n">
-        <v>5.6944714</v>
+        <v>-0.012</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>0.31149</v>
+      </c>
+      <c r="H41" t="n">
+        <v>16.761518</v>
       </c>
       <c r="I41" s="14" t="n">
-        <v>20112.36</v>
+        <v>58108.105</v>
       </c>
       <c r="J41" s="14" t="n">
-        <v>27.582</v>
+        <v>35.836</v>
       </c>
       <c r="K41" s="11" t="n">
-        <v>1571.7</v>
+        <v>128.27</v>
       </c>
     </row>
   </sheetData>

--- a/reports/HEDGEFUND_TERMINAL.xlsx
+++ b/reports/HEDGEFUND_TERMINAL.xlsx
@@ -478,7 +478,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="26" customWidth="1" min="1" max="1"/>
+    <col width="27" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
     <col width="9" customWidth="1" min="3" max="3"/>
     <col width="31" customWidth="1" min="4" max="4"/>
@@ -496,7 +496,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>26 February 2026</t>
+          <t>27 February 2026</t>
         </is>
       </c>
     </row>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>50.5</v>
+        <v>50.7</v>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7"/>
@@ -572,12 +572,12 @@
       </c>
       <c r="B9" s="6" t="inlineStr">
         <is>
-          <t>-1.3B</t>
+          <t>-1.4B</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>NCKL.JK</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -585,7 +585,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>10.2M</t>
+          <t>-5.5M</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MEDC.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -605,7 +605,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>766200</t>
+          <t>10.2M</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>HRTA.JK</t>
+          <t>INKP.JK</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -630,7 +630,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-2.9M</t>
+          <t>-1.9M</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ELSA.JK</t>
+          <t>HRTA.JK</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -655,7 +655,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-21.6M</t>
+          <t>-2.9M</t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>OASA.JK</t>
+          <t>ELSA.JK</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -680,7 +680,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-2.4M</t>
+          <t>-21.6M</t>
         </is>
       </c>
     </row>
@@ -709,12 +709,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5. Industrials</t>
+          <t>5. Communication Services</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.7M</t>
+          <t>1.0M</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.7</v>
+        <v>66.8</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -747,56 +747,56 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>58.4</v>
+        <v>60.2</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-163.9M</t>
+          <t>-165.8M</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3. Energy</t>
+          <t>3. Industrials</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.6</v>
+        <v>53.3</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-494.1M</t>
+          <t>-102.8M</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4. Financial Services</t>
+          <t>4. Energy</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>48.6</v>
+        <v>51.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>115.0M</t>
+          <t>-494.1M</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5. Technology</t>
+          <t>5. Consumer Defensive</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>48.3</v>
+        <v>50.8</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-1.1B</t>
+          <t>48.8M</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="8" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
-    <col width="13" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
     <col width="9" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
@@ -912,7 +912,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>NCKL.JK</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -920,40 +920,40 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2257-2323</t>
+          <t>1410-1480</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2190.357142857143</v>
+        <v>1338.928571428572</v>
       </c>
       <c r="F2" t="n">
-        <v>2421.785714285714</v>
+        <v>1578.392857142857</v>
       </c>
       <c r="G2" t="n">
-        <v>2520.357142857143</v>
+        <v>1736.232142857143</v>
       </c>
       <c r="H2" t="n">
-        <v>2651.785714285714</v>
+        <v>1807.142857142857</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>98%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>9.62%</t>
+          <t>18.54%</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>437.97</v>
+        <v>90.89</v>
       </c>
       <c r="L2" t="n">
-        <v>10200200</v>
+        <v>-5503000</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -963,7 +963,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MEDC.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -971,36 +971,36 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1685-1775</t>
+          <t>2266-2334</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1594.464285714286</v>
+        <v>2199.285714285714</v>
       </c>
       <c r="F3" t="n">
-        <v>1910.714285714286</v>
+        <v>2433.214285714286</v>
       </c>
       <c r="G3" t="n">
-        <v>2101.785714285714</v>
+        <v>2665.714285714286</v>
       </c>
       <c r="H3" t="n">
-        <v>2226.964285714286</v>
+        <v>2676.535714285715</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>98%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>10.09%</t>
+          <t>9.58%</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>39.62</v>
+        <v>435.84</v>
       </c>
       <c r="L3" t="n">
-        <v>766200</v>
+        <v>10200200</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HRTA.JK</t>
+          <t>INKP.JK</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -1022,36 +1022,36 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2894-3066</t>
+          <t>11534-12116</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2721.785714285714</v>
+        <v>10951.78571428571</v>
       </c>
       <c r="F4" t="n">
-        <v>3310.357142857143</v>
+        <v>12975.89285714286</v>
       </c>
       <c r="G4" t="n">
-        <v>3554.642857142857</v>
+        <v>13835.71428571429</v>
       </c>
       <c r="H4" t="n">
-        <v>3880.357142857143</v>
+        <v>14982.14285714286</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>26.51%</t>
+          <t>8.71%</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>28.81</v>
+        <v>5.89</v>
       </c>
       <c r="L4" t="n">
-        <v>-2895500</v>
+        <v>-1912500</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELSA.JK</t>
+          <t>HRTA.JK</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -1073,36 +1073,36 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>812-868</t>
+          <t>3109-3291</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>755.3571428571429</v>
+        <v>2926.785714285714</v>
       </c>
       <c r="F5" t="n">
-        <v>952.8571428571428</v>
+        <v>3550.357142857143</v>
       </c>
       <c r="G5" t="n">
-        <v>1037.5</v>
+        <v>3809.642857142857</v>
       </c>
       <c r="H5" t="n">
-        <v>1150.357142857143</v>
+        <v>4155.357142857143</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>22.15%</t>
+          <t>26.45%</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>71.75</v>
+        <v>28.75</v>
       </c>
       <c r="L5" t="n">
-        <v>-21636100</v>
+        <v>-2895500</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OASA.JK</t>
+          <t>ELSA.JK</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -1124,36 +1124,36 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>435-473</t>
+          <t>818-872</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>397</v>
+        <v>763.5714285714286</v>
       </c>
       <c r="F6" t="n">
-        <v>529.3571428571429</v>
+        <v>953.5714285714286</v>
       </c>
       <c r="G6" t="n">
-        <v>582.2928571428572</v>
+        <v>1035</v>
       </c>
       <c r="H6" t="n">
-        <v>660.8571428571429</v>
+        <v>1143.571428571428</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>78%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>38.38%</t>
+          <t>23.00%</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>32.16</v>
+        <v>109.95</v>
       </c>
       <c r="L6" t="n">
-        <v>-2360900</v>
+        <v>-21636100</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -1167,48 +1167,48 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TCPI.JK</t>
+          <t>BIPI.JK</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12023-12377</t>
+          <t>293-327</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>11669.64285714286</v>
+        <v>260.0714285714286</v>
       </c>
       <c r="F7" t="n">
-        <v>12904.46428571428</v>
+        <v>375.8214285714286</v>
       </c>
       <c r="G7" t="n">
-        <v>13432.14285714286</v>
+        <v>413.4035714285715</v>
       </c>
       <c r="H7" t="n">
-        <v>14135.71428571428</v>
+        <v>490.5714285714286</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>19.04%</t>
+          <t>59.97%</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>7615447667.47</v>
+        <v>12.81</v>
       </c>
       <c r="L7" t="n">
-        <v>328500</v>
+        <v>-104512900</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -1218,44 +1218,44 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>INCO.JK</t>
+          <t>TCPI.JK</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7174-7526</t>
+          <t>11954-12296</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6822.321428571428</v>
+        <v>11610.71428571429</v>
       </c>
       <c r="F8" t="n">
-        <v>7983.928571428571</v>
+        <v>12808.03571428571</v>
       </c>
       <c r="G8" t="n">
-        <v>8441.964285714286</v>
+        <v>13319.64285714286</v>
       </c>
       <c r="H8" t="n">
-        <v>9052.678571428571</v>
+        <v>14001.78571428571</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>31.66%</t>
+          <t>18.65%</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>805.91</v>
+        <v>7461032055.07</v>
       </c>
       <c r="L8" t="n">
-        <v>745400</v>
+        <v>328500</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BULL.JK</t>
+          <t>INCO.JK</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -1277,40 +1277,40 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>511-559</t>
+          <t>6931-7269</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>463.1071428571429</v>
+        <v>6593.75</v>
       </c>
       <c r="F9" t="n">
-        <v>628.0714285714286</v>
+        <v>7708.035714285714</v>
       </c>
       <c r="G9" t="n">
-        <v>690.8785714285715</v>
+        <v>8478.839285714286</v>
       </c>
       <c r="H9" t="n">
-        <v>789.3214285714284</v>
+        <v>8733.035714285714</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>62%</t>
+          <t>92%</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>25.80%</t>
+          <t>31.01%</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>4.19</v>
+        <v>789.46</v>
       </c>
       <c r="L9" t="n">
-        <v>-2075700</v>
+        <v>745400</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>DISTRIB</t>
+          <t>ACCUM</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MBMA.JK</t>
+          <t>TINS.JK</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1328,40 +1328,40 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>813-877</t>
+          <t>4311-4589</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>749.1071428571429</v>
+        <v>4034.285714285714</v>
       </c>
       <c r="F10" t="n">
-        <v>967.5</v>
+        <v>4961.428571428572</v>
       </c>
       <c r="G10" t="n">
-        <v>1064.25</v>
+        <v>5334.285714285714</v>
       </c>
       <c r="H10" t="n">
-        <v>1178.75</v>
+        <v>5831.428571428572</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>17.45%</t>
+          <t>5.85%</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>18.86</v>
+        <v>5.56</v>
       </c>
       <c r="L10" t="n">
-        <v>-73678300</v>
+        <v>32300</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>DISTRIB</t>
+          <t>ACCUM</t>
         </is>
       </c>
     </row>
@@ -1371,48 +1371,48 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ENRG.JK</t>
+          <t>ADRO.JK</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1477-1613</t>
+          <t>2281-2359</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1339.821428571429</v>
+        <v>2203.214285714286</v>
       </c>
       <c r="F11" t="n">
-        <v>1815.892857142857</v>
+        <v>2471.428571428572</v>
       </c>
       <c r="G11" t="n">
-        <v>1997.482142857143</v>
+        <v>2718.571428571429</v>
       </c>
       <c r="H11" t="n">
-        <v>2288.392857142857</v>
+        <v>2733.928571428572</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>62%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>5.96%</t>
+          <t>15.02%</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>1.79</v>
+        <v>57.4</v>
       </c>
       <c r="L11" t="n">
-        <v>56554200</v>
+        <v>-2979900</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -1422,48 +1422,48 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ZATA.JK</t>
+          <t>MBMA.JK</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>157-169</t>
+          <t>788-852</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>143.7142857142857</v>
+        <v>723.0357142857143</v>
       </c>
       <c r="F12" t="n">
-        <v>188.3928571428571</v>
+        <v>943.9285714285714</v>
       </c>
       <c r="G12" t="n">
-        <v>207.3571428571428</v>
+        <v>1038.321428571429</v>
       </c>
       <c r="H12" t="n">
-        <v>232.6428571428571</v>
+        <v>1157.678571428571</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>35.30%</t>
+          <t>17.74%</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>17.45</v>
+        <v>21.38</v>
       </c>
       <c r="L12" t="n">
-        <v>316433400</v>
+        <v>-73678300</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PSKT.JK</t>
+          <t>ZATA.JK</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1481,36 +1481,36 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>300-340</t>
+          <t>157-169</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>260.5357142857143</v>
+        <v>144.7857142857143</v>
       </c>
       <c r="F13" t="n">
-        <v>398</v>
+        <v>186.9642857142857</v>
       </c>
       <c r="G13" t="n">
-        <v>437.8</v>
+        <v>204.8571428571429</v>
       </c>
       <c r="H13" t="n">
-        <v>533.75</v>
+        <v>228.7142857142857</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-2.40%</t>
+          <t>37.06%</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>0.78</v>
+        <v>19.95</v>
       </c>
       <c r="L13" t="n">
-        <v>7483200</v>
+        <v>316433400</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1532,33 +1532,33 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3725-3915</t>
+          <t>3539-3741</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3536.071428571428</v>
+        <v>3337.857142857143</v>
       </c>
       <c r="F14" t="n">
-        <v>4176.071428571428</v>
+        <v>4024.642857142857</v>
       </c>
       <c r="G14" t="n">
-        <v>4437.5</v>
+        <v>4427.107142857143</v>
       </c>
       <c r="H14" t="n">
-        <v>4786.071428571428</v>
+        <v>4687.142857142857</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>90%</t>
+          <t>92%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>20.33%</t>
+          <t>20.74%</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>79.91</v>
+        <v>115.26</v>
       </c>
       <c r="L14" t="n">
         <v>6595200</v>
@@ -1583,20 +1583,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>8062-8588</t>
+          <t>7959-8491</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>7534.821428571428</v>
+        <v>7426.785714285715</v>
       </c>
       <c r="F15" t="n">
-        <v>9335.714285714286</v>
+        <v>9246.428571428572</v>
       </c>
       <c r="G15" t="n">
-        <v>10269.28571428572</v>
+        <v>10171.07142857143</v>
       </c>
       <c r="H15" t="n">
-        <v>11079.46428571429</v>
+        <v>11008.92857142857</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1605,11 +1605,11 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>29.95%</t>
+          <t>29.12%</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>11978122432.06</v>
+        <v>11649057391.41</v>
       </c>
       <c r="L15" t="n">
         <v>-658500</v>
@@ -1626,48 +1626,48 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PTBA.JK</t>
+          <t>INDY.JK</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2605-2655</t>
+          <t>3408-3632</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2555</v>
+        <v>3182.5</v>
       </c>
       <c r="F16" t="n">
-        <v>2727.857142857143</v>
+        <v>3967.857142857143</v>
       </c>
       <c r="G16" t="n">
-        <v>2897.857142857143</v>
+        <v>4364.642857142858</v>
       </c>
       <c r="H16" t="n">
-        <v>3000.642857142857</v>
+        <v>4750.357142857143</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>95%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>5.87%</t>
+          <t>33.58%</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>78.70999999999999</v>
+        <v>559.13</v>
       </c>
       <c r="L16" t="n">
-        <v>1793800</v>
+        <v>-1117600</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -1677,44 +1677,44 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TINS.JK</t>
+          <t>MEDC.JK</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4206-4474</t>
+          <t>1633-1727</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3937.142857142857</v>
+        <v>1539.107142857143</v>
       </c>
       <c r="F17" t="n">
-        <v>4834.285714285715</v>
+        <v>1867.857142857143</v>
       </c>
       <c r="G17" t="n">
-        <v>5194.285714285715</v>
+        <v>2054.642857142857</v>
       </c>
       <c r="H17" t="n">
-        <v>5674.285714285715</v>
+        <v>2196.607142857143</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>5.45%</t>
+          <t>10.37%</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>5.24</v>
+        <v>47.41</v>
       </c>
       <c r="L17" t="n">
-        <v>32300</v>
+        <v>766200</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NCKL.JK</t>
+          <t>BULL.JK</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1736,36 +1736,36 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1497-1563</t>
+          <t>500-550</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1430.357142857143</v>
+        <v>450.9642857142857</v>
       </c>
       <c r="F18" t="n">
-        <v>1655.892857142857</v>
+        <v>620.9285714285714</v>
       </c>
       <c r="G18" t="n">
-        <v>1821.482142857143</v>
+        <v>683.0214285714286</v>
       </c>
       <c r="H18" t="n">
-        <v>1872.142857142857</v>
+        <v>787.1785714285714</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>90%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>18.89%</t>
+          <t>24.80%</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>96.56999999999999</v>
+        <v>4.02</v>
       </c>
       <c r="L18" t="n">
-        <v>-5503000</v>
+        <v>-2075700</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1779,48 +1779,48 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ADMR.JK</t>
+          <t>PTBA.JK</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2096-2204</t>
+          <t>2584-2636</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1986.607142857143</v>
+        <v>2532.857142857143</v>
       </c>
       <c r="F19" t="n">
-        <v>2367.321428571428</v>
+        <v>2710.714285714286</v>
       </c>
       <c r="G19" t="n">
-        <v>2604.053571428572</v>
+        <v>2885.714285714286</v>
       </c>
       <c r="H19" t="n">
-        <v>2747.321428571428</v>
+        <v>2981.785714285715</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>78%</t>
+          <t>95%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>22.79%</t>
+          <t>5.92%</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>23.87</v>
+        <v>138.45</v>
       </c>
       <c r="L19" t="n">
-        <v>-25253200</v>
+        <v>1793800</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>DISTRIB</t>
+          <t>ACCUM</t>
         </is>
       </c>
     </row>
@@ -1830,48 +1830,48 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AADI.JK</t>
+          <t>BMRI.JK</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>9034-9416</t>
+          <t>5258-5392</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>8651.785714285714</v>
+        <v>5123.035714285715</v>
       </c>
       <c r="F20" t="n">
-        <v>9973.214285714286</v>
+        <v>5591.607142857143</v>
       </c>
       <c r="G20" t="n">
-        <v>10970.53571428572</v>
+        <v>5790.892857142857</v>
       </c>
       <c r="H20" t="n">
-        <v>11273.21428571429</v>
+        <v>6056.607142857143</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>7.54%</t>
+          <t>1.84%</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>5.91</v>
+        <v>3.06</v>
       </c>
       <c r="L20" t="n">
-        <v>-4000</v>
+        <v>33741800</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>DISTRIB</t>
+          <t>ACCUM</t>
         </is>
       </c>
     </row>
@@ -1881,48 +1881,48 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BBRI.JK</t>
+          <t>ADMR.JK</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3933-4007</t>
+          <t>2024-2136</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3858.571428571428</v>
+        <v>1912.857142857143</v>
       </c>
       <c r="F21" t="n">
-        <v>4112.142857142857</v>
+        <v>2302.321428571428</v>
       </c>
       <c r="G21" t="n">
-        <v>4217.142857142857</v>
+        <v>2532.553571428572</v>
       </c>
       <c r="H21" t="n">
-        <v>4357.142857142857</v>
+        <v>2691.071428571428</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>3.27%</t>
+          <t>22.48%</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>20.61</v>
+        <v>20.48</v>
       </c>
       <c r="L21" t="n">
-        <v>105416300</v>
+        <v>-25253200</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -2368,7 +2368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2407,32 +2407,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>NCKL.JK</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>96.59999999999999</v>
+        <v>104.4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-6.5%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MEDC.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>98</v>
       </c>
       <c r="C3" t="n">
-        <v>87</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -2443,32 +2443,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HRTA.JK</t>
+          <t>INKP.JK</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>97</v>
       </c>
       <c r="C4" t="n">
-        <v>85.2</v>
+        <v>93</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-1.5%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELSA.JK</t>
+          <t>HRTA.JK</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>96</v>
       </c>
       <c r="C5" t="n">
-        <v>84.59999999999999</v>
+        <v>85.2</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -2479,144 +2479,144 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OASA.JK</t>
+          <t>ELSA.JK</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>95</v>
       </c>
       <c r="C6" t="n">
-        <v>84</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-12.7%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TCPI.JK</t>
+          <t>BIPI.JK</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" t="n">
         <v>84</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-2.5%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>INCO.JK</t>
+          <t>TCPI.JK</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" t="n">
-        <v>83.40000000000001</v>
+        <v>84</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.6%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BULL.JK</t>
+          <t>INCO.JK</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>92</v>
       </c>
       <c r="C9" t="n">
-        <v>81.8</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-21.9%</t>
+          <t>-3.4%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MBMA.JK</t>
+          <t>TINS.JK</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>91</v>
       </c>
       <c r="C10" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-6.6%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ENRG.JK</t>
+          <t>ADRO.JK</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C11" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-8.8%</t>
+          <t>-3.3%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ZATA.JK</t>
+          <t>MBMA.JK</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C12" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-9.4%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PSKT.JK</t>
+          <t>ZATA.JK</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>87</v>
       </c>
       <c r="C13" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-20.4%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-4.7%</t>
         </is>
       </c>
     </row>
@@ -2652,439 +2652,439 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>-2.1%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PTBA.JK</t>
+          <t>INDY.JK</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C16" t="n">
-        <v>69.8</v>
+        <v>72</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>-9.0%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TINS.JK</t>
+          <t>MEDC.JK</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C17" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-2.9%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NCKL.JK</t>
+          <t>BULL.JK</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>82</v>
       </c>
       <c r="C18" t="n">
-        <v>66.40000000000001</v>
+        <v>71.8</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-1.0%</t>
+          <t>-23.4%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ADMR.JK</t>
+          <t>PTBA.JK</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C19" t="n">
-        <v>64.8</v>
+        <v>69.8</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-5.7%</t>
+          <t>-1.1%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AADI.JK</t>
+          <t>BMRI.JK</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C20" t="n">
-        <v>62.8</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>-0.9%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BBRI.JK</t>
+          <t>ADMR.JK</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C21" t="n">
-        <v>61.8</v>
+        <v>64.8</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-8.8%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PADI.JK</t>
+          <t>OASA.JK</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C22" t="n">
-        <v>60.2</v>
+        <v>64</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-17.6%</t>
+          <t>-16.5%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ADRO.JK</t>
+          <t>ENRG.JK</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>76</v>
       </c>
       <c r="C23" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>-4.4%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BMRI.JK</t>
+          <t>AADI.JK</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>75</v>
       </c>
       <c r="C24" t="n">
-        <v>57.4</v>
+        <v>62.8</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-1.4%</t>
+          <t>-3.1%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ARCI.JK</t>
+          <t>BBRI.JK</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>74</v>
       </c>
       <c r="C25" t="n">
-        <v>54.6</v>
+        <v>61.8</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-7.1%</t>
+          <t>-0.5%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>UNTR.JK</t>
+          <t>INDF.JK</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>73</v>
       </c>
       <c r="C26" t="n">
-        <v>52.8</v>
+        <v>58</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>-9.4%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>INDY.JK</t>
+          <t>PADI.JK</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C27" t="n">
-        <v>52</v>
+        <v>56.2</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-4.4%</t>
+          <t>-25.6%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MINA.JK</t>
+          <t>ARCI.JK</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C28" t="n">
-        <v>50.8</v>
+        <v>54.6</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-33.5%</t>
+          <t>-11.3%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BRIS.JK</t>
+          <t>PWON.JK</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>70</v>
       </c>
       <c r="C29" t="n">
-        <v>50.8</v>
+        <v>54</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-2.4%</t>
+          <t>-4.1%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HRUM.JK</t>
+          <t>BRIS.JK</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C30" t="n">
-        <v>47</v>
+        <v>50.8</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>-4.1%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GOTO.JK</t>
+          <t>IRSX.JK</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C31" t="n">
-        <v>46.8</v>
+        <v>49.6</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-15.5%</t>
+          <t>-21.7%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ANTM.JK</t>
+          <t>BBNI.JK</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C32" t="n">
-        <v>45.6</v>
+        <v>49</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-6.3%</t>
+          <t>-3.7%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>EXCL.JK</t>
+          <t>ANTM.JK</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>65</v>
       </c>
       <c r="C33" t="n">
-        <v>44.8</v>
+        <v>45.6</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-25.2%</t>
+          <t>-9.0%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>IRSX.JK</t>
+          <t>PSKT.JK</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>64</v>
       </c>
       <c r="C34" t="n">
-        <v>41.6</v>
+        <v>43</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-19.1%</t>
+          <t>-30.3%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BUVA.JK</t>
+          <t>TPIA.JK</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C35" t="n">
-        <v>40</v>
+        <v>39.6</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-23.5%</t>
+          <t>-10.9%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>TPIA.JK</t>
+          <t>DADA.JK</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C36" t="n">
-        <v>39.6</v>
+        <v>38.6</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-11.2%</t>
+          <t>-20.6%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>DADA.JK</t>
+          <t>MINA.JK</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C37" t="n">
-        <v>38.6</v>
+        <v>35.8</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-20.6%</t>
+          <t>-39.5%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>INDF.JK</t>
+          <t>UNTR.JK</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C38" t="n">
-        <v>38</v>
+        <v>34.8</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-11.4%</t>
+          <t>-4.9%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>RATU.JK</t>
+          <t>EXCL.JK</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C39" t="n">
-        <v>35.4</v>
+        <v>34.8</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-38.4%</t>
+          <t>-29.2%</t>
         </is>
       </c>
     </row>
@@ -3095,14 +3095,14 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C40" t="n">
         <v>34.8</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-15.9%</t>
+          <t>-16.6%</t>
         </is>
       </c>
     </row>
@@ -3113,194 +3113,194 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C41" t="n">
         <v>33.8</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-23.2%</t>
+          <t>-30.5%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ISAT.JK</t>
+          <t>ASII.JK</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>-9.1%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>GTSI.JK</t>
+          <t>KLBF.JK</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C43" t="n">
-        <v>31.8</v>
+        <v>31.6</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-35.4%</t>
+          <t>-14.3%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BBNI.JK</t>
+          <t>HRUM.JK</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C44" t="n">
         <v>29</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>-11.7%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PWON.JK</t>
+          <t>JPFA.JK</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>52</v>
       </c>
       <c r="C45" t="n">
-        <v>29</v>
+        <v>26.4</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-4.6%</t>
+          <t>-19.8%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>DEWA.JK</t>
+          <t>RMKO.JK</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C46" t="n">
-        <v>28.6</v>
+        <v>25.4</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-31.9%</t>
+          <t>-63.0%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>JPFA.JK</t>
+          <t>ICBP.JK</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" t="n">
-        <v>26.4</v>
+        <v>25</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-17.7%</t>
+          <t>-8.1%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>RMKO.JK</t>
+          <t>HUMI.JK</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C48" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-61.3%</t>
+          <t>-34.8%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HUMI.JK</t>
+          <t>TRIN.JK</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C49" t="n">
         <v>25</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-30.3%</t>
+          <t>-40.8%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TRIN.JK</t>
+          <t>ISAT.JK</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>47</v>
       </c>
       <c r="C50" t="n">
-        <v>25</v>
+        <v>23.4</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-37.9%</t>
+          <t>-6.1%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SRTG.JK</t>
+          <t>GTSI.JK</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C51" t="n">
-        <v>25</v>
+        <v>21.8</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-9.7%</t>
+          <t>-37.5%</t>
         </is>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C52" t="n">
         <v>21.8</v>
@@ -3325,144 +3325,144 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>KLBF.JK</t>
+          <t>AMRT.JK</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C53" t="n">
-        <v>21.6</v>
+        <v>19.8</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-11.2%</t>
+          <t>-14.0%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>AMRT.JK</t>
+          <t>BBCA.JK</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C54" t="n">
-        <v>19.8</v>
+        <v>17.8</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-13.2%</t>
+          <t>-12.8%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ESSA.JK</t>
+          <t>BBYB.JK</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C55" t="n">
-        <v>18</v>
+        <v>17.4</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-13.7%</t>
+          <t>-38.0%</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BBCA.JK</t>
+          <t>SRTG.JK</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C56" t="n">
-        <v>17.8</v>
+        <v>17</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-13.3%</t>
+          <t>-10.9%</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BBYB.JK</t>
+          <t>GOTO.JK</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C57" t="n">
-        <v>17.4</v>
+        <v>16.8</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-36.3%</t>
+          <t>-15.5%</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>EMTK.JK</t>
+          <t>TOBA.JK</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C58" t="n">
-        <v>16.2</v>
+        <v>16.8</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-37.4%</t>
+          <t>-19.8%</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ICBP.JK</t>
+          <t>EMTK.JK</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C59" t="n">
-        <v>15</v>
+        <v>16.2</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-6.7%</t>
+          <t>-38.8%</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ASII.JK</t>
+          <t>BUVA.JK</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C60" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-10.1%</t>
+          <t>-34.8%</t>
         </is>
       </c>
     </row>
@@ -3473,266 +3473,266 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C61" t="n">
         <v>10.8</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-38.0%</t>
+          <t>-42.2%</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BKSL.JK</t>
+          <t>CBDK.JK</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C62" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-21.9%</t>
+          <t>-40.1%</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>CBDK.JK</t>
+          <t>COIN.JK</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C63" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-37.9%</t>
+          <t>-64.9%</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>COIN.JK</t>
+          <t>PBSA.JK</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C64" t="n">
         <v>7.8</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-63.8%</t>
+          <t>-52.6%</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PBSA.JK</t>
+          <t>CUAN.JK</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>30</v>
       </c>
       <c r="C65" t="n">
-        <v>7.8</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-50.7%</t>
+          <t>-39.8%</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CUAN.JK</t>
+          <t>AMMN.JK</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C66" t="n">
-        <v>7.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-38.7%</t>
+          <t>-10.4%</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>AMMN.JK</t>
+          <t>BRPT.JK</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C67" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-10.4%</t>
+          <t>-47.6%</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BRPT.JK</t>
+          <t>PNLF.JK</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C68" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-45.7%</t>
+          <t>-19.2%</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PNLF.JK</t>
+          <t>CPRO.JK</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C69" t="n">
         <v>6</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-18.0%</t>
+          <t>-25.6%</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CPRO.JK</t>
+          <t>PTRO.JK</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C70" t="n">
-        <v>6</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-24.4%</t>
+          <t>-51.2%</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>PTRO.JK</t>
+          <t>BRMS.JK</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C71" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-47.5%</t>
+          <t>-26.7%</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BRMS.JK</t>
+          <t>INET.JK</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C72" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-25.2%</t>
+          <t>-59.4%</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>INET.JK</t>
+          <t>IMPC.JK</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C73" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-57.6%</t>
+          <t>-50.1%</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>IMPC.JK</t>
+          <t>CDIA.JK</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C74" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>-45.2%</t>
+          <t>-49.2%</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CDIA.JK</t>
+          <t>RATU.JK</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C75" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-47.0%</t>
+          <t>-43.5%</t>
         </is>
       </c>
     </row>
@@ -3743,14 +3743,14 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C76" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-29.4%</t>
+          <t>-32.3%</t>
         </is>
       </c>
     </row>
@@ -3761,14 +3761,14 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C77" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-20.7%</t>
+          <t>-19.9%</t>
         </is>
       </c>
     </row>
@@ -3779,129 +3779,129 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C78" t="n">
         <v>4.8</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-37.9%</t>
+          <t>-40.9%</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>PGEO.JK</t>
+          <t>DEWA.JK</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-14.2%</t>
+          <t>-35.6%</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>TRUE.JK</t>
+          <t>PGEO.JK</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C80" t="n">
         <v>3</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-54.7%</t>
+          <t>-15.4%</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>RAJA.JK</t>
+          <t>ESSA.JK</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C81" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-41.7%</t>
+          <t>-15.8%</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>DSSA.JK</t>
+          <t>TRUE.JK</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C82" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>-27.8%</t>
+          <t>-58.9%</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>TLKM.JK</t>
+          <t>RAJA.JK</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C83" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>-8.6%</t>
+          <t>-45.8%</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>PSAB.JK</t>
+          <t>DSSA.JK</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C84" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>-13.0%</t>
+          <t>-28.4%</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>TOBA.JK</t>
+          <t>TLKM.JK</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -3912,97 +3912,133 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>-22.9%</t>
+          <t>-7.4%</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BUMI.JK</t>
+          <t>PSAB.JK</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>-41.8%</t>
+          <t>-17.6%</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>RMKE.JK</t>
+          <t>BUMI.JK</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>-50.8%</t>
+          <t>-44.4%</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BBKP.JK</t>
+          <t>RMKE.JK</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>-20.2%</t>
+          <t>-53.7%</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>KIJA.JK</t>
+          <t>BBKP.JK</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C89" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-38.4%</t>
+          <t>-21.3%</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
+          <t>BKSL.JK</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>3</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>-26.8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>KIJA.JK</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>2</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>-40.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
           <t>SSIA.JK</t>
         </is>
       </c>
-      <c r="B90" t="n">
+      <c r="B92" t="n">
         <v>1</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C92" t="n">
         <v>-6</v>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>-25.8%</t>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>-27.7%</t>
         </is>
       </c>
     </row>
@@ -4031,7 +4067,7 @@
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="11" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4074,7 +4110,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -4082,7 +4118,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>NCKL.JK</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -4090,17 +4126,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2257-2323</t>
+          <t>1410-1480</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2520</t>
+          <t>1736</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10200200</t>
+          <t>-5503000</t>
         </is>
       </c>
     </row>
@@ -4111,25 +4147,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>OASA.JK</t>
+          <t>INKP.JK</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>435-473</t>
+          <t>11534-12116</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>13836</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-2360900</t>
+          <t>-1912500</t>
         </is>
       </c>
     </row>
@@ -4140,25 +4176,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CDIA.JK</t>
+          <t>INCO.JK</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1047-1123</t>
+          <t>6931-7269</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1358</t>
+          <t>8479</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-7662000</t>
+          <t>745400</t>
         </is>
       </c>
     </row>
@@ -4169,25 +4205,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BREN.JK</t>
+          <t>TINS.JK</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7639-7911</t>
+          <t>4311-4589</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9129</t>
+          <t>5334</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-65600</t>
+          <t>32300</t>
         </is>
       </c>
     </row>
@@ -4198,32 +4234,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PGEO.JK</t>
+          <t>MBMA.JK</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1098-1132</t>
+          <t>788-852</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1289</t>
+          <t>1038</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-2798000</t>
+          <t>-73678300</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -4231,7 +4267,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MEDC.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -4239,17 +4275,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1685-1775</t>
+          <t>2266-2334</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2102</t>
+          <t>2666</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>766200</t>
+          <t>10200200</t>
         </is>
       </c>
     </row>
@@ -4260,25 +4296,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ELSA.JK</t>
+          <t>OASA.JK</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>812-868</t>
+          <t>414-454</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1038</t>
+          <t>563</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-21636100</t>
+          <t>-2360900</t>
         </is>
       </c>
     </row>
@@ -4289,25 +4325,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ENRG.JK</t>
+          <t>CDIA.JK</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1477-1613</t>
+          <t>1003-1077</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>56554200</t>
+          <t>-7662000</t>
         </is>
       </c>
     </row>
@@ -4318,25 +4354,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PTBA.JK</t>
+          <t>BREN.JK</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2605-2655</t>
+          <t>7719-7981</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2898</t>
+          <t>9192</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1793800</t>
+          <t>-65600</t>
         </is>
       </c>
     </row>
@@ -4347,25 +4383,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AADI.JK</t>
+          <t>PGEO.JK</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>9034-9416</t>
+          <t>1083-1117</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10971</t>
+          <t>1276</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-4000</t>
+          <t>-2798000</t>
         </is>
       </c>
     </row>
@@ -4384,16 +4420,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2894-3066</t>
+          <t>3109-3291</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3555</t>
+          <t>3810</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -4413,7 +4449,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -4422,7 +4458,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>205</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -4442,16 +4478,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>300-340</t>
+          <t>260-300</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>397</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -4471,16 +4507,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>400-444</t>
+          <t>361-407</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>521</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -4496,32 +4532,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>BUVA.JK</t>
+          <t>VKTR.JK</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1583-1737</t>
+          <t>851-949</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2161</t>
+          <t>1232</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-16450400</t>
+          <t>-2430100</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -4529,7 +4565,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>TCPI.JK</t>
+          <t>ELSA.JK</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -4537,17 +4573,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12023-12377</t>
+          <t>818-872</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>13432</t>
+          <t>1035</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>328500</t>
+          <t>-21636100</t>
         </is>
       </c>
     </row>
@@ -4558,25 +4594,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>BULL.JK</t>
+          <t>ADRO.JK</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>511-559</t>
+          <t>2281-2359</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>2719</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-2075700</t>
+          <t>-2979900</t>
         </is>
       </c>
     </row>
@@ -4587,25 +4623,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GTSI.JK</t>
+          <t>INDY.JK</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>296-324</t>
+          <t>3408-3632</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>4365</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-3409300</t>
+          <t>-1117600</t>
         </is>
       </c>
     </row>
@@ -4616,25 +4652,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>HUMI.JK</t>
+          <t>MEDC.JK</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>235-261</t>
+          <t>1633-1727</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>2055</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-571700</t>
+          <t>766200</t>
         </is>
       </c>
     </row>
@@ -4645,32 +4681,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ASII.JK</t>
+          <t>PTBA.JK</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6555-6745</t>
+          <t>2584-2636</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>7602</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>6227500</t>
+          <t>1793800</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -4678,25 +4714,25 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>INCO.JK</t>
+          <t>BIPI.JK</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7174-7526</t>
+          <t>293-327</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>8442</t>
+          <t>413</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>745400</t>
+          <t>-104512900</t>
         </is>
       </c>
     </row>
@@ -4707,25 +4743,25 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MBMA.JK</t>
+          <t>TCPI.JK</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>813-877</t>
+          <t>11954-12296</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1064</t>
+          <t>13320</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-73678300</t>
+          <t>328500</t>
         </is>
       </c>
     </row>
@@ -4736,25 +4772,25 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MDKA.JK</t>
+          <t>BULL.JK</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3725-3915</t>
+          <t>500-550</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4438</t>
+          <t>683</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>6595200</t>
+          <t>-2075700</t>
         </is>
       </c>
     </row>
@@ -4765,25 +4801,25 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>EMAS.JK</t>
+          <t>ASII.JK</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>8062-8588</t>
+          <t>6632-6818</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>10269</t>
+          <t>7657</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-658500</t>
+          <t>6227500</t>
         </is>
       </c>
     </row>
@@ -4794,25 +4830,25 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>TINS.JK</t>
+          <t>HUMI.JK</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4206-4474</t>
+          <t>220-244</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>5194</t>
+          <t>309</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>32300</t>
+          <t>-571700</t>
         </is>
       </c>
     </row>
@@ -4827,25 +4863,25 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BBRI.JK</t>
+          <t>BMRI.JK</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3933-4007</t>
+          <t>5258-5392</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4217</t>
+          <t>5791</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>105416300</t>
+          <t>33741800</t>
         </is>
       </c>
     </row>
@@ -4856,25 +4892,25 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PADI.JK</t>
+          <t>BBRI.JK</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>154-174</t>
+          <t>3914-3986</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>4190</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-1255200</t>
+          <t>105416300</t>
         </is>
       </c>
     </row>
@@ -4885,25 +4921,25 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>BMRI.JK</t>
+          <t>PADI.JK</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5231-5369</t>
+          <t>138-158</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>6049</t>
+          <t>206</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>33741800</t>
+          <t>-1255200</t>
         </is>
       </c>
     </row>
@@ -4918,16 +4954,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2353-2427</t>
+          <t>2318-2382</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2791</t>
+          <t>2700</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -4947,16 +4983,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4461-4539</t>
+          <t>4421-4499</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4921</t>
+          <t>4885</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -4968,7 +5004,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -4976,25 +5012,25 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>GOTO.JK</t>
+          <t>INDF.JK</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>59-61</t>
+          <t>6664-6786</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>7357</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-1.1B</t>
+          <t>-8356000</t>
         </is>
       </c>
     </row>
@@ -5005,25 +5041,25 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>IRSX.JK</t>
+          <t>UNVR.JK</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>608-662</t>
+          <t>2264-2356</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>815</t>
+          <t>2740</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>4580900</t>
+          <t>2865100</t>
         </is>
       </c>
     </row>
@@ -5034,330 +5070,330 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>WIFI.JK</t>
+          <t>JPFA.JK</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2575-2705</t>
+          <t>2307-2393</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3179</t>
+          <t>2769</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-2694000</t>
+          <t>5002500</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Communication Services</t>
-        </is>
-      </c>
+      <c r="A35" t="inlineStr"/>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>EXCL.JK</t>
+          <t>ICBP.JK</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3278-3442</t>
+          <t>7809-7991</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>4044</t>
+          <t>8866</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>4119100</t>
+          <t>-1298800</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ISAT.JK</t>
+          <t>AMRT.JK</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2335-2425</t>
+          <t>1683-1757</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2811</t>
+          <t>2051</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>4049500</t>
+          <t>37773100</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Real Estate</t>
+        </is>
+      </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>EMTK.JK</t>
+          <t>PWON.JK</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>898-942</t>
+          <t>368-376</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1105</t>
+          <t>414</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-5460200</t>
+          <t>37538300</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>INET.JK</t>
+          <t>DADA.JK</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>380-412</t>
+          <t>50-50</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-15489100</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>TLKM.JK</t>
+          <t>TRIN.JK</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3552-3648</t>
+          <t>978-1082</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>4105</t>
+          <t>1358</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>13783000</t>
+          <t>3499700</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Real Estate</t>
-        </is>
-      </c>
+      <c r="A40" t="inlineStr"/>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DADA.JK</t>
+          <t>CBDK.JK</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>50-50</t>
+          <t>5504-5796</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>6856</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>81700</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>PWON.JK</t>
+          <t>PANI.JK</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>366-374</t>
+          <t>9184-9816</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>11835</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>37538300</t>
+          <t>-202100</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr"/>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>TRIN.JK</t>
+          <t>IRSX.JK</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1028-1132</t>
+          <t>589-641</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1414</t>
+          <t>791</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>3499700</t>
+          <t>4580900</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>BKSL.JK</t>
+          <t>GOTO.JK</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>138-148</t>
+          <t>59-61</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>71</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>7075200</t>
+          <t>-1.1B</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
       <c r="B44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CBDK.JK</t>
+          <t>WIFI.JK</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>5702-5998</t>
+          <t>2444-2576</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>7084</t>
+          <t>3044</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>81700</t>
+          <t>-2694000</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -5365,25 +5401,25 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>INDF.JK</t>
+          <t>EXCL.JK</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>6512-6638</t>
+          <t>3095-3265</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>7227</t>
+          <t>3859</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>-8356000</t>
+          <t>4119100</t>
         </is>
       </c>
     </row>
@@ -5394,25 +5430,25 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>UNVR.JK</t>
+          <t>ISAT.JK</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2282-2378</t>
+          <t>2273-2367</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2770</t>
+          <t>2753</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2865100</t>
+          <t>4049500</t>
         </is>
       </c>
     </row>
@@ -5423,25 +5459,25 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>JPFA.JK</t>
+          <t>EMTK.JK</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2364-2456</t>
+          <t>878-922</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2849</t>
+          <t>1086</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>5002500</t>
+          <t>-5460200</t>
         </is>
       </c>
     </row>
@@ -5452,25 +5488,25 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>AMRT.JK</t>
+          <t>INET.JK</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1699-1771</t>
+          <t>365-395</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2062</t>
+          <t>482</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>37773100</t>
+          <t>-15489100</t>
         </is>
       </c>
     </row>
@@ -5481,25 +5517,25 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ICBP.JK</t>
+          <t>TLKM.JK</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>7932-8118</t>
+          <t>3604-3696</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>9011</t>
+          <t>4139</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>-1298800</t>
+          <t>13783000</t>
         </is>
       </c>
     </row>
@@ -5514,25 +5550,25 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>LPKR.JK</t>
+          <t>KLBF.JK</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>99-105</t>
+          <t>1061-1089</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>1231</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>-266800</t>
+          <t>-34214900</t>
         </is>
       </c>
     </row>
@@ -5543,25 +5579,25 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>KLBF.JK</t>
+          <t>LPKR.JK</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1101-1129</t>
+          <t>99-105</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1265</t>
+          <t>124</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>-34214900</t>
+          <t>-266800</t>
         </is>
       </c>
     </row>
@@ -5690,11 +5726,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MBMA.JK</t>
+          <t>BIPI.JK</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-73678300</v>
+        <v>-104512900</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -5708,11 +5744,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENRG.JK</t>
+          <t>MBMA.JK</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>56554200</v>
+        <v>-73678300</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -5726,11 +5762,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AMRT.JK</t>
+          <t>ENRG.JK</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>37773100</v>
+        <v>56554200</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -5744,11 +5780,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PWON.JK</t>
+          <t>AMRT.JK</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>37538300</v>
+        <v>37773100</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -5762,11 +5798,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>KLBF.JK</t>
+          <t>PWON.JK</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-34214900</v>
+        <v>37538300</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -5780,11 +5816,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BMRI.JK</t>
+          <t>KLBF.JK</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>33741800</v>
+        <v>-34214900</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -5908,16 +5944,16 @@
         <v>0.38872</v>
       </c>
       <c r="H2" s="10" t="n">
-        <v>8.788366</v>
+        <v>8.826161000000001</v>
       </c>
       <c r="I2" s="11" t="n">
-        <v>1.6824478</v>
+        <v>1.6903838</v>
       </c>
       <c r="J2" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K2" s="11" t="n">
-        <v>603.0700000000001</v>
+        <v>603.3200000000001</v>
       </c>
     </row>
     <row r="3">
@@ -5947,16 +5983,16 @@
         <v>0.34335998</v>
       </c>
       <c r="H3" s="10" t="n">
-        <v>10.450251</v>
+        <v>10.163844</v>
       </c>
       <c r="I3" s="11" t="n">
-        <v>1.2143134</v>
+        <v>1.1820178</v>
       </c>
       <c r="J3" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="11" t="n">
-        <v>35.98</v>
+        <v>36.01</v>
       </c>
     </row>
     <row r="4">
@@ -5986,16 +6022,16 @@
         <v>0.43205002</v>
       </c>
       <c r="H4" s="12" t="n">
-        <v>7.518797</v>
+        <v>7.3583517</v>
       </c>
       <c r="I4" s="11" t="n">
-        <v>1.4371923</v>
+        <v>1.405949</v>
       </c>
       <c r="J4" s="14" t="n">
         <v>2.444</v>
       </c>
       <c r="K4" s="11" t="n">
-        <v>122.36</v>
+        <v>122.31</v>
       </c>
     </row>
     <row r="5">
@@ -6004,37 +6040,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BBRI.JK</t>
+          <t>NCKL.JK</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>MID</t>
         </is>
       </c>
-      <c r="E5" s="9" t="n">
-        <v>0.16936001</v>
+      <c r="E5" s="8" t="n">
+        <v>0.25308</v>
       </c>
       <c r="F5" s="9" t="n">
-        <v>0.065</v>
+        <v>0.097</v>
       </c>
       <c r="G5" s="8" t="n">
-        <v>0.41044</v>
+        <v>0.27552</v>
       </c>
       <c r="H5" s="10" t="n">
-        <v>10.697061</v>
-      </c>
-      <c r="I5" s="11" t="n">
-        <v>1.8051132</v>
-      </c>
-      <c r="J5" s="11" t="n">
-        <v>0</v>
+        <v>11.402193</v>
+      </c>
+      <c r="I5" s="15" t="n">
+        <v>2.5480201</v>
+      </c>
+      <c r="J5" s="14" t="n">
+        <v>23.671</v>
       </c>
       <c r="K5" s="11" t="n">
-        <v>371.13</v>
+        <v>126.73</v>
       </c>
     </row>
     <row r="6">
@@ -6043,37 +6079,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NCKL.JK</t>
+          <t>BBRI.JK</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>MID</t>
         </is>
       </c>
-      <c r="E6" s="8" t="n">
-        <v>0.25308</v>
+      <c r="E6" s="9" t="n">
+        <v>0.16936001</v>
       </c>
       <c r="F6" s="9" t="n">
-        <v>0.097</v>
+        <v>0.065</v>
       </c>
       <c r="G6" s="8" t="n">
-        <v>0.27552</v>
-      </c>
-      <c r="H6" t="n">
-        <v>12.077676</v>
-      </c>
-      <c r="I6" s="15" t="n">
-        <v>2.6979036</v>
-      </c>
-      <c r="J6" s="14" t="n">
-        <v>23.671</v>
+        <v>0.41044</v>
+      </c>
+      <c r="H6" s="10" t="n">
+        <v>10.649484</v>
+      </c>
+      <c r="I6" s="11" t="n">
+        <v>1.7960194</v>
+      </c>
+      <c r="J6" s="11" t="n">
+        <v>0</v>
       </c>
       <c r="K6" s="11" t="n">
-        <v>126.68</v>
+        <v>370.91</v>
       </c>
     </row>
     <row r="7">
@@ -6082,11 +6118,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>JPFA.JK</t>
+          <t>PADI.JK</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -6094,25 +6130,25 @@
         </is>
       </c>
       <c r="E7" s="8" t="n">
-        <v>0.20716</v>
-      </c>
-      <c r="F7" s="9" t="n">
-        <v>0.146</v>
-      </c>
-      <c r="G7" s="9" t="n">
-        <v>0.05786</v>
-      </c>
-      <c r="H7" s="10" t="n">
-        <v>8.431585</v>
-      </c>
-      <c r="I7" s="11" t="n">
-        <v>1.64762</v>
+        <v>0.24911</v>
+      </c>
+      <c r="F7" s="8" t="n">
+        <v>4.381</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <v>0.71615</v>
+      </c>
+      <c r="H7" t="n">
+        <v>38.743458</v>
+      </c>
+      <c r="I7" s="14" t="n">
+        <v>9.255784999999999</v>
       </c>
       <c r="J7" s="14" t="n">
-        <v>62.876</v>
+        <v>5.093</v>
       </c>
       <c r="K7" s="11" t="n">
-        <v>285.83</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="8">
@@ -6121,37 +6157,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BRIS.JK</t>
+          <t>JPFA.JK</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>MID</t>
         </is>
       </c>
-      <c r="E8" s="9" t="n">
-        <v>0.15604</v>
+      <c r="E8" s="8" t="n">
+        <v>0.20716</v>
       </c>
       <c r="F8" s="9" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="G8" s="8" t="n">
-        <v>0.31919</v>
-      </c>
-      <c r="H8" t="n">
-        <v>14.388056</v>
-      </c>
-      <c r="I8" s="15" t="n">
-        <v>2.1220942</v>
-      </c>
-      <c r="J8" s="11" t="n">
-        <v>0</v>
+        <v>0.146</v>
+      </c>
+      <c r="G8" s="9" t="n">
+        <v>0.05786</v>
+      </c>
+      <c r="H8" s="10" t="n">
+        <v>8.189864999999999</v>
+      </c>
+      <c r="I8" s="11" t="n">
+        <v>1.6066004</v>
+      </c>
+      <c r="J8" s="14" t="n">
+        <v>62.876</v>
       </c>
       <c r="K8" s="11" t="n">
-        <v>166.11</v>
+        <v>286.94</v>
       </c>
     </row>
     <row r="9">
@@ -6160,7 +6196,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NICL.JK</t>
+          <t>BRIS.JK</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -6171,65 +6207,65 @@
           <t>MID</t>
         </is>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="E9" s="9" t="n">
+        <v>0.15604</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G9" s="8" t="n">
+        <v>0.31919</v>
+      </c>
+      <c r="H9" t="n">
+        <v>14.326648</v>
+      </c>
+      <c r="I9" s="15" t="n">
+        <v>2.086578</v>
+      </c>
+      <c r="J9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="11" t="n">
+        <v>164.03</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NICL.JK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>18</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="n">
         <v>0.65794</v>
       </c>
-      <c r="F9" s="16" t="n">
+      <c r="F10" s="16" t="n">
         <v>-0.261</v>
       </c>
-      <c r="G9" s="8" t="n">
+      <c r="G10" s="8" t="n">
         <v>0.27632</v>
       </c>
-      <c r="H9" t="n">
-        <v>21.833239</v>
-      </c>
-      <c r="I9" s="14" t="n">
-        <v>14.852754</v>
-      </c>
-      <c r="J9" s="11" t="n">
+      <c r="H10" t="n">
+        <v>21.052631</v>
+      </c>
+      <c r="I10" s="14" t="n">
+        <v>13.828425</v>
+      </c>
+      <c r="J10" s="11" t="n">
         <v>0.378</v>
       </c>
-      <c r="K9" s="11" t="n">
-        <v>53.13</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="12" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="12" t="inlineStr">
-        <is>
-          <t>HRTA.JK</t>
-        </is>
-      </c>
-      <c r="C10" s="12" t="n">
-        <v>17</v>
-      </c>
-      <c r="D10" s="12" t="inlineStr">
-        <is>
-          <t>MID</t>
-        </is>
-      </c>
-      <c r="E10" s="13" t="n">
-        <v>0.28483</v>
-      </c>
-      <c r="F10" s="13" t="n">
-        <v>1.009</v>
-      </c>
-      <c r="G10" s="13" t="n">
-        <v>0.023759998</v>
-      </c>
-      <c r="H10" s="12" t="n">
-        <v>18.215158</v>
-      </c>
-      <c r="I10" s="15" t="n">
-        <v>4.8681912</v>
-      </c>
-      <c r="J10" s="14" t="n">
-        <v>139.825</v>
-      </c>
       <c r="K10" s="11" t="n">
-        <v>163.6</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="11">
@@ -6238,7 +6274,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PADI.JK</t>
+          <t>HRTA.JK</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -6250,25 +6286,25 @@
         </is>
       </c>
       <c r="E11" s="8" t="n">
-        <v>0.24911</v>
+        <v>0.28483</v>
       </c>
       <c r="F11" s="8" t="n">
-        <v>4.381</v>
-      </c>
-      <c r="G11" s="8" t="n">
-        <v>0.71615</v>
-      </c>
-      <c r="H11" s="17" t="n">
-        <v>42.93194</v>
+        <v>1.009</v>
+      </c>
+      <c r="G11" s="9" t="n">
+        <v>0.023759998</v>
+      </c>
+      <c r="H11" t="n">
+        <v>20.576132</v>
       </c>
       <c r="I11" s="14" t="n">
-        <v>10.256411</v>
+        <v>5.2275877</v>
       </c>
       <c r="J11" s="14" t="n">
-        <v>5.093</v>
+        <v>139.825</v>
       </c>
       <c r="K11" s="11" t="n">
-        <v>3.82</v>
+        <v>155.52</v>
       </c>
     </row>
     <row r="12">
@@ -6298,16 +6334,16 @@
         <v>0.048460003</v>
       </c>
       <c r="H12" s="10" t="n">
-        <v>8.8964205</v>
+        <v>8.952220000000001</v>
       </c>
       <c r="I12" s="11" t="n">
-        <v>1.1920558</v>
+        <v>1.1991514</v>
       </c>
       <c r="J12" s="14" t="n">
         <v>4.935</v>
       </c>
       <c r="K12" s="11" t="n">
-        <v>94.42</v>
+        <v>94.39</v>
       </c>
     </row>
     <row r="13">
@@ -6337,16 +6373,16 @@
         <v>0.21154</v>
       </c>
       <c r="H13" t="n">
-        <v>31.744694</v>
+        <v>31.44654</v>
       </c>
       <c r="I13" s="14" t="n">
-        <v>134642.86</v>
+        <v>128571.42</v>
       </c>
       <c r="J13" s="14" t="n">
         <v>118.6</v>
       </c>
       <c r="K13" s="11" t="n">
-        <v>59.38</v>
+        <v>57.24</v>
       </c>
     </row>
     <row r="14">
@@ -6376,16 +6412,16 @@
         <v>0.2208</v>
       </c>
       <c r="H14" t="n">
-        <v>22.684093</v>
+        <v>22.778671</v>
       </c>
       <c r="I14" s="14" t="n">
-        <v>153888.88</v>
+        <v>154444.44</v>
       </c>
       <c r="J14" s="14" t="n">
         <v>82.7</v>
       </c>
       <c r="K14" s="11" t="n">
-        <v>305.28</v>
+        <v>305.11</v>
       </c>
     </row>
     <row r="15">
@@ -6394,7 +6430,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BBNI.JK</t>
+          <t>PWON.JK</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -6406,25 +6442,25 @@
         </is>
       </c>
       <c r="E15" s="9" t="n">
-        <v>0.1173</v>
+        <v>0.102419995</v>
       </c>
       <c r="F15" s="9" t="n">
-        <v>0.028</v>
+        <v>0.144</v>
       </c>
       <c r="G15" s="8" t="n">
-        <v>0.40232</v>
+        <v>0.30543</v>
       </c>
       <c r="H15" s="10" t="n">
-        <v>8.378016000000001</v>
+        <v>8.374606</v>
       </c>
       <c r="I15" s="11" t="n">
-        <v>0.97627354</v>
-      </c>
-      <c r="J15" s="11" t="n">
-        <v>0</v>
+        <v>0.8203916</v>
+      </c>
+      <c r="J15" s="14" t="n">
+        <v>21.136</v>
       </c>
       <c r="K15" s="11" t="n">
-        <v>537.12</v>
+        <v>44.42</v>
       </c>
     </row>
     <row r="16">
@@ -6433,7 +6469,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PWON.JK</t>
+          <t>BBNI.JK</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -6445,25 +6481,25 @@
         </is>
       </c>
       <c r="E16" s="9" t="n">
-        <v>0.102419995</v>
+        <v>0.1173</v>
       </c>
       <c r="F16" s="9" t="n">
-        <v>0.144</v>
+        <v>0.028</v>
       </c>
       <c r="G16" s="8" t="n">
-        <v>0.30543</v>
+        <v>0.40232</v>
       </c>
       <c r="H16" s="10" t="n">
-        <v>8.244206</v>
+        <v>8.305709999999999</v>
       </c>
       <c r="I16" s="11" t="n">
-        <v>0.8159809</v>
-      </c>
-      <c r="J16" s="14" t="n">
-        <v>21.136</v>
+        <v>0.9675956</v>
+      </c>
+      <c r="J16" s="11" t="n">
+        <v>0</v>
       </c>
       <c r="K16" s="11" t="n">
-        <v>44.88</v>
+        <v>536.98</v>
       </c>
     </row>
     <row r="17">
@@ -6493,16 +6529,16 @@
         <v>0.06239</v>
       </c>
       <c r="H17" s="17" t="n">
-        <v>73.426575</v>
+        <v>70.92198</v>
       </c>
       <c r="I17" s="14" t="n">
-        <v>28160.918</v>
+        <v>27203.064</v>
       </c>
       <c r="J17" s="11" t="n">
         <v>0.173</v>
       </c>
       <c r="K17" s="11" t="n">
-        <v>100.1</v>
+        <v>100.11</v>
       </c>
     </row>
     <row r="18">
@@ -6532,16 +6568,16 @@
         <v>0.09748999999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>13.642878</v>
+        <v>13.587115</v>
       </c>
       <c r="I18" s="15" t="n">
-        <v>2.113337</v>
+        <v>2.0600595</v>
       </c>
       <c r="J18" s="14" t="n">
         <v>138.994</v>
       </c>
       <c r="K18" s="11" t="n">
-        <v>174.45</v>
+        <v>170.75</v>
       </c>
     </row>
     <row r="19">
@@ -6571,16 +6607,16 @@
         <v>0.52018</v>
       </c>
       <c r="H19" t="n">
-        <v>21.597874</v>
+        <v>20.703554</v>
       </c>
       <c r="I19" s="15" t="n">
-        <v>3.648099</v>
+        <v>3.5233777</v>
       </c>
       <c r="J19" s="14" t="n">
         <v>2.39</v>
       </c>
       <c r="K19" s="11" t="n">
-        <v>270.86</v>
+        <v>272.9</v>
       </c>
     </row>
     <row r="20">
@@ -6613,13 +6649,13 @@
         <v>0</v>
       </c>
       <c r="I20" s="14" t="n">
-        <v>16.509525</v>
+        <v>15.022886</v>
       </c>
       <c r="J20" s="11" t="n">
         <v>0.049</v>
       </c>
       <c r="K20" s="15" t="n">
-        <v>-0.76</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="21">
@@ -6649,16 +6685,16 @@
         <v>0.53282</v>
       </c>
       <c r="H21" t="n">
-        <v>15.693963</v>
+        <v>15.625</v>
       </c>
       <c r="I21" s="15" t="n">
-        <v>3.2013419</v>
+        <v>3.1904159</v>
       </c>
       <c r="J21" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K21" s="11" t="n">
-        <v>466.74</v>
+        <v>467.2</v>
       </c>
     </row>
     <row r="22">
@@ -6688,16 +6724,16 @@
         <v>0.30952</v>
       </c>
       <c r="H22" s="17" t="n">
-        <v>277.8702</v>
+        <v>262.98703</v>
       </c>
       <c r="I22" s="14" t="n">
-        <v>13.543323</v>
+        <v>13.137834</v>
       </c>
       <c r="J22" s="11" t="n">
         <v>0.261</v>
       </c>
       <c r="K22" s="11" t="n">
-        <v>6.01</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="23">
@@ -6727,16 +6763,16 @@
         <v>0.15842</v>
       </c>
       <c r="H23" t="n">
-        <v>17.12329</v>
-      </c>
-      <c r="I23" s="14" t="n">
-        <v>5.179868</v>
+        <v>16.474997</v>
+      </c>
+      <c r="I23" s="15" t="n">
+        <v>4.9844017</v>
       </c>
       <c r="J23" s="15" t="n">
         <v>1.461</v>
       </c>
       <c r="K23" s="11" t="n">
-        <v>77.38</v>
+        <v>77.39</v>
       </c>
     </row>
     <row r="24">
@@ -6766,16 +6802,16 @@
         <v>0.13921</v>
       </c>
       <c r="H24" s="17" t="n">
-        <v>82.6365</v>
+        <v>79.36507400000001</v>
       </c>
       <c r="I24" s="14" t="n">
-        <v>560000</v>
+        <v>550000</v>
       </c>
       <c r="J24" s="14" t="n">
         <v>201.586</v>
       </c>
       <c r="K24" s="11" t="n">
-        <v>20.33</v>
+        <v>20.79</v>
       </c>
     </row>
     <row r="25">
@@ -6805,16 +6841,16 @@
         <v>0.0806</v>
       </c>
       <c r="H25" s="10" t="n">
-        <v>10.514233</v>
+        <v>10.593221</v>
       </c>
       <c r="I25" s="14" t="n">
-        <v>20087.719</v>
+        <v>20175.44</v>
       </c>
       <c r="J25" s="14" t="n">
         <v>32.802</v>
       </c>
       <c r="K25" s="11" t="n">
-        <v>217.8</v>
+        <v>217.12</v>
       </c>
     </row>
     <row r="26">
@@ -6844,16 +6880,16 @@
         <v>0.06455</v>
       </c>
       <c r="H26" s="17" t="n">
-        <v>62.13307</v>
+        <v>62.121216</v>
       </c>
       <c r="I26" s="14" t="n">
-        <v>13.160622</v>
+        <v>12.746114</v>
       </c>
       <c r="J26" s="11" t="n">
         <v>0.216</v>
       </c>
       <c r="K26" s="11" t="n">
-        <v>10.22</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="27">
@@ -6883,16 +6919,16 @@
         <v>0.10163</v>
       </c>
       <c r="H27" t="n">
-        <v>13.83203</v>
+        <v>14.024788</v>
       </c>
       <c r="I27" s="15" t="n">
-        <v>2.199146</v>
+        <v>2.1202528</v>
       </c>
       <c r="J27" s="14" t="n">
         <v>2.102</v>
       </c>
       <c r="K27" s="11" t="n">
-        <v>80.61</v>
+        <v>76.65000000000001</v>
       </c>
     </row>
     <row r="28">
@@ -6922,16 +6958,16 @@
         <v>0.09752</v>
       </c>
       <c r="H28" s="12" t="n">
-        <v>18.450857</v>
+        <v>17.76118</v>
       </c>
       <c r="I28" s="14" t="n">
-        <v>84166.664</v>
+        <v>81250</v>
       </c>
       <c r="J28" s="14" t="n">
         <v>107.818</v>
       </c>
       <c r="K28" s="11" t="n">
-        <v>109.48</v>
+        <v>109.79</v>
       </c>
     </row>
     <row r="29">
@@ -6961,16 +6997,16 @@
         <v>0.15737</v>
       </c>
       <c r="H29" s="10" t="n">
-        <v>5.3224554</v>
+        <v>5.2437363</v>
       </c>
       <c r="I29" s="11" t="n">
-        <v>0.28171417</v>
+        <v>0.27760157</v>
       </c>
       <c r="J29" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K29" s="11" t="n">
-        <v>51.48</v>
+        <v>51.49</v>
       </c>
     </row>
     <row r="30">
@@ -7000,10 +7036,10 @@
         <v>0.041550003</v>
       </c>
       <c r="H30" s="10" t="n">
-        <v>9.42029</v>
+        <v>9.275361999999999</v>
       </c>
       <c r="I30" s="11" t="n">
-        <v>0.96980184</v>
+        <v>0.9548818</v>
       </c>
       <c r="J30" s="14" t="n">
         <v>43.245</v>
@@ -7018,7 +7054,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>RATU.JK</t>
+          <t>RMKO.JK</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -7029,26 +7065,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E31" s="8" t="n">
-        <v>0.45251998</v>
-      </c>
-      <c r="F31" s="16" t="n">
-        <v>-0.183</v>
-      </c>
-      <c r="G31" s="8" t="n">
-        <v>0.31559</v>
-      </c>
-      <c r="H31" s="17" t="n">
-        <v>72.91971599999999</v>
-      </c>
-      <c r="I31" s="14" t="n">
-        <v>439705.84</v>
+      <c r="E31" s="16" t="n">
+        <v>-0.29015</v>
+      </c>
+      <c r="F31" s="8" t="n">
+        <v>0.671</v>
+      </c>
+      <c r="G31" s="9" t="n">
+        <v>-0.21053</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="15" t="n">
+        <v>4.7512336</v>
       </c>
       <c r="J31" s="14" t="n">
-        <v>36.548</v>
-      </c>
-      <c r="K31" s="11" t="n">
-        <v>102.51</v>
+        <v>65.76600000000001</v>
+      </c>
+      <c r="K31" s="15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -7057,7 +7093,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>RMKO.JK</t>
+          <t>PTRO.JK</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -7068,26 +7104,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E32" s="16" t="n">
-        <v>-0.29015</v>
+      <c r="E32" s="9" t="n">
+        <v>0.05801</v>
       </c>
       <c r="F32" s="8" t="n">
-        <v>0.671</v>
+        <v>0.317</v>
       </c>
       <c r="G32" s="9" t="n">
-        <v>-0.21053</v>
+        <v>0.01754</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="15" t="n">
-        <v>4.9639754</v>
+        <v>37.037037</v>
+      </c>
+      <c r="I32" s="14" t="n">
+        <v>262500</v>
       </c>
       <c r="J32" s="14" t="n">
-        <v>65.76600000000001</v>
-      </c>
-      <c r="K32" s="15" t="n">
-        <v>0</v>
+        <v>276.511</v>
+      </c>
+      <c r="K32" s="11" t="n">
+        <v>170.1</v>
       </c>
     </row>
     <row r="33">
@@ -7096,7 +7132,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PTRO.JK</t>
+          <t>BRMS.JK</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -7108,25 +7144,25 @@
         </is>
       </c>
       <c r="E33" s="9" t="n">
-        <v>0.05801</v>
+        <v>0.045900002</v>
       </c>
       <c r="F33" s="8" t="n">
-        <v>0.317</v>
+        <v>0.329</v>
       </c>
       <c r="G33" s="9" t="n">
-        <v>0.01754</v>
-      </c>
-      <c r="H33" t="n">
-        <v>39.640747</v>
+        <v>0.19652</v>
+      </c>
+      <c r="H33" s="17" t="n">
+        <v>172.35188</v>
       </c>
       <c r="I33" s="14" t="n">
-        <v>282291.66</v>
+        <v>106666.67</v>
       </c>
       <c r="J33" s="14" t="n">
-        <v>276.511</v>
+        <v>12.694</v>
       </c>
       <c r="K33" s="11" t="n">
-        <v>170.91</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="34">
@@ -7135,7 +7171,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BRMS.JK</t>
+          <t>INET.JK</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -7147,25 +7183,25 @@
         </is>
       </c>
       <c r="E34" s="9" t="n">
-        <v>0.045900002</v>
+        <v>0.06432</v>
       </c>
       <c r="F34" s="8" t="n">
-        <v>0.329</v>
-      </c>
-      <c r="G34" s="9" t="n">
-        <v>0.19652</v>
+        <v>1.905</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>0.24544</v>
       </c>
       <c r="H34" s="17" t="n">
-        <v>181.81819</v>
+        <v>277.37225</v>
       </c>
       <c r="I34" s="14" t="n">
-        <v>108888.89</v>
+        <v>9.349703</v>
       </c>
       <c r="J34" s="14" t="n">
-        <v>12.694</v>
+        <v>2.833</v>
       </c>
       <c r="K34" s="11" t="n">
-        <v>5.39</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="35">
@@ -7174,7 +7210,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>INET.JK</t>
+          <t>IMPC.JK</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -7185,26 +7221,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E35" s="9" t="n">
-        <v>0.06432</v>
-      </c>
-      <c r="F35" s="8" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="G35" s="8" t="n">
-        <v>0.24544</v>
+      <c r="E35" s="8" t="n">
+        <v>0.23723</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G35" s="9" t="n">
+        <v>0.14588</v>
       </c>
       <c r="H35" s="17" t="n">
-        <v>276.9231</v>
+        <v>181.81819</v>
       </c>
       <c r="I35" s="14" t="n">
-        <v>9.743375</v>
+        <v>38.601925</v>
       </c>
       <c r="J35" s="14" t="n">
-        <v>2.833</v>
+        <v>38.133</v>
       </c>
       <c r="K35" s="11" t="n">
-        <v>1.43</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="36">
@@ -7213,7 +7249,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>IMPC.JK</t>
+          <t>CDIA.JK</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -7224,26 +7260,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E36" s="8" t="n">
-        <v>0.23723</v>
-      </c>
-      <c r="F36" s="9" t="n">
-        <v>0.145</v>
-      </c>
-      <c r="G36" s="9" t="n">
-        <v>0.14588</v>
+      <c r="E36" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="8" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>0.65328</v>
       </c>
       <c r="H36" s="17" t="n">
-        <v>204.04411</v>
+        <v>88.51063499999999</v>
       </c>
       <c r="I36" s="14" t="n">
-        <v>42.423897</v>
+        <v>129999.99</v>
       </c>
       <c r="J36" s="14" t="n">
-        <v>38.133</v>
+        <v>34.873</v>
       </c>
       <c r="K36" s="11" t="n">
-        <v>10.88</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="37">
@@ -7252,7 +7288,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CDIA.JK</t>
+          <t>RATU.JK</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -7263,26 +7299,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="8" t="n">
-        <v>0.421</v>
+      <c r="E37" s="8" t="n">
+        <v>0.45251998</v>
+      </c>
+      <c r="F37" s="16" t="n">
+        <v>-0.183</v>
       </c>
       <c r="G37" s="8" t="n">
-        <v>0.65328</v>
+        <v>0.31559</v>
       </c>
       <c r="H37" s="17" t="n">
-        <v>93.45392</v>
+        <v>67.11081</v>
       </c>
       <c r="I37" s="14" t="n">
-        <v>135625</v>
+        <v>402941.16</v>
       </c>
       <c r="J37" s="14" t="n">
-        <v>34.873</v>
+        <v>36.548</v>
       </c>
       <c r="K37" s="11" t="n">
-        <v>11.61</v>
+        <v>102.07</v>
       </c>
     </row>
     <row r="38">
@@ -7312,16 +7348,16 @@
         <v>0.24195999</v>
       </c>
       <c r="H38" s="17" t="n">
-        <v>178.57143</v>
+        <v>172.4138</v>
       </c>
       <c r="I38" s="14" t="n">
-        <v>7.4414325</v>
+        <v>7.1407685</v>
       </c>
       <c r="J38" s="14" t="n">
         <v>2.054</v>
       </c>
       <c r="K38" s="11" t="n">
-        <v>55.44</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="39">
@@ -7351,16 +7387,16 @@
         <v>0.23266001</v>
       </c>
       <c r="H39" s="17" t="n">
-        <v>434.8434</v>
+        <v>434.66226</v>
       </c>
       <c r="I39" s="14" t="n">
-        <v>1555000</v>
+        <v>1570000</v>
       </c>
       <c r="J39" s="14" t="n">
         <v>239.827</v>
       </c>
       <c r="K39" s="11" t="n">
-        <v>17.88</v>
+        <v>18.06</v>
       </c>
     </row>
     <row r="40">
@@ -7390,16 +7426,16 @@
         <v>0.075219996</v>
       </c>
       <c r="H40" s="10" t="n">
-        <v>9.256652000000001</v>
+        <v>9.191112</v>
       </c>
       <c r="I40" s="11" t="n">
-        <v>1.4655297</v>
+        <v>1.4543849</v>
       </c>
       <c r="J40" s="14" t="n">
         <v>19.582</v>
       </c>
       <c r="K40" s="11" t="n">
-        <v>284.12</v>
+        <v>283.97</v>
       </c>
     </row>
     <row r="41">
@@ -7429,16 +7465,16 @@
         <v>0.31149</v>
       </c>
       <c r="H41" t="n">
-        <v>16.761518</v>
+        <v>16.260162</v>
       </c>
       <c r="I41" s="14" t="n">
-        <v>58108.105</v>
+        <v>56216.215</v>
       </c>
       <c r="J41" s="14" t="n">
         <v>35.836</v>
       </c>
       <c r="K41" s="11" t="n">
-        <v>128.27</v>
+        <v>127.92</v>
       </c>
     </row>
   </sheetData>

--- a/reports/HEDGEFUND_TERMINAL.xlsx
+++ b/reports/HEDGEFUND_TERMINAL.xlsx
@@ -496,7 +496,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>27 February 2026</t>
+          <t>28 February 2026</t>
         </is>
       </c>
     </row>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>50.7</v>
+        <v>50.6</v>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
@@ -597,7 +597,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>INCO.JK</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -605,7 +605,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>10.2M</t>
+          <t>745400</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>INKP.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -630,7 +630,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-1.9M</t>
+          <t>10.2M</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>HRTA.JK</t>
+          <t>INKP.JK</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -655,7 +655,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-2.9M</t>
+          <t>-1.9M</t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ELSA.JK</t>
+          <t>HRTA.JK</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -680,7 +680,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-21.6M</t>
+          <t>-2.9M</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>66.8</v>
+        <v>66.7</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>60.2</v>
+        <v>60.9</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -758,45 +758,45 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3. Industrials</t>
+          <t>3. Healthcare</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.3</v>
+        <v>59</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-102.8M</t>
+          <t>-34.5M</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4. Energy</t>
+          <t>4. Industrials</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>51.5</v>
+        <v>54.3</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-494.1M</t>
+          <t>-102.8M</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5. Consumer Defensive</t>
+          <t>5. Energy</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>50.8</v>
+        <v>54.2</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>48.8M</t>
+          <t>-494.1M</t>
         </is>
       </c>
     </row>
@@ -920,20 +920,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1410-1480</t>
+          <t>1502-1578</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1338.928571428572</v>
+        <v>1427.5</v>
       </c>
       <c r="F2" t="n">
-        <v>1578.392857142857</v>
+        <v>1681.964285714286</v>
       </c>
       <c r="G2" t="n">
-        <v>1736.232142857143</v>
+        <v>1850.160714285714</v>
       </c>
       <c r="H2" t="n">
-        <v>1807.142857142857</v>
+        <v>1925.714285714286</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>18.54%</t>
+          <t>18.56%</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>90.89</v>
+        <v>90.95</v>
       </c>
       <c r="L2" t="n">
         <v>-5503000</v>
@@ -963,7 +963,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>INCO.JK</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -971,36 +971,36 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2266-2334</t>
+          <t>7714-8086</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2199.285714285714</v>
+        <v>7342.857142857143</v>
       </c>
       <c r="F3" t="n">
-        <v>2433.214285714286</v>
+        <v>8575.892857142857</v>
       </c>
       <c r="G3" t="n">
-        <v>2665.714285714286</v>
+        <v>9066.071428571428</v>
       </c>
       <c r="H3" t="n">
-        <v>2676.535714285715</v>
+        <v>9719.642857142857</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>98%</t>
+          <t>92%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>9.58%</t>
+          <t>30.81%</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>435.84</v>
+        <v>784.42</v>
       </c>
       <c r="L3" t="n">
-        <v>10200200</v>
+        <v>745400</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>INKP.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -1022,40 +1022,40 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11534-12116</t>
+          <t>2354-2426</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>10951.78571428571</v>
+        <v>2282.857142857143</v>
       </c>
       <c r="F4" t="n">
-        <v>12975.89285714286</v>
+        <v>2531.785714285714</v>
       </c>
       <c r="G4" t="n">
-        <v>13835.71428571429</v>
+        <v>2637.857142857143</v>
       </c>
       <c r="H4" t="n">
-        <v>14982.14285714286</v>
+        <v>2779.285714285714</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>98%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>8.71%</t>
+          <t>9.70%</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>5.89</v>
+        <v>441.56</v>
       </c>
       <c r="L4" t="n">
-        <v>-1912500</v>
+        <v>10200200</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>DISTRIB</t>
+          <t>ACCUM</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HRTA.JK</t>
+          <t>INKP.JK</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -1073,36 +1073,36 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3109-3291</t>
+          <t>11305-11895</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2926.785714285714</v>
+        <v>10716.07142857143</v>
       </c>
       <c r="F5" t="n">
-        <v>3550.357142857143</v>
+        <v>12767.85714285714</v>
       </c>
       <c r="G5" t="n">
-        <v>3809.642857142857</v>
+        <v>14044.64285714286</v>
       </c>
       <c r="H5" t="n">
-        <v>4155.357142857143</v>
+        <v>14805.35714285714</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>26.45%</t>
+          <t>9.27%</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>28.75</v>
+        <v>6.21</v>
       </c>
       <c r="L5" t="n">
-        <v>-2895500</v>
+        <v>-1912500</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ELSA.JK</t>
+          <t>HRTA.JK</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -1124,36 +1124,36 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>818-872</t>
+          <t>3149-3331</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>763.5714285714286</v>
+        <v>2965.714285714286</v>
       </c>
       <c r="F6" t="n">
-        <v>953.5714285714286</v>
+        <v>3593.928571428572</v>
       </c>
       <c r="G6" t="n">
-        <v>1035</v>
+        <v>3856.428571428572</v>
       </c>
       <c r="H6" t="n">
-        <v>1143.571428571428</v>
+        <v>4206.428571428572</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>90%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>23.00%</t>
+          <t>26.44%</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>109.95</v>
+        <v>28.74</v>
       </c>
       <c r="L6" t="n">
-        <v>-21636100</v>
+        <v>-2895500</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIPI.JK</t>
+          <t>ELSA.JK</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -1175,36 +1175,36 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>293-327</t>
+          <t>823-877</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>260.0714285714286</v>
+        <v>768.5714285714286</v>
       </c>
       <c r="F7" t="n">
-        <v>375.8214285714286</v>
+        <v>958.5714285714286</v>
       </c>
       <c r="G7" t="n">
-        <v>413.4035714285715</v>
+        <v>1040</v>
       </c>
       <c r="H7" t="n">
-        <v>490.5714285714286</v>
+        <v>1148.571428571428</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>92%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>59.97%</t>
+          <t>23.94%</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>12.81</v>
+        <v>195.78</v>
       </c>
       <c r="L7" t="n">
-        <v>-104512900</v>
+        <v>-21636100</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1218,48 +1218,48 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TCPI.JK</t>
+          <t>BIPI.JK</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11954-12296</t>
+          <t>277-311</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>11610.71428571429</v>
+        <v>243.3214285714286</v>
       </c>
       <c r="F8" t="n">
-        <v>12808.03571428571</v>
+        <v>360.3928571428572</v>
       </c>
       <c r="G8" t="n">
-        <v>13319.64285714286</v>
+        <v>396.4321428571429</v>
       </c>
       <c r="H8" t="n">
-        <v>14001.78571428571</v>
+        <v>475.8928571428572</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>18.65%</t>
+          <t>61.35%</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>7461032055.07</v>
+        <v>13.48</v>
       </c>
       <c r="L8" t="n">
-        <v>328500</v>
+        <v>-104512900</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -1269,48 +1269,48 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>INCO.JK</t>
+          <t>OASA.JK</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6931-7269</t>
+          <t>402-442</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6593.75</v>
+        <v>361.7857142857143</v>
       </c>
       <c r="F9" t="n">
-        <v>7708.035714285714</v>
+        <v>501.6428571428571</v>
       </c>
       <c r="G9" t="n">
-        <v>8478.839285714286</v>
+        <v>551.8071428571428</v>
       </c>
       <c r="H9" t="n">
-        <v>8733.035714285714</v>
+        <v>640.6428571428571</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>31.01%</t>
+          <t>38.27%</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>789.46</v>
+        <v>29.52</v>
       </c>
       <c r="L9" t="n">
-        <v>745400</v>
+        <v>-2360900</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -1320,44 +1320,44 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TINS.JK</t>
+          <t>TCPI.JK</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4311-4589</t>
+          <t>12161-12539</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4034.285714285714</v>
+        <v>11782.14285714286</v>
       </c>
       <c r="F10" t="n">
-        <v>4961.428571428572</v>
+        <v>13104.46428571428</v>
       </c>
       <c r="G10" t="n">
-        <v>5334.285714285714</v>
+        <v>13669.64285714286</v>
       </c>
       <c r="H10" t="n">
-        <v>5831.428571428572</v>
+        <v>14423.21428571428</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>5.85%</t>
+          <t>18.33%</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>5.56</v>
+        <v>7332136191.1</v>
       </c>
       <c r="L10" t="n">
-        <v>32300</v>
+        <v>328500</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ADRO.JK</t>
+          <t>ENRG.JK</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1379,40 +1379,40 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2281-2359</t>
+          <t>1682-1838</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2203.214285714286</v>
+        <v>1527.5</v>
       </c>
       <c r="F11" t="n">
-        <v>2471.428571428572</v>
+        <v>2067.321428571428</v>
       </c>
       <c r="G11" t="n">
-        <v>2718.571428571429</v>
+        <v>2297.142857142857</v>
       </c>
       <c r="H11" t="n">
-        <v>2733.928571428572</v>
+        <v>2603.571428571428</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>15.02%</t>
+          <t>4.19%</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>57.4</v>
+        <v>1.55</v>
       </c>
       <c r="L11" t="n">
-        <v>-2979900</v>
+        <v>56554200</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>DISTRIB</t>
+          <t>ACCUM</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MBMA.JK</t>
+          <t>BULL.JK</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1430,36 +1430,36 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>788-852</t>
+          <t>474-526</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>723.0357142857143</v>
+        <v>420.9285714285714</v>
       </c>
       <c r="F12" t="n">
-        <v>943.9285714285714</v>
+        <v>602.1071428571429</v>
       </c>
       <c r="G12" t="n">
-        <v>1038.321428571429</v>
+        <v>662.3178571428572</v>
       </c>
       <c r="H12" t="n">
-        <v>1157.678571428571</v>
+        <v>778.8571428571429</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>17.74%</t>
+          <t>24.31%</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>21.38</v>
+        <v>3.96</v>
       </c>
       <c r="L12" t="n">
-        <v>-73678300</v>
+        <v>-2075700</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ZATA.JK</t>
+          <t>IRSX.JK</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1481,36 +1481,36 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>157-169</t>
+          <t>594-646</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>144.7857142857143</v>
+        <v>541.25</v>
       </c>
       <c r="F13" t="n">
-        <v>186.9642857142857</v>
+        <v>723.3928571428571</v>
       </c>
       <c r="G13" t="n">
-        <v>204.8571428571429</v>
+        <v>795.7321428571429</v>
       </c>
       <c r="H13" t="n">
-        <v>228.7142857142857</v>
+        <v>903.3928571428571</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>37.06%</t>
+          <t>3.28%</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>19.95</v>
+        <v>1.42</v>
       </c>
       <c r="L13" t="n">
-        <v>316433400</v>
+        <v>4580900</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MDKA.JK</t>
+          <t>BMRI.JK</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1532,36 +1532,36 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3539-3741</t>
+          <t>5209-5341</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3337.857142857143</v>
+        <v>5075.714285714285</v>
       </c>
       <c r="F14" t="n">
-        <v>4024.642857142857</v>
+        <v>5538.035714285715</v>
       </c>
       <c r="G14" t="n">
-        <v>4427.107142857143</v>
+        <v>5996.785714285715</v>
       </c>
       <c r="H14" t="n">
-        <v>4687.142857142857</v>
+        <v>6091.839285714286</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>20.74%</t>
+          <t>2.22%</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>115.26</v>
+        <v>3.48</v>
       </c>
       <c r="L14" t="n">
-        <v>6595200</v>
+        <v>33741800</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1575,48 +1575,48 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>EMAS.JK</t>
+          <t>ZATA.JK</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>7959-8491</t>
+          <t>157-169</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>7426.785714285715</v>
+        <v>145.5357142857143</v>
       </c>
       <c r="F15" t="n">
-        <v>9246.428571428572</v>
+        <v>185.9642857142857</v>
       </c>
       <c r="G15" t="n">
-        <v>10171.07142857143</v>
+        <v>203.1071428571429</v>
       </c>
       <c r="H15" t="n">
-        <v>11008.92857142857</v>
+        <v>225.9642857142857</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>29.12%</t>
+          <t>39.51%</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>11649057391.41</v>
+        <v>22.96</v>
       </c>
       <c r="L15" t="n">
-        <v>-658500</v>
+        <v>316433400</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>DISTRIB</t>
+          <t>ACCUM</t>
         </is>
       </c>
     </row>
@@ -1626,28 +1626,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>INDY.JK</t>
+          <t>MDKA.JK</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3408-3632</t>
+          <t>3652-3848</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3182.5</v>
+        <v>3455.357142857143</v>
       </c>
       <c r="F16" t="n">
-        <v>3967.857142857143</v>
+        <v>4124.642857142857</v>
       </c>
       <c r="G16" t="n">
-        <v>4364.642857142858</v>
+        <v>4537.107142857143</v>
       </c>
       <c r="H16" t="n">
-        <v>4750.357142857143</v>
+        <v>4769.642857142857</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1656,18 +1656,18 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>33.58%</t>
+          <t>21.28%</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>559.13</v>
+        <v>667.77</v>
       </c>
       <c r="L16" t="n">
-        <v>-1117600</v>
+        <v>6595200</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>DISTRIB</t>
+          <t>ACCUM</t>
         </is>
       </c>
     </row>
@@ -1677,48 +1677,48 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MEDC.JK</t>
+          <t>EMAS.JK</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1633-1727</t>
+          <t>8062-8588</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1539.107142857143</v>
+        <v>7537.5</v>
       </c>
       <c r="F17" t="n">
-        <v>1867.857142857143</v>
+        <v>9334.821428571429</v>
       </c>
       <c r="G17" t="n">
-        <v>2054.642857142857</v>
+        <v>10268.30357142857</v>
       </c>
       <c r="H17" t="n">
-        <v>2196.607142857143</v>
+        <v>11078.57142857143</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>10.37%</t>
+          <t>28.33%</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>47.41</v>
+        <v>11331586348.94</v>
       </c>
       <c r="L17" t="n">
-        <v>766200</v>
+        <v>-658500</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -1728,44 +1728,44 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BULL.JK</t>
+          <t>INDY.JK</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>500-550</t>
+          <t>3551-3789</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>450.9642857142857</v>
+        <v>3312.142857142857</v>
       </c>
       <c r="F18" t="n">
-        <v>620.9285714285714</v>
+        <v>4145</v>
       </c>
       <c r="G18" t="n">
-        <v>683.0214285714286</v>
+        <v>4559.5</v>
       </c>
       <c r="H18" t="n">
-        <v>787.1785714285714</v>
+        <v>4975</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>95%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>24.80%</t>
+          <t>33.12%</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>4.02</v>
+        <v>551.55</v>
       </c>
       <c r="L18" t="n">
-        <v>-2075700</v>
+        <v>-1117600</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1779,44 +1779,44 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PTBA.JK</t>
+          <t>MEDC.JK</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2584-2636</t>
+          <t>1677-1773</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2532.857142857143</v>
+        <v>1580.892857142857</v>
       </c>
       <c r="F19" t="n">
-        <v>2710.714285714286</v>
+        <v>1917.142857142857</v>
       </c>
       <c r="G19" t="n">
-        <v>2885.714285714286</v>
+        <v>2108.857142857143</v>
       </c>
       <c r="H19" t="n">
-        <v>2981.785714285715</v>
+        <v>2253.392857142857</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>95%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>5.92%</t>
+          <t>10.75%</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>138.45</v>
+        <v>56.06</v>
       </c>
       <c r="L19" t="n">
-        <v>1793800</v>
+        <v>766200</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BMRI.JK</t>
+          <t>AADI.JK</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1838,40 +1838,40 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5258-5392</t>
+          <t>9066-9434</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5123.035714285715</v>
+        <v>8698.214285714286</v>
       </c>
       <c r="F20" t="n">
-        <v>5591.607142857143</v>
+        <v>9969.642857142857</v>
       </c>
       <c r="G20" t="n">
-        <v>5790.892857142857</v>
+        <v>10966.60714285714</v>
       </c>
       <c r="H20" t="n">
-        <v>6056.607142857143</v>
+        <v>11219.64285714286</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>78%</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>1.84%</t>
+          <t>8.91%</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>3.06</v>
+        <v>9.31</v>
       </c>
       <c r="L20" t="n">
-        <v>33741800</v>
+        <v>-4000</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>ACCUM</t>
+          <t>DISTRIB</t>
         </is>
       </c>
     </row>
@@ -1881,48 +1881,48 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ADMR.JK</t>
+          <t>PTBA.JK</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-2136</t>
+          <t>2576-2624</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1912.857142857143</v>
+        <v>2528.214285714286</v>
       </c>
       <c r="F21" t="n">
-        <v>2302.321428571428</v>
+        <v>2694.642857142857</v>
       </c>
       <c r="G21" t="n">
-        <v>2532.553571428572</v>
+        <v>2859.642857142857</v>
       </c>
       <c r="H21" t="n">
-        <v>2691.071428571428</v>
+        <v>2964.107142857143</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>22.48%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>20.48</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>-25253200</v>
+        <v>1793800</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>DISTRIB</t>
+          <t>ACCUM</t>
         </is>
       </c>
     </row>
@@ -2414,25 +2414,25 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>104.4</v>
+        <v>101.4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-6.5%</t>
+          <t>-0.3%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PGAS.JK</t>
+          <t>INCO.JK</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>98</v>
       </c>
       <c r="C3" t="n">
-        <v>96.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -2443,50 +2443,50 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INKP.JK</t>
+          <t>PGAS.JK</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>97</v>
       </c>
       <c r="C4" t="n">
-        <v>93</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HRTA.JK</t>
+          <t>INKP.JK</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>96</v>
       </c>
       <c r="C5" t="n">
-        <v>85.2</v>
+        <v>93</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-3.3%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELSA.JK</t>
+          <t>HRTA.JK</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>95</v>
       </c>
       <c r="C6" t="n">
-        <v>84.59999999999999</v>
+        <v>85.2</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -2497,68 +2497,68 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BIPI.JK</t>
+          <t>ELSA.JK</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>94</v>
       </c>
       <c r="C7" t="n">
-        <v>84</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-2.5%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TCPI.JK</t>
+          <t>BIPI.JK</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" t="n">
         <v>84</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>-7.5%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INCO.JK</t>
+          <t>OASA.JK</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C9" t="n">
-        <v>83.40000000000001</v>
+        <v>84</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>-18.8%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TINS.JK</t>
+          <t>TCPI.JK</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C10" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -2569,252 +2569,252 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ADRO.JK</t>
+          <t>ENRG.JK</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>90</v>
       </c>
       <c r="C11" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MBMA.JK</t>
+          <t>BULL.JK</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>89</v>
       </c>
       <c r="C12" t="n">
-        <v>77</v>
+        <v>81.8</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-9.4%</t>
+          <t>-27.0%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ZATA.JK</t>
+          <t>IRSX.JK</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>87</v>
       </c>
       <c r="C13" t="n">
-        <v>75</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-21.0%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MDKA.JK</t>
+          <t>BMRI.JK</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>86</v>
       </c>
       <c r="C14" t="n">
-        <v>72</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-4.7%</t>
+          <t>-1.9%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EMAS.JK</t>
+          <t>ZATA.JK</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-2.1%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INDY.JK</t>
+          <t>MDKA.JK</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C16" t="n">
         <v>72</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-9.0%</t>
+          <t>-1.8%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MEDC.JK</t>
+          <t>EMAS.JK</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C17" t="n">
         <v>72</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-2.9%</t>
+          <t>-0.9%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BULL.JK</t>
+          <t>INDY.JK</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C18" t="n">
-        <v>71.8</v>
+        <v>72</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-23.4%</t>
+          <t>-5.2%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PTBA.JK</t>
+          <t>MEDC.JK</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C19" t="n">
-        <v>69.8</v>
+        <v>72</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>-0.3%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BMRI.JK</t>
+          <t>AADI.JK</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>80</v>
       </c>
       <c r="C20" t="n">
-        <v>65.40000000000001</v>
+        <v>69.8</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>-3.1%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ADMR.JK</t>
+          <t>PTBA.JK</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C21" t="n">
-        <v>64.8</v>
+        <v>69.8</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-8.8%</t>
+          <t>-1.5%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>OASA.JK</t>
+          <t>MBMA.JK</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>78</v>
       </c>
       <c r="C22" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-16.5%</t>
+          <t>-5.5%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ENRG.JK</t>
+          <t>TINS.JK</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>76</v>
       </c>
       <c r="C23" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-4.4%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AADI.JK</t>
+          <t>ADMR.JK</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>75</v>
       </c>
       <c r="C24" t="n">
-        <v>62.8</v>
+        <v>64.8</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-3.1%</t>
+          <t>-7.9%</t>
         </is>
       </c>
     </row>
@@ -2828,83 +2828,83 @@
         <v>74</v>
       </c>
       <c r="C25" t="n">
-        <v>61.8</v>
+        <v>63.6</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>-1.5%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>INDF.JK</t>
+          <t>AMMN.JK</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>73</v>
       </c>
       <c r="C26" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-9.4%</t>
+          <t>-6.1%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PADI.JK</t>
+          <t>LPKR.JK</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>72</v>
       </c>
       <c r="C27" t="n">
-        <v>56.2</v>
+        <v>59.8</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-25.6%</t>
+          <t>-17.2%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ARCI.JK</t>
+          <t>ADRO.JK</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>71</v>
       </c>
       <c r="C28" t="n">
-        <v>54.6</v>
+        <v>58</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-11.3%</t>
+          <t>-2.5%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PWON.JK</t>
+          <t>PADI.JK</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>70</v>
       </c>
       <c r="C29" t="n">
-        <v>54</v>
+        <v>56.2</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-4.1%</t>
+          <t>-26.6%</t>
         </is>
       </c>
     </row>
@@ -2922,61 +2922,61 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-4.1%</t>
+          <t>-3.7%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>IRSX.JK</t>
+          <t>HRUM.JK</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>68</v>
       </c>
       <c r="C31" t="n">
-        <v>49.6</v>
+        <v>47</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-21.7%</t>
+          <t>-9.3%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BBNI.JK</t>
+          <t>ANTM.JK</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>67</v>
       </c>
       <c r="C32" t="n">
-        <v>49</v>
+        <v>45.6</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-3.7%</t>
+          <t>-8.6%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ANTM.JK</t>
+          <t>ARCI.JK</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>65</v>
       </c>
       <c r="C33" t="n">
-        <v>45.6</v>
+        <v>44.6</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-9.0%</t>
+          <t>-7.4%</t>
         </is>
       </c>
     </row>
@@ -2994,338 +2994,338 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-30.3%</t>
+          <t>-29.9%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>TPIA.JK</t>
+          <t>ASII.JK</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>63</v>
       </c>
       <c r="C35" t="n">
-        <v>39.6</v>
+        <v>38</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-10.9%</t>
+          <t>-9.8%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DADA.JK</t>
+          <t>MINA.JK</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>62</v>
       </c>
       <c r="C36" t="n">
-        <v>38.6</v>
+        <v>35.8</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-20.6%</t>
+          <t>-38.9%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MINA.JK</t>
+          <t>UNTR.JK</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>61</v>
       </c>
       <c r="C37" t="n">
-        <v>35.8</v>
+        <v>34.8</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-39.5%</t>
+          <t>-10.6%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>UNTR.JK</t>
+          <t>UNVR.JK</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C38" t="n">
         <v>34.8</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-4.9%</t>
+          <t>-14.1%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>EXCL.JK</t>
+          <t>VKTR.JK</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" t="n">
-        <v>34.8</v>
+        <v>33.8</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-29.2%</t>
+          <t>-27.0%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>UNVR.JK</t>
+          <t>ISAT.JK</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C40" t="n">
-        <v>34.8</v>
+        <v>33.4</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-16.6%</t>
+          <t>-6.5%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>VKTR.JK</t>
+          <t>PWON.JK</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>57</v>
       </c>
       <c r="C41" t="n">
-        <v>33.8</v>
+        <v>29</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-30.5%</t>
+          <t>-5.7%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ASII.JK</t>
+          <t>INDF.JK</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>56</v>
       </c>
       <c r="C42" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-9.1%</t>
+          <t>-12.5%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>KLBF.JK</t>
+          <t>TOBA.JK</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>54</v>
       </c>
       <c r="C43" t="n">
-        <v>31.6</v>
+        <v>26.8</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-14.3%</t>
+          <t>-21.9%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HRUM.JK</t>
+          <t>JPFA.JK</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>53</v>
       </c>
       <c r="C44" t="n">
-        <v>29</v>
+        <v>26.4</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-11.7%</t>
+          <t>-18.8%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>JPFA.JK</t>
+          <t>RMKO.JK</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>52</v>
       </c>
       <c r="C45" t="n">
-        <v>26.4</v>
+        <v>25.4</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-19.8%</t>
+          <t>-63.3%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RMKO.JK</t>
+          <t>HUMI.JK</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>51</v>
       </c>
       <c r="C46" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-63.0%</t>
+          <t>-34.3%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ICBP.JK</t>
+          <t>TRIN.JK</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47" t="n">
         <v>25</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-8.1%</t>
+          <t>-41.4%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HUMI.JK</t>
+          <t>SRTG.JK</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" t="n">
         <v>25</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-34.8%</t>
+          <t>-9.5%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TRIN.JK</t>
+          <t>TPIA.JK</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C49" t="n">
-        <v>25</v>
+        <v>24.6</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-40.8%</t>
+          <t>-14.1%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ISAT.JK</t>
+          <t>GTSI.JK</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>47</v>
       </c>
       <c r="C50" t="n">
-        <v>23.4</v>
+        <v>21.8</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-6.1%</t>
+          <t>-35.4%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>GTSI.JK</t>
+          <t>KLBF.JK</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>46</v>
       </c>
       <c r="C51" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-37.5%</t>
+          <t>-10.6%</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>LPKR.JK</t>
+          <t>RATU.JK</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C52" t="n">
-        <v>21.8</v>
+        <v>20.4</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-20.3%</t>
+          <t>-40.6%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>AMRT.JK</t>
+          <t>EXCL.JK</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -3336,327 +3336,327 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-14.0%</t>
+          <t>-29.4%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BBCA.JK</t>
+          <t>AMRT.JK</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C54" t="n">
-        <v>17.8</v>
+        <v>19.8</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-12.8%</t>
+          <t>-16.5%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BBYB.JK</t>
+          <t>BBNI.JK</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>41</v>
       </c>
       <c r="C55" t="n">
-        <v>17.4</v>
+        <v>19</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-38.0%</t>
+          <t>-5.0%</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SRTG.JK</t>
+          <t>ESSA.JK</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>40</v>
       </c>
       <c r="C56" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-10.9%</t>
+          <t>-11.6%</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>GOTO.JK</t>
+          <t>BBCA.JK</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>39</v>
       </c>
       <c r="C57" t="n">
-        <v>16.8</v>
+        <v>17.8</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-15.5%</t>
+          <t>-14.0%</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>TOBA.JK</t>
+          <t>BBYB.JK</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C58" t="n">
-        <v>16.8</v>
+        <v>17.4</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-19.8%</t>
+          <t>-36.9%</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>EMTK.JK</t>
+          <t>GOTO.JK</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>37</v>
       </c>
       <c r="C59" t="n">
-        <v>16.2</v>
+        <v>16.8</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-38.8%</t>
+          <t>-14.1%</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BUVA.JK</t>
+          <t>EMTK.JK</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>36</v>
       </c>
       <c r="C60" t="n">
-        <v>15</v>
+        <v>16.2</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-34.8%</t>
+          <t>-39.5%</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>NICL.JK</t>
+          <t>BUVA.JK</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>35</v>
       </c>
       <c r="C61" t="n">
-        <v>10.8</v>
+        <v>15</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-42.2%</t>
+          <t>-33.9%</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CBDK.JK</t>
+          <t>TLKM.JK</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>34</v>
       </c>
       <c r="C62" t="n">
-        <v>8.4</v>
+        <v>11.8</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-40.1%</t>
+          <t>-10.2%</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>COIN.JK</t>
+          <t>NICL.JK</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>32</v>
       </c>
       <c r="C63" t="n">
-        <v>7.8</v>
+        <v>10.8</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-64.9%</t>
+          <t>-41.2%</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PBSA.JK</t>
+          <t>DADA.JK</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C64" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-52.6%</t>
+          <t>-20.6%</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CUAN.JK</t>
+          <t>CBDK.JK</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>30</v>
       </c>
       <c r="C65" t="n">
-        <v>7.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-39.8%</t>
+          <t>-40.1%</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>AMMN.JK</t>
+          <t>COIN.JK</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>29</v>
       </c>
       <c r="C66" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-10.4%</t>
+          <t>-64.8%</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BRPT.JK</t>
+          <t>PBSA.JK</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C67" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-47.6%</t>
+          <t>-51.5%</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PNLF.JK</t>
+          <t>CUAN.JK</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>27</v>
       </c>
       <c r="C68" t="n">
-        <v>6</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-19.2%</t>
+          <t>-41.6%</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CPRO.JK</t>
+          <t>BRPT.JK</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C69" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-25.6%</t>
+          <t>-46.5%</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PTRO.JK</t>
+          <t>PNLF.JK</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>25</v>
       </c>
       <c r="C70" t="n">
-        <v>5.399999999999999</v>
+        <v>6</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-51.2%</t>
+          <t>-19.2%</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BRMS.JK</t>
+          <t>CPRO.JK</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>25</v>
       </c>
       <c r="C71" t="n">
-        <v>5.399999999999999</v>
+        <v>6</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -3667,180 +3667,180 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>INET.JK</t>
+          <t>PTRO.JK</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C72" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-59.4%</t>
+          <t>-52.5%</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>IMPC.JK</t>
+          <t>BRMS.JK</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C73" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-50.1%</t>
+          <t>-26.0%</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>CDIA.JK</t>
+          <t>INET.JK</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C74" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>-49.2%</t>
+          <t>-59.6%</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>RATU.JK</t>
+          <t>IMPC.JK</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C75" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-43.5%</t>
+          <t>-46.9%</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>PANI.JK</t>
+          <t>CDIA.JK</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C76" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-32.3%</t>
+          <t>-48.7%</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BREN.JK</t>
+          <t>PANI.JK</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C77" t="n">
         <v>5.399999999999999</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-19.9%</t>
+          <t>-32.1%</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>WIFI.JK</t>
+          <t>BREN.JK</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C78" t="n">
-        <v>4.8</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-40.9%</t>
+          <t>-16.1%</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>DEWA.JK</t>
+          <t>WIFI.JK</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>15</v>
       </c>
       <c r="C79" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-35.6%</t>
+          <t>-39.5%</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PGEO.JK</t>
+          <t>DEWA.JK</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>14</v>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-15.4%</t>
+          <t>-35.6%</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ESSA.JK</t>
+          <t>PGEO.JK</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C81" t="n">
         <v>3</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-15.8%</t>
+          <t>-16.5%</t>
         </is>
       </c>
     </row>
@@ -3851,14 +3851,14 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C82" t="n">
         <v>3</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>-58.9%</t>
+          <t>-58.5%</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>-45.8%</t>
+          <t>-44.4%</t>
         </is>
       </c>
     </row>
@@ -3894,14 +3894,14 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>-28.4%</t>
+          <t>-32.0%</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>TLKM.JK</t>
+          <t>PSAB.JK</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -3912,61 +3912,61 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>-7.4%</t>
+          <t>-16.0%</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>PSAB.JK</t>
+          <t>BUMI.JK</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C86" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>-17.6%</t>
+          <t>-44.4%</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BUMI.JK</t>
+          <t>RMKE.JK</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>-44.4%</t>
+          <t>-55.6%</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>RMKE.JK</t>
+          <t>ICBP.JK</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>-53.7%</t>
+          <t>-8.5%</t>
         </is>
       </c>
     </row>
@@ -3977,14 +3977,14 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-21.3%</t>
+          <t>-23.4%</t>
         </is>
       </c>
     </row>
@@ -4002,7 +4002,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>-26.8%</t>
+          <t>-26.2%</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>-40.7%</t>
+          <t>-41.8%</t>
         </is>
       </c>
     </row>
@@ -4126,12 +4126,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1410-1480</t>
+          <t>1502-1578</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1736</t>
+          <t>1850</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -4147,25 +4147,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>INKP.JK</t>
+          <t>INCO.JK</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11534-12116</t>
+          <t>7714-8086</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>13836</t>
+          <t>9066</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-1912500</t>
+          <t>745400</t>
         </is>
       </c>
     </row>
@@ -4176,25 +4176,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>INCO.JK</t>
+          <t>INKP.JK</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6931-7269</t>
+          <t>11305-11895</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8479</t>
+          <t>14045</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>745400</t>
+          <t>-1912500</t>
         </is>
       </c>
     </row>
@@ -4205,25 +4205,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TINS.JK</t>
+          <t>MDKA.JK</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4311-4589</t>
+          <t>3652-3848</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5334</t>
+          <t>4537</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>32300</t>
+          <t>6595200</t>
         </is>
       </c>
     </row>
@@ -4234,25 +4234,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MBMA.JK</t>
+          <t>EMAS.JK</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>788-852</t>
+          <t>8062-8588</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1038</t>
+          <t>10268</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-73678300</t>
+          <t>-658500</t>
         </is>
       </c>
     </row>
@@ -4271,16 +4271,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2266-2334</t>
+          <t>2354-2426</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2666</t>
+          <t>2638</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -4300,16 +4300,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>414-454</t>
+          <t>402-442</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>552</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -4329,16 +4329,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1003-1077</t>
+          <t>1014-1086</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1303</t>
+          <t>1312</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -4358,16 +4358,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7719-7981</t>
+          <t>8070-8380</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9192</t>
+          <t>9710</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -4387,16 +4387,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1083-1117</t>
+          <t>1068-1102</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1276</t>
+          <t>1259</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -4420,16 +4420,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3109-3291</t>
+          <t>3149-3331</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3810</t>
+          <t>3856</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -4449,7 +4449,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>203</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -4482,12 +4482,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>260-300</t>
+          <t>262-302</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>398</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -4507,16 +4507,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>361-407</t>
+          <t>365-411</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>527</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -4536,16 +4536,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>851-949</t>
+          <t>896-994</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1232</t>
+          <t>1249</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -4569,16 +4569,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>818-872</t>
+          <t>823-877</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1035</t>
+          <t>1040</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -4594,7 +4594,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ADRO.JK</t>
+          <t>ENRG.JK</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -4602,17 +4602,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2281-2359</t>
+          <t>1682-1838</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2719</t>
+          <t>2297</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-2979900</t>
+          <t>56554200</t>
         </is>
       </c>
     </row>
@@ -4627,16 +4627,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3408-3632</t>
+          <t>3551-3789</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4365</t>
+          <t>4560</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -4656,16 +4656,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1633-1727</t>
+          <t>1677-1773</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2055</t>
+          <t>2109</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -4681,25 +4681,25 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PTBA.JK</t>
+          <t>AADI.JK</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2584-2636</t>
+          <t>9066-9434</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>10967</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1793800</t>
+          <t>-4000</t>
         </is>
       </c>
     </row>
@@ -4718,16 +4718,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>293-327</t>
+          <t>277-311</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>396</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -4747,16 +4747,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11954-12296</t>
+          <t>12161-12539</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>13320</t>
+          <t>13670</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -4776,16 +4776,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>500-550</t>
+          <t>474-526</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>683</t>
+          <t>662</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -4805,16 +4805,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>6632-6818</t>
+          <t>6588-6762</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>7657</t>
+          <t>7566</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -4834,16 +4834,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>220-244</t>
+          <t>222-246</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>311</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -4855,7 +4855,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -4863,25 +4863,25 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BMRI.JK</t>
+          <t>IRSX.JK</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5258-5392</t>
+          <t>594-646</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5791</t>
+          <t>796</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>33741800</t>
+          <t>4580900</t>
         </is>
       </c>
     </row>
@@ -4892,25 +4892,25 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BBRI.JK</t>
+          <t>GOTO.JK</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3914-3986</t>
+          <t>60-62</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4190</t>
+          <t>72</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>105416300</t>
+          <t>-1.1B</t>
         </is>
       </c>
     </row>
@@ -4921,239 +4921,243 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PADI.JK</t>
+          <t>WIFI.JK</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>138-158</t>
+          <t>2499-2641</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>3130</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-1255200</t>
+          <t>-2694000</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>BRIS.JK</t>
+          <t>BMRI.JK</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2318-2382</t>
+          <t>5209-5341</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2700</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-1137600</t>
+          <t>33741800</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>BBNI.JK</t>
+          <t>BBRI.JK</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4421-4499</t>
+          <t>3875-3945</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4885</t>
+          <t>4274</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>8426900</t>
+          <t>105416300</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Consumer Defensive</t>
-        </is>
-      </c>
+      <c r="A32" t="inlineStr"/>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>INDF.JK</t>
+          <t>PADI.JK</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>6664-6786</t>
+          <t>136-156</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>7357</t>
+          <t>204</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-8356000</t>
+          <t>-1255200</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>UNVR.JK</t>
+          <t>BRIS.JK</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2264-2356</t>
+          <t>2330-2390</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2740</t>
+          <t>2686</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2865100</t>
+          <t>-1137600</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>JPFA.JK</t>
+          <t>SRTG.JK</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2307-2393</t>
+          <t>1781-1859</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2769</t>
+          <t>2168</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>5002500</t>
+          <t>-1514600</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ICBP.JK</t>
+          <t>LPKR.JK</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>7809-7991</t>
+          <t>103-109</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>8866</t>
+          <t>129</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-1298800</t>
+          <t>-266800</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>AMRT.JK</t>
+          <t>KLBF.JK</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1683-1757</t>
+          <t>1086-1114</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2051</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>37773100</t>
+          <t>-34214900</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -5161,25 +5165,25 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PWON.JK</t>
+          <t>UNVR.JK</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>368-376</t>
+          <t>2338-2422</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>2668</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>37538300</t>
+          <t>2865100</t>
         </is>
       </c>
     </row>
@@ -5190,25 +5194,25 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DADA.JK</t>
+          <t>INDF.JK</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>50-50</t>
+          <t>6385-6515</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>7122</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-8356000</t>
         </is>
       </c>
     </row>
@@ -5219,25 +5223,25 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>TRIN.JK</t>
+          <t>JPFA.JK</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>978-1082</t>
+          <t>2338-2422</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1358</t>
+          <t>2798</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>3499700</t>
+          <t>5002500</t>
         </is>
       </c>
     </row>
@@ -5248,25 +5252,25 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CBDK.JK</t>
+          <t>AMRT.JK</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5504-5796</t>
+          <t>1635-1705</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>6856</t>
+          <t>1989</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>81700</t>
+          <t>37773100</t>
         </is>
       </c>
     </row>
@@ -5277,7 +5281,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>PANI.JK</t>
+          <t>CPRO.JK</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -5285,24 +5289,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>9184-9816</t>
+          <t>62-64</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>11835</t>
+          <t>75</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-202100</t>
+          <t>12850400</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -5310,25 +5314,25 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>IRSX.JK</t>
+          <t>ISAT.JK</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>589-641</t>
+          <t>2264-2356</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>791</t>
+          <t>2739</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>4580900</t>
+          <t>4049500</t>
         </is>
       </c>
     </row>
@@ -5339,25 +5343,25 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>GOTO.JK</t>
+          <t>EXCL.JK</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>59-61</t>
+          <t>3089-3251</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>3834</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-1.1B</t>
+          <t>4119100</t>
         </is>
       </c>
     </row>
@@ -5368,236 +5372,232 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>WIFI.JK</t>
+          <t>EMTK.JK</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2444-2576</t>
+          <t>868-912</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>3044</t>
+          <t>1073</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>-2694000</t>
+          <t>-5460200</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Communication Services</t>
-        </is>
-      </c>
+      <c r="A45" t="inlineStr"/>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>EXCL.JK</t>
+          <t>TLKM.JK</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3095-3265</t>
+          <t>3493-3587</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>3859</t>
+          <t>4030</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>4119100</t>
+          <t>13783000</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ISAT.JK</t>
+          <t>INET.JK</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2273-2367</t>
+          <t>362-394</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2753</t>
+          <t>481</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>4049500</t>
+          <t>-15489100</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Real Estate</t>
+        </is>
+      </c>
       <c r="B47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>EMTK.JK</t>
+          <t>PWON.JK</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>878-922</t>
+          <t>362-370</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1086</t>
+          <t>410</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>-5460200</t>
+          <t>37538300</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>INET.JK</t>
+          <t>TRIN.JK</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>365-395</t>
+          <t>972-1068</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>1333</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>-15489100</t>
+          <t>3499700</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>TLKM.JK</t>
+          <t>DADA.JK</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3604-3696</t>
+          <t>50-50</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>4139</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>13783000</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
+      <c r="A50" t="inlineStr"/>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>KLBF.JK</t>
+          <t>CBDK.JK</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1061-1089</t>
+          <t>5502-5798</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1231</t>
+          <t>6864</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>-34214900</t>
+          <t>81700</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>LPKR.JK</t>
+          <t>PANI.JK</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>99-105</t>
+          <t>9198-9852</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>11909</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>-266800</t>
+          <t>-202100</t>
         </is>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
     <col width="11" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
     <col width="9" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="9" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5944,16 +5944,16 @@
         <v>0.38872</v>
       </c>
       <c r="H2" s="10" t="n">
-        <v>8.826161000000001</v>
+        <v>8.741258999999999</v>
       </c>
       <c r="I2" s="11" t="n">
-        <v>1.6903838</v>
+        <v>1.6745117</v>
       </c>
       <c r="J2" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K2" s="11" t="n">
-        <v>603.3200000000001</v>
+        <v>603.46</v>
       </c>
     </row>
     <row r="3">
@@ -5983,10 +5983,10 @@
         <v>0.34335998</v>
       </c>
       <c r="H3" s="10" t="n">
-        <v>10.163844</v>
+        <v>10.330464</v>
       </c>
       <c r="I3" s="11" t="n">
-        <v>1.1820178</v>
+        <v>1.2013952</v>
       </c>
       <c r="J3" s="11" t="n">
         <v>0</v>
@@ -6022,16 +6022,16 @@
         <v>0.43205002</v>
       </c>
       <c r="H4" s="12" t="n">
-        <v>7.3583517</v>
+        <v>7.2777824</v>
       </c>
       <c r="I4" s="11" t="n">
-        <v>1.405949</v>
+        <v>1.3903273</v>
       </c>
       <c r="J4" s="14" t="n">
         <v>2.444</v>
       </c>
       <c r="K4" s="11" t="n">
-        <v>122.31</v>
+        <v>122.29</v>
       </c>
     </row>
     <row r="5">
@@ -6040,37 +6040,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NCKL.JK</t>
+          <t>BBRI.JK</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MID</t>
-        </is>
-      </c>
-      <c r="E5" s="8" t="n">
-        <v>0.25308</v>
-      </c>
-      <c r="F5" s="9" t="n">
-        <v>0.097</v>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="n">
+        <v>0.17468001</v>
+      </c>
+      <c r="F5" s="8" t="n">
+        <v>2.503</v>
       </c>
       <c r="G5" s="8" t="n">
-        <v>0.27552</v>
+        <v>0.25638</v>
       </c>
       <c r="H5" s="10" t="n">
-        <v>11.402193</v>
-      </c>
-      <c r="I5" s="15" t="n">
-        <v>2.5480201</v>
-      </c>
-      <c r="J5" s="14" t="n">
-        <v>23.671</v>
+        <v>10.537379</v>
+      </c>
+      <c r="I5" s="11" t="n">
+        <v>1.8201014</v>
+      </c>
+      <c r="J5" s="11" t="n">
+        <v>0</v>
       </c>
       <c r="K5" s="11" t="n">
-        <v>126.73</v>
+        <v>371.06</v>
       </c>
     </row>
     <row r="6">
@@ -6079,37 +6079,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BBRI.JK</t>
+          <t>PADI.JK</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>MID</t>
         </is>
       </c>
-      <c r="E6" s="9" t="n">
-        <v>0.16936001</v>
-      </c>
-      <c r="F6" s="9" t="n">
-        <v>0.065</v>
+      <c r="E6" s="8" t="n">
+        <v>0.24911</v>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v>4.381</v>
       </c>
       <c r="G6" s="8" t="n">
-        <v>0.41044</v>
-      </c>
-      <c r="H6" s="10" t="n">
-        <v>10.649484</v>
-      </c>
-      <c r="I6" s="11" t="n">
-        <v>1.7960194</v>
-      </c>
-      <c r="J6" s="11" t="n">
-        <v>0</v>
+        <v>0.71615</v>
+      </c>
+      <c r="H6" t="n">
+        <v>38.120106</v>
+      </c>
+      <c r="I6" s="14" t="n">
+        <v>9.130706999999999</v>
+      </c>
+      <c r="J6" s="14" t="n">
+        <v>5.093</v>
       </c>
       <c r="K6" s="11" t="n">
-        <v>370.91</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="7">
@@ -6118,11 +6118,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PADI.JK</t>
+          <t>NCKL.JK</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -6130,25 +6130,25 @@
         </is>
       </c>
       <c r="E7" s="8" t="n">
-        <v>0.24911</v>
-      </c>
-      <c r="F7" s="8" t="n">
-        <v>4.381</v>
+        <v>0.25308</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>0.097</v>
       </c>
       <c r="G7" s="8" t="n">
-        <v>0.71615</v>
+        <v>0.27552</v>
       </c>
       <c r="H7" t="n">
-        <v>38.743458</v>
-      </c>
-      <c r="I7" s="14" t="n">
-        <v>9.255784999999999</v>
+        <v>12.15086</v>
+      </c>
+      <c r="I7" s="15" t="n">
+        <v>2.715537</v>
       </c>
       <c r="J7" s="14" t="n">
-        <v>5.093</v>
+        <v>23.671</v>
       </c>
       <c r="K7" s="11" t="n">
-        <v>3.82</v>
+        <v>126.74</v>
       </c>
     </row>
     <row r="8">
@@ -6178,16 +6178,16 @@
         <v>0.05786</v>
       </c>
       <c r="H8" s="10" t="n">
-        <v>8.189864999999999</v>
+        <v>8.291816000000001</v>
       </c>
       <c r="I8" s="11" t="n">
-        <v>1.6066004</v>
+        <v>1.6271101</v>
       </c>
       <c r="J8" s="14" t="n">
         <v>62.876</v>
       </c>
       <c r="K8" s="11" t="n">
-        <v>286.94</v>
+        <v>287.03</v>
       </c>
     </row>
     <row r="9">
@@ -6217,16 +6217,16 @@
         <v>0.31919</v>
       </c>
       <c r="H9" t="n">
-        <v>14.326648</v>
+        <v>14.388489</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>2.086578</v>
+        <v>2.095457</v>
       </c>
       <c r="J9" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="11" t="n">
-        <v>164.03</v>
+        <v>164.02</v>
       </c>
     </row>
     <row r="10">
@@ -6256,16 +6256,16 @@
         <v>0.27632</v>
       </c>
       <c r="H10" t="n">
-        <v>21.052631</v>
+        <v>21.459229</v>
       </c>
       <c r="I10" s="14" t="n">
-        <v>13.828425</v>
+        <v>14.084507</v>
       </c>
       <c r="J10" s="11" t="n">
         <v>0.378</v>
       </c>
       <c r="K10" s="11" t="n">
-        <v>51.3</v>
+        <v>51.26</v>
       </c>
     </row>
     <row r="11">
@@ -6295,10 +6295,10 @@
         <v>0.023759998</v>
       </c>
       <c r="H11" t="n">
-        <v>20.576132</v>
+        <v>20.833332</v>
       </c>
       <c r="I11" s="14" t="n">
-        <v>5.2275877</v>
+        <v>5.2929325</v>
       </c>
       <c r="J11" s="14" t="n">
         <v>139.825</v>
@@ -6334,16 +6334,16 @@
         <v>0.048460003</v>
       </c>
       <c r="H12" s="10" t="n">
-        <v>8.952220000000001</v>
+        <v>9.000423</v>
       </c>
       <c r="I12" s="11" t="n">
-        <v>1.1991514</v>
+        <v>1.206247</v>
       </c>
       <c r="J12" s="14" t="n">
         <v>4.935</v>
       </c>
       <c r="K12" s="11" t="n">
-        <v>94.39</v>
+        <v>94.44</v>
       </c>
     </row>
     <row r="13">
@@ -6373,16 +6373,16 @@
         <v>0.21154</v>
       </c>
       <c r="H13" t="n">
-        <v>31.44654</v>
+        <v>32.895885</v>
       </c>
       <c r="I13" s="14" t="n">
-        <v>128571.42</v>
+        <v>134285.7</v>
       </c>
       <c r="J13" s="14" t="n">
         <v>118.6</v>
       </c>
       <c r="K13" s="11" t="n">
-        <v>57.24</v>
+        <v>57.15</v>
       </c>
     </row>
     <row r="14">
@@ -6412,16 +6412,16 @@
         <v>0.2208</v>
       </c>
       <c r="H14" t="n">
-        <v>22.778671</v>
+        <v>22.075054</v>
       </c>
       <c r="I14" s="14" t="n">
-        <v>154444.44</v>
+        <v>148888.89</v>
       </c>
       <c r="J14" s="14" t="n">
         <v>82.7</v>
       </c>
       <c r="K14" s="11" t="n">
-        <v>305.11</v>
+        <v>303.51</v>
       </c>
     </row>
     <row r="15">
@@ -6451,16 +6451,16 @@
         <v>0.30543</v>
       </c>
       <c r="H15" s="10" t="n">
-        <v>8.374606</v>
+        <v>8.243243</v>
       </c>
       <c r="I15" s="11" t="n">
-        <v>0.8203916</v>
+        <v>0.8071595</v>
       </c>
       <c r="J15" s="14" t="n">
         <v>21.136</v>
       </c>
       <c r="K15" s="11" t="n">
-        <v>44.42</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="16">
@@ -6490,16 +6490,16 @@
         <v>0.40232</v>
       </c>
       <c r="H16" s="10" t="n">
-        <v>8.305709999999999</v>
+        <v>8.196721</v>
       </c>
       <c r="I16" s="11" t="n">
-        <v>0.9675956</v>
+        <v>0.9545786000000001</v>
       </c>
       <c r="J16" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K16" s="11" t="n">
-        <v>536.98</v>
+        <v>536.8</v>
       </c>
     </row>
     <row r="17">
@@ -6529,16 +6529,16 @@
         <v>0.06239</v>
       </c>
       <c r="H17" s="17" t="n">
-        <v>70.92198</v>
+        <v>79.36508000000001</v>
       </c>
       <c r="I17" s="14" t="n">
-        <v>27203.064</v>
+        <v>30268.2</v>
       </c>
       <c r="J17" s="11" t="n">
         <v>0.173</v>
       </c>
       <c r="K17" s="11" t="n">
-        <v>100.11</v>
+        <v>99.54000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -6568,16 +6568,16 @@
         <v>0.09748999999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>13.587115</v>
+        <v>13.513514</v>
       </c>
       <c r="I18" s="15" t="n">
-        <v>2.0600595</v>
+        <v>2.05118</v>
       </c>
       <c r="J18" s="14" t="n">
         <v>138.994</v>
       </c>
       <c r="K18" s="11" t="n">
-        <v>170.75</v>
+        <v>170.94</v>
       </c>
     </row>
     <row r="19">
@@ -6649,13 +6649,13 @@
         <v>0</v>
       </c>
       <c r="I20" s="14" t="n">
-        <v>15.022886</v>
+        <v>15.179375</v>
       </c>
       <c r="J20" s="11" t="n">
         <v>0.049</v>
       </c>
       <c r="K20" s="15" t="n">
-        <v>-0.73</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="21">
@@ -6685,16 +6685,16 @@
         <v>0.53282</v>
       </c>
       <c r="H21" t="n">
-        <v>15.625</v>
+        <v>15.361066</v>
       </c>
       <c r="I21" s="15" t="n">
-        <v>3.1904159</v>
+        <v>3.1357853</v>
       </c>
       <c r="J21" s="11" t="n">
         <v>0</v>
       </c>
       <c r="K21" s="11" t="n">
-        <v>467.2</v>
+        <v>467.09</v>
       </c>
     </row>
     <row r="22">
@@ -6724,16 +6724,16 @@
         <v>0.30952</v>
       </c>
       <c r="H22" s="17" t="n">
-        <v>262.98703</v>
+        <v>262.94498</v>
       </c>
       <c r="I22" s="14" t="n">
-        <v>13.137834</v>
+        <v>13.178383</v>
       </c>
       <c r="J22" s="11" t="n">
         <v>0.261</v>
       </c>
       <c r="K22" s="11" t="n">
-        <v>6.16</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="23">
@@ -6763,10 +6763,10 @@
         <v>0.15842</v>
       </c>
       <c r="H23" t="n">
-        <v>16.474997</v>
-      </c>
-      <c r="I23" s="15" t="n">
-        <v>4.9844017</v>
+        <v>16.862644</v>
+      </c>
+      <c r="I23" s="14" t="n">
+        <v>5.1016817</v>
       </c>
       <c r="J23" s="15" t="n">
         <v>1.461</v>
@@ -6802,16 +6802,16 @@
         <v>0.13921</v>
       </c>
       <c r="H24" s="17" t="n">
-        <v>79.36507400000001</v>
+        <v>77.51938</v>
       </c>
       <c r="I24" s="14" t="n">
-        <v>550000</v>
+        <v>533333.3</v>
       </c>
       <c r="J24" s="14" t="n">
         <v>201.586</v>
       </c>
       <c r="K24" s="11" t="n">
-        <v>20.79</v>
+        <v>20.64</v>
       </c>
     </row>
     <row r="25">
@@ -6841,16 +6841,16 @@
         <v>0.0806</v>
       </c>
       <c r="H25" s="10" t="n">
-        <v>10.593221</v>
+        <v>11.037731</v>
       </c>
       <c r="I25" s="14" t="n">
-        <v>20175.44</v>
+        <v>20964.912</v>
       </c>
       <c r="J25" s="14" t="n">
         <v>32.802</v>
       </c>
       <c r="K25" s="11" t="n">
-        <v>217.12</v>
+        <v>216.53</v>
       </c>
     </row>
     <row r="26">
@@ -6880,16 +6880,16 @@
         <v>0.06455</v>
       </c>
       <c r="H26" s="17" t="n">
-        <v>62.121216</v>
+        <v>62.124252</v>
       </c>
       <c r="I26" s="14" t="n">
-        <v>12.746114</v>
+        <v>12.849741</v>
       </c>
       <c r="J26" s="11" t="n">
         <v>0.216</v>
       </c>
       <c r="K26" s="11" t="n">
-        <v>9.9</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="27">
@@ -6919,16 +6919,16 @@
         <v>0.10163</v>
       </c>
       <c r="H27" t="n">
-        <v>14.024788</v>
+        <v>14.367817</v>
       </c>
       <c r="I27" s="15" t="n">
-        <v>2.1202528</v>
+        <v>2.169561</v>
       </c>
       <c r="J27" s="14" t="n">
         <v>2.102</v>
       </c>
       <c r="K27" s="11" t="n">
-        <v>76.65000000000001</v>
+        <v>76.56</v>
       </c>
     </row>
     <row r="28">
@@ -6958,16 +6958,16 @@
         <v>0.09752</v>
       </c>
       <c r="H28" s="12" t="n">
-        <v>17.76118</v>
+        <v>18.181818</v>
       </c>
       <c r="I28" s="14" t="n">
-        <v>81250</v>
+        <v>82916.664</v>
       </c>
       <c r="J28" s="14" t="n">
         <v>107.818</v>
       </c>
       <c r="K28" s="11" t="n">
-        <v>109.79</v>
+        <v>109.45</v>
       </c>
     </row>
     <row r="29">
@@ -7036,10 +7036,10 @@
         <v>0.041550003</v>
       </c>
       <c r="H30" s="10" t="n">
-        <v>9.275361999999999</v>
+        <v>9.130435</v>
       </c>
       <c r="I30" s="11" t="n">
-        <v>0.9548818</v>
+        <v>0.9399618</v>
       </c>
       <c r="J30" s="14" t="n">
         <v>43.245</v>
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="15" t="n">
-        <v>4.7512336</v>
+        <v>4.715777</v>
       </c>
       <c r="J31" s="14" t="n">
         <v>65.76600000000001</v>
@@ -7093,7 +7093,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PTRO.JK</t>
+          <t>RATU.JK</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -7104,26 +7104,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E32" s="9" t="n">
-        <v>0.05801</v>
-      </c>
-      <c r="F32" s="8" t="n">
-        <v>0.317</v>
-      </c>
-      <c r="G32" s="9" t="n">
-        <v>0.01754</v>
-      </c>
-      <c r="H32" t="n">
-        <v>37.037037</v>
+      <c r="E32" s="8" t="n">
+        <v>0.45251998</v>
+      </c>
+      <c r="F32" s="16" t="n">
+        <v>-0.183</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>0.31559</v>
+      </c>
+      <c r="H32" s="17" t="n">
+        <v>70.92198999999999</v>
       </c>
       <c r="I32" s="14" t="n">
-        <v>262500</v>
+        <v>423529.38</v>
       </c>
       <c r="J32" s="14" t="n">
-        <v>276.511</v>
+        <v>36.548</v>
       </c>
       <c r="K32" s="11" t="n">
-        <v>170.1</v>
+        <v>101.52</v>
       </c>
     </row>
     <row r="33">
@@ -7132,7 +7132,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BRMS.JK</t>
+          <t>PTRO.JK</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -7144,25 +7144,25 @@
         </is>
       </c>
       <c r="E33" s="9" t="n">
-        <v>0.045900002</v>
+        <v>0.05801</v>
       </c>
       <c r="F33" s="8" t="n">
-        <v>0.329</v>
+        <v>0.317</v>
       </c>
       <c r="G33" s="9" t="n">
-        <v>0.19652</v>
-      </c>
-      <c r="H33" s="17" t="n">
-        <v>172.35188</v>
+        <v>0.01754</v>
+      </c>
+      <c r="H33" t="n">
+        <v>36.101616</v>
       </c>
       <c r="I33" s="14" t="n">
-        <v>106666.67</v>
+        <v>255208.33</v>
       </c>
       <c r="J33" s="14" t="n">
-        <v>12.694</v>
+        <v>276.511</v>
       </c>
       <c r="K33" s="11" t="n">
-        <v>5.57</v>
+        <v>169.66</v>
       </c>
     </row>
     <row r="34">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>INET.JK</t>
+          <t>BRMS.JK</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -7183,25 +7183,25 @@
         </is>
       </c>
       <c r="E34" s="9" t="n">
-        <v>0.06432</v>
+        <v>0.045900002</v>
       </c>
       <c r="F34" s="8" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="G34" s="8" t="n">
-        <v>0.24544</v>
+        <v>0.329</v>
+      </c>
+      <c r="G34" s="9" t="n">
+        <v>0.19652</v>
       </c>
       <c r="H34" s="17" t="n">
-        <v>277.37225</v>
+        <v>175.40686</v>
       </c>
       <c r="I34" s="14" t="n">
-        <v>9.349703</v>
+        <v>107777.78</v>
       </c>
       <c r="J34" s="14" t="n">
-        <v>2.833</v>
+        <v>12.694</v>
       </c>
       <c r="K34" s="11" t="n">
-        <v>1.37</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="35">
@@ -7210,7 +7210,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>IMPC.JK</t>
+          <t>INET.JK</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -7221,26 +7221,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E35" s="8" t="n">
-        <v>0.23723</v>
-      </c>
-      <c r="F35" s="9" t="n">
-        <v>0.145</v>
-      </c>
-      <c r="G35" s="9" t="n">
-        <v>0.14588</v>
+      <c r="E35" s="9" t="n">
+        <v>0.06432</v>
+      </c>
+      <c r="F35" s="8" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>0.24544</v>
       </c>
       <c r="H35" s="17" t="n">
-        <v>181.81819</v>
+        <v>270</v>
       </c>
       <c r="I35" s="14" t="n">
-        <v>38.601925</v>
+        <v>9.300494</v>
       </c>
       <c r="J35" s="14" t="n">
-        <v>38.133</v>
+        <v>2.833</v>
       </c>
       <c r="K35" s="11" t="n">
-        <v>11.11</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="36">
@@ -7249,7 +7249,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CDIA.JK</t>
+          <t>IMPC.JK</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -7260,26 +7260,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="8" t="n">
-        <v>0.421</v>
-      </c>
-      <c r="G36" s="8" t="n">
-        <v>0.65328</v>
+      <c r="E36" s="8" t="n">
+        <v>0.23723</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G36" s="9" t="n">
+        <v>0.14588</v>
       </c>
       <c r="H36" s="17" t="n">
-        <v>88.51063499999999</v>
+        <v>192.3077</v>
       </c>
       <c r="I36" s="14" t="n">
-        <v>129999.99</v>
+        <v>41.086205</v>
       </c>
       <c r="J36" s="14" t="n">
-        <v>34.873</v>
+        <v>38.133</v>
       </c>
       <c r="K36" s="11" t="n">
-        <v>11.75</v>
+        <v>11.18</v>
       </c>
     </row>
     <row r="37">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>RATU.JK</t>
+          <t>CDIA.JK</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -7299,26 +7299,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E37" s="8" t="n">
-        <v>0.45251998</v>
-      </c>
-      <c r="F37" s="16" t="n">
-        <v>-0.183</v>
+      <c r="E37" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="8" t="n">
+        <v>0.421</v>
       </c>
       <c r="G37" s="8" t="n">
-        <v>0.31559</v>
+        <v>0.65328</v>
       </c>
       <c r="H37" s="17" t="n">
-        <v>67.11081</v>
+        <v>90.05146000000001</v>
       </c>
       <c r="I37" s="14" t="n">
-        <v>402941.16</v>
+        <v>131250</v>
       </c>
       <c r="J37" s="14" t="n">
-        <v>36.548</v>
+        <v>34.873</v>
       </c>
       <c r="K37" s="11" t="n">
-        <v>102.07</v>
+        <v>11.66</v>
       </c>
     </row>
     <row r="38">
@@ -7348,16 +7348,16 @@
         <v>0.24195999</v>
       </c>
       <c r="H38" s="17" t="n">
-        <v>172.4138</v>
+        <v>172.3982</v>
       </c>
       <c r="I38" s="14" t="n">
-        <v>7.1407685</v>
+        <v>7.1595597</v>
       </c>
       <c r="J38" s="14" t="n">
         <v>2.054</v>
       </c>
       <c r="K38" s="11" t="n">
-        <v>55.1</v>
+        <v>55.25</v>
       </c>
     </row>
     <row r="39">
@@ -7387,16 +7387,16 @@
         <v>0.23266001</v>
       </c>
       <c r="H39" s="17" t="n">
-        <v>434.66226</v>
+        <v>454.4199</v>
       </c>
       <c r="I39" s="14" t="n">
-        <v>1570000</v>
+        <v>1645000</v>
       </c>
       <c r="J39" s="14" t="n">
         <v>239.827</v>
       </c>
       <c r="K39" s="11" t="n">
-        <v>18.06</v>
+        <v>18.1</v>
       </c>
     </row>
     <row r="40">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PTBA.JK</t>
+          <t>AADI.JK</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -7416,26 +7416,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E40" s="9" t="n">
-        <v>0.15961</v>
+      <c r="E40" s="8" t="n">
+        <v>0.22769</v>
       </c>
       <c r="F40" s="16" t="n">
-        <v>-0.012</v>
+        <v>-0.132</v>
       </c>
       <c r="G40" s="9" t="n">
-        <v>0.075219996</v>
+        <v>0.14828</v>
       </c>
       <c r="H40" s="10" t="n">
-        <v>9.191112</v>
-      </c>
-      <c r="I40" s="11" t="n">
-        <v>1.4543849</v>
+        <v>5.931198</v>
+      </c>
+      <c r="I40" s="14" t="n">
+        <v>20786.518</v>
       </c>
       <c r="J40" s="14" t="n">
-        <v>19.582</v>
+        <v>27.582</v>
       </c>
       <c r="K40" s="11" t="n">
-        <v>283.97</v>
+        <v>1559.55</v>
       </c>
     </row>
     <row r="41">
@@ -7444,7 +7444,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ADMR.JK</t>
+          <t>PTBA.JK</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -7455,26 +7455,26 @@
           <t>LOW</t>
         </is>
       </c>
-      <c r="E41" s="8" t="n">
-        <v>0.2018</v>
+      <c r="E41" s="9" t="n">
+        <v>0.15961</v>
       </c>
       <c r="F41" s="16" t="n">
         <v>-0.012</v>
       </c>
-      <c r="G41" s="8" t="n">
-        <v>0.31149</v>
-      </c>
-      <c r="H41" t="n">
-        <v>16.260162</v>
-      </c>
-      <c r="I41" s="14" t="n">
-        <v>56216.215</v>
+      <c r="G41" s="9" t="n">
+        <v>0.075219996</v>
+      </c>
+      <c r="H41" s="10" t="n">
+        <v>9.157508999999999</v>
+      </c>
+      <c r="I41" s="11" t="n">
+        <v>1.4488126</v>
       </c>
       <c r="J41" s="14" t="n">
-        <v>35.836</v>
+        <v>19.582</v>
       </c>
       <c r="K41" s="11" t="n">
-        <v>127.92</v>
+        <v>283.92</v>
       </c>
     </row>
   </sheetData>
